--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="537">
   <si>
     <t>item</t>
   </si>
@@ -1555,13 +1555,88 @@
   </si>
   <si>
     <t>gestures_adult</t>
+  </si>
+  <si>
+    <t>lexical_category</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+  <si>
+    <t>animals</t>
+  </si>
+  <si>
+    <t>vehicles</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t>food_drink</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>body_parts</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>furniture_rooms</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>games_routines</t>
+  </si>
+  <si>
+    <t>action_words</t>
+  </si>
+  <si>
+    <t>descriptive_words</t>
+  </si>
+  <si>
+    <t>time_words</t>
+  </si>
+  <si>
+    <t>pronouns</t>
+  </si>
+  <si>
+    <t>question_words</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>quantifiers</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>nouns</t>
+  </si>
+  <si>
+    <t>predicates</t>
+  </si>
+  <si>
+    <t>function_words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1603,6 +1678,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1621,7 +1702,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1629,8 +1710,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1647,14 +1732,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1984,19 +2076,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G490"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C417" workbookViewId="0">
+      <selection activeCell="H426" sqref="H426"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,8 +2113,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14">
+      <c r="H1" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2131,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2047,7 +2145,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2159,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2173,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2089,7 +2187,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2201,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2215,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2229,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14">
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2145,7 +2243,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14">
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2159,7 +2257,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:8" ht="14">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2173,7 +2271,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:8" ht="14">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2285,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:8" ht="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2299,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:8" ht="14">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2313,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2551,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14">
+    <row r="33" spans="1:8" ht="14">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2461,13 +2559,16 @@
         <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D33" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="14">
+      <c r="H33" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2475,13 +2576,16 @@
         <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D34" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="14">
+      <c r="H34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2489,13 +2593,16 @@
         <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D35" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="14">
+      <c r="H35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2503,13 +2610,16 @@
         <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D36" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="14">
+      <c r="H36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2517,13 +2627,16 @@
         <v>42</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D37" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14">
+      <c r="H37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2531,13 +2644,16 @@
         <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D38" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14">
+      <c r="H38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2545,13 +2661,16 @@
         <v>42</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D39" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="14">
+      <c r="H39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2559,13 +2678,16 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D40" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="14">
+      <c r="H40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2573,13 +2695,16 @@
         <v>42</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D41" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="14">
+      <c r="H41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2587,13 +2712,16 @@
         <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D42" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="14">
+      <c r="H42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2601,13 +2729,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
       <c r="D43" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="14">
+      <c r="H43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2615,13 +2746,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D44" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="14">
+      <c r="H44" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2629,13 +2763,16 @@
         <v>42</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D45" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="14">
+      <c r="H45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2643,13 +2780,16 @@
         <v>42</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D46" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="14">
+      <c r="H46" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2657,13 +2797,16 @@
         <v>42</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D47" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="14">
+      <c r="H47" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2671,13 +2814,16 @@
         <v>42</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D48" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="14">
+      <c r="H48" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2685,13 +2831,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D49" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="14">
+      <c r="H49" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2699,13 +2848,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D50" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="14">
+      <c r="H50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2713,13 +2865,16 @@
         <v>42</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D51" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="14">
+      <c r="H51" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2727,13 +2882,16 @@
         <v>42</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D52" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="14">
+      <c r="H52" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2741,13 +2899,16 @@
         <v>42</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D53" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="14">
+      <c r="H53" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2755,13 +2916,16 @@
         <v>42</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D54" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="14">
+      <c r="H54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2769,13 +2933,16 @@
         <v>42</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D55" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="14">
+      <c r="H55" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2783,13 +2950,16 @@
         <v>42</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D56" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="14">
+      <c r="H56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2797,13 +2967,16 @@
         <v>42</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D57" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="14">
+      <c r="H57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2811,13 +2984,16 @@
         <v>42</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D58" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="14">
+      <c r="H58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2825,13 +3001,16 @@
         <v>42</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="14">
+      <c r="H59" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2839,13 +3018,16 @@
         <v>42</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="14">
+      <c r="H60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2853,13 +3035,16 @@
         <v>42</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D61" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="14">
+      <c r="H61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2867,13 +3052,16 @@
         <v>42</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D62" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="14">
+      <c r="H62" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2881,13 +3069,16 @@
         <v>42</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D63" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="14">
+      <c r="H63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -2895,13 +3086,16 @@
         <v>42</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D64" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="14">
+      <c r="H64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -2909,13 +3103,16 @@
         <v>42</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D65" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="14">
+      <c r="H65" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -2923,13 +3120,16 @@
         <v>42</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D66" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="14">
+      <c r="H66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2937,13 +3137,16 @@
         <v>42</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D67" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="14">
+      <c r="H67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -2951,13 +3154,16 @@
         <v>42</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D68" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="14">
+      <c r="H68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2965,13 +3171,16 @@
         <v>42</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D69" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="14">
+      <c r="H69" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2979,13 +3188,16 @@
         <v>42</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="14">
+      <c r="H70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -2993,13 +3205,16 @@
         <v>42</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D71" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="14">
+      <c r="H71" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -3007,13 +3222,16 @@
         <v>42</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D72" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="14">
+      <c r="H72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -3021,13 +3239,16 @@
         <v>42</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D73" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="14">
+      <c r="H73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -3035,13 +3256,16 @@
         <v>42</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D74" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="14">
+      <c r="H74" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -3049,13 +3273,16 @@
         <v>42</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D75" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="14">
+      <c r="H75" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -3063,13 +3290,16 @@
         <v>42</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D76" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="14">
+      <c r="H76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -3077,13 +3307,16 @@
         <v>42</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D77" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="14">
+      <c r="H77" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -3091,13 +3324,16 @@
         <v>42</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="14">
+      <c r="H78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -3105,13 +3341,16 @@
         <v>42</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D79" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="14">
+      <c r="H79" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3119,13 +3358,16 @@
         <v>42</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D80" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="14">
+      <c r="H80" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -3133,13 +3375,16 @@
         <v>42</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D81" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="14">
+      <c r="H81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14">
       <c r="A82" t="s">
         <v>91</v>
       </c>
@@ -3147,13 +3392,16 @@
         <v>42</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D82" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="14">
+      <c r="H82" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -3161,13 +3409,16 @@
         <v>42</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D83" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="14">
+      <c r="H83" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -3175,13 +3426,16 @@
         <v>42</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D84" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="14">
+      <c r="H84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14">
       <c r="A85" t="s">
         <v>94</v>
       </c>
@@ -3189,13 +3443,16 @@
         <v>42</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D85" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="14">
+      <c r="H85" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14">
       <c r="A86" t="s">
         <v>95</v>
       </c>
@@ -3203,13 +3460,16 @@
         <v>42</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D86" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="14">
+      <c r="H86" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -3217,13 +3477,16 @@
         <v>42</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D87" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="14">
+      <c r="H87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -3231,13 +3494,16 @@
         <v>42</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="D88" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="14">
+      <c r="H88" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -3245,13 +3511,16 @@
         <v>42</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D89" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="14">
+      <c r="H89" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -3259,13 +3528,16 @@
         <v>42</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D90" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="14">
+      <c r="H90" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -3273,13 +3545,16 @@
         <v>42</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D91" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="14">
+      <c r="H91" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14">
       <c r="A92" t="s">
         <v>101</v>
       </c>
@@ -3287,13 +3562,16 @@
         <v>42</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D92" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="14">
+      <c r="H92" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="14">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -3301,13 +3579,16 @@
         <v>42</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D93" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="14">
+      <c r="H93" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -3315,13 +3596,16 @@
         <v>42</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D94" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="14">
+      <c r="H94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="14">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3329,13 +3613,16 @@
         <v>42</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D95" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="14">
+      <c r="H95" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="14">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -3343,13 +3630,16 @@
         <v>42</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="D96" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="14">
+      <c r="H96" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3357,13 +3647,16 @@
         <v>42</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D97" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="14">
+      <c r="H97" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="14">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -3371,13 +3664,16 @@
         <v>42</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D98" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="14">
+      <c r="H98" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3385,13 +3681,16 @@
         <v>42</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D99" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="14">
+      <c r="H99" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -3399,13 +3698,16 @@
         <v>42</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D100" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="14">
+      <c r="H100" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -3413,13 +3715,16 @@
         <v>42</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D101" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="14">
+      <c r="H101" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="14">
       <c r="A102" t="s">
         <v>111</v>
       </c>
@@ -3427,13 +3732,16 @@
         <v>42</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D102" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="14">
+      <c r="H102" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="14">
       <c r="A103" t="s">
         <v>112</v>
       </c>
@@ -3441,13 +3749,16 @@
         <v>42</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D103" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="14">
+      <c r="H103" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="14">
       <c r="A104" t="s">
         <v>113</v>
       </c>
@@ -3455,13 +3766,16 @@
         <v>42</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D104" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="14">
+      <c r="H104" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="14">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -3469,13 +3783,16 @@
         <v>42</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D105" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="14">
+      <c r="H105" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="14">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -3483,13 +3800,16 @@
         <v>42</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D106" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="14">
+      <c r="H106" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="14">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -3497,13 +3817,16 @@
         <v>42</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D107" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="14">
+      <c r="H107" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="14">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -3511,13 +3834,16 @@
         <v>42</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D108" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="14">
+      <c r="H108" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -3525,13 +3851,16 @@
         <v>42</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D109" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="14">
+      <c r="H109" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="14">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -3539,13 +3868,16 @@
         <v>42</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D110" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="14">
+      <c r="H110" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="14">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -3553,13 +3885,16 @@
         <v>42</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D111" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="14">
+      <c r="H111" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -3567,13 +3902,16 @@
         <v>42</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D112" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="14">
+      <c r="H112" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -3581,13 +3919,16 @@
         <v>42</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D113" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="14">
+      <c r="H113" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -3595,13 +3936,16 @@
         <v>42</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D114" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="14">
+      <c r="H114" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -3609,13 +3953,16 @@
         <v>42</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D115" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="14">
+      <c r="H115" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -3623,13 +3970,16 @@
         <v>42</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D116" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="14">
+      <c r="H116" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -3637,13 +3987,16 @@
         <v>42</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D117" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="14">
+      <c r="H117" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -3651,13 +4004,16 @@
         <v>42</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D118" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="14">
+      <c r="H118" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -3665,13 +4021,16 @@
         <v>42</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D119" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="14">
+      <c r="H119" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -3679,13 +4038,16 @@
         <v>42</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D120" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="14">
+      <c r="H120" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -3693,13 +4055,16 @@
         <v>42</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D121" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="14">
+      <c r="H121" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -3707,13 +4072,16 @@
         <v>42</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D122" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="14">
+      <c r="H122" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -3721,13 +4089,16 @@
         <v>42</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D123" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="14">
+      <c r="H123" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -3735,13 +4106,16 @@
         <v>42</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="D124" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="14">
+      <c r="H124" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -3749,13 +4123,16 @@
         <v>42</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D125" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="14">
+      <c r="H125" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -3763,13 +4140,16 @@
         <v>42</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D126" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="14">
+      <c r="H126" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -3777,13 +4157,16 @@
         <v>42</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D127" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="14">
+      <c r="H127" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -3791,13 +4174,16 @@
         <v>42</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D128" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="14">
+      <c r="H128" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="14">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -3805,13 +4191,16 @@
         <v>42</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D129" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="14">
+      <c r="H129" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="14">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -3819,13 +4208,16 @@
         <v>42</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D130" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="14">
+      <c r="H130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="14">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -3833,13 +4225,16 @@
         <v>42</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D131" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="14">
+      <c r="H131" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -3847,13 +4242,16 @@
         <v>42</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D132" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="14">
+      <c r="H132" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3861,13 +4259,16 @@
         <v>42</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D133" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="14">
+      <c r="H133" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -3875,13 +4276,16 @@
         <v>42</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D134" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="14">
+      <c r="H134" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -3889,13 +4293,16 @@
         <v>42</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D135" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="14">
+      <c r="H135" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="14">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -3903,13 +4310,16 @@
         <v>42</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D136" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="14">
+      <c r="H136" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -3917,13 +4327,16 @@
         <v>42</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D137" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="14">
+      <c r="H137" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -3931,13 +4344,16 @@
         <v>42</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D138" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="14">
+      <c r="H138" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -3945,13 +4361,16 @@
         <v>42</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D139" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="14">
+      <c r="H139" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -3959,13 +4378,16 @@
         <v>42</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D140" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="14">
+      <c r="H140" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -3973,13 +4395,16 @@
         <v>42</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D141" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="14">
+      <c r="H141" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="14">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -3987,13 +4412,16 @@
         <v>42</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D142" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="14">
+      <c r="H142" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -4001,13 +4429,16 @@
         <v>42</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D143" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="14">
+      <c r="H143" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -4015,13 +4446,16 @@
         <v>42</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="D144" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="14">
+      <c r="H144" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -4029,13 +4463,16 @@
         <v>42</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D145" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="14">
+      <c r="H145" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -4043,13 +4480,16 @@
         <v>42</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D146" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="14">
+      <c r="H146" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -4057,13 +4497,16 @@
         <v>42</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D147" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="14">
+      <c r="H147" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -4071,13 +4514,16 @@
         <v>42</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D148" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="14">
+      <c r="H148" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -4085,13 +4531,16 @@
         <v>42</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D149" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="14">
+      <c r="H149" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -4099,13 +4548,16 @@
         <v>42</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D150" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="14">
+      <c r="H150" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -4113,13 +4565,16 @@
         <v>42</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D151" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="14">
+      <c r="H151" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="14">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -4127,13 +4582,16 @@
         <v>42</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D152" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="14">
+      <c r="H152" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="14">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -4141,13 +4599,16 @@
         <v>42</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D153" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="14">
+      <c r="H153" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="14">
       <c r="A154" t="s">
         <v>163</v>
       </c>
@@ -4155,13 +4616,16 @@
         <v>42</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D154" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="14">
+      <c r="H154" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="14">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -4169,13 +4633,16 @@
         <v>42</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D155" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="14">
+      <c r="H155" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="14">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -4183,13 +4650,16 @@
         <v>42</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D156" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="14">
+      <c r="H156" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="14">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -4197,13 +4667,16 @@
         <v>42</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D157" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="14">
+      <c r="H157" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="14">
       <c r="A158" t="s">
         <v>167</v>
       </c>
@@ -4211,13 +4684,16 @@
         <v>42</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D158" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="14">
+      <c r="H158" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="14">
       <c r="A159" t="s">
         <v>168</v>
       </c>
@@ -4225,13 +4701,16 @@
         <v>42</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D159" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="14">
+      <c r="H159" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14">
       <c r="A160" t="s">
         <v>169</v>
       </c>
@@ -4239,13 +4718,16 @@
         <v>42</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D160" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="14">
+      <c r="H160" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="14">
       <c r="A161" t="s">
         <v>170</v>
       </c>
@@ -4253,13 +4735,16 @@
         <v>42</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D161" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="14">
+      <c r="H161" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -4267,13 +4752,16 @@
         <v>42</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D162" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="14">
+      <c r="H162" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="14">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -4281,13 +4769,16 @@
         <v>42</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D163" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="14">
+      <c r="H163" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14">
       <c r="A164" t="s">
         <v>173</v>
       </c>
@@ -4295,13 +4786,16 @@
         <v>42</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="D164" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="14">
+      <c r="H164" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14">
       <c r="A165" t="s">
         <v>174</v>
       </c>
@@ -4309,13 +4803,16 @@
         <v>42</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D165" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="14">
+      <c r="H165" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14">
       <c r="A166" t="s">
         <v>175</v>
       </c>
@@ -4323,13 +4820,16 @@
         <v>42</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D166" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="14">
+      <c r="H166" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="14">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -4337,13 +4837,16 @@
         <v>42</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D167" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="14">
+      <c r="H167" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14">
       <c r="A168" t="s">
         <v>177</v>
       </c>
@@ -4351,13 +4854,16 @@
         <v>42</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D168" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="14">
+      <c r="H168" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="14">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -4365,13 +4871,16 @@
         <v>42</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D169" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="14">
+      <c r="H169" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -4379,13 +4888,16 @@
         <v>42</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D170" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="14">
+      <c r="H170" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -4393,13 +4905,16 @@
         <v>42</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D171" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="14">
+      <c r="H171" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -4407,13 +4922,16 @@
         <v>42</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D172" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="14">
+      <c r="H172" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14">
       <c r="A173" t="s">
         <v>182</v>
       </c>
@@ -4421,13 +4939,16 @@
         <v>42</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D173" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="14">
+      <c r="H173" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="14">
       <c r="A174" t="s">
         <v>183</v>
       </c>
@@ -4435,13 +4956,16 @@
         <v>42</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D174" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="14">
+      <c r="H174" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="14">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -4449,13 +4973,16 @@
         <v>42</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D175" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="14">
+      <c r="H175" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="14">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -4463,13 +4990,16 @@
         <v>42</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D176" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="14">
+      <c r="H176" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="14">
       <c r="A177" t="s">
         <v>186</v>
       </c>
@@ -4477,13 +5007,16 @@
         <v>42</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D177" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="14">
+      <c r="H177" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="14">
       <c r="A178" t="s">
         <v>187</v>
       </c>
@@ -4491,13 +5024,16 @@
         <v>42</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D178" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="14">
+      <c r="H178" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="14">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -4505,13 +5041,16 @@
         <v>42</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D179" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="14">
+      <c r="H179" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="14">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -4519,13 +5058,16 @@
         <v>42</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D180" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="14">
+      <c r="H180" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="14">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -4533,13 +5075,16 @@
         <v>42</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D181" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="14">
+      <c r="H181" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="14">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -4547,13 +5092,16 @@
         <v>42</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D182" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="14">
+      <c r="H182" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="14">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -4561,13 +5109,16 @@
         <v>42</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D183" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="14">
+      <c r="H183" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="14">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -4575,13 +5126,16 @@
         <v>42</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D184" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="14">
+      <c r="H184" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="14">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -4589,13 +5143,16 @@
         <v>42</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D185" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="14">
+      <c r="H185" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="14">
       <c r="A186" t="s">
         <v>195</v>
       </c>
@@ -4603,13 +5160,16 @@
         <v>42</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="14">
+      <c r="H186" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="14">
       <c r="A187" t="s">
         <v>196</v>
       </c>
@@ -4617,13 +5177,16 @@
         <v>42</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D187" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="14">
+      <c r="H187" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="14">
       <c r="A188" t="s">
         <v>197</v>
       </c>
@@ -4631,13 +5194,16 @@
         <v>42</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D188" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="14">
+      <c r="H188" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="14">
       <c r="A189" t="s">
         <v>198</v>
       </c>
@@ -4645,13 +5211,16 @@
         <v>42</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D189" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="14">
+      <c r="H189" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="14">
       <c r="A190" t="s">
         <v>199</v>
       </c>
@@ -4659,13 +5228,16 @@
         <v>42</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D190" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="14">
+      <c r="H190" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="14">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -4673,13 +5245,16 @@
         <v>42</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D191" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="14">
+      <c r="H191" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="14">
       <c r="A192" t="s">
         <v>201</v>
       </c>
@@ -4687,13 +5262,16 @@
         <v>42</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D192" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="14">
+      <c r="H192" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="14">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -4701,13 +5279,16 @@
         <v>42</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D193" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="14">
+      <c r="H193" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="14">
       <c r="A194" t="s">
         <v>203</v>
       </c>
@@ -4715,13 +5296,16 @@
         <v>42</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D194" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="14">
+      <c r="H194" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="14">
       <c r="A195" t="s">
         <v>204</v>
       </c>
@@ -4729,13 +5313,16 @@
         <v>42</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D195" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="14">
+      <c r="H195" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="14">
       <c r="A196" t="s">
         <v>205</v>
       </c>
@@ -4743,13 +5330,16 @@
         <v>42</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D196" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="14">
+      <c r="H196" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="14">
       <c r="A197" t="s">
         <v>206</v>
       </c>
@@ -4757,13 +5347,16 @@
         <v>42</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D197" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="14">
+      <c r="H197" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="14">
       <c r="A198" t="s">
         <v>207</v>
       </c>
@@ -4771,13 +5364,16 @@
         <v>42</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D198" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="14">
+      <c r="H198" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="14">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -4785,13 +5381,16 @@
         <v>42</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>42</v>
+        <v>520</v>
       </c>
       <c r="D199" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="14">
+      <c r="H199" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="14">
       <c r="A200" t="s">
         <v>209</v>
       </c>
@@ -4799,13 +5398,16 @@
         <v>42</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D200" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="14">
+      <c r="H200" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="14">
       <c r="A201" t="s">
         <v>210</v>
       </c>
@@ -4813,13 +5415,16 @@
         <v>42</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D201" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="14">
+      <c r="H201" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="14">
       <c r="A202" t="s">
         <v>211</v>
       </c>
@@ -4827,13 +5432,16 @@
         <v>42</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D202" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="14">
+      <c r="H202" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="14">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -4841,13 +5449,16 @@
         <v>42</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D203" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="14">
+      <c r="H203" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="14">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -4855,13 +5466,16 @@
         <v>42</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D204" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="14">
+      <c r="H204" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="14">
       <c r="A205" t="s">
         <v>214</v>
       </c>
@@ -4869,13 +5483,16 @@
         <v>42</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D205" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="14">
+      <c r="H205" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="14">
       <c r="A206" t="s">
         <v>215</v>
       </c>
@@ -4883,13 +5500,16 @@
         <v>42</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D206" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="14">
+      <c r="H206" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="14">
       <c r="A207" t="s">
         <v>216</v>
       </c>
@@ -4897,13 +5517,16 @@
         <v>42</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D207" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="14">
+      <c r="H207" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="14">
       <c r="A208" t="s">
         <v>217</v>
       </c>
@@ -4911,13 +5534,16 @@
         <v>42</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D208" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="14">
+      <c r="H208" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="14">
       <c r="A209" t="s">
         <v>218</v>
       </c>
@@ -4925,13 +5551,16 @@
         <v>42</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D209" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="14">
+      <c r="H209" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="14">
       <c r="A210" t="s">
         <v>219</v>
       </c>
@@ -4939,13 +5568,16 @@
         <v>42</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D210" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="14">
+      <c r="H210" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="14">
       <c r="A211" t="s">
         <v>220</v>
       </c>
@@ -4953,13 +5585,16 @@
         <v>42</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D211" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="14">
+      <c r="H211" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="14">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -4967,13 +5602,16 @@
         <v>42</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D212" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="14">
+      <c r="H212" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="14">
       <c r="A213" t="s">
         <v>222</v>
       </c>
@@ -4981,13 +5619,16 @@
         <v>42</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D213" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="14">
+      <c r="H213" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="14">
       <c r="A214" t="s">
         <v>223</v>
       </c>
@@ -4995,13 +5636,16 @@
         <v>42</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D214" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="14">
+      <c r="H214" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="14">
       <c r="A215" t="s">
         <v>224</v>
       </c>
@@ -5009,13 +5653,16 @@
         <v>42</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D215" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="14">
+      <c r="H215" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="14">
       <c r="A216" t="s">
         <v>225</v>
       </c>
@@ -5023,13 +5670,16 @@
         <v>42</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D216" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="14">
+      <c r="H216" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="14">
       <c r="A217" t="s">
         <v>226</v>
       </c>
@@ -5037,13 +5687,16 @@
         <v>42</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D217" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="14">
+      <c r="H217" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="14">
       <c r="A218" t="s">
         <v>227</v>
       </c>
@@ -5051,13 +5704,16 @@
         <v>42</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D218" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="14">
+      <c r="H218" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="14">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -5065,13 +5721,16 @@
         <v>42</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D219" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="14">
+      <c r="H219" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="14">
       <c r="A220" t="s">
         <v>229</v>
       </c>
@@ -5079,13 +5738,16 @@
         <v>42</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D220" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="14">
+      <c r="H220" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="14">
       <c r="A221" t="s">
         <v>230</v>
       </c>
@@ -5093,13 +5755,16 @@
         <v>42</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D221" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="14">
+      <c r="H221" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="14">
       <c r="A222" t="s">
         <v>231</v>
       </c>
@@ -5107,13 +5772,16 @@
         <v>42</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="D222" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="14">
+      <c r="H222" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="14">
       <c r="A223" t="s">
         <v>232</v>
       </c>
@@ -5121,13 +5789,16 @@
         <v>42</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D223" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="14">
+      <c r="H223" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="14">
       <c r="A224" t="s">
         <v>233</v>
       </c>
@@ -5135,13 +5806,16 @@
         <v>42</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D224" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="14">
+      <c r="H224" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="14">
       <c r="A225" t="s">
         <v>234</v>
       </c>
@@ -5149,13 +5823,16 @@
         <v>42</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D225" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="14">
+      <c r="H225" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="14">
       <c r="A226" t="s">
         <v>235</v>
       </c>
@@ -5163,13 +5840,16 @@
         <v>42</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D226" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="14">
+      <c r="H226" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="14">
       <c r="A227" t="s">
         <v>236</v>
       </c>
@@ -5177,13 +5857,16 @@
         <v>42</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D227" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="14">
+      <c r="H227" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="14">
       <c r="A228" t="s">
         <v>237</v>
       </c>
@@ -5191,13 +5874,16 @@
         <v>42</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D228" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="14">
+      <c r="H228" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="14">
       <c r="A229" t="s">
         <v>238</v>
       </c>
@@ -5205,13 +5891,16 @@
         <v>42</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D229" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="14">
+      <c r="H229" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="14">
       <c r="A230" t="s">
         <v>239</v>
       </c>
@@ -5219,13 +5908,16 @@
         <v>42</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D230" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="14">
+      <c r="H230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="14">
       <c r="A231" t="s">
         <v>240</v>
       </c>
@@ -5233,13 +5925,16 @@
         <v>42</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D231" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="14">
+      <c r="H231" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="14">
       <c r="A232" t="s">
         <v>241</v>
       </c>
@@ -5247,13 +5942,16 @@
         <v>42</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D232" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="14">
+      <c r="H232" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="14">
       <c r="A233" t="s">
         <v>242</v>
       </c>
@@ -5261,13 +5959,16 @@
         <v>42</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D233" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="14">
+      <c r="H233" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="14">
       <c r="A234" t="s">
         <v>243</v>
       </c>
@@ -5275,13 +5976,16 @@
         <v>42</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D234" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="14">
+      <c r="H234" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="14">
       <c r="A235" t="s">
         <v>244</v>
       </c>
@@ -5289,13 +5993,16 @@
         <v>42</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D235" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="14">
+      <c r="H235" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="14">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -5303,13 +6010,16 @@
         <v>42</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>42</v>
+        <v>522</v>
       </c>
       <c r="D236" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="14">
+      <c r="H236" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="14">
       <c r="A237" t="s">
         <v>246</v>
       </c>
@@ -5317,13 +6027,16 @@
         <v>42</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D237" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="14">
+      <c r="H237" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="14">
       <c r="A238" t="s">
         <v>247</v>
       </c>
@@ -5331,13 +6044,16 @@
         <v>42</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D238" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="14">
+      <c r="H238" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="14">
       <c r="A239" t="s">
         <v>248</v>
       </c>
@@ -5345,13 +6061,16 @@
         <v>42</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D239" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="14">
+      <c r="H239" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="14">
       <c r="A240" t="s">
         <v>249</v>
       </c>
@@ -5359,13 +6078,16 @@
         <v>42</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D240" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="14">
+      <c r="H240" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="14">
       <c r="A241" t="s">
         <v>250</v>
       </c>
@@ -5373,13 +6095,16 @@
         <v>42</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D241" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="14">
+      <c r="H241" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="14">
       <c r="A242" t="s">
         <v>251</v>
       </c>
@@ -5387,13 +6112,16 @@
         <v>42</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D242" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="14">
+      <c r="H242" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="14">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -5401,13 +6129,16 @@
         <v>42</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D243" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="14">
+      <c r="H243" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="14">
       <c r="A244" t="s">
         <v>253</v>
       </c>
@@ -5415,13 +6146,16 @@
         <v>42</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D244" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="14">
+      <c r="H244" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="14">
       <c r="A245" t="s">
         <v>254</v>
       </c>
@@ -5429,13 +6163,16 @@
         <v>42</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D245" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="14">
+      <c r="H245" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="14">
       <c r="A246" t="s">
         <v>255</v>
       </c>
@@ -5443,13 +6180,16 @@
         <v>42</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D246" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="14">
+      <c r="H246" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="14">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -5457,13 +6197,16 @@
         <v>42</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D247" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="14">
+      <c r="H247" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="14">
       <c r="A248" t="s">
         <v>257</v>
       </c>
@@ -5471,13 +6214,16 @@
         <v>42</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>42</v>
+        <v>523</v>
       </c>
       <c r="D248" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="14">
+      <c r="H248" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="14">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -5485,13 +6231,16 @@
         <v>42</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D249" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="14">
+      <c r="H249" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="14">
       <c r="A250" t="s">
         <v>259</v>
       </c>
@@ -5499,13 +6248,16 @@
         <v>42</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D250" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="14">
+      <c r="H250" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="14">
       <c r="A251" t="s">
         <v>260</v>
       </c>
@@ -5513,13 +6265,16 @@
         <v>42</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D251" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="14">
+      <c r="H251" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="14">
       <c r="A252" t="s">
         <v>261</v>
       </c>
@@ -5527,13 +6282,16 @@
         <v>42</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D252" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="14">
+      <c r="H252" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="14">
       <c r="A253" t="s">
         <v>262</v>
       </c>
@@ -5541,13 +6299,16 @@
         <v>42</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D253" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="14">
+      <c r="H253" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="14">
       <c r="A254" t="s">
         <v>263</v>
       </c>
@@ -5555,13 +6316,16 @@
         <v>42</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D254" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="14">
+      <c r="H254" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="14">
       <c r="A255" t="s">
         <v>264</v>
       </c>
@@ -5569,13 +6333,16 @@
         <v>42</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D255" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="14">
+      <c r="H255" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="14">
       <c r="A256" t="s">
         <v>265</v>
       </c>
@@ -5583,13 +6350,16 @@
         <v>42</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D256" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="14">
+      <c r="H256" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="14">
       <c r="A257" t="s">
         <v>266</v>
       </c>
@@ -5597,13 +6367,16 @@
         <v>42</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D257" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="14">
+      <c r="H257" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="14">
       <c r="A258" t="s">
         <v>267</v>
       </c>
@@ -5611,13 +6384,16 @@
         <v>42</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D258" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="14">
+      <c r="H258" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="14">
       <c r="A259" t="s">
         <v>268</v>
       </c>
@@ -5625,13 +6401,16 @@
         <v>42</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D259" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="14">
+      <c r="H259" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="14">
       <c r="A260" t="s">
         <v>269</v>
       </c>
@@ -5639,13 +6418,16 @@
         <v>42</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D260" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="14">
+      <c r="H260" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="14">
       <c r="A261" t="s">
         <v>270</v>
       </c>
@@ -5653,13 +6435,16 @@
         <v>42</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D261" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="14">
+      <c r="H261" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="14">
       <c r="A262" t="s">
         <v>271</v>
       </c>
@@ -5667,13 +6452,16 @@
         <v>42</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D262" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="14">
+      <c r="H262" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="14">
       <c r="A263" t="s">
         <v>272</v>
       </c>
@@ -5681,13 +6469,16 @@
         <v>42</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D263" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="14">
+      <c r="H263" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="14">
       <c r="A264" t="s">
         <v>273</v>
       </c>
@@ -5695,13 +6486,16 @@
         <v>42</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D264" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="14">
+      <c r="H264" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="14">
       <c r="A265" t="s">
         <v>274</v>
       </c>
@@ -5709,13 +6503,16 @@
         <v>42</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D265" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="14">
+      <c r="H265" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="14">
       <c r="A266" t="s">
         <v>275</v>
       </c>
@@ -5723,13 +6520,16 @@
         <v>42</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D266" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="14">
+      <c r="H266" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="14">
       <c r="A267" t="s">
         <v>276</v>
       </c>
@@ -5737,13 +6537,16 @@
         <v>42</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D267" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="14">
+      <c r="H267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="14">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -5751,13 +6554,16 @@
         <v>42</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D268" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="14">
+      <c r="H268" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="14">
       <c r="A269" t="s">
         <v>278</v>
       </c>
@@ -5765,13 +6571,16 @@
         <v>42</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D269" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="14">
+      <c r="H269" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="14">
       <c r="A270" t="s">
         <v>279</v>
       </c>
@@ -5779,13 +6588,16 @@
         <v>42</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
       <c r="D270" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="14">
+      <c r="H270" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="14">
       <c r="A271" t="s">
         <v>280</v>
       </c>
@@ -5793,13 +6605,16 @@
         <v>42</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D271" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="14">
+      <c r="H271" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="14">
       <c r="A272" t="s">
         <v>281</v>
       </c>
@@ -5807,13 +6622,16 @@
         <v>42</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D272" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="14">
+      <c r="H272" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="14">
       <c r="A273" t="s">
         <v>282</v>
       </c>
@@ -5821,13 +6639,16 @@
         <v>42</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D273" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="14">
+      <c r="H273" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="14">
       <c r="A274" t="s">
         <v>283</v>
       </c>
@@ -5835,13 +6656,16 @@
         <v>42</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D274" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="14">
+      <c r="H274" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="14">
       <c r="A275" t="s">
         <v>284</v>
       </c>
@@ -5849,13 +6673,16 @@
         <v>42</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D275" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="14">
+      <c r="H275" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="14">
       <c r="A276" t="s">
         <v>285</v>
       </c>
@@ -5863,13 +6690,16 @@
         <v>42</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D276" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="14">
+      <c r="H276" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="14">
       <c r="A277" t="s">
         <v>286</v>
       </c>
@@ -5877,13 +6707,16 @@
         <v>42</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D277" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="14">
+      <c r="H277" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="14">
       <c r="A278" t="s">
         <v>287</v>
       </c>
@@ -5891,13 +6724,16 @@
         <v>42</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D278" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="14">
+      <c r="H278" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="14">
       <c r="A279" t="s">
         <v>288</v>
       </c>
@@ -5905,13 +6741,16 @@
         <v>42</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D279" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="14">
+      <c r="H279" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="14">
       <c r="A280" t="s">
         <v>289</v>
       </c>
@@ -5919,13 +6758,16 @@
         <v>42</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D280" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="14">
+      <c r="H280" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="14">
       <c r="A281" t="s">
         <v>290</v>
       </c>
@@ -5933,13 +6775,16 @@
         <v>42</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D281" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="14">
+      <c r="H281" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="14">
       <c r="A282" t="s">
         <v>291</v>
       </c>
@@ -5947,13 +6792,16 @@
         <v>42</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D282" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="14">
+      <c r="H282" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="14">
       <c r="A283" t="s">
         <v>292</v>
       </c>
@@ -5961,13 +6809,16 @@
         <v>42</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D283" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="14">
+      <c r="H283" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="14">
       <c r="A284" t="s">
         <v>293</v>
       </c>
@@ -5975,13 +6826,16 @@
         <v>42</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D284" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="14">
+      <c r="H284" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="14">
       <c r="A285" t="s">
         <v>294</v>
       </c>
@@ -5989,13 +6843,16 @@
         <v>42</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D285" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="14">
+      <c r="H285" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="14">
       <c r="A286" t="s">
         <v>295</v>
       </c>
@@ -6003,13 +6860,16 @@
         <v>42</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D286" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="14">
+      <c r="H286" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="14">
       <c r="A287" t="s">
         <v>296</v>
       </c>
@@ -6017,13 +6877,16 @@
         <v>42</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D287" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="14">
+      <c r="H287" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="14">
       <c r="A288" t="s">
         <v>297</v>
       </c>
@@ -6031,13 +6894,16 @@
         <v>42</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>42</v>
+        <v>525</v>
       </c>
       <c r="D288" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="14">
+      <c r="H288" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="14">
       <c r="A289" t="s">
         <v>298</v>
       </c>
@@ -6045,13 +6911,16 @@
         <v>42</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D289" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="14">
+      <c r="H289" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="14">
       <c r="A290" t="s">
         <v>299</v>
       </c>
@@ -6059,13 +6928,16 @@
         <v>42</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D290" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="14">
+      <c r="H290" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="14">
       <c r="A291" t="s">
         <v>300</v>
       </c>
@@ -6073,13 +6945,16 @@
         <v>42</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D291" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="14">
+      <c r="H291" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="14">
       <c r="A292" t="s">
         <v>301</v>
       </c>
@@ -6087,13 +6962,16 @@
         <v>42</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D292" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="14">
+      <c r="H292" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="14">
       <c r="A293" t="s">
         <v>302</v>
       </c>
@@ -6101,13 +6979,16 @@
         <v>42</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D293" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="14">
+      <c r="H293" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="14">
       <c r="A294" t="s">
         <v>303</v>
       </c>
@@ -6115,13 +6996,16 @@
         <v>42</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D294" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="14">
+      <c r="H294" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="14">
       <c r="A295" t="s">
         <v>304</v>
       </c>
@@ -6129,13 +7013,16 @@
         <v>42</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D295" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="14">
+      <c r="H295" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="14">
       <c r="A296" t="s">
         <v>305</v>
       </c>
@@ -6143,13 +7030,16 @@
         <v>42</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D296" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="14">
+      <c r="H296" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="14">
       <c r="A297" t="s">
         <v>306</v>
       </c>
@@ -6157,13 +7047,16 @@
         <v>42</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D297" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="14">
+      <c r="H297" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="14">
       <c r="A298" t="s">
         <v>307</v>
       </c>
@@ -6171,13 +7064,16 @@
         <v>42</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D298" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="14">
+      <c r="H298" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="14">
       <c r="A299" t="s">
         <v>308</v>
       </c>
@@ -6185,13 +7081,16 @@
         <v>42</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D299" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="14">
+      <c r="H299" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="14">
       <c r="A300" t="s">
         <v>309</v>
       </c>
@@ -6199,13 +7098,16 @@
         <v>42</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D300" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="14">
+      <c r="H300" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="14">
       <c r="A301" t="s">
         <v>310</v>
       </c>
@@ -6213,13 +7115,16 @@
         <v>42</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D301" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="14">
+      <c r="H301" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="14">
       <c r="A302" t="s">
         <v>311</v>
       </c>
@@ -6227,13 +7132,16 @@
         <v>42</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D302" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="14">
+      <c r="H302" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="14">
       <c r="A303" t="s">
         <v>312</v>
       </c>
@@ -6241,13 +7149,16 @@
         <v>42</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D303" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="14">
+      <c r="H303" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="14">
       <c r="A304" t="s">
         <v>313</v>
       </c>
@@ -6255,13 +7166,16 @@
         <v>42</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D304" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="14">
+      <c r="H304" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="14">
       <c r="A305" t="s">
         <v>314</v>
       </c>
@@ -6269,13 +7183,16 @@
         <v>42</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D305" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="14">
+      <c r="H305" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="14">
       <c r="A306" t="s">
         <v>315</v>
       </c>
@@ -6283,13 +7200,16 @@
         <v>42</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D306" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="14">
+      <c r="H306" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="14">
       <c r="A307" t="s">
         <v>316</v>
       </c>
@@ -6297,13 +7217,16 @@
         <v>42</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D307" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="14">
+      <c r="H307" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="14">
       <c r="A308" t="s">
         <v>317</v>
       </c>
@@ -6311,13 +7234,16 @@
         <v>42</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D308" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="14">
+      <c r="H308" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="14">
       <c r="A309" t="s">
         <v>318</v>
       </c>
@@ -6325,13 +7251,16 @@
         <v>42</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D309" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="14">
+      <c r="H309" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="14">
       <c r="A310" t="s">
         <v>319</v>
       </c>
@@ -6339,13 +7268,16 @@
         <v>42</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D310" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="14">
+      <c r="H310" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="14">
       <c r="A311" t="s">
         <v>320</v>
       </c>
@@ -6353,13 +7285,16 @@
         <v>42</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D311" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="14">
+      <c r="H311" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="14">
       <c r="A312" t="s">
         <v>321</v>
       </c>
@@ -6367,13 +7302,16 @@
         <v>42</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D312" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="14">
+      <c r="H312" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="14">
       <c r="A313" t="s">
         <v>322</v>
       </c>
@@ -6381,13 +7319,16 @@
         <v>42</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D313" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="14">
+      <c r="H313" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="14">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -6395,13 +7336,16 @@
         <v>42</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D314" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="14">
+      <c r="H314" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="14">
       <c r="A315" t="s">
         <v>324</v>
       </c>
@@ -6409,13 +7353,16 @@
         <v>42</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D315" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="14">
+      <c r="H315" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="14">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -6423,13 +7370,16 @@
         <v>42</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D316" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="14">
+      <c r="H316" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="14">
       <c r="A317" t="s">
         <v>326</v>
       </c>
@@ -6437,13 +7387,16 @@
         <v>42</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D317" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" ht="14">
+      <c r="H317" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="14">
       <c r="A318" t="s">
         <v>327</v>
       </c>
@@ -6451,13 +7404,16 @@
         <v>42</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D318" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="14">
+      <c r="H318" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="14">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -6465,13 +7421,16 @@
         <v>42</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D319" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="14">
+      <c r="H319" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="14">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -6479,13 +7438,16 @@
         <v>42</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D320" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="14">
+      <c r="H320" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="14">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -6493,13 +7455,16 @@
         <v>42</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D321" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="14">
+      <c r="H321" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="14">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -6507,13 +7472,16 @@
         <v>42</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D322" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="14">
+      <c r="H322" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="14">
       <c r="A323" t="s">
         <v>332</v>
       </c>
@@ -6521,13 +7489,16 @@
         <v>42</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D323" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="14">
+      <c r="H323" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="14">
       <c r="A324" t="s">
         <v>333</v>
       </c>
@@ -6535,13 +7506,16 @@
         <v>42</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D324" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="14">
+      <c r="H324" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="14">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -6549,13 +7523,16 @@
         <v>42</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D325" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="14">
+      <c r="H325" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="14">
       <c r="A326" t="s">
         <v>335</v>
       </c>
@@ -6563,13 +7540,16 @@
         <v>42</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D326" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="14">
+      <c r="H326" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="14">
       <c r="A327" t="s">
         <v>336</v>
       </c>
@@ -6577,13 +7557,16 @@
         <v>42</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D327" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="14">
+      <c r="H327" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="14">
       <c r="A328" t="s">
         <v>337</v>
       </c>
@@ -6591,13 +7574,16 @@
         <v>42</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D328" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="14">
+      <c r="H328" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="14">
       <c r="A329" t="s">
         <v>338</v>
       </c>
@@ -6605,13 +7591,16 @@
         <v>42</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D329" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="14">
+      <c r="H329" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="14">
       <c r="A330" t="s">
         <v>339</v>
       </c>
@@ -6619,13 +7608,16 @@
         <v>42</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D330" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="14">
+      <c r="H330" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="14">
       <c r="A331" t="s">
         <v>340</v>
       </c>
@@ -6633,13 +7625,16 @@
         <v>42</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D331" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="14">
+      <c r="H331" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="14">
       <c r="A332" t="s">
         <v>341</v>
       </c>
@@ -6647,13 +7642,16 @@
         <v>42</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D332" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="14">
+      <c r="H332" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="14">
       <c r="A333" t="s">
         <v>342</v>
       </c>
@@ -6661,13 +7659,16 @@
         <v>42</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D333" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="14">
+      <c r="H333" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="14">
       <c r="A334" t="s">
         <v>343</v>
       </c>
@@ -6675,13 +7676,16 @@
         <v>42</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D334" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="14">
+      <c r="H334" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="14">
       <c r="A335" t="s">
         <v>344</v>
       </c>
@@ -6689,13 +7693,16 @@
         <v>42</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D335" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="14">
+      <c r="H335" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="14">
       <c r="A336" t="s">
         <v>345</v>
       </c>
@@ -6703,13 +7710,16 @@
         <v>42</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D336" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="14">
+      <c r="H336" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="14">
       <c r="A337" t="s">
         <v>346</v>
       </c>
@@ -6717,13 +7727,16 @@
         <v>42</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D337" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="14">
+      <c r="H337" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="14">
       <c r="A338" t="s">
         <v>347</v>
       </c>
@@ -6731,13 +7744,16 @@
         <v>42</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D338" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="14">
+      <c r="H338" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="14">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -6745,13 +7761,16 @@
         <v>42</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D339" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="14">
+      <c r="H339" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="14">
       <c r="A340" t="s">
         <v>349</v>
       </c>
@@ -6759,13 +7778,16 @@
         <v>42</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D340" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="14">
+      <c r="H340" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="14">
       <c r="A341" t="s">
         <v>350</v>
       </c>
@@ -6773,13 +7795,16 @@
         <v>42</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="D341" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="14">
+      <c r="H341" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="14">
       <c r="A342" t="s">
         <v>351</v>
       </c>
@@ -6787,13 +7812,16 @@
         <v>42</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D342" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="14">
+      <c r="H342" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="14">
       <c r="A343" t="s">
         <v>352</v>
       </c>
@@ -6801,13 +7829,16 @@
         <v>42</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D343" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="14">
+      <c r="H343" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="14">
       <c r="A344" t="s">
         <v>353</v>
       </c>
@@ -6815,13 +7846,16 @@
         <v>42</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D344" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="14">
+      <c r="H344" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="14">
       <c r="A345" t="s">
         <v>354</v>
       </c>
@@ -6829,13 +7863,16 @@
         <v>42</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D345" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="14">
+      <c r="H345" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="14">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -6843,13 +7880,16 @@
         <v>42</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D346" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" ht="14">
+      <c r="H346" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="14">
       <c r="A347" t="s">
         <v>356</v>
       </c>
@@ -6857,13 +7897,16 @@
         <v>42</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D347" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" ht="14">
+      <c r="H347" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="14">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -6871,13 +7914,16 @@
         <v>42</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D348" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="14">
+      <c r="H348" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="14">
       <c r="A349" t="s">
         <v>358</v>
       </c>
@@ -6885,13 +7931,16 @@
         <v>42</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D349" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="14">
+      <c r="H349" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="14">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -6899,13 +7948,16 @@
         <v>42</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D350" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" ht="14">
+      <c r="H350" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="14">
       <c r="A351" t="s">
         <v>360</v>
       </c>
@@ -6913,13 +7965,16 @@
         <v>42</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D351" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="14">
+      <c r="H351" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="14">
       <c r="A352" t="s">
         <v>361</v>
       </c>
@@ -6927,13 +7982,16 @@
         <v>42</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D352" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" ht="14">
+      <c r="H352" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="14">
       <c r="A353" t="s">
         <v>362</v>
       </c>
@@ -6941,13 +7999,16 @@
         <v>42</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D353" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="14">
+      <c r="H353" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="14">
       <c r="A354" t="s">
         <v>363</v>
       </c>
@@ -6955,13 +8016,16 @@
         <v>42</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D354" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" ht="14">
+      <c r="H354" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="14">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -6969,13 +8033,16 @@
         <v>42</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D355" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" ht="14">
+      <c r="H355" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="14">
       <c r="A356" t="s">
         <v>365</v>
       </c>
@@ -6983,13 +8050,16 @@
         <v>42</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D356" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" ht="14">
+      <c r="H356" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="14">
       <c r="A357" t="s">
         <v>366</v>
       </c>
@@ -6997,13 +8067,16 @@
         <v>42</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D357" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" ht="14">
+      <c r="H357" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="14">
       <c r="A358" t="s">
         <v>367</v>
       </c>
@@ -7011,13 +8084,16 @@
         <v>42</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D358" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" ht="14">
+      <c r="H358" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="14">
       <c r="A359" t="s">
         <v>368</v>
       </c>
@@ -7025,13 +8101,16 @@
         <v>42</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D359" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" ht="14">
+      <c r="H359" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="14">
       <c r="A360" t="s">
         <v>369</v>
       </c>
@@ -7039,13 +8118,16 @@
         <v>42</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D360" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" ht="14">
+      <c r="H360" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="14">
       <c r="A361" t="s">
         <v>370</v>
       </c>
@@ -7053,13 +8135,16 @@
         <v>42</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D361" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" ht="14">
+      <c r="H361" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="14">
       <c r="A362" t="s">
         <v>371</v>
       </c>
@@ -7067,13 +8152,16 @@
         <v>42</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D362" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" ht="14">
+      <c r="H362" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="14">
       <c r="A363" t="s">
         <v>372</v>
       </c>
@@ -7081,13 +8169,16 @@
         <v>42</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D363" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" ht="14">
+      <c r="H363" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="14">
       <c r="A364" t="s">
         <v>373</v>
       </c>
@@ -7095,13 +8186,16 @@
         <v>42</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D364" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" ht="14">
+      <c r="H364" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="14">
       <c r="A365" t="s">
         <v>374</v>
       </c>
@@ -7109,13 +8203,16 @@
         <v>42</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D365" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" ht="14">
+      <c r="H365" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="14">
       <c r="A366" t="s">
         <v>375</v>
       </c>
@@ -7123,13 +8220,16 @@
         <v>42</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D366" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" ht="14">
+      <c r="H366" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="14">
       <c r="A367" t="s">
         <v>376</v>
       </c>
@@ -7137,13 +8237,16 @@
         <v>42</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D367" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" ht="14">
+      <c r="H367" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="14">
       <c r="A368" t="s">
         <v>377</v>
       </c>
@@ -7151,13 +8254,16 @@
         <v>42</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D368" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" ht="14">
+      <c r="H368" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="14">
       <c r="A369" t="s">
         <v>378</v>
       </c>
@@ -7165,13 +8271,16 @@
         <v>42</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D369" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" ht="14">
+      <c r="H369" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="14">
       <c r="A370" t="s">
         <v>379</v>
       </c>
@@ -7179,13 +8288,16 @@
         <v>42</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D370" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" ht="14">
+      <c r="H370" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="14">
       <c r="A371" t="s">
         <v>380</v>
       </c>
@@ -7193,13 +8305,16 @@
         <v>42</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D371" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" ht="14">
+      <c r="H371" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="14">
       <c r="A372" t="s">
         <v>381</v>
       </c>
@@ -7207,13 +8322,16 @@
         <v>42</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D372" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="14">
+      <c r="H372" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="14">
       <c r="A373" t="s">
         <v>382</v>
       </c>
@@ -7221,13 +8339,16 @@
         <v>42</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D373" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="14">
+      <c r="H373" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="14">
       <c r="A374" t="s">
         <v>383</v>
       </c>
@@ -7235,13 +8356,16 @@
         <v>42</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D374" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" ht="14">
+      <c r="H374" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="14">
       <c r="A375" t="s">
         <v>384</v>
       </c>
@@ -7249,13 +8373,16 @@
         <v>42</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D375" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" ht="14">
+      <c r="H375" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="14">
       <c r="A376" t="s">
         <v>385</v>
       </c>
@@ -7263,13 +8390,16 @@
         <v>42</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D376" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="14">
+      <c r="H376" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="14">
       <c r="A377" t="s">
         <v>386</v>
       </c>
@@ -7277,13 +8407,16 @@
         <v>42</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>42</v>
+        <v>527</v>
       </c>
       <c r="D377" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="14">
+      <c r="H377" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="14">
       <c r="A378" t="s">
         <v>387</v>
       </c>
@@ -7291,13 +8424,16 @@
         <v>42</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D378" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" ht="14">
+      <c r="H378" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="14">
       <c r="A379" t="s">
         <v>388</v>
       </c>
@@ -7305,13 +8441,16 @@
         <v>42</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D379" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="14">
+      <c r="H379" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="14">
       <c r="A380" t="s">
         <v>389</v>
       </c>
@@ -7319,13 +8458,16 @@
         <v>42</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D380" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" ht="14">
+      <c r="H380" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="14">
       <c r="A381" t="s">
         <v>390</v>
       </c>
@@ -7333,13 +8475,16 @@
         <v>42</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D381" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="14">
+      <c r="H381" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="14">
       <c r="A382" t="s">
         <v>391</v>
       </c>
@@ -7347,13 +8492,16 @@
         <v>42</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D382" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="14">
+      <c r="H382" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="14">
       <c r="A383" t="s">
         <v>392</v>
       </c>
@@ -7361,13 +8509,16 @@
         <v>42</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D383" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" ht="14">
+      <c r="H383" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="14">
       <c r="A384" t="s">
         <v>393</v>
       </c>
@@ -7375,13 +8526,16 @@
         <v>42</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D384" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" ht="14">
+      <c r="H384" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="14">
       <c r="A385" t="s">
         <v>394</v>
       </c>
@@ -7389,13 +8543,16 @@
         <v>42</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="D385" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" ht="14">
+      <c r="H385" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="14">
       <c r="A386" t="s">
         <v>395</v>
       </c>
@@ -7403,13 +8560,16 @@
         <v>42</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D386" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" ht="14">
+      <c r="H386" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="14">
       <c r="A387" t="s">
         <v>396</v>
       </c>
@@ -7417,13 +8577,16 @@
         <v>42</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D387" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="14">
+      <c r="H387" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="14">
       <c r="A388" t="s">
         <v>397</v>
       </c>
@@ -7431,13 +8594,16 @@
         <v>42</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D388" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" ht="14">
+      <c r="H388" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="14">
       <c r="A389" t="s">
         <v>398</v>
       </c>
@@ -7445,13 +8611,16 @@
         <v>42</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D389" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" ht="14">
+      <c r="H389" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="14">
       <c r="A390" t="s">
         <v>399</v>
       </c>
@@ -7459,13 +8628,16 @@
         <v>42</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D390" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" ht="14">
+      <c r="H390" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="14">
       <c r="A391" t="s">
         <v>400</v>
       </c>
@@ -7473,13 +8645,16 @@
         <v>42</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D391" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" ht="14">
+      <c r="H391" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="14">
       <c r="A392" t="s">
         <v>401</v>
       </c>
@@ -7487,13 +8662,16 @@
         <v>42</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D392" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" ht="14">
+      <c r="H392" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="14">
       <c r="A393" t="s">
         <v>402</v>
       </c>
@@ -7501,13 +8679,16 @@
         <v>42</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D393" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" ht="14">
+      <c r="H393" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="14">
       <c r="A394" t="s">
         <v>403</v>
       </c>
@@ -7515,13 +8696,16 @@
         <v>42</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D394" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" ht="14">
+      <c r="H394" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="14">
       <c r="A395" t="s">
         <v>404</v>
       </c>
@@ -7529,13 +8713,16 @@
         <v>42</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D395" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="14">
+      <c r="H395" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="14">
       <c r="A396" t="s">
         <v>405</v>
       </c>
@@ -7543,13 +8730,16 @@
         <v>42</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>42</v>
+        <v>529</v>
       </c>
       <c r="D396" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" ht="14">
+      <c r="H396" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="14">
       <c r="A397" t="s">
         <v>406</v>
       </c>
@@ -7557,13 +8747,16 @@
         <v>42</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D397" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" ht="14">
+      <c r="H397" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="14">
       <c r="A398" t="s">
         <v>407</v>
       </c>
@@ -7571,13 +8764,16 @@
         <v>42</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D398" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" ht="14">
+      <c r="H398" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="14">
       <c r="A399" t="s">
         <v>408</v>
       </c>
@@ -7585,13 +8781,16 @@
         <v>42</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D399" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" ht="14">
+      <c r="H399" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="14">
       <c r="A400" t="s">
         <v>409</v>
       </c>
@@ -7599,13 +8798,16 @@
         <v>42</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D400" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" ht="14">
+      <c r="H400" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="14">
       <c r="A401" t="s">
         <v>410</v>
       </c>
@@ -7613,13 +8815,16 @@
         <v>42</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D401" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" ht="14">
+      <c r="H401" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="14">
       <c r="A402" t="s">
         <v>411</v>
       </c>
@@ -7627,13 +8832,16 @@
         <v>42</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>42</v>
+        <v>530</v>
       </c>
       <c r="D402" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" ht="14">
+      <c r="H402" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="14">
       <c r="A403" t="s">
         <v>412</v>
       </c>
@@ -7641,13 +8849,16 @@
         <v>42</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D403" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" ht="14">
+      <c r="H403" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="14">
       <c r="A404" t="s">
         <v>413</v>
       </c>
@@ -7655,13 +8866,16 @@
         <v>42</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D404" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" ht="14">
+      <c r="H404" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="14">
       <c r="A405" t="s">
         <v>414</v>
       </c>
@@ -7669,13 +8883,16 @@
         <v>42</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D405" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" ht="14">
+      <c r="H405" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="14">
       <c r="A406" t="s">
         <v>415</v>
       </c>
@@ -7683,13 +8900,16 @@
         <v>42</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D406" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" ht="14">
+      <c r="H406" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="14">
       <c r="A407" t="s">
         <v>416</v>
       </c>
@@ -7697,13 +8917,16 @@
         <v>42</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D407" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" ht="14">
+      <c r="H407" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="14">
       <c r="A408" t="s">
         <v>417</v>
       </c>
@@ -7711,13 +8934,16 @@
         <v>42</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D408" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" ht="14">
+      <c r="H408" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" ht="14">
       <c r="A409" t="s">
         <v>418</v>
       </c>
@@ -7725,13 +8951,16 @@
         <v>42</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D409" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" ht="14">
+      <c r="H409" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="14">
       <c r="A410" t="s">
         <v>419</v>
       </c>
@@ -7739,13 +8968,16 @@
         <v>42</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D410" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" ht="14">
+      <c r="H410" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="14">
       <c r="A411" t="s">
         <v>420</v>
       </c>
@@ -7753,13 +8985,16 @@
         <v>42</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D411" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" ht="14">
+      <c r="H411" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" ht="14">
       <c r="A412" t="s">
         <v>421</v>
       </c>
@@ -7767,13 +9002,16 @@
         <v>42</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D412" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" ht="14">
+      <c r="H412" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="14">
       <c r="A413" t="s">
         <v>422</v>
       </c>
@@ -7781,13 +9019,16 @@
         <v>42</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D413" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" ht="14">
+      <c r="H413" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" ht="14">
       <c r="A414" t="s">
         <v>423</v>
       </c>
@@ -7795,13 +9036,16 @@
         <v>42</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D414" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" ht="14">
+      <c r="H414" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" ht="14">
       <c r="A415" t="s">
         <v>424</v>
       </c>
@@ -7809,13 +9053,16 @@
         <v>42</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D415" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" ht="14">
+      <c r="H415" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="14">
       <c r="A416" t="s">
         <v>425</v>
       </c>
@@ -7823,13 +9070,16 @@
         <v>42</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D416" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" ht="14">
+      <c r="H416" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" ht="14">
       <c r="A417" t="s">
         <v>426</v>
       </c>
@@ -7837,13 +9087,16 @@
         <v>42</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D417" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" ht="14">
+      <c r="H417" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" ht="14">
       <c r="A418" t="s">
         <v>427</v>
       </c>
@@ -7851,13 +9104,16 @@
         <v>42</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>42</v>
+        <v>531</v>
       </c>
       <c r="D418" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" ht="14">
+      <c r="H418" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" ht="14">
       <c r="A419" t="s">
         <v>428</v>
       </c>
@@ -7865,13 +9121,16 @@
         <v>42</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D419" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" ht="14">
+      <c r="H419" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="14">
       <c r="A420" t="s">
         <v>429</v>
       </c>
@@ -7879,13 +9138,16 @@
         <v>42</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D420" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" ht="14">
+      <c r="H420" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="14">
       <c r="A421" t="s">
         <v>430</v>
       </c>
@@ -7893,13 +9155,16 @@
         <v>42</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D421" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" ht="14">
+      <c r="H421" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="14">
       <c r="A422" t="s">
         <v>431</v>
       </c>
@@ -7907,13 +9172,16 @@
         <v>42</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D422" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" ht="14">
+      <c r="H422" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="14">
       <c r="A423" t="s">
         <v>432</v>
       </c>
@@ -7921,13 +9189,16 @@
         <v>42</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D423" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" ht="14">
+      <c r="H423" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="14">
       <c r="A424" t="s">
         <v>433</v>
       </c>
@@ -7935,13 +9206,16 @@
         <v>42</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D424" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" ht="14">
+      <c r="H424" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" ht="14">
       <c r="A425" t="s">
         <v>434</v>
       </c>
@@ -7949,13 +9223,16 @@
         <v>42</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D425" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" ht="14">
+      <c r="H425" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" ht="14">
       <c r="A426" t="s">
         <v>435</v>
       </c>
@@ -7963,13 +9240,16 @@
         <v>42</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D426" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" ht="14">
+      <c r="H426" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="14">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -7977,13 +9257,16 @@
         <v>42</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>42</v>
+        <v>532</v>
       </c>
       <c r="D427" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" ht="14">
+      <c r="H427" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="14">
       <c r="A428" t="s">
         <v>437</v>
       </c>
@@ -7997,7 +9280,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="14">
+    <row r="429" spans="1:8" ht="14">
       <c r="A429" t="s">
         <v>439</v>
       </c>
@@ -8011,7 +9294,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="14">
+    <row r="430" spans="1:8" ht="14">
       <c r="A430" t="s">
         <v>440</v>
       </c>
@@ -8025,7 +9308,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="14">
+    <row r="431" spans="1:8" ht="14">
       <c r="A431" t="s">
         <v>441</v>
       </c>
@@ -8039,7 +9322,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14">
+    <row r="432" spans="1:8" ht="14">
       <c r="A432" t="s">
         <v>442</v>
       </c>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="538">
   <si>
     <t>item</t>
   </si>
@@ -1630,6 +1630,9 @@
   </si>
   <si>
     <t>function_words</t>
+  </si>
+  <si>
+    <t>complexity_category</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1718,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1735,6 +1738,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2076,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C417" workbookViewId="0">
-      <selection activeCell="H426" sqref="H426"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2091,7 +2095,7 @@
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2116,8 +2120,11 @@
       <c r="H1" s="8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14">
+      <c r="I1" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14">
+    <row r="3" spans="1:9" ht="14">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2145,7 +2152,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14">
+    <row r="4" spans="1:9" ht="14">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2159,7 +2166,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14">
+    <row r="5" spans="1:9" ht="14">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2173,7 +2180,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:9" ht="14">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14">
+    <row r="7" spans="1:9" ht="14">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:9" ht="14">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2222,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14">
+    <row r="9" spans="1:9" ht="14">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14">
+    <row r="10" spans="1:9" ht="14">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14">
+    <row r="11" spans="1:9" ht="14">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2257,7 +2264,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14">
+    <row r="12" spans="1:9" ht="14">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14">
+    <row r="13" spans="1:9" ht="14">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2292,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14">
+    <row r="14" spans="1:9" ht="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14">
+    <row r="15" spans="1:9" ht="14">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2320,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:9" ht="14">
       <c r="A16" t="s">
         <v>23</v>
       </c>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="560" windowWidth="12440" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="12020" yWindow="-21600" windowWidth="19200" windowHeight="21160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1509">
   <si>
     <t>item</t>
   </si>
@@ -3103,6 +3103,1449 @@
   </si>
   <si>
     <t>item_489</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>bææ</t>
+  </si>
+  <si>
+    <t>brrr (bil-lyd)</t>
+  </si>
+  <si>
+    <t>gakk gakk</t>
+  </si>
+  <si>
+    <t>grr</t>
+  </si>
+  <si>
+    <t>kykeliky</t>
+  </si>
+  <si>
+    <t>mjau</t>
+  </si>
+  <si>
+    <t>møø</t>
+  </si>
+  <si>
+    <t>nam - nam</t>
+  </si>
+  <si>
+    <t>tøff-tøff</t>
+  </si>
+  <si>
+    <t>voff voff</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>(meite)mark</t>
+  </si>
+  <si>
+    <t>ape(katt)</t>
+  </si>
+  <si>
+    <t>bjørn</t>
+  </si>
+  <si>
+    <t>dyr</t>
+  </si>
+  <si>
+    <t>ekorn</t>
+  </si>
+  <si>
+    <t>elefant</t>
+  </si>
+  <si>
+    <t>elg</t>
+  </si>
+  <si>
+    <t>fisk</t>
+  </si>
+  <si>
+    <t>flue</t>
+  </si>
+  <si>
+    <t>frosk</t>
+  </si>
+  <si>
+    <t>fugl</t>
+  </si>
+  <si>
+    <t>gås</t>
+  </si>
+  <si>
+    <t>gris</t>
+  </si>
+  <si>
+    <t>hest</t>
+  </si>
+  <si>
+    <t>hund</t>
+  </si>
+  <si>
+    <t>kanin</t>
+  </si>
+  <si>
+    <t>katt</t>
+  </si>
+  <si>
+    <t>kattunge</t>
+  </si>
+  <si>
+    <t>ku</t>
+  </si>
+  <si>
+    <t>kylling</t>
+  </si>
+  <si>
+    <t>lam</t>
+  </si>
+  <si>
+    <t>(leke)bamse</t>
+  </si>
+  <si>
+    <t>løve</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>pingvin</t>
+  </si>
+  <si>
+    <t>reinsdyr</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
+    <t>sjiraff</t>
+  </si>
+  <si>
+    <t>skilpadde</t>
+  </si>
+  <si>
+    <t>sommerfugl</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>ugle</t>
+  </si>
+  <si>
+    <t>valp</t>
+  </si>
+  <si>
+    <t>veps</t>
+  </si>
+  <si>
+    <t>barnevogn</t>
+  </si>
+  <si>
+    <t>bil</t>
+  </si>
+  <si>
+    <t>brannbil</t>
+  </si>
+  <si>
+    <t>buss</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>lastebil</t>
+  </si>
+  <si>
+    <t>motorsykkel</t>
+  </si>
+  <si>
+    <t>sykkel</t>
+  </si>
+  <si>
+    <t>tog</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>ballong</t>
+  </si>
+  <si>
+    <t>bok</t>
+  </si>
+  <si>
+    <t>klosser</t>
+  </si>
+  <si>
+    <t>dukke</t>
+  </si>
+  <si>
+    <t>leke</t>
+  </si>
+  <si>
+    <t>(farge)blyant</t>
+  </si>
+  <si>
+    <t>såpebobler</t>
+  </si>
+  <si>
+    <t>appelsin</t>
+  </si>
+  <si>
+    <t>banan</t>
+  </si>
+  <si>
+    <t>bolle</t>
+  </si>
+  <si>
+    <t>brød</t>
+  </si>
+  <si>
+    <t>corn flakes</t>
+  </si>
+  <si>
+    <t>drikke</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>eple</t>
+  </si>
+  <si>
+    <t>frokostblanding</t>
+  </si>
+  <si>
+    <t>gulrot</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>kaffe</t>
+  </si>
+  <si>
+    <t>kake</t>
+  </si>
+  <si>
+    <t>kjeks</t>
+  </si>
+  <si>
+    <t>kjøtt</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>melk</t>
+  </si>
+  <si>
+    <t>ost</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>rosiner</t>
+  </si>
+  <si>
+    <t>smør</t>
+  </si>
+  <si>
+    <t>spagetti</t>
+  </si>
+  <si>
+    <t>sukkertøy</t>
+  </si>
+  <si>
+    <t>vann</t>
+  </si>
+  <si>
+    <t>bleie</t>
+  </si>
+  <si>
+    <t>bukse</t>
+  </si>
+  <si>
+    <t>genser</t>
+  </si>
+  <si>
+    <t>glidelås</t>
+  </si>
+  <si>
+    <t>halskjede</t>
+  </si>
+  <si>
+    <t>jakke</t>
+  </si>
+  <si>
+    <t>kjole</t>
+  </si>
+  <si>
+    <t>knapp</t>
+  </si>
+  <si>
+    <t>lue</t>
+  </si>
+  <si>
+    <t>pysjamas</t>
+  </si>
+  <si>
+    <t>regntøy</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>sko</t>
+  </si>
+  <si>
+    <t>smekke</t>
+  </si>
+  <si>
+    <t>smokk</t>
+  </si>
+  <si>
+    <t>sokker</t>
+  </si>
+  <si>
+    <t>støvler</t>
+  </si>
+  <si>
+    <t>strømpebukse</t>
+  </si>
+  <si>
+    <t>t-skjorte</t>
+  </si>
+  <si>
+    <t>votter</t>
+  </si>
+  <si>
+    <t>ansikt</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>bein</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>fot</t>
+  </si>
+  <si>
+    <t>hånd</t>
+  </si>
+  <si>
+    <t>hår</t>
+  </si>
+  <si>
+    <t>hode</t>
+  </si>
+  <si>
+    <t>kinn</t>
+  </si>
+  <si>
+    <t>kne</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>munn</t>
+  </si>
+  <si>
+    <t>navle</t>
+  </si>
+  <si>
+    <t>nese</t>
+  </si>
+  <si>
+    <t>øre</t>
+  </si>
+  <si>
+    <t>øye</t>
+  </si>
+  <si>
+    <t>tå</t>
+  </si>
+  <si>
+    <t>tenner</t>
+  </si>
+  <si>
+    <t>tiss</t>
+  </si>
+  <si>
+    <t>tunge</t>
+  </si>
+  <si>
+    <t>bilde</t>
+  </si>
+  <si>
+    <t>børste</t>
+  </si>
+  <si>
+    <t>briller</t>
+  </si>
+  <si>
+    <t>dyne</t>
+  </si>
+  <si>
+    <t>eske</t>
+  </si>
+  <si>
+    <t>flaske</t>
+  </si>
+  <si>
+    <t>gaffel</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>håndkle</t>
+  </si>
+  <si>
+    <t>kam</t>
+  </si>
+  <si>
+    <t>klokke</t>
+  </si>
+  <si>
+    <t>kniv</t>
+  </si>
+  <si>
+    <t>kopp</t>
+  </si>
+  <si>
+    <t>kost</t>
+  </si>
+  <si>
+    <t>lampe</t>
+  </si>
+  <si>
+    <t>lommebok</t>
+  </si>
+  <si>
+    <t>lys</t>
+  </si>
+  <si>
+    <t>medisin</t>
+  </si>
+  <si>
+    <t>nøkler</t>
+  </si>
+  <si>
+    <t>papir</t>
+  </si>
+  <si>
+    <t>penger</t>
+  </si>
+  <si>
+    <t>plante</t>
+  </si>
+  <si>
+    <t>pute</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>saks</t>
+  </si>
+  <si>
+    <t>såpe</t>
+  </si>
+  <si>
+    <t>skål</t>
+  </si>
+  <si>
+    <t>skje</t>
+  </si>
+  <si>
+    <t>søppel</t>
+  </si>
+  <si>
+    <t>støvsuger</t>
+  </si>
+  <si>
+    <t>tallerken</t>
+  </si>
+  <si>
+    <t>tannbørste</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>teppe</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>badekar</t>
+  </si>
+  <si>
+    <t>barnestol</t>
+  </si>
+  <si>
+    <t>bord</t>
+  </si>
+  <si>
+    <t>dør</t>
+  </si>
+  <si>
+    <t>garasje</t>
+  </si>
+  <si>
+    <t>gyngestol</t>
+  </si>
+  <si>
+    <t>kjøkken</t>
+  </si>
+  <si>
+    <t>kjøleskap</t>
+  </si>
+  <si>
+    <t>komfyr</t>
+  </si>
+  <si>
+    <t>lekegrind</t>
+  </si>
+  <si>
+    <t>ovn</t>
+  </si>
+  <si>
+    <t>potte</t>
+  </si>
+  <si>
+    <t>seng</t>
+  </si>
+  <si>
+    <t>skuff</t>
+  </si>
+  <si>
+    <t>sofa</t>
+  </si>
+  <si>
+    <t>soverom</t>
+  </si>
+  <si>
+    <t>stol</t>
+  </si>
+  <si>
+    <t>stue</t>
+  </si>
+  <si>
+    <t>trapp</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>vask</t>
+  </si>
+  <si>
+    <t>vindu</t>
+  </si>
+  <si>
+    <t>blomst</t>
+  </si>
+  <si>
+    <t>himmel</t>
+  </si>
+  <si>
+    <t>huske</t>
+  </si>
+  <si>
+    <t>måne</t>
+  </si>
+  <si>
+    <t>regn</t>
+  </si>
+  <si>
+    <t>sklie</t>
+  </si>
+  <si>
+    <t>snø</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>spade</t>
+  </si>
+  <si>
+    <t>stein</t>
+  </si>
+  <si>
+    <t>stjerner</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>ute</t>
+  </si>
+  <si>
+    <t>butikk</t>
+  </si>
+  <si>
+    <t>dyrehage</t>
+  </si>
+  <si>
+    <t>fest</t>
+  </si>
+  <si>
+    <t>hage</t>
+  </si>
+  <si>
+    <t>hjem</t>
+  </si>
+  <si>
+    <t>hus</t>
+  </si>
+  <si>
+    <t>jobb</t>
+  </si>
+  <si>
+    <t>kirke</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>skole</t>
+  </si>
+  <si>
+    <t>strand</t>
+  </si>
+  <si>
+    <t>svømmehall</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>barnets navn</t>
+  </si>
+  <si>
+    <t>bestefar</t>
+  </si>
+  <si>
+    <t>bestemor</t>
+  </si>
+  <si>
+    <t>bror</t>
+  </si>
+  <si>
+    <t>dame</t>
+  </si>
+  <si>
+    <t>farfar</t>
+  </si>
+  <si>
+    <t>farmor</t>
+  </si>
+  <si>
+    <t>gutt</t>
+  </si>
+  <si>
+    <t>jente</t>
+  </si>
+  <si>
+    <t>mamma</t>
+  </si>
+  <si>
+    <t>mann</t>
+  </si>
+  <si>
+    <t>menneske</t>
+  </si>
+  <si>
+    <t>morfar</t>
+  </si>
+  <si>
+    <t>mormor</t>
+  </si>
+  <si>
+    <t>oldefar</t>
+  </si>
+  <si>
+    <t>oldemor</t>
+  </si>
+  <si>
+    <t>onkel</t>
+  </si>
+  <si>
+    <t>pappa</t>
+  </si>
+  <si>
+    <t>søster</t>
+  </si>
+  <si>
+    <t>tante</t>
+  </si>
+  <si>
+    <t>bade</t>
+  </si>
+  <si>
+    <t>frokost</t>
+  </si>
+  <si>
+    <t>god natt</t>
+  </si>
+  <si>
+    <t>ha det</t>
+  </si>
+  <si>
+    <t>hei</t>
+  </si>
+  <si>
+    <t>hysj</t>
+  </si>
+  <si>
+    <t>ikke</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>klappe kake</t>
+  </si>
+  <si>
+    <t>Borte! (lek hvor ansikt gjemmes og plutselig vises)</t>
+  </si>
+  <si>
+    <t>lunsj</t>
+  </si>
+  <si>
+    <t>middag</t>
+  </si>
+  <si>
+    <t>nei</t>
+  </si>
+  <si>
+    <t>sovetid</t>
+  </si>
+  <si>
+    <t>takk</t>
+  </si>
+  <si>
+    <t>vær så snill</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>vil</t>
+  </si>
+  <si>
+    <t>bite</t>
+  </si>
+  <si>
+    <t>blåse</t>
+  </si>
+  <si>
+    <t>danse</t>
+  </si>
+  <si>
+    <t>dra</t>
+  </si>
+  <si>
+    <t>dytte</t>
+  </si>
+  <si>
+    <t>elske</t>
+  </si>
+  <si>
+    <t>få</t>
+  </si>
+  <si>
+    <t>falle</t>
+  </si>
+  <si>
+    <t>forte seg</t>
+  </si>
+  <si>
+    <t>gå</t>
+  </si>
+  <si>
+    <t>gi</t>
+  </si>
+  <si>
+    <t>gjøre seg ferdig</t>
+  </si>
+  <si>
+    <t>gråte</t>
+  </si>
+  <si>
+    <t>hente</t>
+  </si>
+  <si>
+    <t>hjelpe</t>
+  </si>
+  <si>
+    <t>holde øye med</t>
+  </si>
+  <si>
+    <t>hoppe</t>
+  </si>
+  <si>
+    <t>kaste</t>
+  </si>
+  <si>
+    <t>kile</t>
+  </si>
+  <si>
+    <t>kjøre</t>
+  </si>
+  <si>
+    <t>klemme</t>
+  </si>
+  <si>
+    <t>kysse</t>
+  </si>
+  <si>
+    <t>legge</t>
+  </si>
+  <si>
+    <t>lese</t>
+  </si>
+  <si>
+    <t>løpe</t>
+  </si>
+  <si>
+    <t>lukke</t>
+  </si>
+  <si>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>ødelegge</t>
+  </si>
+  <si>
+    <t>plaske</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>rydde</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>se på</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>skrive</t>
+  </si>
+  <si>
+    <t>slå</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>sove</t>
+  </si>
+  <si>
+    <t>sparke</t>
+  </si>
+  <si>
+    <t>spise</t>
+  </si>
+  <si>
+    <t>stoppe</t>
+  </si>
+  <si>
+    <t>svømme</t>
+  </si>
+  <si>
+    <t>synge</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>ta på</t>
+  </si>
+  <si>
+    <t>tegne</t>
+  </si>
+  <si>
+    <t>tørke</t>
+  </si>
+  <si>
+    <t>vaske</t>
+  </si>
+  <si>
+    <t>vise</t>
+  </si>
+  <si>
+    <t>åpne</t>
+  </si>
+  <si>
+    <t>blå</t>
+  </si>
+  <si>
+    <t>borte</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>ekkelt</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>forsiktig</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>frekk</t>
+  </si>
+  <si>
+    <t>gammel</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>grei</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>kald</t>
+  </si>
+  <si>
+    <t>liten</t>
+  </si>
+  <si>
+    <t>mørkt</t>
+  </si>
+  <si>
+    <t>myk</t>
+  </si>
+  <si>
+    <t>ødelagt</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>redd</t>
+  </si>
+  <si>
+    <t>ren</t>
+  </si>
+  <si>
+    <t>rød</t>
+  </si>
+  <si>
+    <t>skitten</t>
+  </si>
+  <si>
+    <t>skjønn</t>
+  </si>
+  <si>
+    <t>slem</t>
+  </si>
+  <si>
+    <t>sliten</t>
+  </si>
+  <si>
+    <t>søt</t>
+  </si>
+  <si>
+    <t>stor</t>
+  </si>
+  <si>
+    <t>sulten</t>
+  </si>
+  <si>
+    <t>syk</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>tørr</t>
+  </si>
+  <si>
+    <t>tørst</t>
+  </si>
+  <si>
+    <t>trøtt</t>
+  </si>
+  <si>
+    <t>varm</t>
+  </si>
+  <si>
+    <t>våt</t>
+  </si>
+  <si>
+    <t>vondt</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>i dag</t>
+  </si>
+  <si>
+    <t>i kveld</t>
+  </si>
+  <si>
+    <t>i morgen</t>
+  </si>
+  <si>
+    <t>morgen</t>
+  </si>
+  <si>
+    <t>nå</t>
+  </si>
+  <si>
+    <t>natt</t>
+  </si>
+  <si>
+    <t>senere</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>denne</t>
+  </si>
+  <si>
+    <t>det</t>
+  </si>
+  <si>
+    <t>dette</t>
+  </si>
+  <si>
+    <t>din</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>hans</t>
+  </si>
+  <si>
+    <t>hennes</t>
+  </si>
+  <si>
+    <t>jeg</t>
+  </si>
+  <si>
+    <t>meg</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hva</t>
+  </si>
+  <si>
+    <t>hvem</t>
+  </si>
+  <si>
+    <t>hvor</t>
+  </si>
+  <si>
+    <t>hvordan</t>
+  </si>
+  <si>
+    <t>hvorfor</t>
+  </si>
+  <si>
+    <t>når</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>bak</t>
+  </si>
+  <si>
+    <t>bort</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>inne</t>
+  </si>
+  <si>
+    <t>inni</t>
+  </si>
+  <si>
+    <t>ned</t>
+  </si>
+  <si>
+    <t>nede</t>
+  </si>
+  <si>
+    <t>opp</t>
+  </si>
+  <si>
+    <t>oppe</t>
+  </si>
+  <si>
+    <t>på</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>en annen</t>
+  </si>
+  <si>
+    <t>ingen</t>
+  </si>
+  <si>
+    <t>ingenting</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>noe</t>
+  </si>
+  <si>
+    <t>noen</t>
+  </si>
+  <si>
+    <t>samme</t>
+  </si>
+  <si>
+    <t>1.Strekker armen for å vise noe i hånden?</t>
+  </si>
+  <si>
+    <t>2.Rekker deg en leke hun/han holder?</t>
+  </si>
+  <si>
+    <t>3.Peker på noe som fanger oppmerksomheten?</t>
+  </si>
+  <si>
+    <t>4. Vinker ha det på egen hånd når noen drar?</t>
+  </si>
+  <si>
+    <t>5. Strekker armene opp for å bli løftet?</t>
+  </si>
+  <si>
+    <t>6. Rister på hodet for ”nei”?</t>
+  </si>
+  <si>
+    <t>7. Nikker til ”ja?”</t>
+  </si>
+  <si>
+    <t>8.Gestikulerer hysj ved fingeren mot munnen?</t>
+  </si>
+  <si>
+    <t>9. Vil ha noe ved å strekke armen og åpne og lukke hånden?</t>
+  </si>
+  <si>
+    <t>10. Sender slengkyss?</t>
+  </si>
+  <si>
+    <t>11. Smatter med leppene - nam-nam- for å vise at noe smaker godt?</t>
+  </si>
+  <si>
+    <t>12.Trekker på skuldrene for å vise at man ikke vet?</t>
+  </si>
+  <si>
+    <t>1. Leker hvor er _____? Der er _____! (Gjemmer ansiktet bak hendene og tar hendene bort)</t>
+  </si>
+  <si>
+    <t>2. Leker ”bake kake søte” eller andre leker med hender og fingre.</t>
+  </si>
+  <si>
+    <t>3. Leker hvor stor er du – sååååååå stor.</t>
+  </si>
+  <si>
+    <t>4. Leker at man prøver å fange hverandre.</t>
+  </si>
+  <si>
+    <t>5. Synger.</t>
+  </si>
+  <si>
+    <t>6. Danser.</t>
+  </si>
+  <si>
+    <t>1. Spiser med skje eller gaffel.</t>
+  </si>
+  <si>
+    <t>2. Drikker fra en kopp.</t>
+  </si>
+  <si>
+    <t>3. Børster eller grer håret sitt selv.</t>
+  </si>
+  <si>
+    <t>4. Pusser tennene.</t>
+  </si>
+  <si>
+    <t>5. Vasker seg i ansiktet eller hendene med en klut.</t>
+  </si>
+  <si>
+    <t>6. Setter på seg lue/solhatt selv.</t>
+  </si>
+  <si>
+    <t>7. Tar på seg en sko eller sokk selv.</t>
+  </si>
+  <si>
+    <t>8. Tar på seg halsbånd eller andre pyntesaker selv.</t>
+  </si>
+  <si>
+    <t>9. Legger hodet på samlede hender og kniper øynene for å late som om hun/han sover.</t>
+  </si>
+  <si>
+    <t>10. Blåser for å vise at noe er varmt.</t>
+  </si>
+  <si>
+    <t>11. Holder et lekefly i hånda og later som om det flyr.</t>
+  </si>
+  <si>
+    <t>12. Tar telefonen til øret.</t>
+  </si>
+  <si>
+    <t>13. Lukter på blomstene.</t>
+  </si>
+  <si>
+    <t>14. Dytter lekebiler rundt på gulvet og later som om de kjører.</t>
+  </si>
+  <si>
+    <t>15. Kaster ball.</t>
+  </si>
+  <si>
+    <t>16. Later som om man heller noe flytende fra en beholder til en annen.</t>
+  </si>
+  <si>
+    <t>17. Later som om man rører med en skje i en gryte eller kopp.</t>
+  </si>
+  <si>
+    <t>1. Legger dem i senga for å sove.</t>
+  </si>
+  <si>
+    <t>2. Tar dyne over.</t>
+  </si>
+  <si>
+    <t>3. Mater med en flaske.</t>
+  </si>
+  <si>
+    <t>4. Mater med en skje.</t>
+  </si>
+  <si>
+    <t>5. Børster/grer håret.</t>
+  </si>
+  <si>
+    <t>6. Klapper barnet på ryggen for å få en rap.</t>
+  </si>
+  <si>
+    <t>7. Triller i vogn.</t>
+  </si>
+  <si>
+    <t>8. Vugger/rugger det i armene.</t>
+  </si>
+  <si>
+    <t>9. Kysser eller klemmer på det.</t>
+  </si>
+  <si>
+    <t>10. Prøver å kle på det.</t>
+  </si>
+  <si>
+    <t>11. Tørker det i ansiktet eller hendene.</t>
+  </si>
+  <si>
+    <t>12. Snakker til det.</t>
+  </si>
+  <si>
+    <t>13. Prøver å ta på bleie.</t>
+  </si>
+  <si>
+    <t>1. Feier med en kost.</t>
+  </si>
+  <si>
+    <t>2. Putter nøkkel i nøkkelhullet (eller i nærheten av det).</t>
+  </si>
+  <si>
+    <t>3. Banker med en hammer.</t>
+  </si>
+  <si>
+    <t>4. Prøver å sage.</t>
+  </si>
+  <si>
+    <t>5. Skriver på et tastatur.</t>
+  </si>
+  <si>
+    <t>6. Leser (åpner bøker og blar i sidene).</t>
+  </si>
+  <si>
+    <t>7. Støvsuger.</t>
+  </si>
+  <si>
+    <t>8. Vanner planter.</t>
+  </si>
+  <si>
+    <t>9. Spiller på musikkinstrumenter.</t>
+  </si>
+  <si>
+    <t>10. Kjører bil ved å styre med et ratt.</t>
+  </si>
+  <si>
+    <t>11. Vasker opp.</t>
+  </si>
+  <si>
+    <t>12. Gjør rent med klut eller tørker støv.</t>
+  </si>
+  <si>
+    <t>13. Skriver/tegner med blyant, tusj eller fargestifter.</t>
+  </si>
+  <si>
+    <t>14. Graver med en spade (i sandkassen).</t>
+  </si>
+  <si>
+    <t>15. Tar på seg (sol)briller.</t>
+  </si>
+  <si>
+    <t>1. Reagerer når han/hun hører navnet sitt (ved f.eks. å snu seg mot den som snakker)</t>
+  </si>
+  <si>
+    <t>2. Reagerer på at noen sier ”nei, nei” (ved å stoppe aktiviteten – i alle fall et øyeblikk)</t>
+  </si>
+  <si>
+    <t>3. Reagerer når noen sier ”der er pappa/mamma” ved å se etter ham/henne.</t>
+  </si>
+  <si>
+    <t>Er du sulten?</t>
+  </si>
+  <si>
+    <t>Er du trøtt?</t>
+  </si>
+  <si>
+    <t>Det var flink jente/gutt</t>
+  </si>
+  <si>
+    <t>Gap opp</t>
+  </si>
+  <si>
+    <t>Gi meg en klem</t>
+  </si>
+  <si>
+    <t>Gi meg et kyss</t>
+  </si>
+  <si>
+    <t>Gå og hent ________</t>
+  </si>
+  <si>
+    <t>Ikke gjør det</t>
+  </si>
+  <si>
+    <t>Ikke rør</t>
+  </si>
+  <si>
+    <t>Kast ballen</t>
+  </si>
+  <si>
+    <t>Klapp med hendene dine</t>
+  </si>
+  <si>
+    <t>Kom hit</t>
+  </si>
+  <si>
+    <t>La mamma få det</t>
+  </si>
+  <si>
+    <t>Nå sier vi ha det</t>
+  </si>
+  <si>
+    <t>På tide å legge seg</t>
+  </si>
+  <si>
+    <t>Reis deg (opp)</t>
+  </si>
+  <si>
+    <t>Se her</t>
+  </si>
+  <si>
+    <t>Sett deg (ned)</t>
+  </si>
+  <si>
+    <t>Skal vi kjøre en tur?</t>
+  </si>
+  <si>
+    <t>Slutt (opp)</t>
+  </si>
+  <si>
+    <t>Spytt ut</t>
+  </si>
+  <si>
+    <t>Stå stille</t>
+  </si>
+  <si>
+    <t>Vil du ha mer?</t>
+  </si>
+  <si>
+    <t>Vær forsiktig</t>
+  </si>
+  <si>
+    <t>Vær stille</t>
+  </si>
+  <si>
+    <t>Skifte bleie</t>
+  </si>
+  <si>
+    <t>1. Noen barn liker å etterlikne (imitere) det de nettopp har hørt (det kan være nye ord de holder på å lære og/eller deler av setninger som f. eks. at de sier ”jobb nå” etter at de har hørt at ”mamma skal gå på jobb nå”). Hvor ofte hermer barnet ditt etter ord?</t>
+  </si>
+  <si>
+    <t>2. Noen barn liker å si navnet på ting de ser rundt seg. Det kan virke som om de er stolte over å vite hva tingene heter og at de liker å vise dette. Hvor ofte navngir barnet ditt ting det ser?</t>
   </si>
 </sst>
 </file>
@@ -3175,7 +4618,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3187,8 +4630,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3210,18 +4659,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3551,10 +5007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J490"/>
+  <dimension ref="A1:K490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3563,10 +5019,11 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14">
+    <row r="1" spans="1:11" ht="14">
       <c r="A1" s="10" t="s">
         <v>538</v>
       </c>
@@ -3598,7 +5055,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14">
+    <row r="2" spans="1:11" ht="14">
       <c r="A2" t="s">
         <v>539</v>
       </c>
@@ -3614,8 +5071,11 @@
       <c r="E2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14">
+      <c r="K2" s="11" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14">
       <c r="A3" t="s">
         <v>540</v>
       </c>
@@ -3631,8 +5091,11 @@
       <c r="E3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14">
+      <c r="K3" s="11" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14">
       <c r="A4" t="s">
         <v>541</v>
       </c>
@@ -3648,8 +5111,11 @@
       <c r="E4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14">
+      <c r="K4" s="11" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14">
       <c r="A5" t="s">
         <v>542</v>
       </c>
@@ -3665,8 +5131,11 @@
       <c r="E5" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14">
+      <c r="H5" s="11" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14">
       <c r="A6" t="s">
         <v>543</v>
       </c>
@@ -3682,8 +5151,11 @@
       <c r="E6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14">
+      <c r="H6" s="11" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14">
       <c r="A7" t="s">
         <v>544</v>
       </c>
@@ -3699,8 +5171,11 @@
       <c r="E7" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14">
+      <c r="H7" s="11" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14">
       <c r="A8" t="s">
         <v>545</v>
       </c>
@@ -3716,8 +5191,11 @@
       <c r="E8" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14">
+      <c r="H8" s="11" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14">
       <c r="A9" t="s">
         <v>546</v>
       </c>
@@ -3733,8 +5211,11 @@
       <c r="E9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14">
+      <c r="H9" s="11" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14">
       <c r="A10" t="s">
         <v>547</v>
       </c>
@@ -3750,8 +5231,11 @@
       <c r="E10" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14">
+      <c r="H10" s="11" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14">
       <c r="A11" t="s">
         <v>548</v>
       </c>
@@ -3767,8 +5251,11 @@
       <c r="E11" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14">
+      <c r="H11" s="11" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14">
       <c r="A12" t="s">
         <v>549</v>
       </c>
@@ -3784,8 +5271,11 @@
       <c r="E12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14">
+      <c r="H12" s="11" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14">
       <c r="A13" t="s">
         <v>550</v>
       </c>
@@ -3801,8 +5291,11 @@
       <c r="E13" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14">
+      <c r="H13" s="11" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14">
       <c r="A14" t="s">
         <v>551</v>
       </c>
@@ -3818,8 +5311,11 @@
       <c r="E14" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14">
+      <c r="H14" s="11" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14">
       <c r="A15" t="s">
         <v>552</v>
       </c>
@@ -3835,8 +5331,11 @@
       <c r="E15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14">
+      <c r="H15" s="11" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14">
       <c r="A16" t="s">
         <v>553</v>
       </c>
@@ -3852,8 +5351,11 @@
       <c r="E16" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14">
+      <c r="H16" s="11" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14">
       <c r="A17" t="s">
         <v>554</v>
       </c>
@@ -3869,8 +5371,11 @@
       <c r="E17" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14">
+      <c r="H17" s="11" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14">
       <c r="A18" t="s">
         <v>555</v>
       </c>
@@ -3886,8 +5391,11 @@
       <c r="E18" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14">
+      <c r="H18" s="11" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14">
       <c r="A19" t="s">
         <v>556</v>
       </c>
@@ -3903,8 +5411,11 @@
       <c r="E19" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14">
+      <c r="H19" s="11" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14">
       <c r="A20" t="s">
         <v>557</v>
       </c>
@@ -3920,8 +5431,11 @@
       <c r="E20" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14">
+      <c r="H20" s="11" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14">
       <c r="A21" t="s">
         <v>558</v>
       </c>
@@ -3937,8 +5451,11 @@
       <c r="E21" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14">
+      <c r="H21" s="11" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14">
       <c r="A22" t="s">
         <v>559</v>
       </c>
@@ -3954,8 +5471,11 @@
       <c r="E22" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14">
+      <c r="H22" s="11" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14">
       <c r="A23" t="s">
         <v>560</v>
       </c>
@@ -3971,8 +5491,11 @@
       <c r="E23" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14">
+      <c r="H23" s="11" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14">
       <c r="A24" t="s">
         <v>561</v>
       </c>
@@ -3988,8 +5511,11 @@
       <c r="E24" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14">
+      <c r="H24" s="11" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" t="s">
         <v>562</v>
       </c>
@@ -4005,8 +5531,11 @@
       <c r="E25" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14">
+      <c r="H25" s="11" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14">
       <c r="A26" t="s">
         <v>563</v>
       </c>
@@ -4022,8 +5551,11 @@
       <c r="E26" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14">
+      <c r="H26" s="11" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14">
       <c r="A27" t="s">
         <v>564</v>
       </c>
@@ -4039,8 +5571,11 @@
       <c r="E27" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="14">
+      <c r="H27" s="11" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14">
       <c r="A28" t="s">
         <v>565</v>
       </c>
@@ -4056,8 +5591,11 @@
       <c r="E28" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="14">
+      <c r="H28" s="11" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14">
       <c r="A29" t="s">
         <v>566</v>
       </c>
@@ -4073,8 +5611,11 @@
       <c r="E29" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14">
+      <c r="H29" s="11" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14">
       <c r="A30" t="s">
         <v>567</v>
       </c>
@@ -4090,8 +5631,11 @@
       <c r="E30" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="14">
+      <c r="H30" s="11" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14">
       <c r="A31" t="s">
         <v>568</v>
       </c>
@@ -4107,8 +5651,11 @@
       <c r="E31" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14">
+      <c r="K31" s="11" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14">
       <c r="A32" t="s">
         <v>569</v>
       </c>
@@ -4123,6 +5670,9 @@
       </c>
       <c r="E32" t="s">
         <v>504</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14">
@@ -4141,6 +5691,9 @@
       <c r="E33" t="s">
         <v>505</v>
       </c>
+      <c r="H33" s="11" t="s">
+        <v>1028</v>
+      </c>
       <c r="I33" t="s">
         <v>533</v>
       </c>
@@ -4161,6 +5714,9 @@
       <c r="E34" t="s">
         <v>505</v>
       </c>
+      <c r="H34" s="11" t="s">
+        <v>1029</v>
+      </c>
       <c r="I34" t="s">
         <v>533</v>
       </c>
@@ -4181,6 +5737,9 @@
       <c r="E35" t="s">
         <v>505</v>
       </c>
+      <c r="H35" s="11" t="s">
+        <v>1030</v>
+      </c>
       <c r="I35" t="s">
         <v>533</v>
       </c>
@@ -4201,6 +5760,9 @@
       <c r="E36" t="s">
         <v>505</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>1031</v>
+      </c>
       <c r="I36" t="s">
         <v>533</v>
       </c>
@@ -4221,6 +5783,9 @@
       <c r="E37" t="s">
         <v>505</v>
       </c>
+      <c r="H37" s="11" t="s">
+        <v>1032</v>
+      </c>
       <c r="I37" t="s">
         <v>533</v>
       </c>
@@ -4241,6 +5806,9 @@
       <c r="E38" t="s">
         <v>505</v>
       </c>
+      <c r="H38" s="11" t="s">
+        <v>1033</v>
+      </c>
       <c r="I38" t="s">
         <v>533</v>
       </c>
@@ -4261,6 +5829,9 @@
       <c r="E39" t="s">
         <v>505</v>
       </c>
+      <c r="H39" s="11" t="s">
+        <v>1034</v>
+      </c>
       <c r="I39" t="s">
         <v>533</v>
       </c>
@@ -4281,6 +5852,9 @@
       <c r="E40" t="s">
         <v>505</v>
       </c>
+      <c r="H40" s="11" t="s">
+        <v>1035</v>
+      </c>
       <c r="I40" t="s">
         <v>533</v>
       </c>
@@ -4301,6 +5875,9 @@
       <c r="E41" t="s">
         <v>505</v>
       </c>
+      <c r="H41" s="11" t="s">
+        <v>1036</v>
+      </c>
       <c r="I41" t="s">
         <v>533</v>
       </c>
@@ -4321,6 +5898,9 @@
       <c r="E42" t="s">
         <v>505</v>
       </c>
+      <c r="H42" s="11" t="s">
+        <v>1037</v>
+      </c>
       <c r="I42" t="s">
         <v>533</v>
       </c>
@@ -4341,6 +5921,9 @@
       <c r="E43" t="s">
         <v>505</v>
       </c>
+      <c r="H43" s="11" t="s">
+        <v>1038</v>
+      </c>
       <c r="I43" t="s">
         <v>533</v>
       </c>
@@ -4361,6 +5944,9 @@
       <c r="E44" t="s">
         <v>505</v>
       </c>
+      <c r="H44" s="11" t="s">
+        <v>1039</v>
+      </c>
       <c r="I44" t="s">
         <v>534</v>
       </c>
@@ -4381,6 +5967,9 @@
       <c r="E45" t="s">
         <v>505</v>
       </c>
+      <c r="H45" s="11" t="s">
+        <v>1040</v>
+      </c>
       <c r="I45" t="s">
         <v>534</v>
       </c>
@@ -4401,6 +5990,9 @@
       <c r="E46" t="s">
         <v>505</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>1041</v>
+      </c>
       <c r="I46" t="s">
         <v>534</v>
       </c>
@@ -4421,6 +6013,9 @@
       <c r="E47" t="s">
         <v>505</v>
       </c>
+      <c r="H47" s="11" t="s">
+        <v>1042</v>
+      </c>
       <c r="I47" t="s">
         <v>534</v>
       </c>
@@ -4441,6 +6036,9 @@
       <c r="E48" t="s">
         <v>505</v>
       </c>
+      <c r="H48" s="11" t="s">
+        <v>1043</v>
+      </c>
       <c r="I48" t="s">
         <v>534</v>
       </c>
@@ -4461,6 +6059,9 @@
       <c r="E49" t="s">
         <v>505</v>
       </c>
+      <c r="H49" s="11" t="s">
+        <v>1044</v>
+      </c>
       <c r="I49" t="s">
         <v>534</v>
       </c>
@@ -4481,6 +6082,9 @@
       <c r="E50" t="s">
         <v>505</v>
       </c>
+      <c r="H50" s="11" t="s">
+        <v>1045</v>
+      </c>
       <c r="I50" t="s">
         <v>534</v>
       </c>
@@ -4501,6 +6105,9 @@
       <c r="E51" t="s">
         <v>505</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>1046</v>
+      </c>
       <c r="I51" t="s">
         <v>534</v>
       </c>
@@ -4521,6 +6128,9 @@
       <c r="E52" t="s">
         <v>505</v>
       </c>
+      <c r="H52" s="11" t="s">
+        <v>1047</v>
+      </c>
       <c r="I52" t="s">
         <v>534</v>
       </c>
@@ -4541,6 +6151,9 @@
       <c r="E53" t="s">
         <v>505</v>
       </c>
+      <c r="H53" s="11" t="s">
+        <v>1048</v>
+      </c>
       <c r="I53" t="s">
         <v>534</v>
       </c>
@@ -4561,6 +6174,9 @@
       <c r="E54" t="s">
         <v>505</v>
       </c>
+      <c r="H54" s="11" t="s">
+        <v>1049</v>
+      </c>
       <c r="I54" t="s">
         <v>534</v>
       </c>
@@ -4581,6 +6197,9 @@
       <c r="E55" t="s">
         <v>505</v>
       </c>
+      <c r="H55" s="11" t="s">
+        <v>1050</v>
+      </c>
       <c r="I55" t="s">
         <v>534</v>
       </c>
@@ -4601,6 +6220,9 @@
       <c r="E56" t="s">
         <v>505</v>
       </c>
+      <c r="H56" s="11" t="s">
+        <v>1051</v>
+      </c>
       <c r="I56" t="s">
         <v>534</v>
       </c>
@@ -4621,6 +6243,9 @@
       <c r="E57" t="s">
         <v>505</v>
       </c>
+      <c r="H57" s="11" t="s">
+        <v>1052</v>
+      </c>
       <c r="I57" t="s">
         <v>534</v>
       </c>
@@ -4641,6 +6266,9 @@
       <c r="E58" t="s">
         <v>505</v>
       </c>
+      <c r="H58" s="11" t="s">
+        <v>1053</v>
+      </c>
       <c r="I58" t="s">
         <v>534</v>
       </c>
@@ -4661,6 +6289,9 @@
       <c r="E59" t="s">
         <v>505</v>
       </c>
+      <c r="H59" s="11" t="s">
+        <v>1054</v>
+      </c>
       <c r="I59" t="s">
         <v>534</v>
       </c>
@@ -4681,6 +6312,9 @@
       <c r="E60" t="s">
         <v>505</v>
       </c>
+      <c r="H60" s="11" t="s">
+        <v>1055</v>
+      </c>
       <c r="I60" t="s">
         <v>534</v>
       </c>
@@ -4701,6 +6335,9 @@
       <c r="E61" t="s">
         <v>505</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>1056</v>
+      </c>
       <c r="I61" t="s">
         <v>534</v>
       </c>
@@ -4721,6 +6358,9 @@
       <c r="E62" t="s">
         <v>505</v>
       </c>
+      <c r="H62" s="11" t="s">
+        <v>1057</v>
+      </c>
       <c r="I62" t="s">
         <v>534</v>
       </c>
@@ -4741,6 +6381,9 @@
       <c r="E63" t="s">
         <v>505</v>
       </c>
+      <c r="H63" s="11" t="s">
+        <v>1058</v>
+      </c>
       <c r="I63" t="s">
         <v>534</v>
       </c>
@@ -4761,6 +6404,9 @@
       <c r="E64" t="s">
         <v>505</v>
       </c>
+      <c r="H64" s="11" t="s">
+        <v>1059</v>
+      </c>
       <c r="I64" t="s">
         <v>534</v>
       </c>
@@ -4781,6 +6427,9 @@
       <c r="E65" t="s">
         <v>505</v>
       </c>
+      <c r="H65" s="11" t="s">
+        <v>1060</v>
+      </c>
       <c r="I65" t="s">
         <v>534</v>
       </c>
@@ -4801,6 +6450,9 @@
       <c r="E66" t="s">
         <v>505</v>
       </c>
+      <c r="H66" s="11" t="s">
+        <v>1061</v>
+      </c>
       <c r="I66" t="s">
         <v>534</v>
       </c>
@@ -4821,6 +6473,9 @@
       <c r="E67" t="s">
         <v>505</v>
       </c>
+      <c r="H67" s="11" t="s">
+        <v>1062</v>
+      </c>
       <c r="I67" t="s">
         <v>534</v>
       </c>
@@ -4841,6 +6496,9 @@
       <c r="E68" t="s">
         <v>505</v>
       </c>
+      <c r="H68" s="11" t="s">
+        <v>1063</v>
+      </c>
       <c r="I68" t="s">
         <v>534</v>
       </c>
@@ -4861,6 +6519,9 @@
       <c r="E69" t="s">
         <v>505</v>
       </c>
+      <c r="H69" s="11" t="s">
+        <v>1064</v>
+      </c>
       <c r="I69" t="s">
         <v>534</v>
       </c>
@@ -4881,6 +6542,9 @@
       <c r="E70" t="s">
         <v>505</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>1065</v>
+      </c>
       <c r="I70" t="s">
         <v>534</v>
       </c>
@@ -4901,6 +6565,9 @@
       <c r="E71" t="s">
         <v>505</v>
       </c>
+      <c r="H71" s="11" t="s">
+        <v>1066</v>
+      </c>
       <c r="I71" t="s">
         <v>534</v>
       </c>
@@ -4921,6 +6588,9 @@
       <c r="E72" t="s">
         <v>505</v>
       </c>
+      <c r="H72" s="11" t="s">
+        <v>1067</v>
+      </c>
       <c r="I72" t="s">
         <v>534</v>
       </c>
@@ -4941,6 +6611,9 @@
       <c r="E73" t="s">
         <v>505</v>
       </c>
+      <c r="H73" s="11" t="s">
+        <v>1068</v>
+      </c>
       <c r="I73" t="s">
         <v>534</v>
       </c>
@@ -4961,6 +6634,9 @@
       <c r="E74" t="s">
         <v>505</v>
       </c>
+      <c r="H74" s="11" t="s">
+        <v>1069</v>
+      </c>
       <c r="I74" t="s">
         <v>534</v>
       </c>
@@ -4981,6 +6657,9 @@
       <c r="E75" t="s">
         <v>505</v>
       </c>
+      <c r="H75" s="11" t="s">
+        <v>1070</v>
+      </c>
       <c r="I75" t="s">
         <v>534</v>
       </c>
@@ -5001,6 +6680,9 @@
       <c r="E76" t="s">
         <v>505</v>
       </c>
+      <c r="H76" s="11" t="s">
+        <v>1071</v>
+      </c>
       <c r="I76" t="s">
         <v>534</v>
       </c>
@@ -5021,6 +6703,9 @@
       <c r="E77" t="s">
         <v>505</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>1072</v>
+      </c>
       <c r="I77" t="s">
         <v>534</v>
       </c>
@@ -5041,6 +6726,9 @@
       <c r="E78" t="s">
         <v>505</v>
       </c>
+      <c r="H78" s="11" t="s">
+        <v>1073</v>
+      </c>
       <c r="I78" t="s">
         <v>534</v>
       </c>
@@ -5061,6 +6749,9 @@
       <c r="E79" t="s">
         <v>505</v>
       </c>
+      <c r="H79" s="11" t="s">
+        <v>1074</v>
+      </c>
       <c r="I79" t="s">
         <v>534</v>
       </c>
@@ -5081,6 +6772,9 @@
       <c r="E80" t="s">
         <v>505</v>
       </c>
+      <c r="H80" s="11" t="s">
+        <v>1075</v>
+      </c>
       <c r="I80" t="s">
         <v>534</v>
       </c>
@@ -5101,6 +6795,9 @@
       <c r="E81" t="s">
         <v>505</v>
       </c>
+      <c r="H81" s="11" t="s">
+        <v>1076</v>
+      </c>
       <c r="I81" t="s">
         <v>534</v>
       </c>
@@ -5121,6 +6818,9 @@
       <c r="E82" t="s">
         <v>505</v>
       </c>
+      <c r="H82" s="11" t="s">
+        <v>1077</v>
+      </c>
       <c r="I82" t="s">
         <v>534</v>
       </c>
@@ -5141,6 +6841,9 @@
       <c r="E83" t="s">
         <v>505</v>
       </c>
+      <c r="H83" s="11" t="s">
+        <v>1078</v>
+      </c>
       <c r="I83" t="s">
         <v>534</v>
       </c>
@@ -5161,6 +6864,9 @@
       <c r="E84" t="s">
         <v>505</v>
       </c>
+      <c r="H84" s="11" t="s">
+        <v>1079</v>
+      </c>
       <c r="I84" t="s">
         <v>534</v>
       </c>
@@ -5181,6 +6887,9 @@
       <c r="E85" t="s">
         <v>505</v>
       </c>
+      <c r="H85" s="11" t="s">
+        <v>1080</v>
+      </c>
       <c r="I85" t="s">
         <v>534</v>
       </c>
@@ -5201,6 +6910,9 @@
       <c r="E86" t="s">
         <v>505</v>
       </c>
+      <c r="H86" s="11" t="s">
+        <v>1081</v>
+      </c>
       <c r="I86" t="s">
         <v>534</v>
       </c>
@@ -5221,6 +6933,9 @@
       <c r="E87" t="s">
         <v>505</v>
       </c>
+      <c r="H87" s="11" t="s">
+        <v>1082</v>
+      </c>
       <c r="I87" t="s">
         <v>534</v>
       </c>
@@ -5241,6 +6956,9 @@
       <c r="E88" t="s">
         <v>505</v>
       </c>
+      <c r="H88" s="11" t="s">
+        <v>1083</v>
+      </c>
       <c r="I88" t="s">
         <v>534</v>
       </c>
@@ -5261,6 +6979,9 @@
       <c r="E89" t="s">
         <v>505</v>
       </c>
+      <c r="H89" s="11" t="s">
+        <v>1084</v>
+      </c>
       <c r="I89" t="s">
         <v>534</v>
       </c>
@@ -5281,6 +7002,9 @@
       <c r="E90" t="s">
         <v>505</v>
       </c>
+      <c r="H90" s="11" t="s">
+        <v>1085</v>
+      </c>
       <c r="I90" t="s">
         <v>534</v>
       </c>
@@ -5301,6 +7025,9 @@
       <c r="E91" t="s">
         <v>505</v>
       </c>
+      <c r="H91" s="11" t="s">
+        <v>1086</v>
+      </c>
       <c r="I91" t="s">
         <v>534</v>
       </c>
@@ -5321,6 +7048,9 @@
       <c r="E92" t="s">
         <v>505</v>
       </c>
+      <c r="H92" s="11" t="s">
+        <v>1087</v>
+      </c>
       <c r="I92" t="s">
         <v>534</v>
       </c>
@@ -5341,6 +7071,9 @@
       <c r="E93" t="s">
         <v>505</v>
       </c>
+      <c r="H93" s="11" t="s">
+        <v>1088</v>
+      </c>
       <c r="I93" t="s">
         <v>534</v>
       </c>
@@ -5361,6 +7094,9 @@
       <c r="E94" t="s">
         <v>505</v>
       </c>
+      <c r="H94" s="11" t="s">
+        <v>1089</v>
+      </c>
       <c r="I94" t="s">
         <v>534</v>
       </c>
@@ -5381,6 +7117,9 @@
       <c r="E95" t="s">
         <v>505</v>
       </c>
+      <c r="H95" s="11" t="s">
+        <v>1090</v>
+      </c>
       <c r="I95" t="s">
         <v>534</v>
       </c>
@@ -5401,6 +7140,9 @@
       <c r="E96" t="s">
         <v>505</v>
       </c>
+      <c r="H96" s="11" t="s">
+        <v>1091</v>
+      </c>
       <c r="I96" t="s">
         <v>534</v>
       </c>
@@ -5421,6 +7163,9 @@
       <c r="E97" t="s">
         <v>505</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>1092</v>
+      </c>
       <c r="I97" t="s">
         <v>534</v>
       </c>
@@ -5441,6 +7186,9 @@
       <c r="E98" t="s">
         <v>505</v>
       </c>
+      <c r="H98" s="11" t="s">
+        <v>1093</v>
+      </c>
       <c r="I98" t="s">
         <v>534</v>
       </c>
@@ -5461,6 +7209,9 @@
       <c r="E99" t="s">
         <v>505</v>
       </c>
+      <c r="H99" s="11" t="s">
+        <v>1094</v>
+      </c>
       <c r="I99" t="s">
         <v>534</v>
       </c>
@@ -5481,6 +7232,9 @@
       <c r="E100" t="s">
         <v>505</v>
       </c>
+      <c r="H100" s="11" t="s">
+        <v>1095</v>
+      </c>
       <c r="I100" t="s">
         <v>534</v>
       </c>
@@ -5501,6 +7255,9 @@
       <c r="E101" t="s">
         <v>505</v>
       </c>
+      <c r="H101" s="11" t="s">
+        <v>1096</v>
+      </c>
       <c r="I101" t="s">
         <v>534</v>
       </c>
@@ -5521,6 +7278,9 @@
       <c r="E102" t="s">
         <v>505</v>
       </c>
+      <c r="H102" s="11" t="s">
+        <v>1097</v>
+      </c>
       <c r="I102" t="s">
         <v>534</v>
       </c>
@@ -5541,6 +7301,9 @@
       <c r="E103" t="s">
         <v>505</v>
       </c>
+      <c r="H103" s="11" t="s">
+        <v>1098</v>
+      </c>
       <c r="I103" t="s">
         <v>534</v>
       </c>
@@ -5561,6 +7324,9 @@
       <c r="E104" t="s">
         <v>505</v>
       </c>
+      <c r="H104" s="11" t="s">
+        <v>1099</v>
+      </c>
       <c r="I104" t="s">
         <v>534</v>
       </c>
@@ -5581,6 +7347,9 @@
       <c r="E105" t="s">
         <v>505</v>
       </c>
+      <c r="H105" s="11" t="s">
+        <v>1047</v>
+      </c>
       <c r="I105" t="s">
         <v>534</v>
       </c>
@@ -5601,6 +7370,9 @@
       <c r="E106" t="s">
         <v>505</v>
       </c>
+      <c r="H106" s="11" t="s">
+        <v>1100</v>
+      </c>
       <c r="I106" t="s">
         <v>534</v>
       </c>
@@ -5621,6 +7393,9 @@
       <c r="E107" t="s">
         <v>505</v>
       </c>
+      <c r="H107" s="11" t="s">
+        <v>1101</v>
+      </c>
       <c r="I107" t="s">
         <v>534</v>
       </c>
@@ -5641,6 +7416,9 @@
       <c r="E108" t="s">
         <v>505</v>
       </c>
+      <c r="H108" s="11" t="s">
+        <v>1102</v>
+      </c>
       <c r="I108" t="s">
         <v>534</v>
       </c>
@@ -5661,6 +7439,9 @@
       <c r="E109" t="s">
         <v>505</v>
       </c>
+      <c r="H109" s="11" t="s">
+        <v>1103</v>
+      </c>
       <c r="I109" t="s">
         <v>534</v>
       </c>
@@ -5681,6 +7462,9 @@
       <c r="E110" t="s">
         <v>505</v>
       </c>
+      <c r="H110" s="11" t="s">
+        <v>1104</v>
+      </c>
       <c r="I110" t="s">
         <v>534</v>
       </c>
@@ -5701,6 +7485,9 @@
       <c r="E111" t="s">
         <v>505</v>
       </c>
+      <c r="H111" s="11" t="s">
+        <v>1105</v>
+      </c>
       <c r="I111" t="s">
         <v>534</v>
       </c>
@@ -5721,6 +7508,9 @@
       <c r="E112" t="s">
         <v>505</v>
       </c>
+      <c r="H112" s="11" t="s">
+        <v>1106</v>
+      </c>
       <c r="I112" t="s">
         <v>534</v>
       </c>
@@ -5741,6 +7531,9 @@
       <c r="E113" t="s">
         <v>505</v>
       </c>
+      <c r="H113" s="11" t="s">
+        <v>1107</v>
+      </c>
       <c r="I113" t="s">
         <v>534</v>
       </c>
@@ -5761,6 +7554,9 @@
       <c r="E114" t="s">
         <v>505</v>
       </c>
+      <c r="H114" s="11" t="s">
+        <v>1059</v>
+      </c>
       <c r="I114" t="s">
         <v>534</v>
       </c>
@@ -5781,6 +7577,9 @@
       <c r="E115" t="s">
         <v>505</v>
       </c>
+      <c r="H115" s="11" t="s">
+        <v>1108</v>
+      </c>
       <c r="I115" t="s">
         <v>534</v>
       </c>
@@ -5801,6 +7600,9 @@
       <c r="E116" t="s">
         <v>505</v>
       </c>
+      <c r="H116" s="11" t="s">
+        <v>1109</v>
+      </c>
       <c r="I116" t="s">
         <v>534</v>
       </c>
@@ -5821,6 +7623,9 @@
       <c r="E117" t="s">
         <v>505</v>
       </c>
+      <c r="H117" s="11" t="s">
+        <v>1110</v>
+      </c>
       <c r="I117" t="s">
         <v>534</v>
       </c>
@@ -5841,6 +7646,9 @@
       <c r="E118" t="s">
         <v>505</v>
       </c>
+      <c r="H118" s="11" t="s">
+        <v>1111</v>
+      </c>
       <c r="I118" t="s">
         <v>534</v>
       </c>
@@ -5861,6 +7669,9 @@
       <c r="E119" t="s">
         <v>505</v>
       </c>
+      <c r="H119" s="11" t="s">
+        <v>1112</v>
+      </c>
       <c r="I119" t="s">
         <v>534</v>
       </c>
@@ -5881,6 +7692,9 @@
       <c r="E120" t="s">
         <v>505</v>
       </c>
+      <c r="H120" s="11" t="s">
+        <v>1113</v>
+      </c>
       <c r="I120" t="s">
         <v>534</v>
       </c>
@@ -5901,6 +7715,9 @@
       <c r="E121" t="s">
         <v>505</v>
       </c>
+      <c r="H121" s="11" t="s">
+        <v>1114</v>
+      </c>
       <c r="I121" t="s">
         <v>534</v>
       </c>
@@ -5921,6 +7738,9 @@
       <c r="E122" t="s">
         <v>505</v>
       </c>
+      <c r="H122" s="11" t="s">
+        <v>1115</v>
+      </c>
       <c r="I122" t="s">
         <v>534</v>
       </c>
@@ -5941,6 +7761,9 @@
       <c r="E123" t="s">
         <v>505</v>
       </c>
+      <c r="H123" s="11" t="s">
+        <v>1116</v>
+      </c>
       <c r="I123" t="s">
         <v>534</v>
       </c>
@@ -5961,6 +7784,9 @@
       <c r="E124" t="s">
         <v>505</v>
       </c>
+      <c r="H124" s="11" t="s">
+        <v>1117</v>
+      </c>
       <c r="I124" t="s">
         <v>534</v>
       </c>
@@ -5981,6 +7807,9 @@
       <c r="E125" t="s">
         <v>505</v>
       </c>
+      <c r="H125" s="11" t="s">
+        <v>1118</v>
+      </c>
       <c r="I125" t="s">
         <v>534</v>
       </c>
@@ -6001,6 +7830,9 @@
       <c r="E126" t="s">
         <v>505</v>
       </c>
+      <c r="H126" s="11" t="s">
+        <v>1119</v>
+      </c>
       <c r="I126" t="s">
         <v>534</v>
       </c>
@@ -6021,6 +7853,9 @@
       <c r="E127" t="s">
         <v>505</v>
       </c>
+      <c r="H127" s="11" t="s">
+        <v>1120</v>
+      </c>
       <c r="I127" t="s">
         <v>534</v>
       </c>
@@ -6041,6 +7876,9 @@
       <c r="E128" t="s">
         <v>505</v>
       </c>
+      <c r="H128" s="11" t="s">
+        <v>1121</v>
+      </c>
       <c r="I128" t="s">
         <v>534</v>
       </c>
@@ -6061,6 +7899,9 @@
       <c r="E129" t="s">
         <v>505</v>
       </c>
+      <c r="H129" s="11" t="s">
+        <v>1122</v>
+      </c>
       <c r="I129" t="s">
         <v>534</v>
       </c>
@@ -6081,6 +7922,9 @@
       <c r="E130" t="s">
         <v>505</v>
       </c>
+      <c r="H130" s="11" t="s">
+        <v>1123</v>
+      </c>
       <c r="I130" t="s">
         <v>534</v>
       </c>
@@ -6101,6 +7945,9 @@
       <c r="E131" t="s">
         <v>505</v>
       </c>
+      <c r="H131" s="11" t="s">
+        <v>1124</v>
+      </c>
       <c r="I131" t="s">
         <v>534</v>
       </c>
@@ -6121,6 +7968,9 @@
       <c r="E132" t="s">
         <v>505</v>
       </c>
+      <c r="H132" s="11" t="s">
+        <v>1125</v>
+      </c>
       <c r="I132" t="s">
         <v>534</v>
       </c>
@@ -6141,6 +7991,9 @@
       <c r="E133" t="s">
         <v>505</v>
       </c>
+      <c r="H133" s="11" t="s">
+        <v>1126</v>
+      </c>
       <c r="I133" t="s">
         <v>534</v>
       </c>
@@ -6161,6 +8014,9 @@
       <c r="E134" t="s">
         <v>505</v>
       </c>
+      <c r="H134" s="11" t="s">
+        <v>1127</v>
+      </c>
       <c r="I134" t="s">
         <v>534</v>
       </c>
@@ -6181,6 +8037,9 @@
       <c r="E135" t="s">
         <v>505</v>
       </c>
+      <c r="H135" s="11" t="s">
+        <v>1128</v>
+      </c>
       <c r="I135" t="s">
         <v>534</v>
       </c>
@@ -6201,6 +8060,9 @@
       <c r="E136" t="s">
         <v>505</v>
       </c>
+      <c r="H136" s="11" t="s">
+        <v>1129</v>
+      </c>
       <c r="I136" t="s">
         <v>534</v>
       </c>
@@ -6221,6 +8083,9 @@
       <c r="E137" t="s">
         <v>505</v>
       </c>
+      <c r="H137" s="11" t="s">
+        <v>1130</v>
+      </c>
       <c r="I137" t="s">
         <v>534</v>
       </c>
@@ -6241,6 +8106,9 @@
       <c r="E138" t="s">
         <v>505</v>
       </c>
+      <c r="H138" s="11" t="s">
+        <v>1131</v>
+      </c>
       <c r="I138" t="s">
         <v>534</v>
       </c>
@@ -6261,6 +8129,9 @@
       <c r="E139" t="s">
         <v>505</v>
       </c>
+      <c r="H139" s="11" t="s">
+        <v>1132</v>
+      </c>
       <c r="I139" t="s">
         <v>534</v>
       </c>
@@ -6281,6 +8152,9 @@
       <c r="E140" t="s">
         <v>505</v>
       </c>
+      <c r="H140" s="11" t="s">
+        <v>1133</v>
+      </c>
       <c r="I140" t="s">
         <v>534</v>
       </c>
@@ -6301,6 +8175,9 @@
       <c r="E141" t="s">
         <v>505</v>
       </c>
+      <c r="H141" s="11" t="s">
+        <v>1134</v>
+      </c>
       <c r="I141" t="s">
         <v>534</v>
       </c>
@@ -6321,6 +8198,9 @@
       <c r="E142" t="s">
         <v>505</v>
       </c>
+      <c r="H142" s="11" t="s">
+        <v>1135</v>
+      </c>
       <c r="I142" t="s">
         <v>534</v>
       </c>
@@ -6341,6 +8221,9 @@
       <c r="E143" t="s">
         <v>505</v>
       </c>
+      <c r="H143" s="11" t="s">
+        <v>1136</v>
+      </c>
       <c r="I143" t="s">
         <v>534</v>
       </c>
@@ -6361,6 +8244,9 @@
       <c r="E144" t="s">
         <v>505</v>
       </c>
+      <c r="H144" s="11" t="s">
+        <v>1137</v>
+      </c>
       <c r="I144" t="s">
         <v>534</v>
       </c>
@@ -6381,6 +8267,9 @@
       <c r="E145" t="s">
         <v>505</v>
       </c>
+      <c r="H145" s="11" t="s">
+        <v>1138</v>
+      </c>
       <c r="I145" t="s">
         <v>534</v>
       </c>
@@ -6401,6 +8290,9 @@
       <c r="E146" t="s">
         <v>505</v>
       </c>
+      <c r="H146" s="11" t="s">
+        <v>1139</v>
+      </c>
       <c r="I146" t="s">
         <v>534</v>
       </c>
@@ -6421,6 +8313,9 @@
       <c r="E147" t="s">
         <v>505</v>
       </c>
+      <c r="H147" s="11" t="s">
+        <v>1140</v>
+      </c>
       <c r="I147" t="s">
         <v>534</v>
       </c>
@@ -6441,6 +8336,9 @@
       <c r="E148" t="s">
         <v>505</v>
       </c>
+      <c r="H148" s="11" t="s">
+        <v>1141</v>
+      </c>
       <c r="I148" t="s">
         <v>534</v>
       </c>
@@ -6461,6 +8359,9 @@
       <c r="E149" t="s">
         <v>505</v>
       </c>
+      <c r="H149" s="11" t="s">
+        <v>1142</v>
+      </c>
       <c r="I149" t="s">
         <v>534</v>
       </c>
@@ -6481,6 +8382,9 @@
       <c r="E150" t="s">
         <v>505</v>
       </c>
+      <c r="H150" s="11" t="s">
+        <v>1143</v>
+      </c>
       <c r="I150" t="s">
         <v>534</v>
       </c>
@@ -6501,6 +8405,9 @@
       <c r="E151" t="s">
         <v>505</v>
       </c>
+      <c r="H151" s="11" t="s">
+        <v>1144</v>
+      </c>
       <c r="I151" t="s">
         <v>534</v>
       </c>
@@ -6521,6 +8428,9 @@
       <c r="E152" t="s">
         <v>505</v>
       </c>
+      <c r="H152" s="11" t="s">
+        <v>1145</v>
+      </c>
       <c r="I152" t="s">
         <v>534</v>
       </c>
@@ -6541,6 +8451,9 @@
       <c r="E153" t="s">
         <v>505</v>
       </c>
+      <c r="H153" s="11" t="s">
+        <v>1146</v>
+      </c>
       <c r="I153" t="s">
         <v>534</v>
       </c>
@@ -6561,6 +8474,9 @@
       <c r="E154" t="s">
         <v>505</v>
       </c>
+      <c r="H154" s="11" t="s">
+        <v>1147</v>
+      </c>
       <c r="I154" t="s">
         <v>534</v>
       </c>
@@ -6581,6 +8497,9 @@
       <c r="E155" t="s">
         <v>505</v>
       </c>
+      <c r="H155" s="11" t="s">
+        <v>1148</v>
+      </c>
       <c r="I155" t="s">
         <v>534</v>
       </c>
@@ -6601,6 +8520,9 @@
       <c r="E156" t="s">
         <v>505</v>
       </c>
+      <c r="H156" s="11" t="s">
+        <v>1149</v>
+      </c>
       <c r="I156" t="s">
         <v>534</v>
       </c>
@@ -6621,6 +8543,9 @@
       <c r="E157" t="s">
         <v>505</v>
       </c>
+      <c r="H157" s="11" t="s">
+        <v>1150</v>
+      </c>
       <c r="I157" t="s">
         <v>534</v>
       </c>
@@ -6641,6 +8566,9 @@
       <c r="E158" t="s">
         <v>505</v>
       </c>
+      <c r="H158" s="11" t="s">
+        <v>1151</v>
+      </c>
       <c r="I158" t="s">
         <v>534</v>
       </c>
@@ -6661,6 +8589,9 @@
       <c r="E159" t="s">
         <v>505</v>
       </c>
+      <c r="H159" s="11" t="s">
+        <v>1152</v>
+      </c>
       <c r="I159" t="s">
         <v>534</v>
       </c>
@@ -6681,6 +8612,9 @@
       <c r="E160" t="s">
         <v>505</v>
       </c>
+      <c r="H160" s="11" t="s">
+        <v>1153</v>
+      </c>
       <c r="I160" t="s">
         <v>534</v>
       </c>
@@ -6701,6 +8635,9 @@
       <c r="E161" t="s">
         <v>505</v>
       </c>
+      <c r="H161" s="11" t="s">
+        <v>1154</v>
+      </c>
       <c r="I161" t="s">
         <v>534</v>
       </c>
@@ -6721,6 +8658,9 @@
       <c r="E162" t="s">
         <v>505</v>
       </c>
+      <c r="H162" s="11" t="s">
+        <v>1155</v>
+      </c>
       <c r="I162" t="s">
         <v>534</v>
       </c>
@@ -6741,6 +8681,9 @@
       <c r="E163" t="s">
         <v>505</v>
       </c>
+      <c r="H163" s="11" t="s">
+        <v>1156</v>
+      </c>
       <c r="I163" t="s">
         <v>534</v>
       </c>
@@ -6761,6 +8704,9 @@
       <c r="E164" t="s">
         <v>505</v>
       </c>
+      <c r="H164" s="11" t="s">
+        <v>1157</v>
+      </c>
       <c r="I164" t="s">
         <v>534</v>
       </c>
@@ -6781,6 +8727,9 @@
       <c r="E165" t="s">
         <v>505</v>
       </c>
+      <c r="H165" s="11" t="s">
+        <v>1158</v>
+      </c>
       <c r="I165" t="s">
         <v>534</v>
       </c>
@@ -6801,6 +8750,9 @@
       <c r="E166" t="s">
         <v>505</v>
       </c>
+      <c r="H166" s="11" t="s">
+        <v>1159</v>
+      </c>
       <c r="I166" t="s">
         <v>534</v>
       </c>
@@ -6821,6 +8773,9 @@
       <c r="E167" t="s">
         <v>505</v>
       </c>
+      <c r="H167" s="11" t="s">
+        <v>1160</v>
+      </c>
       <c r="I167" t="s">
         <v>534</v>
       </c>
@@ -6841,6 +8796,9 @@
       <c r="E168" t="s">
         <v>505</v>
       </c>
+      <c r="H168" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="I168" t="s">
         <v>534</v>
       </c>
@@ -6861,6 +8819,9 @@
       <c r="E169" t="s">
         <v>505</v>
       </c>
+      <c r="H169" s="11" t="s">
+        <v>1162</v>
+      </c>
       <c r="I169" t="s">
         <v>534</v>
       </c>
@@ -6881,6 +8842,9 @@
       <c r="E170" t="s">
         <v>505</v>
       </c>
+      <c r="H170" s="11" t="s">
+        <v>1163</v>
+      </c>
       <c r="I170" t="s">
         <v>534</v>
       </c>
@@ -6901,6 +8865,9 @@
       <c r="E171" t="s">
         <v>505</v>
       </c>
+      <c r="H171" s="11" t="s">
+        <v>1164</v>
+      </c>
       <c r="I171" t="s">
         <v>534</v>
       </c>
@@ -6921,6 +8888,9 @@
       <c r="E172" t="s">
         <v>505</v>
       </c>
+      <c r="H172" s="11" t="s">
+        <v>1165</v>
+      </c>
       <c r="I172" t="s">
         <v>534</v>
       </c>
@@ -6941,6 +8911,9 @@
       <c r="E173" t="s">
         <v>505</v>
       </c>
+      <c r="H173" s="11" t="s">
+        <v>1166</v>
+      </c>
       <c r="I173" t="s">
         <v>534</v>
       </c>
@@ -6961,6 +8934,9 @@
       <c r="E174" t="s">
         <v>505</v>
       </c>
+      <c r="H174" s="11" t="s">
+        <v>1167</v>
+      </c>
       <c r="I174" t="s">
         <v>534</v>
       </c>
@@ -6981,6 +8957,9 @@
       <c r="E175" t="s">
         <v>505</v>
       </c>
+      <c r="H175" s="11" t="s">
+        <v>1168</v>
+      </c>
       <c r="I175" t="s">
         <v>534</v>
       </c>
@@ -7001,6 +8980,9 @@
       <c r="E176" t="s">
         <v>505</v>
       </c>
+      <c r="H176" s="11" t="s">
+        <v>1169</v>
+      </c>
       <c r="I176" t="s">
         <v>534</v>
       </c>
@@ -7021,6 +9003,9 @@
       <c r="E177" t="s">
         <v>505</v>
       </c>
+      <c r="H177" s="11" t="s">
+        <v>1170</v>
+      </c>
       <c r="I177" t="s">
         <v>534</v>
       </c>
@@ -7041,6 +9026,9 @@
       <c r="E178" t="s">
         <v>505</v>
       </c>
+      <c r="H178" s="11" t="s">
+        <v>1171</v>
+      </c>
       <c r="I178" t="s">
         <v>534</v>
       </c>
@@ -7061,6 +9049,9 @@
       <c r="E179" t="s">
         <v>505</v>
       </c>
+      <c r="H179" s="11" t="s">
+        <v>1172</v>
+      </c>
       <c r="I179" t="s">
         <v>534</v>
       </c>
@@ -7081,6 +9072,9 @@
       <c r="E180" t="s">
         <v>505</v>
       </c>
+      <c r="H180" s="11" t="s">
+        <v>1173</v>
+      </c>
       <c r="I180" t="s">
         <v>534</v>
       </c>
@@ -7101,6 +9095,9 @@
       <c r="E181" t="s">
         <v>505</v>
       </c>
+      <c r="H181" s="11" t="s">
+        <v>1174</v>
+      </c>
       <c r="I181" t="s">
         <v>534</v>
       </c>
@@ -7121,6 +9118,9 @@
       <c r="E182" t="s">
         <v>505</v>
       </c>
+      <c r="H182" s="11" t="s">
+        <v>1175</v>
+      </c>
       <c r="I182" t="s">
         <v>534</v>
       </c>
@@ -7141,6 +9141,9 @@
       <c r="E183" t="s">
         <v>505</v>
       </c>
+      <c r="H183" s="11" t="s">
+        <v>1176</v>
+      </c>
       <c r="I183" t="s">
         <v>534</v>
       </c>
@@ -7161,6 +9164,9 @@
       <c r="E184" t="s">
         <v>505</v>
       </c>
+      <c r="H184" s="11" t="s">
+        <v>1177</v>
+      </c>
       <c r="I184" t="s">
         <v>534</v>
       </c>
@@ -7181,6 +9187,9 @@
       <c r="E185" t="s">
         <v>505</v>
       </c>
+      <c r="H185" s="11" t="s">
+        <v>1178</v>
+      </c>
       <c r="I185" t="s">
         <v>534</v>
       </c>
@@ -7201,6 +9210,9 @@
       <c r="E186" t="s">
         <v>505</v>
       </c>
+      <c r="H186" s="11" t="s">
+        <v>1179</v>
+      </c>
       <c r="I186" t="s">
         <v>534</v>
       </c>
@@ -7221,6 +9233,9 @@
       <c r="E187" t="s">
         <v>505</v>
       </c>
+      <c r="H187" s="11" t="s">
+        <v>1180</v>
+      </c>
       <c r="I187" t="s">
         <v>534</v>
       </c>
@@ -7241,6 +9256,9 @@
       <c r="E188" t="s">
         <v>505</v>
       </c>
+      <c r="H188" s="11" t="s">
+        <v>1181</v>
+      </c>
       <c r="I188" t="s">
         <v>534</v>
       </c>
@@ -7261,6 +9279,9 @@
       <c r="E189" t="s">
         <v>505</v>
       </c>
+      <c r="H189" s="11" t="s">
+        <v>1182</v>
+      </c>
       <c r="I189" t="s">
         <v>534</v>
       </c>
@@ -7281,6 +9302,9 @@
       <c r="E190" t="s">
         <v>505</v>
       </c>
+      <c r="H190" s="11" t="s">
+        <v>1183</v>
+      </c>
       <c r="I190" t="s">
         <v>534</v>
       </c>
@@ -7301,6 +9325,9 @@
       <c r="E191" t="s">
         <v>505</v>
       </c>
+      <c r="H191" s="11" t="s">
+        <v>1184</v>
+      </c>
       <c r="I191" t="s">
         <v>534</v>
       </c>
@@ -7321,6 +9348,9 @@
       <c r="E192" t="s">
         <v>505</v>
       </c>
+      <c r="H192" s="11" t="s">
+        <v>1185</v>
+      </c>
       <c r="I192" t="s">
         <v>534</v>
       </c>
@@ -7341,6 +9371,9 @@
       <c r="E193" t="s">
         <v>505</v>
       </c>
+      <c r="H193" s="11" t="s">
+        <v>1186</v>
+      </c>
       <c r="I193" t="s">
         <v>534</v>
       </c>
@@ -7361,6 +9394,9 @@
       <c r="E194" t="s">
         <v>505</v>
       </c>
+      <c r="H194" s="11" t="s">
+        <v>1187</v>
+      </c>
       <c r="I194" t="s">
         <v>534</v>
       </c>
@@ -7381,6 +9417,9 @@
       <c r="E195" t="s">
         <v>505</v>
       </c>
+      <c r="H195" s="11" t="s">
+        <v>1188</v>
+      </c>
       <c r="I195" t="s">
         <v>534</v>
       </c>
@@ -7401,6 +9440,9 @@
       <c r="E196" t="s">
         <v>505</v>
       </c>
+      <c r="H196" s="11" t="s">
+        <v>1189</v>
+      </c>
       <c r="I196" t="s">
         <v>534</v>
       </c>
@@ -7421,6 +9463,9 @@
       <c r="E197" t="s">
         <v>505</v>
       </c>
+      <c r="H197" s="11" t="s">
+        <v>1190</v>
+      </c>
       <c r="I197" t="s">
         <v>534</v>
       </c>
@@ -7441,6 +9486,9 @@
       <c r="E198" t="s">
         <v>505</v>
       </c>
+      <c r="H198" s="11" t="s">
+        <v>1191</v>
+      </c>
       <c r="I198" t="s">
         <v>534</v>
       </c>
@@ -7461,6 +9509,9 @@
       <c r="E199" t="s">
         <v>505</v>
       </c>
+      <c r="H199" s="11" t="s">
+        <v>1192</v>
+      </c>
       <c r="I199" t="s">
         <v>534</v>
       </c>
@@ -7481,6 +9532,9 @@
       <c r="E200" t="s">
         <v>505</v>
       </c>
+      <c r="H200" s="11" t="s">
+        <v>1193</v>
+      </c>
       <c r="I200" t="s">
         <v>534</v>
       </c>
@@ -7501,6 +9555,9 @@
       <c r="E201" t="s">
         <v>505</v>
       </c>
+      <c r="H201" s="11" t="s">
+        <v>1194</v>
+      </c>
       <c r="I201" t="s">
         <v>534</v>
       </c>
@@ -7521,6 +9578,9 @@
       <c r="E202" t="s">
         <v>505</v>
       </c>
+      <c r="H202" s="11" t="s">
+        <v>1195</v>
+      </c>
       <c r="I202" t="s">
         <v>534</v>
       </c>
@@ -7541,6 +9601,9 @@
       <c r="E203" t="s">
         <v>505</v>
       </c>
+      <c r="H203" s="11" t="s">
+        <v>1196</v>
+      </c>
       <c r="I203" t="s">
         <v>534</v>
       </c>
@@ -7561,6 +9624,9 @@
       <c r="E204" t="s">
         <v>505</v>
       </c>
+      <c r="H204" s="11" t="s">
+        <v>1197</v>
+      </c>
       <c r="I204" t="s">
         <v>534</v>
       </c>
@@ -7581,6 +9647,9 @@
       <c r="E205" t="s">
         <v>505</v>
       </c>
+      <c r="H205" s="11" t="s">
+        <v>1198</v>
+      </c>
       <c r="I205" t="s">
         <v>534</v>
       </c>
@@ -7601,6 +9670,9 @@
       <c r="E206" t="s">
         <v>505</v>
       </c>
+      <c r="H206" s="11" t="s">
+        <v>1199</v>
+      </c>
       <c r="I206" t="s">
         <v>534</v>
       </c>
@@ -7621,6 +9693,9 @@
       <c r="E207" t="s">
         <v>505</v>
       </c>
+      <c r="H207" s="11" t="s">
+        <v>1200</v>
+      </c>
       <c r="I207" t="s">
         <v>534</v>
       </c>
@@ -7641,6 +9716,9 @@
       <c r="E208" t="s">
         <v>505</v>
       </c>
+      <c r="H208" s="11" t="s">
+        <v>1201</v>
+      </c>
       <c r="I208" t="s">
         <v>534</v>
       </c>
@@ -7661,6 +9739,9 @@
       <c r="E209" t="s">
         <v>505</v>
       </c>
+      <c r="H209" s="11" t="s">
+        <v>1202</v>
+      </c>
       <c r="I209" t="s">
         <v>534</v>
       </c>
@@ -7681,6 +9762,9 @@
       <c r="E210" t="s">
         <v>505</v>
       </c>
+      <c r="H210" s="11" t="s">
+        <v>1203</v>
+      </c>
       <c r="I210" t="s">
         <v>534</v>
       </c>
@@ -7701,6 +9785,9 @@
       <c r="E211" t="s">
         <v>505</v>
       </c>
+      <c r="H211" s="11" t="s">
+        <v>1204</v>
+      </c>
       <c r="I211" t="s">
         <v>534</v>
       </c>
@@ -7721,6 +9808,9 @@
       <c r="E212" t="s">
         <v>505</v>
       </c>
+      <c r="H212" s="11" t="s">
+        <v>1205</v>
+      </c>
       <c r="I212" t="s">
         <v>534</v>
       </c>
@@ -7741,6 +9831,9 @@
       <c r="E213" t="s">
         <v>505</v>
       </c>
+      <c r="H213" s="11" t="s">
+        <v>1206</v>
+      </c>
       <c r="I213" t="s">
         <v>534</v>
       </c>
@@ -7761,6 +9854,9 @@
       <c r="E214" t="s">
         <v>505</v>
       </c>
+      <c r="H214" s="11" t="s">
+        <v>1207</v>
+      </c>
       <c r="I214" t="s">
         <v>534</v>
       </c>
@@ -7781,6 +9877,9 @@
       <c r="E215" t="s">
         <v>505</v>
       </c>
+      <c r="H215" s="11" t="s">
+        <v>1208</v>
+      </c>
       <c r="I215" t="s">
         <v>534</v>
       </c>
@@ -7801,6 +9900,9 @@
       <c r="E216" t="s">
         <v>505</v>
       </c>
+      <c r="H216" s="11" t="s">
+        <v>1209</v>
+      </c>
       <c r="I216" t="s">
         <v>534</v>
       </c>
@@ -7821,6 +9923,9 @@
       <c r="E217" t="s">
         <v>505</v>
       </c>
+      <c r="H217" s="11" t="s">
+        <v>1210</v>
+      </c>
       <c r="I217" t="s">
         <v>534</v>
       </c>
@@ -7841,6 +9946,9 @@
       <c r="E218" t="s">
         <v>505</v>
       </c>
+      <c r="H218" s="11" t="s">
+        <v>1211</v>
+      </c>
       <c r="I218" t="s">
         <v>534</v>
       </c>
@@ -7861,6 +9969,9 @@
       <c r="E219" t="s">
         <v>505</v>
       </c>
+      <c r="H219" s="11" t="s">
+        <v>1212</v>
+      </c>
       <c r="I219" t="s">
         <v>534</v>
       </c>
@@ -7881,6 +9992,9 @@
       <c r="E220" t="s">
         <v>505</v>
       </c>
+      <c r="H220" s="11" t="s">
+        <v>1213</v>
+      </c>
       <c r="I220" t="s">
         <v>534</v>
       </c>
@@ -7901,6 +10015,9 @@
       <c r="E221" t="s">
         <v>505</v>
       </c>
+      <c r="H221" s="11" t="s">
+        <v>1214</v>
+      </c>
       <c r="I221" t="s">
         <v>534</v>
       </c>
@@ -7921,6 +10038,9 @@
       <c r="E222" t="s">
         <v>505</v>
       </c>
+      <c r="H222" s="11" t="s">
+        <v>1215</v>
+      </c>
       <c r="I222" t="s">
         <v>534</v>
       </c>
@@ -7941,6 +10061,9 @@
       <c r="E223" t="s">
         <v>505</v>
       </c>
+      <c r="H223" s="11" t="s">
+        <v>1216</v>
+      </c>
       <c r="I223" t="s">
         <v>534</v>
       </c>
@@ -7961,6 +10084,9 @@
       <c r="E224" t="s">
         <v>505</v>
       </c>
+      <c r="H224" s="11" t="s">
+        <v>1217</v>
+      </c>
       <c r="I224" t="s">
         <v>534</v>
       </c>
@@ -7981,6 +10107,9 @@
       <c r="E225" t="s">
         <v>505</v>
       </c>
+      <c r="H225" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I225" t="s">
         <v>534</v>
       </c>
@@ -8001,6 +10130,9 @@
       <c r="E226" t="s">
         <v>505</v>
       </c>
+      <c r="H226" s="11" t="s">
+        <v>1219</v>
+      </c>
       <c r="I226" t="s">
         <v>534</v>
       </c>
@@ -8021,6 +10153,9 @@
       <c r="E227" t="s">
         <v>505</v>
       </c>
+      <c r="H227" s="11" t="s">
+        <v>1220</v>
+      </c>
       <c r="I227" t="s">
         <v>534</v>
       </c>
@@ -8041,6 +10176,9 @@
       <c r="E228" t="s">
         <v>505</v>
       </c>
+      <c r="H228" s="11" t="s">
+        <v>1221</v>
+      </c>
       <c r="I228" t="s">
         <v>534</v>
       </c>
@@ -8061,6 +10199,9 @@
       <c r="E229" t="s">
         <v>505</v>
       </c>
+      <c r="H229" s="11" t="s">
+        <v>1222</v>
+      </c>
       <c r="I229" t="s">
         <v>534</v>
       </c>
@@ -8081,6 +10222,9 @@
       <c r="E230" t="s">
         <v>505</v>
       </c>
+      <c r="H230" s="11" t="s">
+        <v>1223</v>
+      </c>
       <c r="I230" t="s">
         <v>534</v>
       </c>
@@ -8101,6 +10245,9 @@
       <c r="E231" t="s">
         <v>505</v>
       </c>
+      <c r="H231" s="11" t="s">
+        <v>1224</v>
+      </c>
       <c r="I231" t="s">
         <v>534</v>
       </c>
@@ -8121,6 +10268,9 @@
       <c r="E232" t="s">
         <v>505</v>
       </c>
+      <c r="H232" s="11" t="s">
+        <v>1225</v>
+      </c>
       <c r="I232" t="s">
         <v>534</v>
       </c>
@@ -8141,6 +10291,9 @@
       <c r="E233" t="s">
         <v>505</v>
       </c>
+      <c r="H233" s="11" t="s">
+        <v>1226</v>
+      </c>
       <c r="I233" t="s">
         <v>534</v>
       </c>
@@ -8161,6 +10314,9 @@
       <c r="E234" t="s">
         <v>505</v>
       </c>
+      <c r="H234" s="11" t="s">
+        <v>1227</v>
+      </c>
       <c r="I234" t="s">
         <v>534</v>
       </c>
@@ -8181,6 +10337,9 @@
       <c r="E235" t="s">
         <v>505</v>
       </c>
+      <c r="H235" s="11" t="s">
+        <v>1228</v>
+      </c>
       <c r="I235" t="s">
         <v>534</v>
       </c>
@@ -8201,6 +10360,9 @@
       <c r="E236" t="s">
         <v>505</v>
       </c>
+      <c r="H236" s="11" t="s">
+        <v>1117</v>
+      </c>
       <c r="I236" t="s">
         <v>534</v>
       </c>
@@ -8221,6 +10383,9 @@
       <c r="E237" t="s">
         <v>505</v>
       </c>
+      <c r="H237" s="11" t="s">
+        <v>1229</v>
+      </c>
       <c r="I237" t="s">
         <v>533</v>
       </c>
@@ -8241,6 +10406,9 @@
       <c r="E238" t="s">
         <v>505</v>
       </c>
+      <c r="H238" s="11" t="s">
+        <v>1230</v>
+      </c>
       <c r="I238" t="s">
         <v>533</v>
       </c>
@@ -8261,6 +10429,9 @@
       <c r="E239" t="s">
         <v>505</v>
       </c>
+      <c r="H239" s="11" t="s">
+        <v>1231</v>
+      </c>
       <c r="I239" t="s">
         <v>533</v>
       </c>
@@ -8281,6 +10452,9 @@
       <c r="E240" t="s">
         <v>505</v>
       </c>
+      <c r="H240" s="11" t="s">
+        <v>1232</v>
+      </c>
       <c r="I240" t="s">
         <v>533</v>
       </c>
@@ -8301,6 +10475,9 @@
       <c r="E241" t="s">
         <v>505</v>
       </c>
+      <c r="H241" s="11" t="s">
+        <v>1233</v>
+      </c>
       <c r="I241" t="s">
         <v>533</v>
       </c>
@@ -8321,6 +10498,9 @@
       <c r="E242" t="s">
         <v>505</v>
       </c>
+      <c r="H242" s="11" t="s">
+        <v>1234</v>
+      </c>
       <c r="I242" t="s">
         <v>533</v>
       </c>
@@ -8341,6 +10521,9 @@
       <c r="E243" t="s">
         <v>505</v>
       </c>
+      <c r="H243" s="11" t="s">
+        <v>1235</v>
+      </c>
       <c r="I243" t="s">
         <v>533</v>
       </c>
@@ -8361,6 +10544,9 @@
       <c r="E244" t="s">
         <v>505</v>
       </c>
+      <c r="H244" s="11" t="s">
+        <v>1236</v>
+      </c>
       <c r="I244" t="s">
         <v>533</v>
       </c>
@@ -8381,6 +10567,9 @@
       <c r="E245" t="s">
         <v>505</v>
       </c>
+      <c r="H245" s="11" t="s">
+        <v>1237</v>
+      </c>
       <c r="I245" t="s">
         <v>533</v>
       </c>
@@ -8401,6 +10590,9 @@
       <c r="E246" t="s">
         <v>505</v>
       </c>
+      <c r="H246" s="11" t="s">
+        <v>1238</v>
+      </c>
       <c r="I246" t="s">
         <v>533</v>
       </c>
@@ -8421,6 +10613,9 @@
       <c r="E247" t="s">
         <v>505</v>
       </c>
+      <c r="H247" s="11" t="s">
+        <v>1239</v>
+      </c>
       <c r="I247" t="s">
         <v>533</v>
       </c>
@@ -8441,6 +10636,9 @@
       <c r="E248" t="s">
         <v>505</v>
       </c>
+      <c r="H248" s="11" t="s">
+        <v>1240</v>
+      </c>
       <c r="I248" t="s">
         <v>533</v>
       </c>
@@ -8461,6 +10659,9 @@
       <c r="E249" t="s">
         <v>505</v>
       </c>
+      <c r="H249" s="11" t="s">
+        <v>1241</v>
+      </c>
       <c r="I249" t="s">
         <v>533</v>
       </c>
@@ -8481,6 +10682,9 @@
       <c r="E250" t="s">
         <v>505</v>
       </c>
+      <c r="H250" s="11" t="s">
+        <v>1242</v>
+      </c>
       <c r="I250" t="s">
         <v>533</v>
       </c>
@@ -8501,6 +10705,9 @@
       <c r="E251" t="s">
         <v>505</v>
       </c>
+      <c r="H251" s="11" t="s">
+        <v>1243</v>
+      </c>
       <c r="I251" t="s">
         <v>533</v>
       </c>
@@ -8521,6 +10728,9 @@
       <c r="E252" t="s">
         <v>505</v>
       </c>
+      <c r="H252" s="11" t="s">
+        <v>1244</v>
+      </c>
       <c r="I252" t="s">
         <v>533</v>
       </c>
@@ -8541,6 +10751,9 @@
       <c r="E253" t="s">
         <v>505</v>
       </c>
+      <c r="H253" s="11" t="s">
+        <v>1245</v>
+      </c>
       <c r="I253" t="s">
         <v>533</v>
       </c>
@@ -8561,6 +10774,9 @@
       <c r="E254" t="s">
         <v>505</v>
       </c>
+      <c r="H254" s="11" t="s">
+        <v>1246</v>
+      </c>
       <c r="I254" t="s">
         <v>533</v>
       </c>
@@ -8581,6 +10797,9 @@
       <c r="E255" t="s">
         <v>505</v>
       </c>
+      <c r="H255" s="11" t="s">
+        <v>1247</v>
+      </c>
       <c r="I255" t="s">
         <v>533</v>
       </c>
@@ -8601,6 +10820,9 @@
       <c r="E256" t="s">
         <v>505</v>
       </c>
+      <c r="H256" s="11" t="s">
+        <v>1248</v>
+      </c>
       <c r="I256" t="s">
         <v>533</v>
       </c>
@@ -8621,6 +10843,9 @@
       <c r="E257" t="s">
         <v>505</v>
       </c>
+      <c r="H257" s="11" t="s">
+        <v>1249</v>
+      </c>
       <c r="I257" t="s">
         <v>533</v>
       </c>
@@ -8641,6 +10866,9 @@
       <c r="E258" t="s">
         <v>505</v>
       </c>
+      <c r="H258" s="11" t="s">
+        <v>1250</v>
+      </c>
       <c r="I258" t="s">
         <v>533</v>
       </c>
@@ -8661,6 +10889,9 @@
       <c r="E259" t="s">
         <v>505</v>
       </c>
+      <c r="H259" s="11" t="s">
+        <v>1251</v>
+      </c>
       <c r="I259" t="s">
         <v>533</v>
       </c>
@@ -8681,6 +10912,9 @@
       <c r="E260" t="s">
         <v>505</v>
       </c>
+      <c r="H260" s="11" t="s">
+        <v>1252</v>
+      </c>
       <c r="I260" t="s">
         <v>533</v>
       </c>
@@ -8701,6 +10935,9 @@
       <c r="E261" t="s">
         <v>505</v>
       </c>
+      <c r="H261" s="11" t="s">
+        <v>1253</v>
+      </c>
       <c r="I261" t="s">
         <v>533</v>
       </c>
@@ -8721,6 +10958,9 @@
       <c r="E262" t="s">
         <v>505</v>
       </c>
+      <c r="H262" s="11" t="s">
+        <v>1254</v>
+      </c>
       <c r="I262" t="s">
         <v>533</v>
       </c>
@@ -8741,6 +10981,9 @@
       <c r="E263" t="s">
         <v>505</v>
       </c>
+      <c r="H263" s="11" t="s">
+        <v>1255</v>
+      </c>
       <c r="I263" t="s">
         <v>533</v>
       </c>
@@ -8761,6 +11004,9 @@
       <c r="E264" t="s">
         <v>505</v>
       </c>
+      <c r="H264" s="11" t="s">
+        <v>1256</v>
+      </c>
       <c r="I264" t="s">
         <v>533</v>
       </c>
@@ -8781,6 +11027,9 @@
       <c r="E265" t="s">
         <v>505</v>
       </c>
+      <c r="H265" s="11" t="s">
+        <v>1257</v>
+      </c>
       <c r="I265" t="s">
         <v>533</v>
       </c>
@@ -8801,6 +11050,9 @@
       <c r="E266" t="s">
         <v>505</v>
       </c>
+      <c r="H266" s="11" t="s">
+        <v>1258</v>
+      </c>
       <c r="I266" t="s">
         <v>533</v>
       </c>
@@ -8821,6 +11073,9 @@
       <c r="E267" t="s">
         <v>505</v>
       </c>
+      <c r="H267" s="11" t="s">
+        <v>1259</v>
+      </c>
       <c r="I267" t="s">
         <v>533</v>
       </c>
@@ -8841,6 +11096,9 @@
       <c r="E268" t="s">
         <v>505</v>
       </c>
+      <c r="H268" s="11" t="s">
+        <v>1260</v>
+      </c>
       <c r="I268" t="s">
         <v>533</v>
       </c>
@@ -8861,6 +11119,9 @@
       <c r="E269" t="s">
         <v>505</v>
       </c>
+      <c r="H269" s="11" t="s">
+        <v>1261</v>
+      </c>
       <c r="I269" t="s">
         <v>533</v>
       </c>
@@ -8881,6 +11142,9 @@
       <c r="E270" t="s">
         <v>505</v>
       </c>
+      <c r="H270" s="11" t="s">
+        <v>1262</v>
+      </c>
       <c r="I270" t="s">
         <v>533</v>
       </c>
@@ -8901,6 +11165,9 @@
       <c r="E271" t="s">
         <v>505</v>
       </c>
+      <c r="H271" s="11" t="s">
+        <v>1263</v>
+      </c>
       <c r="I271" t="s">
         <v>533</v>
       </c>
@@ -8921,6 +11188,9 @@
       <c r="E272" t="s">
         <v>505</v>
       </c>
+      <c r="H272" s="11" t="s">
+        <v>1264</v>
+      </c>
       <c r="I272" t="s">
         <v>533</v>
       </c>
@@ -8941,6 +11211,9 @@
       <c r="E273" t="s">
         <v>505</v>
       </c>
+      <c r="H273" s="11" t="s">
+        <v>1265</v>
+      </c>
       <c r="I273" t="s">
         <v>533</v>
       </c>
@@ -8961,6 +11234,9 @@
       <c r="E274" t="s">
         <v>505</v>
       </c>
+      <c r="H274" s="11" t="s">
+        <v>1266</v>
+      </c>
       <c r="I274" t="s">
         <v>533</v>
       </c>
@@ -8981,6 +11257,9 @@
       <c r="E275" t="s">
         <v>505</v>
       </c>
+      <c r="H275" s="11" t="s">
+        <v>1267</v>
+      </c>
       <c r="I275" t="s">
         <v>533</v>
       </c>
@@ -9001,6 +11280,9 @@
       <c r="E276" t="s">
         <v>505</v>
       </c>
+      <c r="H276" s="11" t="s">
+        <v>1268</v>
+      </c>
       <c r="I276" t="s">
         <v>533</v>
       </c>
@@ -9021,6 +11303,9 @@
       <c r="E277" t="s">
         <v>505</v>
       </c>
+      <c r="H277" s="11" t="s">
+        <v>1269</v>
+      </c>
       <c r="I277" t="s">
         <v>533</v>
       </c>
@@ -9041,6 +11326,9 @@
       <c r="E278" t="s">
         <v>505</v>
       </c>
+      <c r="H278" s="11" t="s">
+        <v>1270</v>
+      </c>
       <c r="I278" t="s">
         <v>533</v>
       </c>
@@ -9061,6 +11349,9 @@
       <c r="E279" t="s">
         <v>505</v>
       </c>
+      <c r="H279" s="11" t="s">
+        <v>1271</v>
+      </c>
       <c r="I279" t="s">
         <v>533</v>
       </c>
@@ -9081,6 +11372,9 @@
       <c r="E280" t="s">
         <v>505</v>
       </c>
+      <c r="H280" s="11" t="s">
+        <v>1272</v>
+      </c>
       <c r="I280" t="s">
         <v>533</v>
       </c>
@@ -9101,6 +11395,9 @@
       <c r="E281" t="s">
         <v>505</v>
       </c>
+      <c r="H281" s="11" t="s">
+        <v>1273</v>
+      </c>
       <c r="I281" t="s">
         <v>533</v>
       </c>
@@ -9121,6 +11418,9 @@
       <c r="E282" t="s">
         <v>505</v>
       </c>
+      <c r="H282" s="11" t="s">
+        <v>1274</v>
+      </c>
       <c r="I282" t="s">
         <v>533</v>
       </c>
@@ -9141,6 +11441,9 @@
       <c r="E283" t="s">
         <v>505</v>
       </c>
+      <c r="H283" s="11" t="s">
+        <v>1275</v>
+      </c>
       <c r="I283" t="s">
         <v>533</v>
       </c>
@@ -9161,6 +11464,9 @@
       <c r="E284" t="s">
         <v>505</v>
       </c>
+      <c r="H284" s="11" t="s">
+        <v>1276</v>
+      </c>
       <c r="I284" t="s">
         <v>533</v>
       </c>
@@ -9181,6 +11487,9 @@
       <c r="E285" t="s">
         <v>505</v>
       </c>
+      <c r="H285" s="11" t="s">
+        <v>1277</v>
+      </c>
       <c r="I285" t="s">
         <v>533</v>
       </c>
@@ -9201,6 +11510,9 @@
       <c r="E286" t="s">
         <v>505</v>
       </c>
+      <c r="H286" s="11" t="s">
+        <v>1278</v>
+      </c>
       <c r="I286" t="s">
         <v>533</v>
       </c>
@@ -9221,6 +11533,9 @@
       <c r="E287" t="s">
         <v>505</v>
       </c>
+      <c r="H287" s="11" t="s">
+        <v>1279</v>
+      </c>
       <c r="I287" t="s">
         <v>533</v>
       </c>
@@ -9241,6 +11556,9 @@
       <c r="E288" t="s">
         <v>505</v>
       </c>
+      <c r="H288" s="11" t="s">
+        <v>1280</v>
+      </c>
       <c r="I288" t="s">
         <v>533</v>
       </c>
@@ -9261,6 +11579,9 @@
       <c r="E289" t="s">
         <v>505</v>
       </c>
+      <c r="H289" s="11" t="s">
+        <v>1281</v>
+      </c>
       <c r="I289" t="s">
         <v>535</v>
       </c>
@@ -9281,6 +11602,9 @@
       <c r="E290" t="s">
         <v>505</v>
       </c>
+      <c r="H290" s="11" t="s">
+        <v>1282</v>
+      </c>
       <c r="I290" t="s">
         <v>535</v>
       </c>
@@ -9301,6 +11625,9 @@
       <c r="E291" t="s">
         <v>505</v>
       </c>
+      <c r="H291" s="11" t="s">
+        <v>1283</v>
+      </c>
       <c r="I291" t="s">
         <v>535</v>
       </c>
@@ -9321,6 +11648,9 @@
       <c r="E292" t="s">
         <v>505</v>
       </c>
+      <c r="H292" s="11" t="s">
+        <v>1284</v>
+      </c>
       <c r="I292" t="s">
         <v>535</v>
       </c>
@@ -9341,6 +11671,9 @@
       <c r="E293" t="s">
         <v>505</v>
       </c>
+      <c r="H293" s="11" t="s">
+        <v>1097</v>
+      </c>
       <c r="I293" t="s">
         <v>535</v>
       </c>
@@ -9361,6 +11694,9 @@
       <c r="E294" t="s">
         <v>505</v>
       </c>
+      <c r="H294" s="11" t="s">
+        <v>1285</v>
+      </c>
       <c r="I294" t="s">
         <v>535</v>
       </c>
@@ -9381,6 +11717,9 @@
       <c r="E295" t="s">
         <v>505</v>
       </c>
+      <c r="H295" s="11" t="s">
+        <v>1286</v>
+      </c>
       <c r="I295" t="s">
         <v>535</v>
       </c>
@@ -9401,6 +11740,9 @@
       <c r="E296" t="s">
         <v>505</v>
       </c>
+      <c r="H296" s="11" t="s">
+        <v>1287</v>
+      </c>
       <c r="I296" t="s">
         <v>535</v>
       </c>
@@ -9421,6 +11763,9 @@
       <c r="E297" t="s">
         <v>505</v>
       </c>
+      <c r="H297" s="11" t="s">
+        <v>1288</v>
+      </c>
       <c r="I297" t="s">
         <v>535</v>
       </c>
@@ -9441,6 +11786,9 @@
       <c r="E298" t="s">
         <v>505</v>
       </c>
+      <c r="H298" s="11" t="s">
+        <v>1289</v>
+      </c>
       <c r="I298" t="s">
         <v>535</v>
       </c>
@@ -9461,6 +11809,9 @@
       <c r="E299" t="s">
         <v>505</v>
       </c>
+      <c r="H299" s="11" t="s">
+        <v>1290</v>
+      </c>
       <c r="I299" t="s">
         <v>535</v>
       </c>
@@ -9481,6 +11832,9 @@
       <c r="E300" t="s">
         <v>505</v>
       </c>
+      <c r="H300" s="11" t="s">
+        <v>1291</v>
+      </c>
       <c r="I300" t="s">
         <v>535</v>
       </c>
@@ -9501,6 +11855,9 @@
       <c r="E301" t="s">
         <v>505</v>
       </c>
+      <c r="H301" s="11" t="s">
+        <v>1292</v>
+      </c>
       <c r="I301" t="s">
         <v>535</v>
       </c>
@@ -9521,6 +11878,9 @@
       <c r="E302" t="s">
         <v>505</v>
       </c>
+      <c r="H302" s="11" t="s">
+        <v>1293</v>
+      </c>
       <c r="I302" t="s">
         <v>535</v>
       </c>
@@ -9541,6 +11901,9 @@
       <c r="E303" t="s">
         <v>505</v>
       </c>
+      <c r="H303" s="11" t="s">
+        <v>1294</v>
+      </c>
       <c r="I303" t="s">
         <v>535</v>
       </c>
@@ -9561,6 +11924,9 @@
       <c r="E304" t="s">
         <v>505</v>
       </c>
+      <c r="H304" s="11" t="s">
+        <v>1295</v>
+      </c>
       <c r="I304" t="s">
         <v>535</v>
       </c>
@@ -9581,6 +11947,9 @@
       <c r="E305" t="s">
         <v>505</v>
       </c>
+      <c r="H305" s="11" t="s">
+        <v>1296</v>
+      </c>
       <c r="I305" t="s">
         <v>535</v>
       </c>
@@ -9601,6 +11970,9 @@
       <c r="E306" t="s">
         <v>505</v>
       </c>
+      <c r="H306" s="11" t="s">
+        <v>1297</v>
+      </c>
       <c r="I306" t="s">
         <v>535</v>
       </c>
@@ -9621,6 +11993,9 @@
       <c r="E307" t="s">
         <v>505</v>
       </c>
+      <c r="H307" s="11" t="s">
+        <v>1218</v>
+      </c>
       <c r="I307" t="s">
         <v>535</v>
       </c>
@@ -9641,6 +12016,9 @@
       <c r="E308" t="s">
         <v>505</v>
       </c>
+      <c r="H308" s="11" t="s">
+        <v>1298</v>
+      </c>
       <c r="I308" t="s">
         <v>535</v>
       </c>
@@ -9661,6 +12039,9 @@
       <c r="E309" t="s">
         <v>505</v>
       </c>
+      <c r="H309" s="11" t="s">
+        <v>1299</v>
+      </c>
       <c r="I309" t="s">
         <v>535</v>
       </c>
@@ -9681,6 +12062,9 @@
       <c r="E310" t="s">
         <v>505</v>
       </c>
+      <c r="H310" s="11" t="s">
+        <v>1300</v>
+      </c>
       <c r="I310" t="s">
         <v>535</v>
       </c>
@@ -9701,6 +12085,9 @@
       <c r="E311" t="s">
         <v>505</v>
       </c>
+      <c r="H311" s="11" t="s">
+        <v>1301</v>
+      </c>
       <c r="I311" t="s">
         <v>535</v>
       </c>
@@ -9721,6 +12108,9 @@
       <c r="E312" t="s">
         <v>505</v>
       </c>
+      <c r="H312" s="11" t="s">
+        <v>1302</v>
+      </c>
       <c r="I312" t="s">
         <v>535</v>
       </c>
@@ -9741,6 +12131,9 @@
       <c r="E313" t="s">
         <v>505</v>
       </c>
+      <c r="H313" s="11" t="s">
+        <v>1303</v>
+      </c>
       <c r="I313" t="s">
         <v>535</v>
       </c>
@@ -9761,6 +12154,9 @@
       <c r="E314" t="s">
         <v>505</v>
       </c>
+      <c r="H314" s="11" t="s">
+        <v>1089</v>
+      </c>
       <c r="I314" t="s">
         <v>535</v>
       </c>
@@ -9781,6 +12177,9 @@
       <c r="E315" t="s">
         <v>505</v>
       </c>
+      <c r="H315" s="11" t="s">
+        <v>1304</v>
+      </c>
       <c r="I315" t="s">
         <v>535</v>
       </c>
@@ -9801,6 +12200,9 @@
       <c r="E316" t="s">
         <v>505</v>
       </c>
+      <c r="H316" s="11" t="s">
+        <v>1305</v>
+      </c>
       <c r="I316" t="s">
         <v>535</v>
       </c>
@@ -9821,6 +12223,9 @@
       <c r="E317" t="s">
         <v>505</v>
       </c>
+      <c r="H317" s="11" t="s">
+        <v>1306</v>
+      </c>
       <c r="I317" t="s">
         <v>535</v>
       </c>
@@ -9841,6 +12246,9 @@
       <c r="E318" t="s">
         <v>505</v>
       </c>
+      <c r="H318" s="11" t="s">
+        <v>1307</v>
+      </c>
       <c r="I318" t="s">
         <v>535</v>
       </c>
@@ -9861,6 +12269,9 @@
       <c r="E319" t="s">
         <v>505</v>
       </c>
+      <c r="H319" s="11" t="s">
+        <v>1308</v>
+      </c>
       <c r="I319" t="s">
         <v>535</v>
       </c>
@@ -9881,6 +12292,9 @@
       <c r="E320" t="s">
         <v>505</v>
       </c>
+      <c r="H320" s="11" t="s">
+        <v>1309</v>
+      </c>
       <c r="I320" t="s">
         <v>535</v>
       </c>
@@ -9901,6 +12315,9 @@
       <c r="E321" t="s">
         <v>505</v>
       </c>
+      <c r="H321" s="11" t="s">
+        <v>1310</v>
+      </c>
       <c r="I321" t="s">
         <v>535</v>
       </c>
@@ -9921,6 +12338,9 @@
       <c r="E322" t="s">
         <v>505</v>
       </c>
+      <c r="H322" s="11" t="s">
+        <v>1311</v>
+      </c>
       <c r="I322" t="s">
         <v>535</v>
       </c>
@@ -9941,6 +12361,9 @@
       <c r="E323" t="s">
         <v>505</v>
       </c>
+      <c r="H323" s="11" t="s">
+        <v>1312</v>
+      </c>
       <c r="I323" t="s">
         <v>535</v>
       </c>
@@ -9961,6 +12384,9 @@
       <c r="E324" t="s">
         <v>505</v>
       </c>
+      <c r="H324" s="11" t="s">
+        <v>1313</v>
+      </c>
       <c r="I324" t="s">
         <v>535</v>
       </c>
@@ -9981,6 +12407,9 @@
       <c r="E325" t="s">
         <v>505</v>
       </c>
+      <c r="H325" s="11" t="s">
+        <v>1314</v>
+      </c>
       <c r="I325" t="s">
         <v>535</v>
       </c>
@@ -10001,6 +12430,9 @@
       <c r="E326" t="s">
         <v>505</v>
       </c>
+      <c r="H326" s="11" t="s">
+        <v>1315</v>
+      </c>
       <c r="I326" t="s">
         <v>535</v>
       </c>
@@ -10021,6 +12453,9 @@
       <c r="E327" t="s">
         <v>505</v>
       </c>
+      <c r="H327" s="11" t="s">
+        <v>1316</v>
+      </c>
       <c r="I327" t="s">
         <v>535</v>
       </c>
@@ -10041,6 +12476,9 @@
       <c r="E328" t="s">
         <v>505</v>
       </c>
+      <c r="H328" s="11" t="s">
+        <v>1317</v>
+      </c>
       <c r="I328" t="s">
         <v>535</v>
       </c>
@@ -10061,6 +12499,9 @@
       <c r="E329" t="s">
         <v>505</v>
       </c>
+      <c r="H329" s="11" t="s">
+        <v>1318</v>
+      </c>
       <c r="I329" t="s">
         <v>535</v>
       </c>
@@ -10081,6 +12522,9 @@
       <c r="E330" t="s">
         <v>505</v>
       </c>
+      <c r="H330" s="11" t="s">
+        <v>1319</v>
+      </c>
       <c r="I330" t="s">
         <v>535</v>
       </c>
@@ -10101,6 +12545,9 @@
       <c r="E331" t="s">
         <v>505</v>
       </c>
+      <c r="H331" s="11" t="s">
+        <v>1320</v>
+      </c>
       <c r="I331" t="s">
         <v>535</v>
       </c>
@@ -10121,6 +12568,9 @@
       <c r="E332" t="s">
         <v>505</v>
       </c>
+      <c r="H332" s="11" t="s">
+        <v>1321</v>
+      </c>
       <c r="I332" t="s">
         <v>535</v>
       </c>
@@ -10141,6 +12591,9 @@
       <c r="E333" t="s">
         <v>505</v>
       </c>
+      <c r="H333" s="11" t="s">
+        <v>1322</v>
+      </c>
       <c r="I333" t="s">
         <v>535</v>
       </c>
@@ -10161,6 +12614,9 @@
       <c r="E334" t="s">
         <v>505</v>
       </c>
+      <c r="H334" s="11" t="s">
+        <v>1323</v>
+      </c>
       <c r="I334" t="s">
         <v>535</v>
       </c>
@@ -10181,6 +12637,9 @@
       <c r="E335" t="s">
         <v>505</v>
       </c>
+      <c r="H335" s="11" t="s">
+        <v>1324</v>
+      </c>
       <c r="I335" t="s">
         <v>535</v>
       </c>
@@ -10201,6 +12660,9 @@
       <c r="E336" t="s">
         <v>505</v>
       </c>
+      <c r="H336" s="11" t="s">
+        <v>1325</v>
+      </c>
       <c r="I336" t="s">
         <v>535</v>
       </c>
@@ -10221,6 +12683,9 @@
       <c r="E337" t="s">
         <v>505</v>
       </c>
+      <c r="H337" s="11" t="s">
+        <v>1326</v>
+      </c>
       <c r="I337" t="s">
         <v>535</v>
       </c>
@@ -10241,6 +12706,9 @@
       <c r="E338" t="s">
         <v>505</v>
       </c>
+      <c r="H338" s="11" t="s">
+        <v>1327</v>
+      </c>
       <c r="I338" t="s">
         <v>535</v>
       </c>
@@ -10261,6 +12729,9 @@
       <c r="E339" t="s">
         <v>505</v>
       </c>
+      <c r="H339" s="11" t="s">
+        <v>1328</v>
+      </c>
       <c r="I339" t="s">
         <v>535</v>
       </c>
@@ -10281,6 +12752,9 @@
       <c r="E340" t="s">
         <v>505</v>
       </c>
+      <c r="H340" s="11" t="s">
+        <v>1329</v>
+      </c>
       <c r="I340" t="s">
         <v>535</v>
       </c>
@@ -10301,6 +12775,9 @@
       <c r="E341" t="s">
         <v>505</v>
       </c>
+      <c r="H341" s="11" t="s">
+        <v>1330</v>
+      </c>
       <c r="I341" t="s">
         <v>535</v>
       </c>
@@ -10321,6 +12798,9 @@
       <c r="E342" t="s">
         <v>505</v>
       </c>
+      <c r="H342" s="11" t="s">
+        <v>1331</v>
+      </c>
       <c r="I342" t="s">
         <v>535</v>
       </c>
@@ -10341,6 +12821,9 @@
       <c r="E343" t="s">
         <v>505</v>
       </c>
+      <c r="H343" s="11" t="s">
+        <v>1332</v>
+      </c>
       <c r="I343" t="s">
         <v>535</v>
       </c>
@@ -10361,6 +12844,9 @@
       <c r="E344" t="s">
         <v>505</v>
       </c>
+      <c r="H344" s="11" t="s">
+        <v>1333</v>
+      </c>
       <c r="I344" t="s">
         <v>535</v>
       </c>
@@ -10381,6 +12867,9 @@
       <c r="E345" t="s">
         <v>505</v>
       </c>
+      <c r="H345" s="11" t="s">
+        <v>1334</v>
+      </c>
       <c r="I345" t="s">
         <v>535</v>
       </c>
@@ -10401,6 +12890,9 @@
       <c r="E346" t="s">
         <v>505</v>
       </c>
+      <c r="H346" s="11" t="s">
+        <v>1335</v>
+      </c>
       <c r="I346" t="s">
         <v>535</v>
       </c>
@@ -10421,6 +12913,9 @@
       <c r="E347" t="s">
         <v>505</v>
       </c>
+      <c r="H347" s="11" t="s">
+        <v>1336</v>
+      </c>
       <c r="I347" t="s">
         <v>535</v>
       </c>
@@ -10441,6 +12936,9 @@
       <c r="E348" t="s">
         <v>505</v>
       </c>
+      <c r="H348" s="11" t="s">
+        <v>1337</v>
+      </c>
       <c r="I348" t="s">
         <v>535</v>
       </c>
@@ -10461,6 +12959,9 @@
       <c r="E349" t="s">
         <v>505</v>
       </c>
+      <c r="H349" s="11" t="s">
+        <v>1338</v>
+      </c>
       <c r="I349" t="s">
         <v>535</v>
       </c>
@@ -10481,6 +12982,9 @@
       <c r="E350" t="s">
         <v>505</v>
       </c>
+      <c r="H350" s="11" t="s">
+        <v>1339</v>
+      </c>
       <c r="I350" t="s">
         <v>535</v>
       </c>
@@ -10501,6 +13005,9 @@
       <c r="E351" t="s">
         <v>505</v>
       </c>
+      <c r="H351" s="11" t="s">
+        <v>1340</v>
+      </c>
       <c r="I351" t="s">
         <v>535</v>
       </c>
@@ -10521,6 +13028,9 @@
       <c r="E352" t="s">
         <v>505</v>
       </c>
+      <c r="H352" s="11" t="s">
+        <v>1341</v>
+      </c>
       <c r="I352" t="s">
         <v>535</v>
       </c>
@@ -10541,6 +13051,9 @@
       <c r="E353" t="s">
         <v>505</v>
       </c>
+      <c r="H353" s="11" t="s">
+        <v>1342</v>
+      </c>
       <c r="I353" t="s">
         <v>535</v>
       </c>
@@ -10561,6 +13074,9 @@
       <c r="E354" t="s">
         <v>505</v>
       </c>
+      <c r="H354" s="11" t="s">
+        <v>1343</v>
+      </c>
       <c r="I354" t="s">
         <v>535</v>
       </c>
@@ -10581,6 +13097,9 @@
       <c r="E355" t="s">
         <v>505</v>
       </c>
+      <c r="H355" s="11" t="s">
+        <v>1344</v>
+      </c>
       <c r="I355" t="s">
         <v>535</v>
       </c>
@@ -10601,6 +13120,9 @@
       <c r="E356" t="s">
         <v>505</v>
       </c>
+      <c r="H356" s="11" t="s">
+        <v>1345</v>
+      </c>
       <c r="I356" t="s">
         <v>535</v>
       </c>
@@ -10621,6 +13143,9 @@
       <c r="E357" t="s">
         <v>505</v>
       </c>
+      <c r="H357" s="11" t="s">
+        <v>1346</v>
+      </c>
       <c r="I357" t="s">
         <v>535</v>
       </c>
@@ -10641,6 +13166,9 @@
       <c r="E358" t="s">
         <v>505</v>
       </c>
+      <c r="H358" s="11" t="s">
+        <v>1347</v>
+      </c>
       <c r="I358" t="s">
         <v>535</v>
       </c>
@@ -10661,6 +13189,9 @@
       <c r="E359" t="s">
         <v>505</v>
       </c>
+      <c r="H359" s="11" t="s">
+        <v>1348</v>
+      </c>
       <c r="I359" t="s">
         <v>535</v>
       </c>
@@ -10681,6 +13212,9 @@
       <c r="E360" t="s">
         <v>505</v>
       </c>
+      <c r="H360" s="11" t="s">
+        <v>1349</v>
+      </c>
       <c r="I360" t="s">
         <v>535</v>
       </c>
@@ -10701,6 +13235,9 @@
       <c r="E361" t="s">
         <v>505</v>
       </c>
+      <c r="H361" s="11" t="s">
+        <v>1350</v>
+      </c>
       <c r="I361" t="s">
         <v>535</v>
       </c>
@@ -10721,6 +13258,9 @@
       <c r="E362" t="s">
         <v>505</v>
       </c>
+      <c r="H362" s="11" t="s">
+        <v>1351</v>
+      </c>
       <c r="I362" t="s">
         <v>535</v>
       </c>
@@ -10741,6 +13281,9 @@
       <c r="E363" t="s">
         <v>505</v>
       </c>
+      <c r="H363" s="11" t="s">
+        <v>1352</v>
+      </c>
       <c r="I363" t="s">
         <v>535</v>
       </c>
@@ -10761,6 +13304,9 @@
       <c r="E364" t="s">
         <v>505</v>
       </c>
+      <c r="H364" s="11" t="s">
+        <v>1353</v>
+      </c>
       <c r="I364" t="s">
         <v>535</v>
       </c>
@@ -10781,6 +13327,9 @@
       <c r="E365" t="s">
         <v>505</v>
       </c>
+      <c r="H365" s="11" t="s">
+        <v>1354</v>
+      </c>
       <c r="I365" t="s">
         <v>535</v>
       </c>
@@ -10801,6 +13350,9 @@
       <c r="E366" t="s">
         <v>505</v>
       </c>
+      <c r="H366" s="11" t="s">
+        <v>1355</v>
+      </c>
       <c r="I366" t="s">
         <v>535</v>
       </c>
@@ -10821,6 +13373,9 @@
       <c r="E367" t="s">
         <v>505</v>
       </c>
+      <c r="H367" s="11" t="s">
+        <v>1356</v>
+      </c>
       <c r="I367" t="s">
         <v>535</v>
       </c>
@@ -10841,6 +13396,9 @@
       <c r="E368" t="s">
         <v>505</v>
       </c>
+      <c r="H368" s="11" t="s">
+        <v>1357</v>
+      </c>
       <c r="I368" t="s">
         <v>535</v>
       </c>
@@ -10861,6 +13419,9 @@
       <c r="E369" t="s">
         <v>505</v>
       </c>
+      <c r="H369" s="11" t="s">
+        <v>1358</v>
+      </c>
       <c r="I369" t="s">
         <v>535</v>
       </c>
@@ -10881,6 +13442,9 @@
       <c r="E370" t="s">
         <v>505</v>
       </c>
+      <c r="H370" s="11" t="s">
+        <v>1359</v>
+      </c>
       <c r="I370" t="s">
         <v>535</v>
       </c>
@@ -10901,6 +13465,9 @@
       <c r="E371" t="s">
         <v>505</v>
       </c>
+      <c r="H371" s="11" t="s">
+        <v>1360</v>
+      </c>
       <c r="I371" t="s">
         <v>535</v>
       </c>
@@ -10921,6 +13488,9 @@
       <c r="E372" t="s">
         <v>505</v>
       </c>
+      <c r="H372" s="11" t="s">
+        <v>1361</v>
+      </c>
       <c r="I372" t="s">
         <v>535</v>
       </c>
@@ -10941,6 +13511,9 @@
       <c r="E373" t="s">
         <v>505</v>
       </c>
+      <c r="H373" s="11" t="s">
+        <v>1362</v>
+      </c>
       <c r="I373" t="s">
         <v>535</v>
       </c>
@@ -10961,6 +13534,9 @@
       <c r="E374" t="s">
         <v>505</v>
       </c>
+      <c r="H374" s="11" t="s">
+        <v>1363</v>
+      </c>
       <c r="I374" t="s">
         <v>535</v>
       </c>
@@ -10981,6 +13557,9 @@
       <c r="E375" t="s">
         <v>505</v>
       </c>
+      <c r="H375" s="11" t="s">
+        <v>1364</v>
+      </c>
       <c r="I375" t="s">
         <v>535</v>
       </c>
@@ -11001,6 +13580,9 @@
       <c r="E376" t="s">
         <v>505</v>
       </c>
+      <c r="H376" s="11" t="s">
+        <v>1365</v>
+      </c>
       <c r="I376" t="s">
         <v>535</v>
       </c>
@@ -11021,6 +13603,9 @@
       <c r="E377" t="s">
         <v>505</v>
       </c>
+      <c r="H377" s="11" t="s">
+        <v>1366</v>
+      </c>
       <c r="I377" t="s">
         <v>535</v>
       </c>
@@ -11041,6 +13626,9 @@
       <c r="E378" t="s">
         <v>505</v>
       </c>
+      <c r="H378" s="11" t="s">
+        <v>1367</v>
+      </c>
       <c r="I378" t="s">
         <v>533</v>
       </c>
@@ -11061,6 +13649,9 @@
       <c r="E379" t="s">
         <v>505</v>
       </c>
+      <c r="H379" s="11" t="s">
+        <v>1368</v>
+      </c>
       <c r="I379" t="s">
         <v>533</v>
       </c>
@@ -11081,6 +13672,9 @@
       <c r="E380" t="s">
         <v>505</v>
       </c>
+      <c r="H380" s="11" t="s">
+        <v>1369</v>
+      </c>
       <c r="I380" t="s">
         <v>533</v>
       </c>
@@ -11101,6 +13695,9 @@
       <c r="E381" t="s">
         <v>505</v>
       </c>
+      <c r="H381" s="11" t="s">
+        <v>1370</v>
+      </c>
       <c r="I381" t="s">
         <v>533</v>
       </c>
@@ -11121,6 +13718,9 @@
       <c r="E382" t="s">
         <v>505</v>
       </c>
+      <c r="H382" s="11" t="s">
+        <v>1371</v>
+      </c>
       <c r="I382" t="s">
         <v>533</v>
       </c>
@@ -11141,6 +13741,9 @@
       <c r="E383" t="s">
         <v>505</v>
       </c>
+      <c r="H383" s="11" t="s">
+        <v>1372</v>
+      </c>
       <c r="I383" t="s">
         <v>533</v>
       </c>
@@ -11161,6 +13764,9 @@
       <c r="E384" t="s">
         <v>505</v>
       </c>
+      <c r="H384" s="11" t="s">
+        <v>1373</v>
+      </c>
       <c r="I384" t="s">
         <v>533</v>
       </c>
@@ -11181,6 +13787,9 @@
       <c r="E385" t="s">
         <v>505</v>
       </c>
+      <c r="H385" s="11" t="s">
+        <v>1374</v>
+      </c>
       <c r="I385" t="s">
         <v>533</v>
       </c>
@@ -11201,6 +13810,9 @@
       <c r="E386" t="s">
         <v>505</v>
       </c>
+      <c r="H386" s="11" t="s">
+        <v>1375</v>
+      </c>
       <c r="I386" t="s">
         <v>536</v>
       </c>
@@ -11221,6 +13833,9 @@
       <c r="E387" t="s">
         <v>505</v>
       </c>
+      <c r="H387" s="11" t="s">
+        <v>1376</v>
+      </c>
       <c r="I387" t="s">
         <v>536</v>
       </c>
@@ -11241,6 +13856,9 @@
       <c r="E388" t="s">
         <v>505</v>
       </c>
+      <c r="H388" s="11" t="s">
+        <v>1377</v>
+      </c>
       <c r="I388" t="s">
         <v>536</v>
       </c>
@@ -11261,6 +13879,9 @@
       <c r="E389" t="s">
         <v>505</v>
       </c>
+      <c r="H389" s="11" t="s">
+        <v>1378</v>
+      </c>
       <c r="I389" t="s">
         <v>536</v>
       </c>
@@ -11281,6 +13902,9 @@
       <c r="E390" t="s">
         <v>505</v>
       </c>
+      <c r="H390" s="11" t="s">
+        <v>1379</v>
+      </c>
       <c r="I390" t="s">
         <v>536</v>
       </c>
@@ -11301,6 +13925,9 @@
       <c r="E391" t="s">
         <v>505</v>
       </c>
+      <c r="H391" s="11" t="s">
+        <v>1380</v>
+      </c>
       <c r="I391" t="s">
         <v>536</v>
       </c>
@@ -11321,6 +13948,9 @@
       <c r="E392" t="s">
         <v>505</v>
       </c>
+      <c r="H392" s="11" t="s">
+        <v>1381</v>
+      </c>
       <c r="I392" t="s">
         <v>536</v>
       </c>
@@ -11341,6 +13971,9 @@
       <c r="E393" t="s">
         <v>505</v>
       </c>
+      <c r="H393" s="11" t="s">
+        <v>1382</v>
+      </c>
       <c r="I393" t="s">
         <v>536</v>
       </c>
@@ -11361,6 +13994,9 @@
       <c r="E394" t="s">
         <v>505</v>
       </c>
+      <c r="H394" s="11" t="s">
+        <v>1383</v>
+      </c>
       <c r="I394" t="s">
         <v>536</v>
       </c>
@@ -11381,6 +14017,9 @@
       <c r="E395" t="s">
         <v>505</v>
       </c>
+      <c r="H395" s="11" t="s">
+        <v>1384</v>
+      </c>
       <c r="I395" t="s">
         <v>536</v>
       </c>
@@ -11401,6 +14040,9 @@
       <c r="E396" t="s">
         <v>505</v>
       </c>
+      <c r="H396" s="11" t="s">
+        <v>1385</v>
+      </c>
       <c r="I396" t="s">
         <v>536</v>
       </c>
@@ -11421,6 +14063,9 @@
       <c r="E397" t="s">
         <v>505</v>
       </c>
+      <c r="H397" s="11" t="s">
+        <v>1386</v>
+      </c>
       <c r="I397" t="s">
         <v>536</v>
       </c>
@@ -11441,6 +14086,9 @@
       <c r="E398" t="s">
         <v>505</v>
       </c>
+      <c r="H398" s="11" t="s">
+        <v>1387</v>
+      </c>
       <c r="I398" t="s">
         <v>536</v>
       </c>
@@ -11461,6 +14109,9 @@
       <c r="E399" t="s">
         <v>505</v>
       </c>
+      <c r="H399" s="11" t="s">
+        <v>1388</v>
+      </c>
       <c r="I399" t="s">
         <v>536</v>
       </c>
@@ -11481,6 +14132,9 @@
       <c r="E400" t="s">
         <v>505</v>
       </c>
+      <c r="H400" s="11" t="s">
+        <v>1389</v>
+      </c>
       <c r="I400" t="s">
         <v>536</v>
       </c>
@@ -11501,6 +14155,9 @@
       <c r="E401" t="s">
         <v>505</v>
       </c>
+      <c r="H401" s="11" t="s">
+        <v>1390</v>
+      </c>
       <c r="I401" t="s">
         <v>536</v>
       </c>
@@ -11521,6 +14178,9 @@
       <c r="E402" t="s">
         <v>505</v>
       </c>
+      <c r="H402" s="11" t="s">
+        <v>1391</v>
+      </c>
       <c r="I402" t="s">
         <v>536</v>
       </c>
@@ -11541,6 +14201,9 @@
       <c r="E403" t="s">
         <v>505</v>
       </c>
+      <c r="H403" s="11" t="s">
+        <v>1392</v>
+      </c>
       <c r="I403" t="s">
         <v>536</v>
       </c>
@@ -11561,6 +14224,9 @@
       <c r="E404" t="s">
         <v>505</v>
       </c>
+      <c r="H404" s="11" t="s">
+        <v>1393</v>
+      </c>
       <c r="I404" t="s">
         <v>536</v>
       </c>
@@ -11581,6 +14247,9 @@
       <c r="E405" t="s">
         <v>505</v>
       </c>
+      <c r="H405" s="11" t="s">
+        <v>1394</v>
+      </c>
       <c r="I405" t="s">
         <v>536</v>
       </c>
@@ -11601,6 +14270,9 @@
       <c r="E406" t="s">
         <v>505</v>
       </c>
+      <c r="H406" s="11" t="s">
+        <v>1395</v>
+      </c>
       <c r="I406" t="s">
         <v>536</v>
       </c>
@@ -11621,6 +14293,9 @@
       <c r="E407" t="s">
         <v>505</v>
       </c>
+      <c r="H407" s="11" t="s">
+        <v>1396</v>
+      </c>
       <c r="I407" t="s">
         <v>536</v>
       </c>
@@ -11641,6 +14316,9 @@
       <c r="E408" t="s">
         <v>505</v>
       </c>
+      <c r="H408" s="11" t="s">
+        <v>1397</v>
+      </c>
       <c r="I408" t="s">
         <v>536</v>
       </c>
@@ -11661,6 +14339,9 @@
       <c r="E409" t="s">
         <v>505</v>
       </c>
+      <c r="H409" s="11" t="s">
+        <v>1398</v>
+      </c>
       <c r="I409" t="s">
         <v>536</v>
       </c>
@@ -11681,6 +14362,9 @@
       <c r="E410" t="s">
         <v>505</v>
       </c>
+      <c r="H410" s="11" t="s">
+        <v>1399</v>
+      </c>
       <c r="I410" t="s">
         <v>536</v>
       </c>
@@ -11701,6 +14385,9 @@
       <c r="E411" t="s">
         <v>505</v>
       </c>
+      <c r="H411" s="11" t="s">
+        <v>1400</v>
+      </c>
       <c r="I411" t="s">
         <v>536</v>
       </c>
@@ -11721,6 +14408,9 @@
       <c r="E412" t="s">
         <v>505</v>
       </c>
+      <c r="H412" s="11" t="s">
+        <v>1401</v>
+      </c>
       <c r="I412" t="s">
         <v>536</v>
       </c>
@@ -11741,6 +14431,9 @@
       <c r="E413" t="s">
         <v>505</v>
       </c>
+      <c r="H413" s="11" t="s">
+        <v>1402</v>
+      </c>
       <c r="I413" t="s">
         <v>536</v>
       </c>
@@ -11761,6 +14454,9 @@
       <c r="E414" t="s">
         <v>505</v>
       </c>
+      <c r="H414" s="11" t="s">
+        <v>1403</v>
+      </c>
       <c r="I414" t="s">
         <v>536</v>
       </c>
@@ -11781,6 +14477,9 @@
       <c r="E415" t="s">
         <v>505</v>
       </c>
+      <c r="H415" s="11" t="s">
+        <v>1404</v>
+      </c>
       <c r="I415" t="s">
         <v>536</v>
       </c>
@@ -11801,11 +14500,14 @@
       <c r="E416" t="s">
         <v>505</v>
       </c>
+      <c r="H416" s="11" t="s">
+        <v>1405</v>
+      </c>
       <c r="I416" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="14">
+    <row r="417" spans="1:11" ht="14">
       <c r="A417" t="s">
         <v>954</v>
       </c>
@@ -11821,11 +14523,14 @@
       <c r="E417" t="s">
         <v>505</v>
       </c>
+      <c r="H417" s="11" t="s">
+        <v>1406</v>
+      </c>
       <c r="I417" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="14">
+    <row r="418" spans="1:11" ht="14">
       <c r="A418" t="s">
         <v>955</v>
       </c>
@@ -11841,11 +14546,14 @@
       <c r="E418" t="s">
         <v>505</v>
       </c>
+      <c r="H418" s="11" t="s">
+        <v>1228</v>
+      </c>
       <c r="I418" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="14">
+    <row r="419" spans="1:11" ht="14">
       <c r="A419" t="s">
         <v>956</v>
       </c>
@@ -11861,11 +14569,14 @@
       <c r="E419" t="s">
         <v>505</v>
       </c>
+      <c r="H419" s="11" t="s">
+        <v>1407</v>
+      </c>
       <c r="I419" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14">
+    <row r="420" spans="1:11" ht="14">
       <c r="A420" t="s">
         <v>957</v>
       </c>
@@ -11881,11 +14592,14 @@
       <c r="E420" t="s">
         <v>505</v>
       </c>
+      <c r="H420" s="11" t="s">
+        <v>1408</v>
+      </c>
       <c r="I420" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="14">
+    <row r="421" spans="1:11" ht="14">
       <c r="A421" t="s">
         <v>958</v>
       </c>
@@ -11901,11 +14615,14 @@
       <c r="E421" t="s">
         <v>505</v>
       </c>
+      <c r="H421" s="11" t="s">
+        <v>1269</v>
+      </c>
       <c r="I421" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="14">
+    <row r="422" spans="1:11" ht="14">
       <c r="A422" t="s">
         <v>959</v>
       </c>
@@ -11921,11 +14638,14 @@
       <c r="E422" t="s">
         <v>505</v>
       </c>
+      <c r="H422" s="11" t="s">
+        <v>1409</v>
+      </c>
       <c r="I422" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="14">
+    <row r="423" spans="1:11" ht="14">
       <c r="A423" t="s">
         <v>960</v>
       </c>
@@ -11941,11 +14661,14 @@
       <c r="E423" t="s">
         <v>505</v>
       </c>
+      <c r="H423" s="11" t="s">
+        <v>1410</v>
+      </c>
       <c r="I423" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="14">
+    <row r="424" spans="1:11" ht="14">
       <c r="A424" t="s">
         <v>961</v>
       </c>
@@ -11961,11 +14684,14 @@
       <c r="E424" t="s">
         <v>505</v>
       </c>
+      <c r="H424" s="11" t="s">
+        <v>1411</v>
+      </c>
       <c r="I424" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="14">
+    <row r="425" spans="1:11" ht="14">
       <c r="A425" t="s">
         <v>962</v>
       </c>
@@ -11981,11 +14707,14 @@
       <c r="E425" t="s">
         <v>505</v>
       </c>
+      <c r="H425" s="11" t="s">
+        <v>1412</v>
+      </c>
       <c r="I425" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="14">
+    <row r="426" spans="1:11" ht="14">
       <c r="A426" t="s">
         <v>963</v>
       </c>
@@ -12001,11 +14730,14 @@
       <c r="E426" t="s">
         <v>505</v>
       </c>
+      <c r="H426" s="11" t="s">
+        <v>1413</v>
+      </c>
       <c r="I426" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="14">
+    <row r="427" spans="1:11" ht="14">
       <c r="A427" t="s">
         <v>964</v>
       </c>
@@ -12021,11 +14753,14 @@
       <c r="E427" t="s">
         <v>505</v>
       </c>
+      <c r="H427" s="11" t="s">
+        <v>1414</v>
+      </c>
       <c r="I427" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="14">
+    <row r="428" spans="1:11" ht="14">
       <c r="A428" t="s">
         <v>965</v>
       </c>
@@ -12041,8 +14776,11 @@
       <c r="E428" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" ht="14">
+      <c r="K428" s="11" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="14">
       <c r="A429" t="s">
         <v>966</v>
       </c>
@@ -12058,8 +14796,11 @@
       <c r="E429" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" ht="14">
+      <c r="K429" s="11" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" ht="14">
       <c r="A430" t="s">
         <v>967</v>
       </c>
@@ -12075,8 +14816,11 @@
       <c r="E430" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" ht="14">
+      <c r="K430" s="11" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" ht="14">
       <c r="A431" t="s">
         <v>968</v>
       </c>
@@ -12092,8 +14836,11 @@
       <c r="E431" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" ht="14">
+      <c r="K431" s="11" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="14">
       <c r="A432" t="s">
         <v>969</v>
       </c>
@@ -12109,8 +14856,11 @@
       <c r="E432" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" ht="14">
+      <c r="K432" s="11" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="14">
       <c r="A433" t="s">
         <v>970</v>
       </c>
@@ -12126,8 +14876,11 @@
       <c r="E433" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" ht="14">
+      <c r="K433" s="11" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" ht="14">
       <c r="A434" t="s">
         <v>971</v>
       </c>
@@ -12143,8 +14896,11 @@
       <c r="E434" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" ht="14">
+      <c r="K434" s="11" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="14">
       <c r="A435" t="s">
         <v>972</v>
       </c>
@@ -12160,8 +14916,11 @@
       <c r="E435" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" ht="14">
+      <c r="K435" s="11" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="14">
       <c r="A436" t="s">
         <v>973</v>
       </c>
@@ -12177,8 +14936,11 @@
       <c r="E436" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" ht="14">
+      <c r="K436" s="11" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" ht="14">
       <c r="A437" t="s">
         <v>974</v>
       </c>
@@ -12194,8 +14956,11 @@
       <c r="E437" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" ht="14">
+      <c r="K437" s="11" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="14">
       <c r="A438" t="s">
         <v>975</v>
       </c>
@@ -12211,8 +14976,11 @@
       <c r="E438" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" ht="14">
+      <c r="K438" s="11" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="14">
       <c r="A439" t="s">
         <v>976</v>
       </c>
@@ -12228,8 +14996,11 @@
       <c r="E439" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" ht="14">
+      <c r="K439" s="11" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" ht="14">
       <c r="A440" t="s">
         <v>977</v>
       </c>
@@ -12245,8 +15016,11 @@
       <c r="E440" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" ht="14">
+      <c r="K440" s="11" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="14">
       <c r="A441" t="s">
         <v>978</v>
       </c>
@@ -12262,8 +15036,11 @@
       <c r="E441" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" ht="14">
+      <c r="K441" s="11" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" ht="14">
       <c r="A442" t="s">
         <v>979</v>
       </c>
@@ -12279,8 +15056,11 @@
       <c r="E442" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" ht="14">
+      <c r="K442" s="11" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" ht="14">
       <c r="A443" t="s">
         <v>980</v>
       </c>
@@ -12296,8 +15076,11 @@
       <c r="E443" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" ht="14">
+      <c r="K443" s="11" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="14">
       <c r="A444" t="s">
         <v>981</v>
       </c>
@@ -12313,8 +15096,11 @@
       <c r="E444" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" ht="14">
+      <c r="K444" s="11" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="14">
       <c r="A445" t="s">
         <v>982</v>
       </c>
@@ -12330,8 +15116,11 @@
       <c r="E445" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" ht="14">
+      <c r="K445" s="11" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" ht="14">
       <c r="A446" t="s">
         <v>983</v>
       </c>
@@ -12347,8 +15136,11 @@
       <c r="E446" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" ht="14">
+      <c r="K446" s="11" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" ht="14">
       <c r="A447" t="s">
         <v>984</v>
       </c>
@@ -12364,8 +15156,11 @@
       <c r="E447" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" ht="14">
+      <c r="K447" s="11" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" ht="14">
       <c r="A448" t="s">
         <v>985</v>
       </c>
@@ -12381,8 +15176,11 @@
       <c r="E448" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" ht="14">
+      <c r="K448" s="11" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" ht="14">
       <c r="A449" t="s">
         <v>986</v>
       </c>
@@ -12398,8 +15196,11 @@
       <c r="E449" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" ht="14">
+      <c r="K449" s="11" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" ht="14">
       <c r="A450" t="s">
         <v>987</v>
       </c>
@@ -12415,8 +15216,11 @@
       <c r="E450" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" ht="14">
+      <c r="K450" s="11" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="14">
       <c r="A451" t="s">
         <v>988</v>
       </c>
@@ -12432,8 +15236,11 @@
       <c r="E451" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" ht="14">
+      <c r="K451" s="11" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" ht="14">
       <c r="A452" t="s">
         <v>989</v>
       </c>
@@ -12449,8 +15256,11 @@
       <c r="E452" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" ht="14">
+      <c r="K452" s="11" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" ht="14">
       <c r="A453" t="s">
         <v>990</v>
       </c>
@@ -12466,8 +15276,11 @@
       <c r="E453" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" ht="14">
+      <c r="K453" s="11" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" ht="14">
       <c r="A454" t="s">
         <v>991</v>
       </c>
@@ -12483,8 +15296,11 @@
       <c r="E454" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" ht="14">
+      <c r="K454" s="11" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" ht="14">
       <c r="A455" t="s">
         <v>992</v>
       </c>
@@ -12500,8 +15316,11 @@
       <c r="E455" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" ht="14">
+      <c r="K455" s="11" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="14">
       <c r="A456" t="s">
         <v>993</v>
       </c>
@@ -12517,8 +15336,11 @@
       <c r="E456" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" ht="14">
+      <c r="K456" s="11" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" ht="14">
       <c r="A457" t="s">
         <v>994</v>
       </c>
@@ -12534,8 +15356,11 @@
       <c r="E457" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" ht="14">
+      <c r="K457" s="11" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" ht="14">
       <c r="A458" t="s">
         <v>995</v>
       </c>
@@ -12551,8 +15376,11 @@
       <c r="E458" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" ht="14">
+      <c r="K458" s="11" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" ht="14">
       <c r="A459" t="s">
         <v>996</v>
       </c>
@@ -12568,8 +15396,11 @@
       <c r="E459" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" ht="14">
+      <c r="K459" s="11" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" ht="14">
       <c r="A460" t="s">
         <v>997</v>
       </c>
@@ -12585,8 +15416,11 @@
       <c r="E460" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" ht="14">
+      <c r="K460" s="11" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" ht="14">
       <c r="A461" t="s">
         <v>998</v>
       </c>
@@ -12602,8 +15436,11 @@
       <c r="E461" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" ht="14">
+      <c r="K461" s="11" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" ht="14">
       <c r="A462" t="s">
         <v>999</v>
       </c>
@@ -12619,8 +15456,11 @@
       <c r="E462" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" ht="14">
+      <c r="K462" s="11" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" ht="14">
       <c r="A463" t="s">
         <v>1000</v>
       </c>
@@ -12636,8 +15476,11 @@
       <c r="E463" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" ht="14">
+      <c r="K463" s="11" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" ht="14">
       <c r="A464" t="s">
         <v>1001</v>
       </c>
@@ -12653,8 +15496,11 @@
       <c r="E464" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="465" spans="1:5" ht="14">
+      <c r="K464" s="11" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" ht="14">
       <c r="A465" t="s">
         <v>1002</v>
       </c>
@@ -12670,8 +15516,11 @@
       <c r="E465" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="466" spans="1:5" ht="14">
+      <c r="K465" s="11" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" ht="14">
       <c r="A466" t="s">
         <v>1003</v>
       </c>
@@ -12687,8 +15536,11 @@
       <c r="E466" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="467" spans="1:5" ht="14">
+      <c r="K466" s="11" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" ht="14">
       <c r="A467" t="s">
         <v>1004</v>
       </c>
@@ -12704,8 +15556,11 @@
       <c r="E467" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="468" spans="1:5" ht="14">
+      <c r="K467" s="11" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" ht="14">
       <c r="A468" t="s">
         <v>1005</v>
       </c>
@@ -12721,8 +15576,11 @@
       <c r="E468" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="469" spans="1:5" ht="14">
+      <c r="K468" s="11" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="14">
       <c r="A469" t="s">
         <v>1006</v>
       </c>
@@ -12738,8 +15596,11 @@
       <c r="E469" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" ht="14">
+      <c r="K469" s="11" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" ht="14">
       <c r="A470" t="s">
         <v>1007</v>
       </c>
@@ -12755,8 +15616,11 @@
       <c r="E470" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" ht="14">
+      <c r="K470" s="11" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" ht="14">
       <c r="A471" t="s">
         <v>1008</v>
       </c>
@@ -12772,8 +15636,11 @@
       <c r="E471" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="472" spans="1:5" ht="14">
+      <c r="K471" s="11" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" ht="14">
       <c r="A472" t="s">
         <v>1009</v>
       </c>
@@ -12789,8 +15656,11 @@
       <c r="E472" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" ht="14">
+      <c r="K472" s="11" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" ht="14">
       <c r="A473" t="s">
         <v>1010</v>
       </c>
@@ -12806,8 +15676,11 @@
       <c r="E473" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="474" spans="1:5" ht="14">
+      <c r="K473" s="11" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="14">
       <c r="A474" t="s">
         <v>1011</v>
       </c>
@@ -12823,8 +15696,11 @@
       <c r="E474" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="475" spans="1:5" ht="14">
+      <c r="K474" s="11" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" ht="14">
       <c r="A475" t="s">
         <v>1012</v>
       </c>
@@ -12840,8 +15716,11 @@
       <c r="E475" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="476" spans="1:5" ht="14">
+      <c r="K475" s="11" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" ht="14">
       <c r="A476" t="s">
         <v>1013</v>
       </c>
@@ -12857,8 +15736,11 @@
       <c r="E476" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="477" spans="1:5" ht="14">
+      <c r="K476" s="11" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" ht="14">
       <c r="A477" t="s">
         <v>1014</v>
       </c>
@@ -12874,8 +15756,11 @@
       <c r="E477" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" ht="14">
+      <c r="K477" s="11" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" ht="14">
       <c r="A478" t="s">
         <v>1015</v>
       </c>
@@ -12891,8 +15776,11 @@
       <c r="E478" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" ht="14">
+      <c r="K478" s="11" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" ht="14">
       <c r="A479" t="s">
         <v>1016</v>
       </c>
@@ -12908,8 +15796,11 @@
       <c r="E479" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="480" spans="1:5" ht="14">
+      <c r="K479" s="11" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="14">
       <c r="A480" t="s">
         <v>1017</v>
       </c>
@@ -12925,8 +15816,11 @@
       <c r="E480" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="481" spans="1:5" ht="14">
+      <c r="K480" s="11" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="14">
       <c r="A481" t="s">
         <v>1018</v>
       </c>
@@ -12942,8 +15836,11 @@
       <c r="E481" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="482" spans="1:5" ht="14">
+      <c r="K481" s="11" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="14">
       <c r="A482" t="s">
         <v>1019</v>
       </c>
@@ -12959,8 +15856,11 @@
       <c r="E482" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="483" spans="1:5" ht="14">
+      <c r="K482" s="11" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="14">
       <c r="A483" t="s">
         <v>1020</v>
       </c>
@@ -12976,8 +15876,11 @@
       <c r="E483" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="484" spans="1:5" ht="14">
+      <c r="K483" s="11" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" ht="14">
       <c r="A484" t="s">
         <v>1021</v>
       </c>
@@ -12993,8 +15896,11 @@
       <c r="E484" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" ht="14">
+      <c r="K484" s="11" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" ht="14">
       <c r="A485" t="s">
         <v>1022</v>
       </c>
@@ -13010,8 +15916,11 @@
       <c r="E485" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" ht="14">
+      <c r="K485" s="11" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" ht="14">
       <c r="A486" t="s">
         <v>1023</v>
       </c>
@@ -13027,8 +15936,11 @@
       <c r="E486" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="487" spans="1:5" ht="14">
+      <c r="K486" s="11" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" ht="14">
       <c r="A487" t="s">
         <v>1024</v>
       </c>
@@ -13044,8 +15956,11 @@
       <c r="E487" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="488" spans="1:5" ht="14">
+      <c r="K487" s="11" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" ht="14">
       <c r="A488" t="s">
         <v>1025</v>
       </c>
@@ -13061,8 +15976,11 @@
       <c r="E488" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" ht="14">
+      <c r="K488" s="11" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" ht="14">
       <c r="A489" t="s">
         <v>1026</v>
       </c>
@@ -13078,8 +15996,11 @@
       <c r="E489" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" ht="14">
+      <c r="K489" s="11" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" ht="14">
       <c r="A490" t="s">
         <v>1027</v>
       </c>
@@ -13094,6 +16015,9 @@
       </c>
       <c r="E490" t="s">
         <v>507</v>
+      </c>
+      <c r="K490" s="11" t="s">
+        <v>1477</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="12480" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1882">
   <si>
     <t>item</t>
   </si>
@@ -4546,6 +4546,1125 @@
   </si>
   <si>
     <t>no; yes</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>Are you hungry?</t>
+  </si>
+  <si>
+    <t>Are you tired?</t>
+  </si>
+  <si>
+    <t>It was a good girl / boy</t>
+  </si>
+  <si>
+    <t>Gap up</t>
+  </si>
+  <si>
+    <t>Give me a hug</t>
+  </si>
+  <si>
+    <t>Give me a kiss</t>
+  </si>
+  <si>
+    <t>Go get ________</t>
+  </si>
+  <si>
+    <t>Do not do it</t>
+  </si>
+  <si>
+    <t>do not touch</t>
+  </si>
+  <si>
+    <t>Throw the ball</t>
+  </si>
+  <si>
+    <t>Pat with your hands</t>
+  </si>
+  <si>
+    <t>get here</t>
+  </si>
+  <si>
+    <t>Let mommy get it</t>
+  </si>
+  <si>
+    <t>Now he says we can have it</t>
+  </si>
+  <si>
+    <t>Time to lie</t>
+  </si>
+  <si>
+    <t>Stand up (up)</t>
+  </si>
+  <si>
+    <t>look here</t>
+  </si>
+  <si>
+    <t>Sit (down)</t>
+  </si>
+  <si>
+    <t>Shall we go for a ride?</t>
+  </si>
+  <si>
+    <t>Final (up)</t>
+  </si>
+  <si>
+    <t>spit it out</t>
+  </si>
+  <si>
+    <t>keep still</t>
+  </si>
+  <si>
+    <t>Want more?</t>
+  </si>
+  <si>
+    <t>be careful</t>
+  </si>
+  <si>
+    <t>be quiet</t>
+  </si>
+  <si>
+    <t>Changing diaper</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>brr (car audio)</t>
+  </si>
+  <si>
+    <t>grrr</t>
+  </si>
+  <si>
+    <t>meow</t>
+  </si>
+  <si>
+    <t>Need we say</t>
+  </si>
+  <si>
+    <t>tough-tough</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>(Earthworms) mark</t>
+  </si>
+  <si>
+    <t>monkey (cat)</t>
+  </si>
+  <si>
+    <t>Bears</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>moose</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>kitten</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>(Play) teddy bear</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>reindeer</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>tortoise</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>Puppy</t>
+  </si>
+  <si>
+    <t>wasp</t>
+  </si>
+  <si>
+    <t>stroller</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>fire truck</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>prom</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>bricks</t>
+  </si>
+  <si>
+    <t>baby doll</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>(Color) pencil</t>
+  </si>
+  <si>
+    <t>soap bubbles</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>loaf of bread</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>raisins</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>spaghetti</t>
+  </si>
+  <si>
+    <t>Confectionery</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Diaper</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>zipper</t>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>rainwear</t>
+  </si>
+  <si>
+    <t>shoe</t>
+  </si>
+  <si>
+    <t>bib</t>
+  </si>
+  <si>
+    <t>pacifier</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>tights</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>mittens</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>knee</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>belly button</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>duvet</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>costly</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>Cheers</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>vacuum cleaner</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>bathtub</t>
+  </si>
+  <si>
+    <t>Highchair</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>dies</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>rocking chair</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>playpen</t>
+  </si>
+  <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>Potty</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>Tray</t>
+  </si>
+  <si>
+    <t>bedroom</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>shovel</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>zoo</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>child's name</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>human being</t>
+  </si>
+  <si>
+    <t>Granny</t>
+  </si>
+  <si>
+    <t>great grandfather</t>
+  </si>
+  <si>
+    <t>great grandmother</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>Aunt</t>
+  </si>
+  <si>
+    <t>bathing</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>good night</t>
+  </si>
+  <si>
+    <t>bye bye</t>
+  </si>
+  <si>
+    <t>hey there</t>
+  </si>
+  <si>
+    <t>hush</t>
+  </si>
+  <si>
+    <t>do not</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>pat cake</t>
+  </si>
+  <si>
+    <t>Gone! (Play where face hidden and suddenly appears)</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>sleeping time</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>por favor</t>
+  </si>
+  <si>
+    <t>hold it</t>
+  </si>
+  <si>
+    <t>want to</t>
+  </si>
+  <si>
+    <t>blow</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>shove</t>
+  </si>
+  <si>
+    <t>making love</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>hurry</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>should finish</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>keep an eye on</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>driving</t>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>feed</t>
+  </si>
+  <si>
+    <t>tear up</t>
+  </si>
+  <si>
+    <t>splash</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>look at</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>Kick</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>open up</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>straightforward</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>soft</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>discretion</t>
+  </si>
+  <si>
+    <t>naughty</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>soot</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>thirst</t>
+  </si>
+  <si>
+    <t>sleepy</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>ache</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>by now</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>later on</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>how to</t>
+  </si>
+  <si>
+    <t>how come</t>
+  </si>
+  <si>
+    <t>what time</t>
+  </si>
+  <si>
+    <t>of the</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Occasionally</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>on the</t>
+  </si>
+  <si>
+    <t>all of them</t>
+  </si>
+  <si>
+    <t>another one</t>
+  </si>
+  <si>
+    <t>no one</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>a few</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -4618,8 +5737,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4663,7 +5786,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4673,6 +5796,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4682,6 +5807,8 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5011,10 +6138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K490"/>
+  <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="I427" sqref="I427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5023,11 +6150,11 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14">
+    <row r="1" spans="1:12" ht="14">
       <c r="A1" s="10" t="s">
         <v>533</v>
       </c>
@@ -5052,14 +6179,17 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14">
+    <row r="2" spans="1:12" ht="14">
       <c r="A2" t="s">
         <v>534</v>
       </c>
@@ -5075,11 +6205,11 @@
       <c r="E2" t="s">
         <v>1504</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14">
+    <row r="3" spans="1:12" ht="14">
       <c r="A3" t="s">
         <v>535</v>
       </c>
@@ -5095,11 +6225,11 @@
       <c r="E3" t="s">
         <v>1504</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14">
+    <row r="4" spans="1:12" ht="14">
       <c r="A4" t="s">
         <v>536</v>
       </c>
@@ -5115,11 +6245,11 @@
       <c r="E4" t="s">
         <v>1504</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14">
+    <row r="5" spans="1:12" ht="14">
       <c r="A5" t="s">
         <v>537</v>
       </c>
@@ -5138,8 +6268,11 @@
       <c r="H5" s="11" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14">
+      <c r="I5" s="11" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14">
       <c r="A6" t="s">
         <v>538</v>
       </c>
@@ -5158,8 +6291,11 @@
       <c r="H6" s="11" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14">
+      <c r="I6" s="11" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14">
       <c r="A7" t="s">
         <v>539</v>
       </c>
@@ -5178,8 +6314,11 @@
       <c r="H7" s="11" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="14">
+      <c r="I7" s="11" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14">
       <c r="A8" t="s">
         <v>540</v>
       </c>
@@ -5198,8 +6337,11 @@
       <c r="H8" s="11" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14">
+      <c r="I8" s="11" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14">
       <c r="A9" t="s">
         <v>541</v>
       </c>
@@ -5218,8 +6360,11 @@
       <c r="H9" s="11" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14">
+      <c r="I9" s="11" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14">
       <c r="A10" t="s">
         <v>542</v>
       </c>
@@ -5238,8 +6383,11 @@
       <c r="H10" s="11" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14">
+      <c r="I10" s="11" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14">
       <c r="A11" t="s">
         <v>543</v>
       </c>
@@ -5258,8 +6406,11 @@
       <c r="H11" s="11" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14">
+      <c r="I11" s="11" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14">
       <c r="A12" t="s">
         <v>544</v>
       </c>
@@ -5278,8 +6429,11 @@
       <c r="H12" s="11" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14">
+      <c r="I12" s="11" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14">
       <c r="A13" t="s">
         <v>545</v>
       </c>
@@ -5298,8 +6452,11 @@
       <c r="H13" s="11" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14">
+      <c r="I13" s="11" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14">
       <c r="A14" t="s">
         <v>546</v>
       </c>
@@ -5318,8 +6475,11 @@
       <c r="H14" s="11" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14">
+      <c r="I14" s="11" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14">
       <c r="A15" t="s">
         <v>547</v>
       </c>
@@ -5338,8 +6498,11 @@
       <c r="H15" s="11" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="14">
+      <c r="I15" s="11" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14">
       <c r="A16" t="s">
         <v>548</v>
       </c>
@@ -5358,8 +6521,11 @@
       <c r="H16" s="11" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14">
+      <c r="I16" s="11" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14">
       <c r="A17" t="s">
         <v>549</v>
       </c>
@@ -5378,8 +6544,11 @@
       <c r="H17" s="11" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14">
+      <c r="I17" s="11" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14">
       <c r="A18" t="s">
         <v>550</v>
       </c>
@@ -5398,8 +6567,11 @@
       <c r="H18" s="11" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14">
+      <c r="I18" s="11" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14">
       <c r="A19" t="s">
         <v>551</v>
       </c>
@@ -5418,8 +6590,11 @@
       <c r="H19" s="11" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14">
+      <c r="I19" s="11" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14">
       <c r="A20" t="s">
         <v>552</v>
       </c>
@@ -5438,8 +6613,11 @@
       <c r="H20" s="11" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14">
+      <c r="I20" s="11" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14">
       <c r="A21" t="s">
         <v>553</v>
       </c>
@@ -5458,8 +6636,11 @@
       <c r="H21" s="11" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14">
+      <c r="I21" s="11" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14">
       <c r="A22" t="s">
         <v>554</v>
       </c>
@@ -5478,8 +6659,11 @@
       <c r="H22" s="11" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14">
+      <c r="I22" s="11" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14">
       <c r="A23" t="s">
         <v>555</v>
       </c>
@@ -5498,8 +6682,11 @@
       <c r="H23" s="11" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14">
+      <c r="I23" s="11" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14">
       <c r="A24" t="s">
         <v>556</v>
       </c>
@@ -5518,8 +6705,11 @@
       <c r="H24" s="11" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14">
+      <c r="I24" s="11" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14">
       <c r="A25" t="s">
         <v>557</v>
       </c>
@@ -5538,8 +6728,11 @@
       <c r="H25" s="11" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14">
+      <c r="I25" s="11" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14">
       <c r="A26" t="s">
         <v>558</v>
       </c>
@@ -5558,8 +6751,11 @@
       <c r="H26" s="11" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14">
+      <c r="I26" s="11" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14">
       <c r="A27" t="s">
         <v>559</v>
       </c>
@@ -5578,8 +6774,11 @@
       <c r="H27" s="11" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14">
+      <c r="I27" s="11" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14">
       <c r="A28" t="s">
         <v>560</v>
       </c>
@@ -5598,8 +6797,11 @@
       <c r="H28" s="11" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14">
+      <c r="I28" s="11" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14">
       <c r="A29" t="s">
         <v>561</v>
       </c>
@@ -5618,8 +6820,11 @@
       <c r="H29" s="11" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14">
+      <c r="I29" s="11" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14">
       <c r="A30" t="s">
         <v>562</v>
       </c>
@@ -5638,8 +6843,11 @@
       <c r="H30" s="11" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14">
+      <c r="I30" s="11" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14">
       <c r="A31" t="s">
         <v>563</v>
       </c>
@@ -5655,11 +6863,11 @@
       <c r="E31" t="s">
         <v>1505</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14">
+    <row r="32" spans="1:12" ht="14">
       <c r="A32" t="s">
         <v>564</v>
       </c>
@@ -5675,11 +6883,11 @@
       <c r="E32" t="s">
         <v>1505</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="L32" s="11" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14">
+    <row r="33" spans="1:10" ht="14">
       <c r="A33" t="s">
         <v>565</v>
       </c>
@@ -5698,11 +6906,14 @@
       <c r="H33" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J33" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14">
+    <row r="34" spans="1:10" ht="14">
       <c r="A34" t="s">
         <v>566</v>
       </c>
@@ -5721,11 +6932,14 @@
       <c r="H34" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J34" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14">
+    <row r="35" spans="1:10" ht="14">
       <c r="A35" t="s">
         <v>567</v>
       </c>
@@ -5744,11 +6958,14 @@
       <c r="H35" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="11" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J35" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14">
+    <row r="36" spans="1:10" ht="14">
       <c r="A36" t="s">
         <v>568</v>
       </c>
@@ -5767,11 +6984,14 @@
       <c r="H36" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J36" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14">
+    <row r="37" spans="1:10" ht="14">
       <c r="A37" t="s">
         <v>569</v>
       </c>
@@ -5790,11 +7010,14 @@
       <c r="H37" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="11" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J37" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14">
+    <row r="38" spans="1:10" ht="14">
       <c r="A38" t="s">
         <v>570</v>
       </c>
@@ -5813,11 +7036,14 @@
       <c r="H38" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J38" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14">
+    <row r="39" spans="1:10" ht="14">
       <c r="A39" t="s">
         <v>571</v>
       </c>
@@ -5836,11 +7062,14 @@
       <c r="H39" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J39" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14">
+    <row r="40" spans="1:10" ht="14">
       <c r="A40" t="s">
         <v>572</v>
       </c>
@@ -5859,11 +7088,14 @@
       <c r="H40" s="11" t="s">
         <v>1030</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J40" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14">
+    <row r="41" spans="1:10" ht="14">
       <c r="A41" t="s">
         <v>573</v>
       </c>
@@ -5882,11 +7114,14 @@
       <c r="H41" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J41" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14">
+    <row r="42" spans="1:10" ht="14">
       <c r="A42" t="s">
         <v>574</v>
       </c>
@@ -5905,11 +7140,14 @@
       <c r="H42" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J42" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14">
+    <row r="43" spans="1:10" ht="14">
       <c r="A43" t="s">
         <v>575</v>
       </c>
@@ -5928,11 +7166,14 @@
       <c r="H43" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J43" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14">
+    <row r="44" spans="1:10" ht="14">
       <c r="A44" t="s">
         <v>576</v>
       </c>
@@ -5951,11 +7192,14 @@
       <c r="H44" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="I44" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14">
+      <c r="I44" s="11" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14">
       <c r="A45" t="s">
         <v>577</v>
       </c>
@@ -5974,11 +7218,14 @@
       <c r="H45" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="I45" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="14">
+      <c r="I45" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J45" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14">
       <c r="A46" t="s">
         <v>578</v>
       </c>
@@ -5997,11 +7244,14 @@
       <c r="H46" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="I46" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14">
+      <c r="I46" s="11" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14">
       <c r="A47" t="s">
         <v>579</v>
       </c>
@@ -6020,11 +7270,14 @@
       <c r="H47" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="I47" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14">
+      <c r="I47" s="11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14">
       <c r="A48" t="s">
         <v>580</v>
       </c>
@@ -6043,11 +7296,14 @@
       <c r="H48" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="I48" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14">
+      <c r="I48" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="J48" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14">
       <c r="A49" t="s">
         <v>581</v>
       </c>
@@ -6066,11 +7322,14 @@
       <c r="H49" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="I49" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="14">
+      <c r="I49" s="11" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J49" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14">
       <c r="A50" t="s">
         <v>582</v>
       </c>
@@ -6089,11 +7348,14 @@
       <c r="H50" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="I50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14">
+      <c r="I50" s="11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14">
       <c r="A51" t="s">
         <v>583</v>
       </c>
@@ -6112,11 +7374,14 @@
       <c r="H51" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="I51" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="14">
+      <c r="I51" s="11" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14">
       <c r="A52" t="s">
         <v>584</v>
       </c>
@@ -6135,11 +7400,14 @@
       <c r="H52" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="I52" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="14">
+      <c r="I52" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J52" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14">
       <c r="A53" t="s">
         <v>585</v>
       </c>
@@ -6158,11 +7426,14 @@
       <c r="H53" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="I53" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14">
+      <c r="I53" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14">
       <c r="A54" t="s">
         <v>586</v>
       </c>
@@ -6181,11 +7452,14 @@
       <c r="H54" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="I54" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="14">
+      <c r="I54" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14">
       <c r="A55" t="s">
         <v>587</v>
       </c>
@@ -6204,11 +7478,14 @@
       <c r="H55" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="I55" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="14">
+      <c r="I55" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J55" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14">
       <c r="A56" t="s">
         <v>588</v>
       </c>
@@ -6227,11 +7504,14 @@
       <c r="H56" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="I56" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14">
+      <c r="I56" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14">
       <c r="A57" t="s">
         <v>589</v>
       </c>
@@ -6250,11 +7530,14 @@
       <c r="H57" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="I57" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14">
+      <c r="I57" s="11" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14">
       <c r="A58" t="s">
         <v>590</v>
       </c>
@@ -6273,11 +7556,14 @@
       <c r="H58" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="I58" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14">
+      <c r="I58" s="11" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14">
       <c r="A59" t="s">
         <v>591</v>
       </c>
@@ -6296,11 +7582,14 @@
       <c r="H59" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="I59" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14">
+      <c r="I59" s="11" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14">
       <c r="A60" t="s">
         <v>592</v>
       </c>
@@ -6319,11 +7608,14 @@
       <c r="H60" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="I60" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14">
+      <c r="I60" s="11" t="s">
+        <v>1556</v>
+      </c>
+      <c r="J60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14">
       <c r="A61" t="s">
         <v>593</v>
       </c>
@@ -6342,11 +7634,14 @@
       <c r="H61" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="I61" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="14">
+      <c r="I61" s="11" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14">
       <c r="A62" t="s">
         <v>594</v>
       </c>
@@ -6365,11 +7660,14 @@
       <c r="H62" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="I62" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14">
+      <c r="I62" s="11" t="s">
+        <v>1558</v>
+      </c>
+      <c r="J62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14">
       <c r="A63" t="s">
         <v>595</v>
       </c>
@@ -6388,11 +7686,14 @@
       <c r="H63" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="I63" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14">
+      <c r="I63" s="11" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14">
       <c r="A64" t="s">
         <v>596</v>
       </c>
@@ -6411,11 +7712,14 @@
       <c r="H64" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="I64" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14">
+      <c r="I64" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14">
       <c r="A65" t="s">
         <v>597</v>
       </c>
@@ -6434,11 +7738,14 @@
       <c r="H65" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="I65" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14">
+      <c r="I65" s="11" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14">
       <c r="A66" t="s">
         <v>598</v>
       </c>
@@ -6457,11 +7764,14 @@
       <c r="H66" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="I66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="14">
+      <c r="I66" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14">
       <c r="A67" t="s">
         <v>599</v>
       </c>
@@ -6480,11 +7790,14 @@
       <c r="H67" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="I67" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="14">
+      <c r="I67" s="11" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14">
       <c r="A68" t="s">
         <v>600</v>
       </c>
@@ -6503,11 +7816,14 @@
       <c r="H68" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="I68" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="14">
+      <c r="I68" s="11" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J68" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14">
       <c r="A69" t="s">
         <v>601</v>
       </c>
@@ -6526,11 +7842,14 @@
       <c r="H69" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="I69" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14">
+      <c r="I69" s="11" t="s">
+        <v>1565</v>
+      </c>
+      <c r="J69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14">
       <c r="A70" t="s">
         <v>602</v>
       </c>
@@ -6549,11 +7868,14 @@
       <c r="H70" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="I70" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="14">
+      <c r="I70" s="11" t="s">
+        <v>1566</v>
+      </c>
+      <c r="J70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14">
       <c r="A71" t="s">
         <v>603</v>
       </c>
@@ -6572,11 +7894,14 @@
       <c r="H71" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="I71" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="14">
+      <c r="I71" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J71" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14">
       <c r="A72" t="s">
         <v>604</v>
       </c>
@@ -6595,11 +7920,14 @@
       <c r="H72" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="I72" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="14">
+      <c r="I72" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14">
       <c r="A73" t="s">
         <v>605</v>
       </c>
@@ -6618,11 +7946,14 @@
       <c r="H73" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="I73" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="14">
+      <c r="I73" s="11" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14">
       <c r="A74" t="s">
         <v>606</v>
       </c>
@@ -6641,11 +7972,14 @@
       <c r="H74" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="I74" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14">
+      <c r="I74" s="11" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J74" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14">
       <c r="A75" t="s">
         <v>607</v>
       </c>
@@ -6664,11 +7998,14 @@
       <c r="H75" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="I75" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="14">
+      <c r="I75" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J75" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14">
       <c r="A76" t="s">
         <v>608</v>
       </c>
@@ -6687,11 +8024,14 @@
       <c r="H76" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="I76" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14">
+      <c r="I76" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14">
       <c r="A77" t="s">
         <v>609</v>
       </c>
@@ -6710,11 +8050,14 @@
       <c r="H77" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="I77" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="14">
+      <c r="I77" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14">
       <c r="A78" t="s">
         <v>610</v>
       </c>
@@ -6733,11 +8076,14 @@
       <c r="H78" s="11" t="s">
         <v>1068</v>
       </c>
-      <c r="I78" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="14">
+      <c r="I78" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J78" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14">
       <c r="A79" t="s">
         <v>611</v>
       </c>
@@ -6756,11 +8102,14 @@
       <c r="H79" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="I79" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14">
+      <c r="I79" s="11" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14">
       <c r="A80" t="s">
         <v>612</v>
       </c>
@@ -6779,11 +8128,14 @@
       <c r="H80" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="I80" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="14">
+      <c r="I80" s="11" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14">
       <c r="A81" t="s">
         <v>613</v>
       </c>
@@ -6802,11 +8154,14 @@
       <c r="H81" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="I81" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="14">
+      <c r="I81" s="11" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J81" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14">
       <c r="A82" t="s">
         <v>614</v>
       </c>
@@ -6825,11 +8180,14 @@
       <c r="H82" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="I82" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="14">
+      <c r="I82" s="11" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14">
       <c r="A83" t="s">
         <v>615</v>
       </c>
@@ -6848,11 +8206,14 @@
       <c r="H83" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="I83" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="14">
+      <c r="I83" s="11" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J83" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14">
       <c r="A84" t="s">
         <v>616</v>
       </c>
@@ -6871,11 +8232,14 @@
       <c r="H84" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="I84" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="14">
+      <c r="I84" s="11" t="s">
+        <v>1578</v>
+      </c>
+      <c r="J84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14">
       <c r="A85" t="s">
         <v>617</v>
       </c>
@@ -6894,11 +8258,14 @@
       <c r="H85" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="I85" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="14">
+      <c r="I85" s="11" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14">
       <c r="A86" t="s">
         <v>618</v>
       </c>
@@ -6917,11 +8284,14 @@
       <c r="H86" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="I86" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="14">
+      <c r="I86" s="11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14">
       <c r="A87" t="s">
         <v>619</v>
       </c>
@@ -6940,11 +8310,14 @@
       <c r="H87" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="I87" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="14">
+      <c r="I87" s="11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J87" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14">
       <c r="A88" t="s">
         <v>620</v>
       </c>
@@ -6963,11 +8336,14 @@
       <c r="H88" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="I88" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="14">
+      <c r="I88" s="11" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J88" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14">
       <c r="A89" t="s">
         <v>621</v>
       </c>
@@ -6986,11 +8362,14 @@
       <c r="H89" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="I89" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="14">
+      <c r="I89" s="11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J89" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14">
       <c r="A90" t="s">
         <v>622</v>
       </c>
@@ -7009,11 +8388,14 @@
       <c r="H90" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="I90" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="14">
+      <c r="I90" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J90" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14">
       <c r="A91" t="s">
         <v>623</v>
       </c>
@@ -7032,11 +8414,14 @@
       <c r="H91" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="I91" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="14">
+      <c r="I91" s="11" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14">
       <c r="A92" t="s">
         <v>624</v>
       </c>
@@ -7055,11 +8440,14 @@
       <c r="H92" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="I92" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="14">
+      <c r="I92" s="11" t="s">
+        <v>1586</v>
+      </c>
+      <c r="J92" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14">
       <c r="A93" t="s">
         <v>625</v>
       </c>
@@ -7078,11 +8466,14 @@
       <c r="H93" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="I93" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="14">
+      <c r="I93" s="11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14">
       <c r="A94" t="s">
         <v>626</v>
       </c>
@@ -7101,11 +8492,14 @@
       <c r="H94" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="I94" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="14">
+      <c r="I94" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J94" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14">
       <c r="A95" t="s">
         <v>627</v>
       </c>
@@ -7124,11 +8518,14 @@
       <c r="H95" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="I95" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="14">
+      <c r="I95" s="11" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J95" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14">
       <c r="A96" t="s">
         <v>628</v>
       </c>
@@ -7147,11 +8544,14 @@
       <c r="H96" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="I96" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="14">
+      <c r="I96" s="11" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J96" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14">
       <c r="A97" t="s">
         <v>629</v>
       </c>
@@ -7170,11 +8570,14 @@
       <c r="H97" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="I97" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="14">
+      <c r="I97" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14">
       <c r="A98" t="s">
         <v>630</v>
       </c>
@@ -7193,11 +8596,14 @@
       <c r="H98" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="I98" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="14">
+      <c r="I98" s="11" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14">
       <c r="A99" t="s">
         <v>631</v>
       </c>
@@ -7216,11 +8622,14 @@
       <c r="H99" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="I99" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="14">
+      <c r="I99" s="11" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J99" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14">
       <c r="A100" t="s">
         <v>632</v>
       </c>
@@ -7239,11 +8648,14 @@
       <c r="H100" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="I100" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="14">
+      <c r="I100" s="11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J100" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14">
       <c r="A101" t="s">
         <v>633</v>
       </c>
@@ -7262,11 +8674,14 @@
       <c r="H101" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="I101" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="14">
+      <c r="I101" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J101" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14">
       <c r="A102" t="s">
         <v>634</v>
       </c>
@@ -7285,11 +8700,14 @@
       <c r="H102" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="I102" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="14">
+      <c r="I102" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J102" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14">
       <c r="A103" t="s">
         <v>635</v>
       </c>
@@ -7308,11 +8726,14 @@
       <c r="H103" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="I103" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="14">
+      <c r="I103" s="11" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14">
       <c r="A104" t="s">
         <v>636</v>
       </c>
@@ -7331,11 +8752,14 @@
       <c r="H104" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="I104" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="14">
+      <c r="I104" s="11" t="s">
+        <v>1597</v>
+      </c>
+      <c r="J104" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14">
       <c r="A105" t="s">
         <v>637</v>
       </c>
@@ -7354,11 +8778,14 @@
       <c r="H105" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="I105" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="14">
+      <c r="I105" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J105" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14">
       <c r="A106" t="s">
         <v>638</v>
       </c>
@@ -7377,11 +8804,14 @@
       <c r="H106" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="I106" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="14">
+      <c r="I106" s="11" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J106" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14">
       <c r="A107" t="s">
         <v>639</v>
       </c>
@@ -7400,11 +8830,14 @@
       <c r="H107" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="I107" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="14">
+      <c r="I107" s="11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="J107" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14">
       <c r="A108" t="s">
         <v>640</v>
       </c>
@@ -7423,11 +8856,14 @@
       <c r="H108" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="I108" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="14">
+      <c r="I108" s="11" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J108" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14">
       <c r="A109" t="s">
         <v>641</v>
       </c>
@@ -7446,11 +8882,14 @@
       <c r="H109" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="I109" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="14">
+      <c r="I109" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J109" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14">
       <c r="A110" t="s">
         <v>642</v>
       </c>
@@ -7469,11 +8908,14 @@
       <c r="H110" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="I110" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="14">
+      <c r="I110" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J110" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14">
       <c r="A111" t="s">
         <v>643</v>
       </c>
@@ -7492,11 +8934,14 @@
       <c r="H111" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="I111" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="14">
+      <c r="I111" s="11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J111" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14">
       <c r="A112" t="s">
         <v>644</v>
       </c>
@@ -7515,11 +8960,14 @@
       <c r="H112" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="I112" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="14">
+      <c r="I112" s="11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="J112" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14">
       <c r="A113" t="s">
         <v>645</v>
       </c>
@@ -7538,11 +8986,14 @@
       <c r="H113" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="I113" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="14">
+      <c r="I113" s="11" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J113" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14">
       <c r="A114" t="s">
         <v>646</v>
       </c>
@@ -7561,11 +9012,14 @@
       <c r="H114" s="11" t="s">
         <v>1054</v>
       </c>
-      <c r="I114" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="14">
+      <c r="I114" s="11" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J114" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14">
       <c r="A115" t="s">
         <v>647</v>
       </c>
@@ -7584,11 +9038,14 @@
       <c r="H115" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="I115" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="14">
+      <c r="I115" s="11" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J115" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14">
       <c r="A116" t="s">
         <v>648</v>
       </c>
@@ -7607,11 +9064,14 @@
       <c r="H116" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="I116" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="14">
+      <c r="I116" s="11" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J116" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14">
       <c r="A117" t="s">
         <v>649</v>
       </c>
@@ -7630,11 +9090,14 @@
       <c r="H117" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="I117" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="14">
+      <c r="I117" s="11" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J117" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14">
       <c r="A118" t="s">
         <v>650</v>
       </c>
@@ -7653,11 +9116,14 @@
       <c r="H118" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="I118" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="14">
+      <c r="I118" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J118" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14">
       <c r="A119" t="s">
         <v>651</v>
       </c>
@@ -7676,11 +9142,14 @@
       <c r="H119" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="I119" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="14">
+      <c r="I119" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J119" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14">
       <c r="A120" t="s">
         <v>652</v>
       </c>
@@ -7699,11 +9168,14 @@
       <c r="H120" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="I120" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="14">
+      <c r="I120" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J120" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14">
       <c r="A121" t="s">
         <v>653</v>
       </c>
@@ -7722,11 +9194,14 @@
       <c r="H121" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="I121" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="14">
+      <c r="I121" s="11" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J121" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14">
       <c r="A122" t="s">
         <v>654</v>
       </c>
@@ -7745,11 +9220,14 @@
       <c r="H122" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="I122" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="14">
+      <c r="I122" s="11" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J122" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14">
       <c r="A123" t="s">
         <v>655</v>
       </c>
@@ -7768,11 +9246,14 @@
       <c r="H123" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="I123" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="14">
+      <c r="I123" s="11" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J123" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14">
       <c r="A124" t="s">
         <v>656</v>
       </c>
@@ -7791,11 +9272,14 @@
       <c r="H124" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="I124" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="14">
+      <c r="I124" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J124" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14">
       <c r="A125" t="s">
         <v>657</v>
       </c>
@@ -7814,11 +9298,14 @@
       <c r="H125" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="I125" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="14">
+      <c r="I125" s="11" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J125" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="14">
       <c r="A126" t="s">
         <v>658</v>
       </c>
@@ -7837,11 +9324,14 @@
       <c r="H126" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="I126" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="14">
+      <c r="I126" s="11" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J126" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14">
       <c r="A127" t="s">
         <v>659</v>
       </c>
@@ -7860,11 +9350,14 @@
       <c r="H127" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="I127" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="14">
+      <c r="I127" s="11" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J127" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14">
       <c r="A128" t="s">
         <v>660</v>
       </c>
@@ -7883,11 +9376,14 @@
       <c r="H128" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="I128" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="14">
+      <c r="I128" s="11" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J128" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14">
       <c r="A129" t="s">
         <v>661</v>
       </c>
@@ -7906,11 +9402,14 @@
       <c r="H129" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="I129" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="14">
+      <c r="I129" s="11" t="s">
+        <v>1617</v>
+      </c>
+      <c r="J129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14">
       <c r="A130" t="s">
         <v>662</v>
       </c>
@@ -7929,11 +9428,14 @@
       <c r="H130" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="I130" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="14">
+      <c r="I130" s="11" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J130" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14">
       <c r="A131" t="s">
         <v>663</v>
       </c>
@@ -7952,11 +9454,14 @@
       <c r="H131" s="11" t="s">
         <v>1119</v>
       </c>
-      <c r="I131" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="14">
+      <c r="I131" s="11" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J131" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14">
       <c r="A132" t="s">
         <v>664</v>
       </c>
@@ -7975,11 +9480,14 @@
       <c r="H132" s="11" t="s">
         <v>1120</v>
       </c>
-      <c r="I132" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="14">
+      <c r="I132" s="11" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J132" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14">
       <c r="A133" t="s">
         <v>665</v>
       </c>
@@ -7998,11 +9506,14 @@
       <c r="H133" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="I133" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="14">
+      <c r="I133" s="11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J133" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14">
       <c r="A134" t="s">
         <v>666</v>
       </c>
@@ -8021,11 +9532,14 @@
       <c r="H134" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="I134" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="14">
+      <c r="I134" s="11" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J134" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14">
       <c r="A135" t="s">
         <v>667</v>
       </c>
@@ -8044,11 +9558,14 @@
       <c r="H135" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="I135" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="14">
+      <c r="I135" s="11" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J135" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14">
       <c r="A136" t="s">
         <v>668</v>
       </c>
@@ -8067,11 +9584,14 @@
       <c r="H136" s="11" t="s">
         <v>1124</v>
       </c>
-      <c r="I136" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="14">
+      <c r="I136" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J136" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14">
       <c r="A137" t="s">
         <v>669</v>
       </c>
@@ -8090,11 +9610,14 @@
       <c r="H137" s="11" t="s">
         <v>1125</v>
       </c>
-      <c r="I137" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="14">
+      <c r="I137" s="11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J137" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14">
       <c r="A138" t="s">
         <v>670</v>
       </c>
@@ -8113,11 +9636,14 @@
       <c r="H138" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="I138" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="14">
+      <c r="I138" s="11" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J138" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14">
       <c r="A139" t="s">
         <v>671</v>
       </c>
@@ -8136,11 +9662,14 @@
       <c r="H139" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="I139" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="14">
+      <c r="I139" s="11" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J139" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14">
       <c r="A140" t="s">
         <v>672</v>
       </c>
@@ -8159,11 +9688,14 @@
       <c r="H140" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="I140" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="14">
+      <c r="I140" s="11" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J140" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="14">
       <c r="A141" t="s">
         <v>673</v>
       </c>
@@ -8182,11 +9714,14 @@
       <c r="H141" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="I141" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="14">
+      <c r="I141" s="11" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J141" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14">
       <c r="A142" t="s">
         <v>674</v>
       </c>
@@ -8205,11 +9740,14 @@
       <c r="H142" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="I142" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="14">
+      <c r="I142" s="11" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J142" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14">
       <c r="A143" t="s">
         <v>675</v>
       </c>
@@ -8228,11 +9766,14 @@
       <c r="H143" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="I143" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="14">
+      <c r="I143" s="11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J143" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14">
       <c r="A144" t="s">
         <v>676</v>
       </c>
@@ -8251,11 +9792,14 @@
       <c r="H144" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="I144" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="14">
+      <c r="I144" s="11" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J144" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14">
       <c r="A145" t="s">
         <v>677</v>
       </c>
@@ -8274,11 +9818,14 @@
       <c r="H145" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="I145" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="14">
+      <c r="I145" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J145" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="14">
       <c r="A146" t="s">
         <v>678</v>
       </c>
@@ -8297,11 +9844,14 @@
       <c r="H146" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="I146" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="14">
+      <c r="I146" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J146" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14">
       <c r="A147" t="s">
         <v>679</v>
       </c>
@@ -8320,11 +9870,14 @@
       <c r="H147" s="11" t="s">
         <v>1135</v>
       </c>
-      <c r="I147" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="14">
+      <c r="I147" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J147" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14">
       <c r="A148" t="s">
         <v>680</v>
       </c>
@@ -8343,11 +9896,14 @@
       <c r="H148" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="I148" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="14">
+      <c r="I148" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J148" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14">
       <c r="A149" t="s">
         <v>681</v>
       </c>
@@ -8366,11 +9922,14 @@
       <c r="H149" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="I149" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="14">
+      <c r="I149" s="11" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J149" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="14">
       <c r="A150" t="s">
         <v>682</v>
       </c>
@@ -8389,11 +9948,14 @@
       <c r="H150" s="11" t="s">
         <v>1138</v>
       </c>
-      <c r="I150" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="14">
+      <c r="I150" s="11" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J150" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14">
       <c r="A151" t="s">
         <v>683</v>
       </c>
@@ -8412,11 +9974,14 @@
       <c r="H151" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="I151" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="14">
+      <c r="I151" s="11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J151" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14">
       <c r="A152" t="s">
         <v>684</v>
       </c>
@@ -8435,11 +10000,14 @@
       <c r="H152" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="I152" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="14">
+      <c r="I152" s="11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J152" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14">
       <c r="A153" t="s">
         <v>685</v>
       </c>
@@ -8458,11 +10026,14 @@
       <c r="H153" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="I153" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="14">
+      <c r="I153" s="11" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J153" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14">
       <c r="A154" t="s">
         <v>686</v>
       </c>
@@ -8481,11 +10052,14 @@
       <c r="H154" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="I154" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="14">
+      <c r="I154" s="11" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J154" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14">
       <c r="A155" t="s">
         <v>687</v>
       </c>
@@ -8504,11 +10078,14 @@
       <c r="H155" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="I155" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="14">
+      <c r="I155" s="11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J155" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14">
       <c r="A156" t="s">
         <v>688</v>
       </c>
@@ -8527,11 +10104,14 @@
       <c r="H156" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="I156" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="14">
+      <c r="I156" s="11" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J156" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14">
       <c r="A157" t="s">
         <v>689</v>
       </c>
@@ -8550,11 +10130,14 @@
       <c r="H157" s="11" t="s">
         <v>1145</v>
       </c>
-      <c r="I157" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="14">
+      <c r="I157" s="11" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J157" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14">
       <c r="A158" t="s">
         <v>690</v>
       </c>
@@ -8573,11 +10156,14 @@
       <c r="H158" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="I158" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="14">
+      <c r="I158" s="11" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J158" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14">
       <c r="A159" t="s">
         <v>691</v>
       </c>
@@ -8596,11 +10182,14 @@
       <c r="H159" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="I159" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="14">
+      <c r="I159" s="11" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J159" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14">
       <c r="A160" t="s">
         <v>692</v>
       </c>
@@ -8619,11 +10208,14 @@
       <c r="H160" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="I160" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="14">
+      <c r="I160" s="11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J160" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="14">
       <c r="A161" t="s">
         <v>693</v>
       </c>
@@ -8642,11 +10234,14 @@
       <c r="H161" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="I161" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="14">
+      <c r="I161" s="11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J161" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14">
       <c r="A162" t="s">
         <v>694</v>
       </c>
@@ -8665,11 +10260,14 @@
       <c r="H162" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="I162" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="14">
+      <c r="I162" s="11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J162" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14">
       <c r="A163" t="s">
         <v>695</v>
       </c>
@@ -8688,11 +10286,14 @@
       <c r="H163" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="I163" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="14">
+      <c r="I163" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J163" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14">
       <c r="A164" t="s">
         <v>696</v>
       </c>
@@ -8711,11 +10312,14 @@
       <c r="H164" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="I164" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="14">
+      <c r="I164" s="11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J164" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="14">
       <c r="A165" t="s">
         <v>697</v>
       </c>
@@ -8734,11 +10338,14 @@
       <c r="H165" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="I165" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="14">
+      <c r="I165" s="11" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J165" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="14">
       <c r="A166" t="s">
         <v>698</v>
       </c>
@@ -8757,11 +10364,14 @@
       <c r="H166" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="I166" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="14">
+      <c r="I166" s="11" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J166" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="14">
       <c r="A167" t="s">
         <v>699</v>
       </c>
@@ -8780,11 +10390,14 @@
       <c r="H167" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="I167" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="14">
+      <c r="I167" s="11" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J167" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="14">
       <c r="A168" t="s">
         <v>700</v>
       </c>
@@ -8803,11 +10416,14 @@
       <c r="H168" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="I168" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="14">
+      <c r="I168" s="11" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J168" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14">
       <c r="A169" t="s">
         <v>701</v>
       </c>
@@ -8826,11 +10442,14 @@
       <c r="H169" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="I169" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="14">
+      <c r="I169" s="11" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J169" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="14">
       <c r="A170" t="s">
         <v>702</v>
       </c>
@@ -8849,11 +10468,14 @@
       <c r="H170" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="I170" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="14">
+      <c r="I170" s="11" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J170" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="14">
       <c r="A171" t="s">
         <v>703</v>
       </c>
@@ -8872,11 +10494,14 @@
       <c r="H171" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="I171" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="14">
+      <c r="I171" s="11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J171" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="14">
       <c r="A172" t="s">
         <v>704</v>
       </c>
@@ -8895,11 +10520,14 @@
       <c r="H172" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="I172" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="14">
+      <c r="I172" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J172" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="14">
       <c r="A173" t="s">
         <v>705</v>
       </c>
@@ -8918,11 +10546,14 @@
       <c r="H173" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="I173" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="14">
+      <c r="I173" s="11" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J173" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="14">
       <c r="A174" t="s">
         <v>706</v>
       </c>
@@ -8941,11 +10572,14 @@
       <c r="H174" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="I174" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" ht="14">
+      <c r="I174" s="11" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J174" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="14">
       <c r="A175" t="s">
         <v>707</v>
       </c>
@@ -8964,11 +10598,14 @@
       <c r="H175" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="I175" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="14">
+      <c r="I175" s="11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J175" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="14">
       <c r="A176" t="s">
         <v>708</v>
       </c>
@@ -8987,11 +10624,14 @@
       <c r="H176" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="I176" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="14">
+      <c r="I176" s="11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J176" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="14">
       <c r="A177" t="s">
         <v>709</v>
       </c>
@@ -9010,11 +10650,14 @@
       <c r="H177" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="I177" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="14">
+      <c r="I177" s="11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J177" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="14">
       <c r="A178" t="s">
         <v>710</v>
       </c>
@@ -9033,11 +10676,14 @@
       <c r="H178" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="I178" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="14">
+      <c r="I178" s="11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="14">
       <c r="A179" t="s">
         <v>711</v>
       </c>
@@ -9056,11 +10702,14 @@
       <c r="H179" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="I179" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="14">
+      <c r="I179" s="11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J179" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="14">
       <c r="A180" t="s">
         <v>712</v>
       </c>
@@ -9079,11 +10728,14 @@
       <c r="H180" s="11" t="s">
         <v>1168</v>
       </c>
-      <c r="I180" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="14">
+      <c r="I180" s="11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J180" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="14">
       <c r="A181" t="s">
         <v>713</v>
       </c>
@@ -9102,11 +10754,14 @@
       <c r="H181" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="I181" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="14">
+      <c r="I181" s="11" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J181" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="14">
       <c r="A182" t="s">
         <v>714</v>
       </c>
@@ -9125,11 +10780,14 @@
       <c r="H182" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="I182" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="14">
+      <c r="I182" s="11" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J182" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="14">
       <c r="A183" t="s">
         <v>715</v>
       </c>
@@ -9148,11 +10806,14 @@
       <c r="H183" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="I183" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="14">
+      <c r="I183" s="11" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J183" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="14">
       <c r="A184" t="s">
         <v>716</v>
       </c>
@@ -9171,11 +10832,14 @@
       <c r="H184" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="I184" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="14">
+      <c r="I184" s="11" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J184" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="14">
       <c r="A185" t="s">
         <v>717</v>
       </c>
@@ -9194,11 +10858,14 @@
       <c r="H185" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="I185" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="14">
+      <c r="I185" s="11" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J185" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="14">
       <c r="A186" t="s">
         <v>718</v>
       </c>
@@ -9217,11 +10884,14 @@
       <c r="H186" s="11" t="s">
         <v>1174</v>
       </c>
-      <c r="I186" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="14">
+      <c r="I186" s="11" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J186" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="14">
       <c r="A187" t="s">
         <v>719</v>
       </c>
@@ -9240,11 +10910,14 @@
       <c r="H187" s="11" t="s">
         <v>1175</v>
       </c>
-      <c r="I187" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="14">
+      <c r="I187" s="11" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J187" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="14">
       <c r="A188" t="s">
         <v>720</v>
       </c>
@@ -9263,11 +10936,14 @@
       <c r="H188" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="I188" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="14">
+      <c r="I188" s="11" t="s">
+        <v>1670</v>
+      </c>
+      <c r="J188" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="14">
       <c r="A189" t="s">
         <v>721</v>
       </c>
@@ -9286,11 +10962,14 @@
       <c r="H189" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="I189" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="14">
+      <c r="I189" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J189" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="14">
       <c r="A190" t="s">
         <v>722</v>
       </c>
@@ -9309,11 +10988,14 @@
       <c r="H190" s="11" t="s">
         <v>1178</v>
       </c>
-      <c r="I190" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="14">
+      <c r="I190" s="11" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J190" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="14">
       <c r="A191" t="s">
         <v>723</v>
       </c>
@@ -9332,11 +11014,14 @@
       <c r="H191" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="I191" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="14">
+      <c r="I191" s="11" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J191" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="14">
       <c r="A192" t="s">
         <v>724</v>
       </c>
@@ -9355,11 +11040,14 @@
       <c r="H192" s="11" t="s">
         <v>1180</v>
       </c>
-      <c r="I192" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="14">
+      <c r="I192" s="11" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J192" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="14">
       <c r="A193" t="s">
         <v>725</v>
       </c>
@@ -9378,11 +11066,14 @@
       <c r="H193" s="11" t="s">
         <v>1181</v>
       </c>
-      <c r="I193" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="14">
+      <c r="I193" s="11" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J193" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="14">
       <c r="A194" t="s">
         <v>726</v>
       </c>
@@ -9401,11 +11092,14 @@
       <c r="H194" s="11" t="s">
         <v>1182</v>
       </c>
-      <c r="I194" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="14">
+      <c r="I194" s="11" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J194" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="14">
       <c r="A195" t="s">
         <v>727</v>
       </c>
@@ -9424,11 +11118,14 @@
       <c r="H195" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="I195" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="14">
+      <c r="I195" s="11" t="s">
+        <v>1676</v>
+      </c>
+      <c r="J195" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14">
       <c r="A196" t="s">
         <v>728</v>
       </c>
@@ -9447,11 +11144,14 @@
       <c r="H196" s="11" t="s">
         <v>1184</v>
       </c>
-      <c r="I196" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="14">
+      <c r="I196" s="11" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J196" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14">
       <c r="A197" t="s">
         <v>729</v>
       </c>
@@ -9470,11 +11170,14 @@
       <c r="H197" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="I197" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="14">
+      <c r="I197" s="11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J197" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14">
       <c r="A198" t="s">
         <v>730</v>
       </c>
@@ -9493,11 +11196,14 @@
       <c r="H198" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="I198" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" ht="14">
+      <c r="I198" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J198" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="14">
       <c r="A199" t="s">
         <v>731</v>
       </c>
@@ -9516,11 +11222,14 @@
       <c r="H199" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="I199" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="14">
+      <c r="I199" s="11" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J199" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="14">
       <c r="A200" t="s">
         <v>732</v>
       </c>
@@ -9539,11 +11248,14 @@
       <c r="H200" s="11" t="s">
         <v>1188</v>
       </c>
-      <c r="I200" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="14">
+      <c r="I200" s="11" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J200" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="14">
       <c r="A201" t="s">
         <v>733</v>
       </c>
@@ -9562,11 +11274,14 @@
       <c r="H201" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="I201" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="14">
+      <c r="I201" s="11" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J201" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="14">
       <c r="A202" t="s">
         <v>734</v>
       </c>
@@ -9585,11 +11300,14 @@
       <c r="H202" s="11" t="s">
         <v>1190</v>
       </c>
-      <c r="I202" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="14">
+      <c r="I202" s="11" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J202" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="14">
       <c r="A203" t="s">
         <v>735</v>
       </c>
@@ -9608,11 +11326,14 @@
       <c r="H203" s="11" t="s">
         <v>1191</v>
       </c>
-      <c r="I203" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="14">
+      <c r="I203" s="11" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J203" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="14">
       <c r="A204" t="s">
         <v>736</v>
       </c>
@@ -9631,11 +11352,14 @@
       <c r="H204" s="11" t="s">
         <v>1192</v>
       </c>
-      <c r="I204" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="14">
+      <c r="I204" s="11" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J204" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="14">
       <c r="A205" t="s">
         <v>737</v>
       </c>
@@ -9654,11 +11378,14 @@
       <c r="H205" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="I205" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="14">
+      <c r="I205" s="11" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J205" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="14">
       <c r="A206" t="s">
         <v>738</v>
       </c>
@@ -9677,11 +11404,14 @@
       <c r="H206" s="11" t="s">
         <v>1194</v>
       </c>
-      <c r="I206" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="14">
+      <c r="I206" s="11" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J206" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="14">
       <c r="A207" t="s">
         <v>739</v>
       </c>
@@ -9700,11 +11430,14 @@
       <c r="H207" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="I207" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="14">
+      <c r="I207" s="11" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J207" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="14">
       <c r="A208" t="s">
         <v>740</v>
       </c>
@@ -9723,11 +11456,14 @@
       <c r="H208" s="11" t="s">
         <v>1196</v>
       </c>
-      <c r="I208" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="14">
+      <c r="I208" s="11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J208" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="14">
       <c r="A209" t="s">
         <v>741</v>
       </c>
@@ -9746,11 +11482,14 @@
       <c r="H209" s="11" t="s">
         <v>1197</v>
       </c>
-      <c r="I209" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="14">
+      <c r="I209" s="11" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J209" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="14">
       <c r="A210" t="s">
         <v>742</v>
       </c>
@@ -9769,11 +11508,14 @@
       <c r="H210" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="I210" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="14">
+      <c r="I210" s="11" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J210" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="14">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -9792,11 +11534,14 @@
       <c r="H211" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="I211" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="14">
+      <c r="I211" s="11" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J211" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="14">
       <c r="A212" t="s">
         <v>744</v>
       </c>
@@ -9815,11 +11560,14 @@
       <c r="H212" s="11" t="s">
         <v>1200</v>
       </c>
-      <c r="I212" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="14">
+      <c r="I212" s="11" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J212" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="14">
       <c r="A213" t="s">
         <v>745</v>
       </c>
@@ -9838,11 +11586,14 @@
       <c r="H213" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="I213" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="14">
+      <c r="I213" s="11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J213" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="14">
       <c r="A214" t="s">
         <v>746</v>
       </c>
@@ -9861,11 +11612,14 @@
       <c r="H214" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="I214" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="14">
+      <c r="I214" s="11" t="s">
+        <v>1695</v>
+      </c>
+      <c r="J214" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="14">
       <c r="A215" t="s">
         <v>747</v>
       </c>
@@ -9884,11 +11638,14 @@
       <c r="H215" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="I215" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" ht="14">
+      <c r="I215" s="11" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J215" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="14">
       <c r="A216" t="s">
         <v>748</v>
       </c>
@@ -9907,11 +11664,14 @@
       <c r="H216" s="11" t="s">
         <v>1204</v>
       </c>
-      <c r="I216" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="14">
+      <c r="I216" s="11" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J216" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="14">
       <c r="A217" t="s">
         <v>749</v>
       </c>
@@ -9930,11 +11690,14 @@
       <c r="H217" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="I217" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="14">
+      <c r="I217" s="11" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J217" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="14">
       <c r="A218" t="s">
         <v>750</v>
       </c>
@@ -9953,11 +11716,14 @@
       <c r="H218" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="I218" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="14">
+      <c r="I218" s="11" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J218" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="14">
       <c r="A219" t="s">
         <v>751</v>
       </c>
@@ -9976,11 +11742,14 @@
       <c r="H219" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="I219" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="14">
+      <c r="I219" s="11" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J219" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="14">
       <c r="A220" t="s">
         <v>752</v>
       </c>
@@ -9999,11 +11768,14 @@
       <c r="H220" s="11" t="s">
         <v>1208</v>
       </c>
-      <c r="I220" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="14">
+      <c r="I220" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="J220" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="14">
       <c r="A221" t="s">
         <v>753</v>
       </c>
@@ -10022,11 +11794,14 @@
       <c r="H221" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="I221" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="14">
+      <c r="I221" s="11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J221" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="14">
       <c r="A222" t="s">
         <v>754</v>
       </c>
@@ -10045,11 +11820,14 @@
       <c r="H222" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="I222" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="14">
+      <c r="I222" s="11" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J222" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="14">
       <c r="A223" t="s">
         <v>755</v>
       </c>
@@ -10068,11 +11846,14 @@
       <c r="H223" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="I223" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="14">
+      <c r="I223" s="11" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J223" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="14">
       <c r="A224" t="s">
         <v>756</v>
       </c>
@@ -10091,11 +11872,14 @@
       <c r="H224" s="11" t="s">
         <v>1212</v>
       </c>
-      <c r="I224" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="14">
+      <c r="I224" s="11" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J224" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="14">
       <c r="A225" t="s">
         <v>757</v>
       </c>
@@ -10114,11 +11898,14 @@
       <c r="H225" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="I225" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="14">
+      <c r="I225" s="11" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J225" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="14">
       <c r="A226" t="s">
         <v>758</v>
       </c>
@@ -10137,11 +11924,14 @@
       <c r="H226" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="I226" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="14">
+      <c r="I226" s="11" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J226" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="14">
       <c r="A227" t="s">
         <v>759</v>
       </c>
@@ -10160,11 +11950,14 @@
       <c r="H227" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="I227" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="14">
+      <c r="I227" s="11" t="s">
+        <v>1707</v>
+      </c>
+      <c r="J227" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="14">
       <c r="A228" t="s">
         <v>760</v>
       </c>
@@ -10183,11 +11976,14 @@
       <c r="H228" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="I228" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="14">
+      <c r="I228" s="11" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J228" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="14">
       <c r="A229" t="s">
         <v>761</v>
       </c>
@@ -10206,11 +12002,14 @@
       <c r="H229" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="I229" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="14">
+      <c r="I229" s="11" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J229" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="14">
       <c r="A230" t="s">
         <v>762</v>
       </c>
@@ -10229,11 +12028,14 @@
       <c r="H230" s="11" t="s">
         <v>1218</v>
       </c>
-      <c r="I230" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="14">
+      <c r="I230" s="11" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="14">
       <c r="A231" t="s">
         <v>763</v>
       </c>
@@ -10252,11 +12054,14 @@
       <c r="H231" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="I231" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="14">
+      <c r="I231" s="11" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J231" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="14">
       <c r="A232" t="s">
         <v>764</v>
       </c>
@@ -10275,11 +12080,14 @@
       <c r="H232" s="11" t="s">
         <v>1220</v>
       </c>
-      <c r="I232" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="14">
+      <c r="I232" s="11" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J232" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="14">
       <c r="A233" t="s">
         <v>765</v>
       </c>
@@ -10298,11 +12106,14 @@
       <c r="H233" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="I233" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="14">
+      <c r="I233" s="11" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J233" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="14">
       <c r="A234" t="s">
         <v>766</v>
       </c>
@@ -10321,11 +12132,14 @@
       <c r="H234" s="11" t="s">
         <v>1222</v>
       </c>
-      <c r="I234" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="14">
+      <c r="I234" s="11" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J234" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="14">
       <c r="A235" t="s">
         <v>767</v>
       </c>
@@ -10344,11 +12158,14 @@
       <c r="H235" s="11" t="s">
         <v>1223</v>
       </c>
-      <c r="I235" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="14">
+      <c r="I235" s="11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J235" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="14">
       <c r="A236" t="s">
         <v>768</v>
       </c>
@@ -10367,11 +12184,14 @@
       <c r="H236" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="I236" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="14">
+      <c r="I236" s="11" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J236" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="14">
       <c r="A237" t="s">
         <v>769</v>
       </c>
@@ -10390,11 +12210,14 @@
       <c r="H237" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I237" s="11" t="s">
+        <v>1716</v>
+      </c>
+      <c r="J237" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14">
+    <row r="238" spans="1:10" ht="14">
       <c r="A238" t="s">
         <v>770</v>
       </c>
@@ -10413,11 +12236,14 @@
       <c r="H238" s="11" t="s">
         <v>1225</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I238" s="11" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J238" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="14">
+    <row r="239" spans="1:10" ht="14">
       <c r="A239" t="s">
         <v>771</v>
       </c>
@@ -10436,11 +12262,14 @@
       <c r="H239" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="I239" t="s">
+      <c r="I239" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J239" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="14">
+    <row r="240" spans="1:10" ht="14">
       <c r="A240" t="s">
         <v>772</v>
       </c>
@@ -10459,11 +12288,14 @@
       <c r="H240" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" s="11" t="s">
+        <v>1718</v>
+      </c>
+      <c r="J240" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14">
+    <row r="241" spans="1:10" ht="14">
       <c r="A241" t="s">
         <v>773</v>
       </c>
@@ -10482,11 +12314,14 @@
       <c r="H241" s="11" t="s">
         <v>1228</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="11" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J241" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="14">
+    <row r="242" spans="1:10" ht="14">
       <c r="A242" t="s">
         <v>774</v>
       </c>
@@ -10505,11 +12340,14 @@
       <c r="H242" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="I242" t="s">
+      <c r="I242" s="11" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J242" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="14">
+    <row r="243" spans="1:10" ht="14">
       <c r="A243" t="s">
         <v>775</v>
       </c>
@@ -10528,11 +12366,14 @@
       <c r="H243" s="11" t="s">
         <v>1230</v>
       </c>
-      <c r="I243" t="s">
+      <c r="I243" s="11" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J243" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="14">
+    <row r="244" spans="1:10" ht="14">
       <c r="A244" t="s">
         <v>776</v>
       </c>
@@ -10551,11 +12392,14 @@
       <c r="H244" s="11" t="s">
         <v>1231</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="11" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J244" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="14">
+    <row r="245" spans="1:10" ht="14">
       <c r="A245" t="s">
         <v>777</v>
       </c>
@@ -10574,11 +12418,14 @@
       <c r="H245" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I245" s="11" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J245" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="14">
+    <row r="246" spans="1:10" ht="14">
       <c r="A246" t="s">
         <v>778</v>
       </c>
@@ -10597,11 +12444,14 @@
       <c r="H246" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I246" s="11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J246" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="14">
+    <row r="247" spans="1:10" ht="14">
       <c r="A247" t="s">
         <v>779</v>
       </c>
@@ -10620,11 +12470,14 @@
       <c r="H247" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="11" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J247" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14">
+    <row r="248" spans="1:10" ht="14">
       <c r="A248" t="s">
         <v>780</v>
       </c>
@@ -10643,11 +12496,14 @@
       <c r="H248" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I248" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J248" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14">
+    <row r="249" spans="1:10" ht="14">
       <c r="A249" t="s">
         <v>781</v>
       </c>
@@ -10666,11 +12522,14 @@
       <c r="H249" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="I249" t="s">
+      <c r="I249" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J249" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14">
+    <row r="250" spans="1:10" ht="14">
       <c r="A250" t="s">
         <v>782</v>
       </c>
@@ -10689,11 +12548,14 @@
       <c r="H250" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I250" s="11" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J250" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14">
+    <row r="251" spans="1:10" ht="14">
       <c r="A251" t="s">
         <v>783</v>
       </c>
@@ -10712,11 +12574,14 @@
       <c r="H251" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="I251" t="s">
+      <c r="I251" s="11" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J251" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14">
+    <row r="252" spans="1:10" ht="14">
       <c r="A252" t="s">
         <v>784</v>
       </c>
@@ -10735,11 +12600,14 @@
       <c r="H252" s="11" t="s">
         <v>1239</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="11" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J252" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14">
+    <row r="253" spans="1:10" ht="14">
       <c r="A253" t="s">
         <v>785</v>
       </c>
@@ -10758,11 +12626,14 @@
       <c r="H253" s="11" t="s">
         <v>1240</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J253" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14">
+    <row r="254" spans="1:10" ht="14">
       <c r="A254" t="s">
         <v>786</v>
       </c>
@@ -10781,11 +12652,14 @@
       <c r="H254" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="11" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J254" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14">
+    <row r="255" spans="1:10" ht="14">
       <c r="A255" t="s">
         <v>787</v>
       </c>
@@ -10804,11 +12678,14 @@
       <c r="H255" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="11" t="s">
+        <v>1730</v>
+      </c>
+      <c r="J255" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14">
+    <row r="256" spans="1:10" ht="14">
       <c r="A256" t="s">
         <v>788</v>
       </c>
@@ -10827,11 +12704,14 @@
       <c r="H256" s="11" t="s">
         <v>1243</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" s="11" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J256" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14">
+    <row r="257" spans="1:10" ht="14">
       <c r="A257" t="s">
         <v>789</v>
       </c>
@@ -10850,11 +12730,14 @@
       <c r="H257" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J257" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14">
+    <row r="258" spans="1:10" ht="14">
       <c r="A258" t="s">
         <v>790</v>
       </c>
@@ -10873,11 +12756,14 @@
       <c r="H258" s="11" t="s">
         <v>1245</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="11" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J258" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14">
+    <row r="259" spans="1:10" ht="14">
       <c r="A259" t="s">
         <v>791</v>
       </c>
@@ -10896,11 +12782,14 @@
       <c r="H259" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="11" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J259" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14">
+    <row r="260" spans="1:10" ht="14">
       <c r="A260" t="s">
         <v>792</v>
       </c>
@@ -10919,11 +12808,14 @@
       <c r="H260" s="11" t="s">
         <v>1247</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I260" s="11" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J260" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14">
+    <row r="261" spans="1:10" ht="14">
       <c r="A261" t="s">
         <v>793</v>
       </c>
@@ -10942,11 +12834,14 @@
       <c r="H261" s="11" t="s">
         <v>1248</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="11" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J261" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14">
+    <row r="262" spans="1:10" ht="14">
       <c r="A262" t="s">
         <v>794</v>
       </c>
@@ -10965,11 +12860,14 @@
       <c r="H262" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="11" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J262" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14">
+    <row r="263" spans="1:10" ht="14">
       <c r="A263" t="s">
         <v>795</v>
       </c>
@@ -10988,11 +12886,14 @@
       <c r="H263" s="11" t="s">
         <v>1250</v>
       </c>
-      <c r="I263" t="s">
+      <c r="I263" s="11" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J263" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14">
+    <row r="264" spans="1:10" ht="14">
       <c r="A264" t="s">
         <v>796</v>
       </c>
@@ -11011,11 +12912,14 @@
       <c r="H264" s="11" t="s">
         <v>1251</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="11" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J264" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14">
+    <row r="265" spans="1:10" ht="14">
       <c r="A265" t="s">
         <v>797</v>
       </c>
@@ -11034,11 +12938,14 @@
       <c r="H265" s="11" t="s">
         <v>1252</v>
       </c>
-      <c r="I265" t="s">
+      <c r="I265" s="11" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J265" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14">
+    <row r="266" spans="1:10" ht="14">
       <c r="A266" t="s">
         <v>798</v>
       </c>
@@ -11057,11 +12964,14 @@
       <c r="H266" s="11" t="s">
         <v>1253</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J266" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14">
+    <row r="267" spans="1:10" ht="14">
       <c r="A267" t="s">
         <v>799</v>
       </c>
@@ -11080,11 +12990,14 @@
       <c r="H267" s="11" t="s">
         <v>1254</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="11" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J267" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14">
+    <row r="268" spans="1:10" ht="14">
       <c r="A268" t="s">
         <v>800</v>
       </c>
@@ -11103,11 +13016,14 @@
       <c r="H268" s="11" t="s">
         <v>1255</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J268" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14">
+    <row r="269" spans="1:10" ht="14">
       <c r="A269" t="s">
         <v>801</v>
       </c>
@@ -11126,11 +13042,14 @@
       <c r="H269" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="11" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J269" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14">
+    <row r="270" spans="1:10" ht="14">
       <c r="A270" t="s">
         <v>802</v>
       </c>
@@ -11149,11 +13068,14 @@
       <c r="H270" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="I270" t="s">
+      <c r="I270" s="11" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J270" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="14">
+    <row r="271" spans="1:10" ht="14">
       <c r="A271" t="s">
         <v>803</v>
       </c>
@@ -11172,11 +13094,14 @@
       <c r="H271" s="11" t="s">
         <v>1258</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="11" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J271" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14">
+    <row r="272" spans="1:10" ht="14">
       <c r="A272" t="s">
         <v>804</v>
       </c>
@@ -11195,11 +13120,14 @@
       <c r="H272" s="11" t="s">
         <v>1259</v>
       </c>
-      <c r="I272" t="s">
+      <c r="I272" s="11" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J272" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="14">
+    <row r="273" spans="1:10" ht="14">
       <c r="A273" t="s">
         <v>805</v>
       </c>
@@ -11218,11 +13146,14 @@
       <c r="H273" s="11" t="s">
         <v>1260</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="J273" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="14">
+    <row r="274" spans="1:10" ht="14">
       <c r="A274" t="s">
         <v>806</v>
       </c>
@@ -11241,11 +13172,14 @@
       <c r="H274" s="11" t="s">
         <v>1261</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I274" s="11" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J274" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="14">
+    <row r="275" spans="1:10" ht="14">
       <c r="A275" t="s">
         <v>807</v>
       </c>
@@ -11264,11 +13198,14 @@
       <c r="H275" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J275" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="14">
+    <row r="276" spans="1:10" ht="14">
       <c r="A276" t="s">
         <v>808</v>
       </c>
@@ -11287,11 +13224,14 @@
       <c r="H276" s="11" t="s">
         <v>1263</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J276" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="14">
+    <row r="277" spans="1:10" ht="14">
       <c r="A277" t="s">
         <v>809</v>
       </c>
@@ -11310,11 +13250,14 @@
       <c r="H277" s="11" t="s">
         <v>1264</v>
       </c>
-      <c r="I277" t="s">
+      <c r="I277" s="11" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J277" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="14">
+    <row r="278" spans="1:10" ht="14">
       <c r="A278" t="s">
         <v>810</v>
       </c>
@@ -11333,11 +13276,14 @@
       <c r="H278" s="11" t="s">
         <v>1265</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="11" t="s">
+        <v>1750</v>
+      </c>
+      <c r="J278" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="14">
+    <row r="279" spans="1:10" ht="14">
       <c r="A279" t="s">
         <v>811</v>
       </c>
@@ -11356,11 +13302,14 @@
       <c r="H279" s="11" t="s">
         <v>1266</v>
       </c>
-      <c r="I279" t="s">
+      <c r="I279" s="11" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J279" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="14">
+    <row r="280" spans="1:10" ht="14">
       <c r="A280" t="s">
         <v>812</v>
       </c>
@@ -11379,11 +13328,14 @@
       <c r="H280" s="11" t="s">
         <v>1267</v>
       </c>
-      <c r="I280" t="s">
+      <c r="I280" s="11" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J280" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="14">
+    <row r="281" spans="1:10" ht="14">
       <c r="A281" t="s">
         <v>813</v>
       </c>
@@ -11402,11 +13354,14 @@
       <c r="H281" s="11" t="s">
         <v>1268</v>
       </c>
-      <c r="I281" t="s">
+      <c r="I281" s="11" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J281" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="14">
+    <row r="282" spans="1:10" ht="14">
       <c r="A282" t="s">
         <v>814</v>
       </c>
@@ -11425,11 +13380,14 @@
       <c r="H282" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="I282" t="s">
+      <c r="I282" s="11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J282" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="14">
+    <row r="283" spans="1:10" ht="14">
       <c r="A283" t="s">
         <v>815</v>
       </c>
@@ -11448,11 +13406,14 @@
       <c r="H283" s="11" t="s">
         <v>1270</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I283" s="11" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J283" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="14">
+    <row r="284" spans="1:10" ht="14">
       <c r="A284" t="s">
         <v>816</v>
       </c>
@@ -11471,11 +13432,14 @@
       <c r="H284" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="I284" t="s">
+      <c r="I284" s="11" t="s">
+        <v>1756</v>
+      </c>
+      <c r="J284" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="14">
+    <row r="285" spans="1:10" ht="14">
       <c r="A285" t="s">
         <v>817</v>
       </c>
@@ -11494,11 +13458,14 @@
       <c r="H285" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="I285" t="s">
+      <c r="I285" s="11" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J285" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="14">
+    <row r="286" spans="1:10" ht="14">
       <c r="A286" t="s">
         <v>818</v>
       </c>
@@ -11517,11 +13484,14 @@
       <c r="H286" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="I286" t="s">
+      <c r="I286" s="11" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J286" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="14">
+    <row r="287" spans="1:10" ht="14">
       <c r="A287" t="s">
         <v>819</v>
       </c>
@@ -11540,11 +13510,14 @@
       <c r="H287" s="11" t="s">
         <v>1274</v>
       </c>
-      <c r="I287" t="s">
+      <c r="I287" s="11" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J287" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="14">
+    <row r="288" spans="1:10" ht="14">
       <c r="A288" t="s">
         <v>820</v>
       </c>
@@ -11563,11 +13536,14 @@
       <c r="H288" s="11" t="s">
         <v>1275</v>
       </c>
-      <c r="I288" t="s">
+      <c r="I288" s="11" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J288" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="14">
+    <row r="289" spans="1:10" ht="14">
       <c r="A289" t="s">
         <v>821</v>
       </c>
@@ -11586,11 +13562,14 @@
       <c r="H289" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="I289" t="s">
+      <c r="I289" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J289" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="14">
+    <row r="290" spans="1:10" ht="14">
       <c r="A290" t="s">
         <v>822</v>
       </c>
@@ -11609,11 +13588,14 @@
       <c r="H290" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I290" s="11" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J290" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="14">
+    <row r="291" spans="1:10" ht="14">
       <c r="A291" t="s">
         <v>823</v>
       </c>
@@ -11632,11 +13614,14 @@
       <c r="H291" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I291" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J291" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="14">
+    <row r="292" spans="1:10" ht="14">
       <c r="A292" t="s">
         <v>824</v>
       </c>
@@ -11655,11 +13640,14 @@
       <c r="H292" s="11" t="s">
         <v>1279</v>
       </c>
-      <c r="I292" t="s">
+      <c r="I292" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J292" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="14">
+    <row r="293" spans="1:10" ht="14">
       <c r="A293" t="s">
         <v>825</v>
       </c>
@@ -11678,11 +13666,14 @@
       <c r="H293" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="I293" t="s">
+      <c r="I293" s="11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J293" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="14">
+    <row r="294" spans="1:10" ht="14">
       <c r="A294" t="s">
         <v>826</v>
       </c>
@@ -11701,11 +13692,14 @@
       <c r="H294" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I294" s="11" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J294" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="14">
+    <row r="295" spans="1:10" ht="14">
       <c r="A295" t="s">
         <v>827</v>
       </c>
@@ -11724,11 +13718,14 @@
       <c r="H295" s="11" t="s">
         <v>1281</v>
       </c>
-      <c r="I295" t="s">
+      <c r="I295" s="11" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J295" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="14">
+    <row r="296" spans="1:10" ht="14">
       <c r="A296" t="s">
         <v>828</v>
       </c>
@@ -11747,11 +13744,14 @@
       <c r="H296" s="11" t="s">
         <v>1282</v>
       </c>
-      <c r="I296" t="s">
+      <c r="I296" s="11" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J296" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="14">
+    <row r="297" spans="1:10" ht="14">
       <c r="A297" t="s">
         <v>829</v>
       </c>
@@ -11770,11 +13770,14 @@
       <c r="H297" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="I297" t="s">
+      <c r="I297" s="11" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J297" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="14">
+    <row r="298" spans="1:10" ht="14">
       <c r="A298" t="s">
         <v>830</v>
       </c>
@@ -11793,11 +13796,14 @@
       <c r="H298" s="11" t="s">
         <v>1284</v>
       </c>
-      <c r="I298" t="s">
+      <c r="I298" s="11" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J298" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="14">
+    <row r="299" spans="1:10" ht="14">
       <c r="A299" t="s">
         <v>831</v>
       </c>
@@ -11816,11 +13822,14 @@
       <c r="H299" s="11" t="s">
         <v>1285</v>
       </c>
-      <c r="I299" t="s">
+      <c r="I299" s="11" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J299" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="14">
+    <row r="300" spans="1:10" ht="14">
       <c r="A300" t="s">
         <v>832</v>
       </c>
@@ -11839,11 +13848,14 @@
       <c r="H300" s="11" t="s">
         <v>1286</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I300" s="11" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J300" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="14">
+    <row r="301" spans="1:10" ht="14">
       <c r="A301" t="s">
         <v>833</v>
       </c>
@@ -11862,11 +13874,14 @@
       <c r="H301" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I301" s="11" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J301" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="14">
+    <row r="302" spans="1:10" ht="14">
       <c r="A302" t="s">
         <v>834</v>
       </c>
@@ -11885,11 +13900,14 @@
       <c r="H302" s="11" t="s">
         <v>1288</v>
       </c>
-      <c r="I302" t="s">
+      <c r="I302" s="11" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J302" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="14">
+    <row r="303" spans="1:10" ht="14">
       <c r="A303" t="s">
         <v>835</v>
       </c>
@@ -11908,11 +13926,14 @@
       <c r="H303" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="I303" t="s">
+      <c r="I303" s="11" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J303" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="14">
+    <row r="304" spans="1:10" ht="14">
       <c r="A304" t="s">
         <v>836</v>
       </c>
@@ -11931,11 +13952,14 @@
       <c r="H304" s="11" t="s">
         <v>1290</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I304" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J304" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14">
+    <row r="305" spans="1:10" ht="14">
       <c r="A305" t="s">
         <v>837</v>
       </c>
@@ -11954,11 +13978,14 @@
       <c r="H305" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="I305" t="s">
+      <c r="I305" s="11" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J305" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14">
+    <row r="306" spans="1:10" ht="14">
       <c r="A306" t="s">
         <v>838</v>
       </c>
@@ -11977,11 +14004,14 @@
       <c r="H306" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="I306" t="s">
+      <c r="I306" s="11" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J306" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="14">
+    <row r="307" spans="1:10" ht="14">
       <c r="A307" t="s">
         <v>839</v>
       </c>
@@ -12000,11 +14030,14 @@
       <c r="H307" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I307" s="11" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J307" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="14">
+    <row r="308" spans="1:10" ht="14">
       <c r="A308" t="s">
         <v>840</v>
       </c>
@@ -12023,11 +14056,14 @@
       <c r="H308" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="I308" t="s">
+      <c r="I308" s="11" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J308" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14">
+    <row r="309" spans="1:10" ht="14">
       <c r="A309" t="s">
         <v>841</v>
       </c>
@@ -12046,11 +14082,14 @@
       <c r="H309" s="11" t="s">
         <v>1294</v>
       </c>
-      <c r="I309" t="s">
+      <c r="I309" s="11" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J309" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="14">
+    <row r="310" spans="1:10" ht="14">
       <c r="A310" t="s">
         <v>842</v>
       </c>
@@ -12069,11 +14108,14 @@
       <c r="H310" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I310" s="11" t="s">
+        <v>1779</v>
+      </c>
+      <c r="J310" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="14">
+    <row r="311" spans="1:10" ht="14">
       <c r="A311" t="s">
         <v>843</v>
       </c>
@@ -12092,11 +14134,14 @@
       <c r="H311" s="11" t="s">
         <v>1296</v>
       </c>
-      <c r="I311" t="s">
+      <c r="I311" s="11" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J311" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="14">
+    <row r="312" spans="1:10" ht="14">
       <c r="A312" t="s">
         <v>844</v>
       </c>
@@ -12115,11 +14160,14 @@
       <c r="H312" s="11" t="s">
         <v>1297</v>
       </c>
-      <c r="I312" t="s">
+      <c r="I312" s="11" t="s">
+        <v>1781</v>
+      </c>
+      <c r="J312" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14">
+    <row r="313" spans="1:10" ht="14">
       <c r="A313" t="s">
         <v>845</v>
       </c>
@@ -12138,11 +14186,14 @@
       <c r="H313" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="I313" t="s">
+      <c r="I313" s="11" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J313" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14">
+    <row r="314" spans="1:10" ht="14">
       <c r="A314" t="s">
         <v>846</v>
       </c>
@@ -12161,11 +14212,14 @@
       <c r="H314" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="I314" t="s">
+      <c r="I314" s="11" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J314" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14">
+    <row r="315" spans="1:10" ht="14">
       <c r="A315" t="s">
         <v>847</v>
       </c>
@@ -12184,11 +14238,14 @@
       <c r="H315" s="11" t="s">
         <v>1299</v>
       </c>
-      <c r="I315" t="s">
+      <c r="I315" s="11" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J315" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14">
+    <row r="316" spans="1:10" ht="14">
       <c r="A316" t="s">
         <v>848</v>
       </c>
@@ -12207,11 +14264,14 @@
       <c r="H316" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="I316" t="s">
+      <c r="I316" s="11" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J316" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14">
+    <row r="317" spans="1:10" ht="14">
       <c r="A317" t="s">
         <v>849</v>
       </c>
@@ -12230,11 +14290,14 @@
       <c r="H317" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="I317" t="s">
+      <c r="I317" s="11" t="s">
+        <v>1785</v>
+      </c>
+      <c r="J317" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14">
+    <row r="318" spans="1:10" ht="14">
       <c r="A318" t="s">
         <v>850</v>
       </c>
@@ -12253,11 +14316,14 @@
       <c r="H318" s="11" t="s">
         <v>1302</v>
       </c>
-      <c r="I318" t="s">
+      <c r="I318" s="11" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J318" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="14">
+    <row r="319" spans="1:10" ht="14">
       <c r="A319" t="s">
         <v>851</v>
       </c>
@@ -12276,11 +14342,14 @@
       <c r="H319" s="11" t="s">
         <v>1303</v>
       </c>
-      <c r="I319" t="s">
+      <c r="I319" s="11" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J319" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="14">
+    <row r="320" spans="1:10" ht="14">
       <c r="A320" t="s">
         <v>852</v>
       </c>
@@ -12299,11 +14368,14 @@
       <c r="H320" s="11" t="s">
         <v>1304</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I320" s="11" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J320" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="14">
+    <row r="321" spans="1:10" ht="14">
       <c r="A321" t="s">
         <v>853</v>
       </c>
@@ -12322,11 +14394,14 @@
       <c r="H321" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="I321" t="s">
+      <c r="I321" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J321" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="14">
+    <row r="322" spans="1:10" ht="14">
       <c r="A322" t="s">
         <v>854</v>
       </c>
@@ -12345,11 +14420,14 @@
       <c r="H322" s="11" t="s">
         <v>1306</v>
       </c>
-      <c r="I322" t="s">
+      <c r="I322" s="11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J322" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="14">
+    <row r="323" spans="1:10" ht="14">
       <c r="A323" t="s">
         <v>855</v>
       </c>
@@ -12368,11 +14446,14 @@
       <c r="H323" s="11" t="s">
         <v>1307</v>
       </c>
-      <c r="I323" t="s">
+      <c r="I323" s="11" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J323" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="14">
+    <row r="324" spans="1:10" ht="14">
       <c r="A324" t="s">
         <v>856</v>
       </c>
@@ -12391,11 +14472,14 @@
       <c r="H324" s="11" t="s">
         <v>1308</v>
       </c>
-      <c r="I324" t="s">
+      <c r="I324" s="11" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J324" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="14">
+    <row r="325" spans="1:10" ht="14">
       <c r="A325" t="s">
         <v>857</v>
       </c>
@@ -12414,11 +14498,14 @@
       <c r="H325" s="11" t="s">
         <v>1309</v>
       </c>
-      <c r="I325" t="s">
+      <c r="I325" s="11" t="s">
+        <v>1792</v>
+      </c>
+      <c r="J325" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="14">
+    <row r="326" spans="1:10" ht="14">
       <c r="A326" t="s">
         <v>858</v>
       </c>
@@ -12437,11 +14524,14 @@
       <c r="H326" s="11" t="s">
         <v>1310</v>
       </c>
-      <c r="I326" t="s">
+      <c r="I326" s="11" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J326" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="14">
+    <row r="327" spans="1:10" ht="14">
       <c r="A327" t="s">
         <v>859</v>
       </c>
@@ -12460,11 +14550,14 @@
       <c r="H327" s="11" t="s">
         <v>1311</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I327" s="11" t="s">
+        <v>1794</v>
+      </c>
+      <c r="J327" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="14">
+    <row r="328" spans="1:10" ht="14">
       <c r="A328" t="s">
         <v>860</v>
       </c>
@@ -12483,11 +14576,14 @@
       <c r="H328" s="11" t="s">
         <v>1312</v>
       </c>
-      <c r="I328" t="s">
+      <c r="I328" s="11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="J328" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="14">
+    <row r="329" spans="1:10" ht="14">
       <c r="A329" t="s">
         <v>861</v>
       </c>
@@ -12506,11 +14602,14 @@
       <c r="H329" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="I329" t="s">
+      <c r="I329" s="11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="J329" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="14">
+    <row r="330" spans="1:10" ht="14">
       <c r="A330" t="s">
         <v>862</v>
       </c>
@@ -12529,11 +14628,14 @@
       <c r="H330" s="11" t="s">
         <v>1314</v>
       </c>
-      <c r="I330" t="s">
+      <c r="I330" s="11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J330" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14">
+    <row r="331" spans="1:10" ht="14">
       <c r="A331" t="s">
         <v>863</v>
       </c>
@@ -12552,11 +14654,14 @@
       <c r="H331" s="11" t="s">
         <v>1315</v>
       </c>
-      <c r="I331" t="s">
+      <c r="I331" s="11" t="s">
+        <v>1797</v>
+      </c>
+      <c r="J331" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="14">
+    <row r="332" spans="1:10" ht="14">
       <c r="A332" t="s">
         <v>864</v>
       </c>
@@ -12575,11 +14680,14 @@
       <c r="H332" s="11" t="s">
         <v>1316</v>
       </c>
-      <c r="I332" t="s">
+      <c r="I332" s="11" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J332" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="14">
+    <row r="333" spans="1:10" ht="14">
       <c r="A333" t="s">
         <v>865</v>
       </c>
@@ -12598,11 +14706,14 @@
       <c r="H333" s="11" t="s">
         <v>1317</v>
       </c>
-      <c r="I333" t="s">
+      <c r="I333" s="11" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J333" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="14">
+    <row r="334" spans="1:10" ht="14">
       <c r="A334" t="s">
         <v>866</v>
       </c>
@@ -12621,11 +14732,14 @@
       <c r="H334" s="11" t="s">
         <v>1318</v>
       </c>
-      <c r="I334" t="s">
+      <c r="I334" s="11" t="s">
+        <v>1800</v>
+      </c>
+      <c r="J334" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="14">
+    <row r="335" spans="1:10" ht="14">
       <c r="A335" t="s">
         <v>867</v>
       </c>
@@ -12644,11 +14758,14 @@
       <c r="H335" s="11" t="s">
         <v>1319</v>
       </c>
-      <c r="I335" t="s">
+      <c r="I335" s="11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J335" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="14">
+    <row r="336" spans="1:10" ht="14">
       <c r="A336" t="s">
         <v>868</v>
       </c>
@@ -12667,11 +14784,14 @@
       <c r="H336" s="11" t="s">
         <v>1320</v>
       </c>
-      <c r="I336" t="s">
+      <c r="I336" s="11" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J336" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="14">
+    <row r="337" spans="1:10" ht="14">
       <c r="A337" t="s">
         <v>869</v>
       </c>
@@ -12690,11 +14810,14 @@
       <c r="H337" s="11" t="s">
         <v>1321</v>
       </c>
-      <c r="I337" t="s">
+      <c r="I337" s="11" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J337" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="14">
+    <row r="338" spans="1:10" ht="14">
       <c r="A338" t="s">
         <v>870</v>
       </c>
@@ -12713,11 +14836,14 @@
       <c r="H338" s="11" t="s">
         <v>1322</v>
       </c>
-      <c r="I338" t="s">
+      <c r="I338" s="11" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J338" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="14">
+    <row r="339" spans="1:10" ht="14">
       <c r="A339" t="s">
         <v>871</v>
       </c>
@@ -12736,11 +14862,14 @@
       <c r="H339" s="11" t="s">
         <v>1323</v>
       </c>
-      <c r="I339" t="s">
+      <c r="I339" s="11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J339" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="14">
+    <row r="340" spans="1:10" ht="14">
       <c r="A340" t="s">
         <v>872</v>
       </c>
@@ -12759,11 +14888,14 @@
       <c r="H340" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="I340" t="s">
+      <c r="I340" s="11" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J340" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="14">
+    <row r="341" spans="1:10" ht="14">
       <c r="A341" t="s">
         <v>873</v>
       </c>
@@ -12782,11 +14914,14 @@
       <c r="H341" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="I341" t="s">
+      <c r="I341" s="11" t="s">
+        <v>1806</v>
+      </c>
+      <c r="J341" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="14">
+    <row r="342" spans="1:10" ht="14">
       <c r="A342" t="s">
         <v>874</v>
       </c>
@@ -12805,11 +14940,14 @@
       <c r="H342" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="I342" t="s">
+      <c r="I342" s="11" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J342" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="14">
+    <row r="343" spans="1:10" ht="14">
       <c r="A343" t="s">
         <v>875</v>
       </c>
@@ -12828,11 +14966,14 @@
       <c r="H343" s="11" t="s">
         <v>1327</v>
       </c>
-      <c r="I343" t="s">
+      <c r="I343" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J343" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="14">
+    <row r="344" spans="1:10" ht="14">
       <c r="A344" t="s">
         <v>876</v>
       </c>
@@ -12851,11 +14992,14 @@
       <c r="H344" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I344" s="11" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J344" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="14">
+    <row r="345" spans="1:10" ht="14">
       <c r="A345" t="s">
         <v>877</v>
       </c>
@@ -12874,11 +15018,14 @@
       <c r="H345" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="I345" t="s">
+      <c r="I345" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J345" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="14">
+    <row r="346" spans="1:10" ht="14">
       <c r="A346" t="s">
         <v>878</v>
       </c>
@@ -12897,11 +15044,14 @@
       <c r="H346" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="I346" t="s">
+      <c r="I346" s="11" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J346" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="14">
+    <row r="347" spans="1:10" ht="14">
       <c r="A347" t="s">
         <v>879</v>
       </c>
@@ -12920,11 +15070,14 @@
       <c r="H347" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="I347" t="s">
+      <c r="I347" s="11" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J347" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="14">
+    <row r="348" spans="1:10" ht="14">
       <c r="A348" t="s">
         <v>880</v>
       </c>
@@ -12943,11 +15096,14 @@
       <c r="H348" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="I348" t="s">
+      <c r="I348" s="11" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J348" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14">
+    <row r="349" spans="1:10" ht="14">
       <c r="A349" t="s">
         <v>881</v>
       </c>
@@ -12966,11 +15122,14 @@
       <c r="H349" s="11" t="s">
         <v>1333</v>
       </c>
-      <c r="I349" t="s">
+      <c r="I349" s="11" t="s">
+        <v>1814</v>
+      </c>
+      <c r="J349" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14">
+    <row r="350" spans="1:10" ht="14">
       <c r="A350" t="s">
         <v>882</v>
       </c>
@@ -12989,11 +15148,14 @@
       <c r="H350" s="11" t="s">
         <v>1334</v>
       </c>
-      <c r="I350" t="s">
+      <c r="I350" s="11" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J350" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14">
+    <row r="351" spans="1:10" ht="14">
       <c r="A351" t="s">
         <v>883</v>
       </c>
@@ -13012,11 +15174,14 @@
       <c r="H351" s="11" t="s">
         <v>1335</v>
       </c>
-      <c r="I351" t="s">
+      <c r="I351" s="11" t="s">
+        <v>1816</v>
+      </c>
+      <c r="J351" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14">
+    <row r="352" spans="1:10" ht="14">
       <c r="A352" t="s">
         <v>884</v>
       </c>
@@ -13035,11 +15200,14 @@
       <c r="H352" s="11" t="s">
         <v>1336</v>
       </c>
-      <c r="I352" t="s">
+      <c r="I352" s="11" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J352" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14">
+    <row r="353" spans="1:10" ht="14">
       <c r="A353" t="s">
         <v>885</v>
       </c>
@@ -13058,11 +15226,14 @@
       <c r="H353" s="11" t="s">
         <v>1337</v>
       </c>
-      <c r="I353" t="s">
+      <c r="I353" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J353" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14">
+    <row r="354" spans="1:10" ht="14">
       <c r="A354" t="s">
         <v>886</v>
       </c>
@@ -13081,11 +15252,14 @@
       <c r="H354" s="11" t="s">
         <v>1338</v>
       </c>
-      <c r="I354" t="s">
+      <c r="I354" s="11" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J354" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="14">
+    <row r="355" spans="1:10" ht="14">
       <c r="A355" t="s">
         <v>887</v>
       </c>
@@ -13104,11 +15278,14 @@
       <c r="H355" s="11" t="s">
         <v>1339</v>
       </c>
-      <c r="I355" t="s">
+      <c r="I355" s="11" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J355" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="14">
+    <row r="356" spans="1:10" ht="14">
       <c r="A356" t="s">
         <v>888</v>
       </c>
@@ -13127,11 +15304,14 @@
       <c r="H356" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="I356" t="s">
+      <c r="I356" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J356" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="14">
+    <row r="357" spans="1:10" ht="14">
       <c r="A357" t="s">
         <v>889</v>
       </c>
@@ -13150,11 +15330,14 @@
       <c r="H357" s="11" t="s">
         <v>1341</v>
       </c>
-      <c r="I357" t="s">
+      <c r="I357" s="11" t="s">
+        <v>1821</v>
+      </c>
+      <c r="J357" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14">
+    <row r="358" spans="1:10" ht="14">
       <c r="A358" t="s">
         <v>890</v>
       </c>
@@ -13173,11 +15356,14 @@
       <c r="H358" s="11" t="s">
         <v>1342</v>
       </c>
-      <c r="I358" t="s">
+      <c r="I358" s="11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J358" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14">
+    <row r="359" spans="1:10" ht="14">
       <c r="A359" t="s">
         <v>891</v>
       </c>
@@ -13196,11 +15382,14 @@
       <c r="H359" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I359" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J359" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="14">
+    <row r="360" spans="1:10" ht="14">
       <c r="A360" t="s">
         <v>892</v>
       </c>
@@ -13219,11 +15408,14 @@
       <c r="H360" s="11" t="s">
         <v>1344</v>
       </c>
-      <c r="I360" t="s">
+      <c r="I360" s="11" t="s">
+        <v>1824</v>
+      </c>
+      <c r="J360" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="14">
+    <row r="361" spans="1:10" ht="14">
       <c r="A361" t="s">
         <v>893</v>
       </c>
@@ -13242,11 +15434,14 @@
       <c r="H361" s="11" t="s">
         <v>1345</v>
       </c>
-      <c r="I361" t="s">
+      <c r="I361" s="11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J361" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="14">
+    <row r="362" spans="1:10" ht="14">
       <c r="A362" t="s">
         <v>894</v>
       </c>
@@ -13265,11 +15460,14 @@
       <c r="H362" s="11" t="s">
         <v>1346</v>
       </c>
-      <c r="I362" t="s">
+      <c r="I362" s="11" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J362" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="14">
+    <row r="363" spans="1:10" ht="14">
       <c r="A363" t="s">
         <v>895</v>
       </c>
@@ -13288,11 +15486,14 @@
       <c r="H363" s="11" t="s">
         <v>1347</v>
       </c>
-      <c r="I363" t="s">
+      <c r="I363" s="11" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J363" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="14">
+    <row r="364" spans="1:10" ht="14">
       <c r="A364" t="s">
         <v>896</v>
       </c>
@@ -13311,11 +15512,14 @@
       <c r="H364" s="11" t="s">
         <v>1348</v>
       </c>
-      <c r="I364" t="s">
+      <c r="I364" s="11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="J364" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="14">
+    <row r="365" spans="1:10" ht="14">
       <c r="A365" t="s">
         <v>897</v>
       </c>
@@ -13334,11 +15538,14 @@
       <c r="H365" s="11" t="s">
         <v>1349</v>
       </c>
-      <c r="I365" t="s">
+      <c r="I365" s="11" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J365" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="14">
+    <row r="366" spans="1:10" ht="14">
       <c r="A366" t="s">
         <v>898</v>
       </c>
@@ -13357,11 +15564,14 @@
       <c r="H366" s="11" t="s">
         <v>1350</v>
       </c>
-      <c r="I366" t="s">
+      <c r="I366" s="11" t="s">
+        <v>1830</v>
+      </c>
+      <c r="J366" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="14">
+    <row r="367" spans="1:10" ht="14">
       <c r="A367" t="s">
         <v>899</v>
       </c>
@@ -13380,11 +15590,14 @@
       <c r="H367" s="11" t="s">
         <v>1351</v>
       </c>
-      <c r="I367" t="s">
+      <c r="I367" s="11" t="s">
+        <v>1831</v>
+      </c>
+      <c r="J367" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="14">
+    <row r="368" spans="1:10" ht="14">
       <c r="A368" t="s">
         <v>900</v>
       </c>
@@ -13403,11 +15616,14 @@
       <c r="H368" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="I368" t="s">
+      <c r="I368" s="11" t="s">
+        <v>1832</v>
+      </c>
+      <c r="J368" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="14">
+    <row r="369" spans="1:10" ht="14">
       <c r="A369" t="s">
         <v>901</v>
       </c>
@@ -13426,11 +15642,14 @@
       <c r="H369" s="11" t="s">
         <v>1353</v>
       </c>
-      <c r="I369" t="s">
+      <c r="I369" s="11" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J369" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="14">
+    <row r="370" spans="1:10" ht="14">
       <c r="A370" t="s">
         <v>902</v>
       </c>
@@ -13449,11 +15668,14 @@
       <c r="H370" s="11" t="s">
         <v>1354</v>
       </c>
-      <c r="I370" t="s">
+      <c r="I370" s="11" t="s">
+        <v>1834</v>
+      </c>
+      <c r="J370" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="14">
+    <row r="371" spans="1:10" ht="14">
       <c r="A371" t="s">
         <v>903</v>
       </c>
@@ -13472,11 +15694,14 @@
       <c r="H371" s="11" t="s">
         <v>1355</v>
       </c>
-      <c r="I371" t="s">
+      <c r="I371" s="11" t="s">
+        <v>1835</v>
+      </c>
+      <c r="J371" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="14">
+    <row r="372" spans="1:10" ht="14">
       <c r="A372" t="s">
         <v>904</v>
       </c>
@@ -13495,11 +15720,14 @@
       <c r="H372" s="11" t="s">
         <v>1356</v>
       </c>
-      <c r="I372" t="s">
+      <c r="I372" s="11" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J372" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="14">
+    <row r="373" spans="1:10" ht="14">
       <c r="A373" t="s">
         <v>905</v>
       </c>
@@ -13518,11 +15746,14 @@
       <c r="H373" s="11" t="s">
         <v>1357</v>
       </c>
-      <c r="I373" t="s">
+      <c r="I373" s="11" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J373" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="14">
+    <row r="374" spans="1:10" ht="14">
       <c r="A374" t="s">
         <v>906</v>
       </c>
@@ -13541,11 +15772,14 @@
       <c r="H374" s="11" t="s">
         <v>1358</v>
       </c>
-      <c r="I374" t="s">
+      <c r="I374" s="11" t="s">
+        <v>1838</v>
+      </c>
+      <c r="J374" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="14">
+    <row r="375" spans="1:10" ht="14">
       <c r="A375" t="s">
         <v>907</v>
       </c>
@@ -13564,11 +15798,14 @@
       <c r="H375" s="11" t="s">
         <v>1359</v>
       </c>
-      <c r="I375" t="s">
+      <c r="I375" s="11" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J375" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="14">
+    <row r="376" spans="1:10" ht="14">
       <c r="A376" t="s">
         <v>908</v>
       </c>
@@ -13587,11 +15824,14 @@
       <c r="H376" s="11" t="s">
         <v>1360</v>
       </c>
-      <c r="I376" t="s">
+      <c r="I376" s="11" t="s">
+        <v>1840</v>
+      </c>
+      <c r="J376" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="14">
+    <row r="377" spans="1:10" ht="14">
       <c r="A377" t="s">
         <v>909</v>
       </c>
@@ -13610,11 +15850,14 @@
       <c r="H377" s="11" t="s">
         <v>1361</v>
       </c>
-      <c r="I377" t="s">
+      <c r="I377" s="11" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J377" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="14">
+    <row r="378" spans="1:10" ht="14">
       <c r="A378" t="s">
         <v>910</v>
       </c>
@@ -13633,11 +15876,14 @@
       <c r="H378" s="11" t="s">
         <v>1362</v>
       </c>
-      <c r="I378" t="s">
+      <c r="I378" s="11" t="s">
+        <v>1842</v>
+      </c>
+      <c r="J378" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="14">
+    <row r="379" spans="1:10" ht="14">
       <c r="A379" t="s">
         <v>911</v>
       </c>
@@ -13656,11 +15902,14 @@
       <c r="H379" s="11" t="s">
         <v>1363</v>
       </c>
-      <c r="I379" t="s">
+      <c r="I379" s="11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J379" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="14">
+    <row r="380" spans="1:10" ht="14">
       <c r="A380" t="s">
         <v>912</v>
       </c>
@@ -13679,11 +15928,14 @@
       <c r="H380" s="11" t="s">
         <v>1364</v>
       </c>
-      <c r="I380" t="s">
+      <c r="I380" s="11" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J380" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="14">
+    <row r="381" spans="1:10" ht="14">
       <c r="A381" t="s">
         <v>913</v>
       </c>
@@ -13702,11 +15954,14 @@
       <c r="H381" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="I381" t="s">
+      <c r="I381" s="11" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J381" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="14">
+    <row r="382" spans="1:10" ht="14">
       <c r="A382" t="s">
         <v>914</v>
       </c>
@@ -13725,11 +15980,14 @@
       <c r="H382" s="11" t="s">
         <v>1366</v>
       </c>
-      <c r="I382" t="s">
+      <c r="I382" s="11" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J382" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="14">
+    <row r="383" spans="1:10" ht="14">
       <c r="A383" t="s">
         <v>915</v>
       </c>
@@ -13748,11 +16006,14 @@
       <c r="H383" s="11" t="s">
         <v>1367</v>
       </c>
-      <c r="I383" t="s">
+      <c r="I383" s="11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J383" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="14">
+    <row r="384" spans="1:10" ht="14">
       <c r="A384" t="s">
         <v>916</v>
       </c>
@@ -13771,11 +16032,14 @@
       <c r="H384" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="I384" t="s">
+      <c r="I384" s="11" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J384" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="14">
+    <row r="385" spans="1:10" ht="14">
       <c r="A385" t="s">
         <v>917</v>
       </c>
@@ -13794,11 +16058,14 @@
       <c r="H385" s="11" t="s">
         <v>1369</v>
       </c>
-      <c r="I385" t="s">
+      <c r="I385" s="11" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J385" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="14">
+    <row r="386" spans="1:10" ht="14">
       <c r="A386" t="s">
         <v>918</v>
       </c>
@@ -13817,11 +16084,14 @@
       <c r="H386" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="I386" t="s">
+      <c r="I386" s="11" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J386" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="14">
+    <row r="387" spans="1:10" ht="14">
       <c r="A387" t="s">
         <v>919</v>
       </c>
@@ -13840,11 +16110,14 @@
       <c r="H387" s="11" t="s">
         <v>1371</v>
       </c>
-      <c r="I387" t="s">
+      <c r="I387" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J387" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="14">
+    <row r="388" spans="1:10" ht="14">
       <c r="A388" t="s">
         <v>920</v>
       </c>
@@ -13863,11 +16136,14 @@
       <c r="H388" s="11" t="s">
         <v>1372</v>
       </c>
-      <c r="I388" t="s">
+      <c r="I388" s="11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J388" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="14">
+    <row r="389" spans="1:10" ht="14">
       <c r="A389" t="s">
         <v>921</v>
       </c>
@@ -13886,11 +16162,14 @@
       <c r="H389" s="11" t="s">
         <v>1373</v>
       </c>
-      <c r="I389" t="s">
+      <c r="I389" s="11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J389" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="14">
+    <row r="390" spans="1:10" ht="14">
       <c r="A390" t="s">
         <v>922</v>
       </c>
@@ -13909,11 +16188,14 @@
       <c r="H390" s="11" t="s">
         <v>1374</v>
       </c>
-      <c r="I390" t="s">
+      <c r="I390" s="11" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J390" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="14">
+    <row r="391" spans="1:10" ht="14">
       <c r="A391" t="s">
         <v>923</v>
       </c>
@@ -13932,11 +16214,14 @@
       <c r="H391" s="11" t="s">
         <v>1375</v>
       </c>
-      <c r="I391" t="s">
+      <c r="I391" s="11" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J391" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="14">
+    <row r="392" spans="1:10" ht="14">
       <c r="A392" t="s">
         <v>924</v>
       </c>
@@ -13955,11 +16240,14 @@
       <c r="H392" s="11" t="s">
         <v>1376</v>
       </c>
-      <c r="I392" t="s">
+      <c r="I392" s="11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J392" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="14">
+    <row r="393" spans="1:10" ht="14">
       <c r="A393" t="s">
         <v>925</v>
       </c>
@@ -13978,11 +16266,14 @@
       <c r="H393" s="11" t="s">
         <v>1377</v>
       </c>
-      <c r="I393" t="s">
+      <c r="I393" s="11" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J393" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="14">
+    <row r="394" spans="1:10" ht="14">
       <c r="A394" t="s">
         <v>926</v>
       </c>
@@ -14001,11 +16292,14 @@
       <c r="H394" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="I394" t="s">
+      <c r="I394" s="11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J394" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="14">
+    <row r="395" spans="1:10" ht="14">
       <c r="A395" t="s">
         <v>927</v>
       </c>
@@ -14024,11 +16318,14 @@
       <c r="H395" s="11" t="s">
         <v>1379</v>
       </c>
-      <c r="I395" t="s">
+      <c r="I395" s="11" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J395" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="14">
+    <row r="396" spans="1:10" ht="14">
       <c r="A396" t="s">
         <v>928</v>
       </c>
@@ -14047,11 +16344,14 @@
       <c r="H396" s="11" t="s">
         <v>1380</v>
       </c>
-      <c r="I396" t="s">
+      <c r="I396" s="11" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J396" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="14">
+    <row r="397" spans="1:10" ht="14">
       <c r="A397" t="s">
         <v>929</v>
       </c>
@@ -14070,11 +16370,14 @@
       <c r="H397" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="I397" t="s">
+      <c r="I397" s="11" t="s">
+        <v>1860</v>
+      </c>
+      <c r="J397" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="14">
+    <row r="398" spans="1:10" ht="14">
       <c r="A398" t="s">
         <v>930</v>
       </c>
@@ -14093,11 +16396,14 @@
       <c r="H398" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="I398" t="s">
+      <c r="I398" s="11" t="s">
+        <v>1861</v>
+      </c>
+      <c r="J398" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="14">
+    <row r="399" spans="1:10" ht="14">
       <c r="A399" t="s">
         <v>931</v>
       </c>
@@ -14116,11 +16422,14 @@
       <c r="H399" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="I399" t="s">
+      <c r="I399" s="11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="J399" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="14">
+    <row r="400" spans="1:10" ht="14">
       <c r="A400" t="s">
         <v>932</v>
       </c>
@@ -14139,11 +16448,14 @@
       <c r="H400" s="11" t="s">
         <v>1384</v>
       </c>
-      <c r="I400" t="s">
+      <c r="I400" s="11" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J400" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="14">
+    <row r="401" spans="1:10" ht="14">
       <c r="A401" t="s">
         <v>933</v>
       </c>
@@ -14162,11 +16474,14 @@
       <c r="H401" s="11" t="s">
         <v>1385</v>
       </c>
-      <c r="I401" t="s">
+      <c r="I401" s="11" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J401" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="14">
+    <row r="402" spans="1:10" ht="14">
       <c r="A402" t="s">
         <v>934</v>
       </c>
@@ -14185,11 +16500,14 @@
       <c r="H402" s="11" t="s">
         <v>1386</v>
       </c>
-      <c r="I402" t="s">
+      <c r="I402" s="11" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J402" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="14">
+    <row r="403" spans="1:10" ht="14">
       <c r="A403" t="s">
         <v>935</v>
       </c>
@@ -14208,11 +16526,14 @@
       <c r="H403" s="11" t="s">
         <v>1387</v>
       </c>
-      <c r="I403" t="s">
+      <c r="I403" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J403" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="14">
+    <row r="404" spans="1:10" ht="14">
       <c r="A404" t="s">
         <v>936</v>
       </c>
@@ -14231,11 +16552,14 @@
       <c r="H404" s="11" t="s">
         <v>1388</v>
       </c>
-      <c r="I404" t="s">
+      <c r="I404" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="J404" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="14">
+    <row r="405" spans="1:10" ht="14">
       <c r="A405" t="s">
         <v>937</v>
       </c>
@@ -14254,11 +16578,14 @@
       <c r="H405" s="11" t="s">
         <v>1389</v>
       </c>
-      <c r="I405" t="s">
+      <c r="I405" s="11" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J405" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="14">
+    <row r="406" spans="1:10" ht="14">
       <c r="A406" t="s">
         <v>938</v>
       </c>
@@ -14277,11 +16604,14 @@
       <c r="H406" s="11" t="s">
         <v>1390</v>
       </c>
-      <c r="I406" t="s">
+      <c r="I406" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="J406" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="14">
+    <row r="407" spans="1:10" ht="14">
       <c r="A407" t="s">
         <v>939</v>
       </c>
@@ -14300,11 +16630,14 @@
       <c r="H407" s="11" t="s">
         <v>1391</v>
       </c>
-      <c r="I407" t="s">
+      <c r="I407" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J407" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="14">
+    <row r="408" spans="1:10" ht="14">
       <c r="A408" t="s">
         <v>940</v>
       </c>
@@ -14323,11 +16656,14 @@
       <c r="H408" s="11" t="s">
         <v>1392</v>
       </c>
-      <c r="I408" t="s">
+      <c r="I408" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J408" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="14">
+    <row r="409" spans="1:10" ht="14">
       <c r="A409" t="s">
         <v>941</v>
       </c>
@@ -14346,11 +16682,14 @@
       <c r="H409" s="11" t="s">
         <v>1393</v>
       </c>
-      <c r="I409" t="s">
+      <c r="I409" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J409" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="14">
+    <row r="410" spans="1:10" ht="14">
       <c r="A410" t="s">
         <v>942</v>
       </c>
@@ -14369,11 +16708,14 @@
       <c r="H410" s="11" t="s">
         <v>1394</v>
       </c>
-      <c r="I410" t="s">
+      <c r="I410" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="J410" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="14">
+    <row r="411" spans="1:10" ht="14">
       <c r="A411" t="s">
         <v>943</v>
       </c>
@@ -14392,11 +16734,14 @@
       <c r="H411" s="11" t="s">
         <v>1395</v>
       </c>
-      <c r="I411" t="s">
+      <c r="I411" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J411" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="14">
+    <row r="412" spans="1:10" ht="14">
       <c r="A412" t="s">
         <v>944</v>
       </c>
@@ -14415,11 +16760,14 @@
       <c r="H412" s="11" t="s">
         <v>1396</v>
       </c>
-      <c r="I412" t="s">
+      <c r="I412" s="11" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J412" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="14">
+    <row r="413" spans="1:10" ht="14">
       <c r="A413" t="s">
         <v>945</v>
       </c>
@@ -14438,11 +16786,14 @@
       <c r="H413" s="11" t="s">
         <v>1397</v>
       </c>
-      <c r="I413" t="s">
+      <c r="I413" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J413" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="14">
+    <row r="414" spans="1:10" ht="14">
       <c r="A414" t="s">
         <v>946</v>
       </c>
@@ -14461,11 +16812,14 @@
       <c r="H414" s="11" t="s">
         <v>1398</v>
       </c>
-      <c r="I414" t="s">
+      <c r="I414" s="11" t="s">
+        <v>1872</v>
+      </c>
+      <c r="J414" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="14">
+    <row r="415" spans="1:10" ht="14">
       <c r="A415" t="s">
         <v>947</v>
       </c>
@@ -14484,11 +16838,14 @@
       <c r="H415" s="11" t="s">
         <v>1399</v>
       </c>
-      <c r="I415" t="s">
+      <c r="I415" s="11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="J415" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="14">
+    <row r="416" spans="1:10" ht="14">
       <c r="A416" t="s">
         <v>948</v>
       </c>
@@ -14507,11 +16864,14 @@
       <c r="H416" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="I416" t="s">
+      <c r="I416" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J416" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="14">
+    <row r="417" spans="1:12" ht="14">
       <c r="A417" t="s">
         <v>949</v>
       </c>
@@ -14530,11 +16890,14 @@
       <c r="H417" s="11" t="s">
         <v>1401</v>
       </c>
-      <c r="I417" t="s">
+      <c r="I417" s="11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J417" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="14">
+    <row r="418" spans="1:12" ht="14">
       <c r="A418" t="s">
         <v>950</v>
       </c>
@@ -14553,11 +16916,14 @@
       <c r="H418" s="11" t="s">
         <v>1223</v>
       </c>
-      <c r="I418" t="s">
+      <c r="I418" s="11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J418" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="14">
+    <row r="419" spans="1:12" ht="14">
       <c r="A419" t="s">
         <v>951</v>
       </c>
@@ -14576,11 +16942,14 @@
       <c r="H419" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="I419" t="s">
+      <c r="I419" s="11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J419" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="14">
+    <row r="420" spans="1:12" ht="14">
       <c r="A420" t="s">
         <v>952</v>
       </c>
@@ -14599,11 +16968,14 @@
       <c r="H420" s="11" t="s">
         <v>1403</v>
       </c>
-      <c r="I420" t="s">
+      <c r="I420" s="11" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J420" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="14">
+    <row r="421" spans="1:12" ht="14">
       <c r="A421" t="s">
         <v>953</v>
       </c>
@@ -14622,11 +16994,14 @@
       <c r="H421" s="11" t="s">
         <v>1264</v>
       </c>
-      <c r="I421" t="s">
+      <c r="I421" s="11" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J421" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="14">
+    <row r="422" spans="1:12" ht="14">
       <c r="A422" t="s">
         <v>954</v>
       </c>
@@ -14645,11 +17020,14 @@
       <c r="H422" s="11" t="s">
         <v>1404</v>
       </c>
-      <c r="I422" t="s">
+      <c r="I422" s="11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J422" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="14">
+    <row r="423" spans="1:12" ht="14">
       <c r="A423" t="s">
         <v>955</v>
       </c>
@@ -14668,11 +17046,14 @@
       <c r="H423" s="11" t="s">
         <v>1405</v>
       </c>
-      <c r="I423" t="s">
+      <c r="I423" s="11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="J423" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="14">
+    <row r="424" spans="1:12" ht="14">
       <c r="A424" t="s">
         <v>956</v>
       </c>
@@ -14691,11 +17072,14 @@
       <c r="H424" s="11" t="s">
         <v>1406</v>
       </c>
-      <c r="I424" t="s">
+      <c r="I424" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="J424" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="14">
+    <row r="425" spans="1:12" ht="14">
       <c r="A425" t="s">
         <v>957</v>
       </c>
@@ -14714,11 +17098,14 @@
       <c r="H425" s="11" t="s">
         <v>1407</v>
       </c>
-      <c r="I425" t="s">
+      <c r="I425" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J425" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="14">
+    <row r="426" spans="1:12" ht="14">
       <c r="A426" t="s">
         <v>958</v>
       </c>
@@ -14737,11 +17124,14 @@
       <c r="H426" s="11" t="s">
         <v>1408</v>
       </c>
-      <c r="I426" t="s">
+      <c r="I426" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J426" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="14">
+    <row r="427" spans="1:12" ht="14">
       <c r="A427" t="s">
         <v>959</v>
       </c>
@@ -14760,11 +17150,14 @@
       <c r="H427" s="11" t="s">
         <v>1409</v>
       </c>
-      <c r="I427" t="s">
+      <c r="I427" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J427" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="14">
+    <row r="428" spans="1:12" ht="14">
       <c r="A428" t="s">
         <v>960</v>
       </c>
@@ -14780,11 +17173,11 @@
       <c r="E428" t="s">
         <v>1507</v>
       </c>
-      <c r="K428" s="11" t="s">
+      <c r="L428" s="11" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="14">
+    <row r="429" spans="1:12" ht="14">
       <c r="A429" t="s">
         <v>961</v>
       </c>
@@ -14800,11 +17193,11 @@
       <c r="E429" t="s">
         <v>1507</v>
       </c>
-      <c r="K429" s="11" t="s">
+      <c r="L429" s="11" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="14">
+    <row r="430" spans="1:12" ht="14">
       <c r="A430" t="s">
         <v>962</v>
       </c>
@@ -14820,11 +17213,11 @@
       <c r="E430" t="s">
         <v>1507</v>
       </c>
-      <c r="K430" s="11" t="s">
+      <c r="L430" s="11" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="14">
+    <row r="431" spans="1:12" ht="14">
       <c r="A431" t="s">
         <v>963</v>
       </c>
@@ -14840,11 +17233,11 @@
       <c r="E431" t="s">
         <v>1507</v>
       </c>
-      <c r="K431" s="11" t="s">
+      <c r="L431" s="11" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="14">
+    <row r="432" spans="1:12" ht="14">
       <c r="A432" t="s">
         <v>964</v>
       </c>
@@ -14860,11 +17253,11 @@
       <c r="E432" t="s">
         <v>1507</v>
       </c>
-      <c r="K432" s="11" t="s">
+      <c r="L432" s="11" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="14">
+    <row r="433" spans="1:12" ht="14">
       <c r="A433" t="s">
         <v>965</v>
       </c>
@@ -14880,11 +17273,11 @@
       <c r="E433" t="s">
         <v>1507</v>
       </c>
-      <c r="K433" s="11" t="s">
+      <c r="L433" s="11" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14">
+    <row r="434" spans="1:12" ht="14">
       <c r="A434" t="s">
         <v>966</v>
       </c>
@@ -14900,11 +17293,11 @@
       <c r="E434" t="s">
         <v>1507</v>
       </c>
-      <c r="K434" s="11" t="s">
+      <c r="L434" s="11" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="14">
+    <row r="435" spans="1:12" ht="14">
       <c r="A435" t="s">
         <v>967</v>
       </c>
@@ -14920,11 +17313,11 @@
       <c r="E435" t="s">
         <v>1507</v>
       </c>
-      <c r="K435" s="11" t="s">
+      <c r="L435" s="11" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="14">
+    <row r="436" spans="1:12" ht="14">
       <c r="A436" t="s">
         <v>968</v>
       </c>
@@ -14940,11 +17333,11 @@
       <c r="E436" t="s">
         <v>1507</v>
       </c>
-      <c r="K436" s="11" t="s">
+      <c r="L436" s="11" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="14">
+    <row r="437" spans="1:12" ht="14">
       <c r="A437" t="s">
         <v>969</v>
       </c>
@@ -14960,11 +17353,11 @@
       <c r="E437" t="s">
         <v>1507</v>
       </c>
-      <c r="K437" s="11" t="s">
+      <c r="L437" s="11" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="14">
+    <row r="438" spans="1:12" ht="14">
       <c r="A438" t="s">
         <v>970</v>
       </c>
@@ -14980,11 +17373,11 @@
       <c r="E438" t="s">
         <v>1507</v>
       </c>
-      <c r="K438" s="11" t="s">
+      <c r="L438" s="11" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="14">
+    <row r="439" spans="1:12" ht="14">
       <c r="A439" t="s">
         <v>971</v>
       </c>
@@ -15000,11 +17393,11 @@
       <c r="E439" t="s">
         <v>1507</v>
       </c>
-      <c r="K439" s="11" t="s">
+      <c r="L439" s="11" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="14">
+    <row r="440" spans="1:12" ht="14">
       <c r="A440" t="s">
         <v>972</v>
       </c>
@@ -15020,11 +17413,11 @@
       <c r="E440" t="s">
         <v>1508</v>
       </c>
-      <c r="K440" s="11" t="s">
+      <c r="L440" s="11" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="14">
+    <row r="441" spans="1:12" ht="14">
       <c r="A441" t="s">
         <v>973</v>
       </c>
@@ -15040,11 +17433,11 @@
       <c r="E441" t="s">
         <v>1508</v>
       </c>
-      <c r="K441" s="11" t="s">
+      <c r="L441" s="11" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="14">
+    <row r="442" spans="1:12" ht="14">
       <c r="A442" t="s">
         <v>974</v>
       </c>
@@ -15060,11 +17453,11 @@
       <c r="E442" t="s">
         <v>1508</v>
       </c>
-      <c r="K442" s="11" t="s">
+      <c r="L442" s="11" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="14">
+    <row r="443" spans="1:12" ht="14">
       <c r="A443" t="s">
         <v>975</v>
       </c>
@@ -15080,11 +17473,11 @@
       <c r="E443" t="s">
         <v>1508</v>
       </c>
-      <c r="K443" s="11" t="s">
+      <c r="L443" s="11" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="14">
+    <row r="444" spans="1:12" ht="14">
       <c r="A444" t="s">
         <v>976</v>
       </c>
@@ -15100,11 +17493,11 @@
       <c r="E444" t="s">
         <v>1508</v>
       </c>
-      <c r="K444" s="11" t="s">
+      <c r="L444" s="11" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="14">
+    <row r="445" spans="1:12" ht="14">
       <c r="A445" t="s">
         <v>977</v>
       </c>
@@ -15120,11 +17513,11 @@
       <c r="E445" t="s">
         <v>1508</v>
       </c>
-      <c r="K445" s="11" t="s">
+      <c r="L445" s="11" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="14">
+    <row r="446" spans="1:12" ht="14">
       <c r="A446" t="s">
         <v>978</v>
       </c>
@@ -15140,11 +17533,11 @@
       <c r="E446" t="s">
         <v>1508</v>
       </c>
-      <c r="K446" s="11" t="s">
+      <c r="L446" s="11" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="14">
+    <row r="447" spans="1:12" ht="14">
       <c r="A447" t="s">
         <v>979</v>
       </c>
@@ -15160,11 +17553,11 @@
       <c r="E447" t="s">
         <v>1508</v>
       </c>
-      <c r="K447" s="11" t="s">
+      <c r="L447" s="11" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="14">
+    <row r="448" spans="1:12" ht="14">
       <c r="A448" t="s">
         <v>980</v>
       </c>
@@ -15180,11 +17573,11 @@
       <c r="E448" t="s">
         <v>1508</v>
       </c>
-      <c r="K448" s="11" t="s">
+      <c r="L448" s="11" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="14">
+    <row r="449" spans="1:12" ht="14">
       <c r="A449" t="s">
         <v>981</v>
       </c>
@@ -15200,11 +17593,11 @@
       <c r="E449" t="s">
         <v>1508</v>
       </c>
-      <c r="K449" s="11" t="s">
+      <c r="L449" s="11" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="14">
+    <row r="450" spans="1:12" ht="14">
       <c r="A450" t="s">
         <v>982</v>
       </c>
@@ -15220,11 +17613,11 @@
       <c r="E450" t="s">
         <v>1508</v>
       </c>
-      <c r="K450" s="11" t="s">
+      <c r="L450" s="11" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="14">
+    <row r="451" spans="1:12" ht="14">
       <c r="A451" t="s">
         <v>983</v>
       </c>
@@ -15240,11 +17633,11 @@
       <c r="E451" t="s">
         <v>1508</v>
       </c>
-      <c r="K451" s="11" t="s">
+      <c r="L451" s="11" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="14">
+    <row r="452" spans="1:12" ht="14">
       <c r="A452" t="s">
         <v>984</v>
       </c>
@@ -15260,11 +17653,11 @@
       <c r="E452" t="s">
         <v>1508</v>
       </c>
-      <c r="K452" s="11" t="s">
+      <c r="L452" s="11" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="14">
+    <row r="453" spans="1:12" ht="14">
       <c r="A453" t="s">
         <v>985</v>
       </c>
@@ -15280,11 +17673,11 @@
       <c r="E453" t="s">
         <v>1508</v>
       </c>
-      <c r="K453" s="11" t="s">
+      <c r="L453" s="11" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="14">
+    <row r="454" spans="1:12" ht="14">
       <c r="A454" t="s">
         <v>986</v>
       </c>
@@ -15300,11 +17693,11 @@
       <c r="E454" t="s">
         <v>1508</v>
       </c>
-      <c r="K454" s="11" t="s">
+      <c r="L454" s="11" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="14">
+    <row r="455" spans="1:12" ht="14">
       <c r="A455" t="s">
         <v>987</v>
       </c>
@@ -15320,11 +17713,11 @@
       <c r="E455" t="s">
         <v>1508</v>
       </c>
-      <c r="K455" s="11" t="s">
+      <c r="L455" s="11" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="14">
+    <row r="456" spans="1:12" ht="14">
       <c r="A456" t="s">
         <v>988</v>
       </c>
@@ -15340,11 +17733,11 @@
       <c r="E456" t="s">
         <v>1508</v>
       </c>
-      <c r="K456" s="11" t="s">
+      <c r="L456" s="11" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="14">
+    <row r="457" spans="1:12" ht="14">
       <c r="A457" t="s">
         <v>989</v>
       </c>
@@ -15360,11 +17753,11 @@
       <c r="E457" t="s">
         <v>1508</v>
       </c>
-      <c r="K457" s="11" t="s">
+      <c r="L457" s="11" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="14">
+    <row r="458" spans="1:12" ht="14">
       <c r="A458" t="s">
         <v>990</v>
       </c>
@@ -15380,11 +17773,11 @@
       <c r="E458" t="s">
         <v>1508</v>
       </c>
-      <c r="K458" s="11" t="s">
+      <c r="L458" s="11" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="14">
+    <row r="459" spans="1:12" ht="14">
       <c r="A459" t="s">
         <v>991</v>
       </c>
@@ -15400,11 +17793,11 @@
       <c r="E459" t="s">
         <v>1508</v>
       </c>
-      <c r="K459" s="11" t="s">
+      <c r="L459" s="11" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="14">
+    <row r="460" spans="1:12" ht="14">
       <c r="A460" t="s">
         <v>992</v>
       </c>
@@ -15420,11 +17813,11 @@
       <c r="E460" t="s">
         <v>1508</v>
       </c>
-      <c r="K460" s="11" t="s">
+      <c r="L460" s="11" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="14">
+    <row r="461" spans="1:12" ht="14">
       <c r="A461" t="s">
         <v>993</v>
       </c>
@@ -15440,11 +17833,11 @@
       <c r="E461" t="s">
         <v>1508</v>
       </c>
-      <c r="K461" s="11" t="s">
+      <c r="L461" s="11" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="14">
+    <row r="462" spans="1:12" ht="14">
       <c r="A462" t="s">
         <v>994</v>
       </c>
@@ -15460,11 +17853,11 @@
       <c r="E462" t="s">
         <v>1508</v>
       </c>
-      <c r="K462" s="11" t="s">
+      <c r="L462" s="11" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="14">
+    <row r="463" spans="1:12" ht="14">
       <c r="A463" t="s">
         <v>995</v>
       </c>
@@ -15480,11 +17873,11 @@
       <c r="E463" t="s">
         <v>1508</v>
       </c>
-      <c r="K463" s="11" t="s">
+      <c r="L463" s="11" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="14">
+    <row r="464" spans="1:12" ht="14">
       <c r="A464" t="s">
         <v>996</v>
       </c>
@@ -15500,11 +17893,11 @@
       <c r="E464" t="s">
         <v>1508</v>
       </c>
-      <c r="K464" s="11" t="s">
+      <c r="L464" s="11" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="14">
+    <row r="465" spans="1:12" ht="14">
       <c r="A465" t="s">
         <v>997</v>
       </c>
@@ -15520,11 +17913,11 @@
       <c r="E465" t="s">
         <v>1508</v>
       </c>
-      <c r="K465" s="11" t="s">
+      <c r="L465" s="11" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="14">
+    <row r="466" spans="1:12" ht="14">
       <c r="A466" t="s">
         <v>998</v>
       </c>
@@ -15540,11 +17933,11 @@
       <c r="E466" t="s">
         <v>1508</v>
       </c>
-      <c r="K466" s="11" t="s">
+      <c r="L466" s="11" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="14">
+    <row r="467" spans="1:12" ht="14">
       <c r="A467" t="s">
         <v>999</v>
       </c>
@@ -15560,11 +17953,11 @@
       <c r="E467" t="s">
         <v>1508</v>
       </c>
-      <c r="K467" s="11" t="s">
+      <c r="L467" s="11" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="14">
+    <row r="468" spans="1:12" ht="14">
       <c r="A468" t="s">
         <v>1000</v>
       </c>
@@ -15580,11 +17973,11 @@
       <c r="E468" t="s">
         <v>1508</v>
       </c>
-      <c r="K468" s="11" t="s">
+      <c r="L468" s="11" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="14">
+    <row r="469" spans="1:12" ht="14">
       <c r="A469" t="s">
         <v>1001</v>
       </c>
@@ -15600,11 +17993,11 @@
       <c r="E469" t="s">
         <v>1508</v>
       </c>
-      <c r="K469" s="11" t="s">
+      <c r="L469" s="11" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="14">
+    <row r="470" spans="1:12" ht="14">
       <c r="A470" t="s">
         <v>1002</v>
       </c>
@@ -15620,11 +18013,11 @@
       <c r="E470" t="s">
         <v>1508</v>
       </c>
-      <c r="K470" s="11" t="s">
+      <c r="L470" s="11" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="14">
+    <row r="471" spans="1:12" ht="14">
       <c r="A471" t="s">
         <v>1003</v>
       </c>
@@ -15640,11 +18033,11 @@
       <c r="E471" t="s">
         <v>1508</v>
       </c>
-      <c r="K471" s="11" t="s">
+      <c r="L471" s="11" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="14">
+    <row r="472" spans="1:12" ht="14">
       <c r="A472" t="s">
         <v>1004</v>
       </c>
@@ -15660,11 +18053,11 @@
       <c r="E472" t="s">
         <v>1508</v>
       </c>
-      <c r="K472" s="11" t="s">
+      <c r="L472" s="11" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="14">
+    <row r="473" spans="1:12" ht="14">
       <c r="A473" t="s">
         <v>1005</v>
       </c>
@@ -15680,11 +18073,11 @@
       <c r="E473" t="s">
         <v>1508</v>
       </c>
-      <c r="K473" s="11" t="s">
+      <c r="L473" s="11" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="14">
+    <row r="474" spans="1:12" ht="14">
       <c r="A474" t="s">
         <v>1006</v>
       </c>
@@ -15700,11 +18093,11 @@
       <c r="E474" t="s">
         <v>1508</v>
       </c>
-      <c r="K474" s="11" t="s">
+      <c r="L474" s="11" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="14">
+    <row r="475" spans="1:12" ht="14">
       <c r="A475" t="s">
         <v>1007</v>
       </c>
@@ -15720,11 +18113,11 @@
       <c r="E475" t="s">
         <v>1508</v>
       </c>
-      <c r="K475" s="11" t="s">
+      <c r="L475" s="11" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="14">
+    <row r="476" spans="1:12" ht="14">
       <c r="A476" t="s">
         <v>1008</v>
       </c>
@@ -15740,11 +18133,11 @@
       <c r="E476" t="s">
         <v>1508</v>
       </c>
-      <c r="K476" s="11" t="s">
+      <c r="L476" s="11" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="14">
+    <row r="477" spans="1:12" ht="14">
       <c r="A477" t="s">
         <v>1009</v>
       </c>
@@ -15760,11 +18153,11 @@
       <c r="E477" t="s">
         <v>1508</v>
       </c>
-      <c r="K477" s="11" t="s">
+      <c r="L477" s="11" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="14">
+    <row r="478" spans="1:12" ht="14">
       <c r="A478" t="s">
         <v>1010</v>
       </c>
@@ -15780,11 +18173,11 @@
       <c r="E478" t="s">
         <v>1508</v>
       </c>
-      <c r="K478" s="11" t="s">
+      <c r="L478" s="11" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="14">
+    <row r="479" spans="1:12" ht="14">
       <c r="A479" t="s">
         <v>1011</v>
       </c>
@@ -15800,11 +18193,11 @@
       <c r="E479" t="s">
         <v>1508</v>
       </c>
-      <c r="K479" s="11" t="s">
+      <c r="L479" s="11" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="14">
+    <row r="480" spans="1:12" ht="14">
       <c r="A480" t="s">
         <v>1012</v>
       </c>
@@ -15820,11 +18213,11 @@
       <c r="E480" t="s">
         <v>1508</v>
       </c>
-      <c r="K480" s="11" t="s">
+      <c r="L480" s="11" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="14">
+    <row r="481" spans="1:12" ht="14">
       <c r="A481" t="s">
         <v>1013</v>
       </c>
@@ -15840,11 +18233,11 @@
       <c r="E481" t="s">
         <v>1508</v>
       </c>
-      <c r="K481" s="11" t="s">
+      <c r="L481" s="11" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="14">
+    <row r="482" spans="1:12" ht="14">
       <c r="A482" t="s">
         <v>1014</v>
       </c>
@@ -15860,11 +18253,11 @@
       <c r="E482" t="s">
         <v>1508</v>
       </c>
-      <c r="K482" s="11" t="s">
+      <c r="L482" s="11" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="14">
+    <row r="483" spans="1:12" ht="14">
       <c r="A483" t="s">
         <v>1015</v>
       </c>
@@ -15880,11 +18273,11 @@
       <c r="E483" t="s">
         <v>1508</v>
       </c>
-      <c r="K483" s="11" t="s">
+      <c r="L483" s="11" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="14">
+    <row r="484" spans="1:12" ht="14">
       <c r="A484" t="s">
         <v>1016</v>
       </c>
@@ -15900,11 +18293,11 @@
       <c r="E484" t="s">
         <v>1508</v>
       </c>
-      <c r="K484" s="11" t="s">
+      <c r="L484" s="11" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="14">
+    <row r="485" spans="1:12" ht="14">
       <c r="A485" t="s">
         <v>1017</v>
       </c>
@@ -15920,11 +18313,11 @@
       <c r="E485" t="s">
         <v>1508</v>
       </c>
-      <c r="K485" s="11" t="s">
+      <c r="L485" s="11" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="14">
+    <row r="486" spans="1:12" ht="14">
       <c r="A486" t="s">
         <v>1018</v>
       </c>
@@ -15940,11 +18333,11 @@
       <c r="E486" t="s">
         <v>1508</v>
       </c>
-      <c r="K486" s="11" t="s">
+      <c r="L486" s="11" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="14">
+    <row r="487" spans="1:12" ht="14">
       <c r="A487" t="s">
         <v>1019</v>
       </c>
@@ -15960,11 +18353,11 @@
       <c r="E487" t="s">
         <v>1508</v>
       </c>
-      <c r="K487" s="11" t="s">
+      <c r="L487" s="11" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="14">
+    <row r="488" spans="1:12" ht="14">
       <c r="A488" t="s">
         <v>1020</v>
       </c>
@@ -15980,11 +18373,11 @@
       <c r="E488" t="s">
         <v>1508</v>
       </c>
-      <c r="K488" s="11" t="s">
+      <c r="L488" s="11" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="14">
+    <row r="489" spans="1:12" ht="14">
       <c r="A489" t="s">
         <v>1021</v>
       </c>
@@ -16000,11 +18393,11 @@
       <c r="E489" t="s">
         <v>1508</v>
       </c>
-      <c r="K489" s="11" t="s">
+      <c r="L489" s="11" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="14">
+    <row r="490" spans="1:12" ht="14">
       <c r="A490" t="s">
         <v>1022</v>
       </c>
@@ -16020,7 +18413,7 @@
       <c r="E490" t="s">
         <v>1508</v>
       </c>
-      <c r="K490" s="11" t="s">
+      <c r="L490" s="11" t="s">
         <v>1472</v>
       </c>
     </row>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -6140,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="I427" sqref="I427"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1886">
   <si>
     <t>item</t>
   </si>
@@ -4632,9 +4632,6 @@
     <t>sheep</t>
   </si>
   <si>
-    <t>brr (car audio)</t>
-  </si>
-  <si>
     <t>grrr</t>
   </si>
   <si>
@@ -5262,9 +5259,6 @@
     <t>bye bye</t>
   </si>
   <si>
-    <t>hey there</t>
-  </si>
-  <si>
     <t>hush</t>
   </si>
   <si>
@@ -5665,6 +5659,24 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>quack quack</t>
+  </si>
+  <si>
+    <t>vroom</t>
+  </si>
+  <si>
+    <t>woof woof</t>
+  </si>
+  <si>
+    <t>yum yum</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>baa baa</t>
   </si>
 </sst>
 </file>
@@ -5737,8 +5749,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5786,7 +5818,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5798,6 +5830,16 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5809,6 +5851,16 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6140,8 +6192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6933,7 +6985,7 @@
         <v>1024</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>1024</v>
+        <v>1885</v>
       </c>
       <c r="J34" t="s">
         <v>528</v>
@@ -6959,7 +7011,7 @@
         <v>1025</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>1537</v>
+        <v>1881</v>
       </c>
       <c r="J35" t="s">
         <v>528</v>
@@ -6985,7 +7037,7 @@
         <v>1026</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>1026</v>
+        <v>1880</v>
       </c>
       <c r="J36" t="s">
         <v>528</v>
@@ -7011,7 +7063,7 @@
         <v>1027</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J37" t="s">
         <v>528</v>
@@ -7063,7 +7115,7 @@
         <v>1029</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="J39" t="s">
         <v>528</v>
@@ -7089,7 +7141,7 @@
         <v>1030</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J40" t="s">
         <v>528</v>
@@ -7115,7 +7167,7 @@
         <v>1031</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>1031</v>
+        <v>1883</v>
       </c>
       <c r="J41" t="s">
         <v>528</v>
@@ -7141,7 +7193,7 @@
         <v>1032</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="J42" t="s">
         <v>528</v>
@@ -7167,7 +7219,7 @@
         <v>1033</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>1033</v>
+        <v>1882</v>
       </c>
       <c r="J43" t="s">
         <v>528</v>
@@ -7193,7 +7245,7 @@
         <v>1034</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="J44" t="s">
         <v>529</v>
@@ -7219,7 +7271,7 @@
         <v>1035</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J45" t="s">
         <v>529</v>
@@ -7245,7 +7297,7 @@
         <v>1036</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="J46" t="s">
         <v>529</v>
@@ -7271,7 +7323,7 @@
         <v>1037</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J47" t="s">
         <v>529</v>
@@ -7323,7 +7375,7 @@
         <v>1039</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J49" t="s">
         <v>529</v>
@@ -7349,7 +7401,7 @@
         <v>1040</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J50" t="s">
         <v>529</v>
@@ -7375,7 +7427,7 @@
         <v>1041</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J51" t="s">
         <v>529</v>
@@ -7401,7 +7453,7 @@
         <v>1042</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J52" t="s">
         <v>529</v>
@@ -7453,7 +7505,7 @@
         <v>1044</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J54" t="s">
         <v>529</v>
@@ -7479,7 +7531,7 @@
         <v>1045</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J55" t="s">
         <v>529</v>
@@ -7505,7 +7557,7 @@
         <v>1046</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J56" t="s">
         <v>529</v>
@@ -7531,7 +7583,7 @@
         <v>1047</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="J57" t="s">
         <v>529</v>
@@ -7557,7 +7609,7 @@
         <v>1048</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J58" t="s">
         <v>529</v>
@@ -7583,7 +7635,7 @@
         <v>1049</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J59" t="s">
         <v>529</v>
@@ -7609,7 +7661,7 @@
         <v>1050</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J60" t="s">
         <v>529</v>
@@ -7635,7 +7687,7 @@
         <v>1051</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J61" t="s">
         <v>529</v>
@@ -7661,7 +7713,7 @@
         <v>1052</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="J62" t="s">
         <v>529</v>
@@ -7687,7 +7739,7 @@
         <v>1053</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J63" t="s">
         <v>529</v>
@@ -7713,7 +7765,7 @@
         <v>1054</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="J64" t="s">
         <v>529</v>
@@ -7739,7 +7791,7 @@
         <v>1055</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J65" t="s">
         <v>529</v>
@@ -7765,7 +7817,7 @@
         <v>1056</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J66" t="s">
         <v>529</v>
@@ -7791,7 +7843,7 @@
         <v>1057</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="J67" t="s">
         <v>529</v>
@@ -7817,7 +7869,7 @@
         <v>1058</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J68" t="s">
         <v>529</v>
@@ -7843,7 +7895,7 @@
         <v>1059</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J69" t="s">
         <v>529</v>
@@ -7869,7 +7921,7 @@
         <v>1060</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="J70" t="s">
         <v>529</v>
@@ -7895,7 +7947,7 @@
         <v>1061</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="J71" t="s">
         <v>529</v>
@@ -7947,7 +7999,7 @@
         <v>1063</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="J73" t="s">
         <v>529</v>
@@ -7973,7 +8025,7 @@
         <v>1064</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J74" t="s">
         <v>529</v>
@@ -7999,7 +8051,7 @@
         <v>1065</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="J75" t="s">
         <v>529</v>
@@ -8051,7 +8103,7 @@
         <v>1067</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J77" t="s">
         <v>529</v>
@@ -8077,7 +8129,7 @@
         <v>1068</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="J78" t="s">
         <v>529</v>
@@ -8103,7 +8155,7 @@
         <v>1069</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="J79" t="s">
         <v>529</v>
@@ -8129,7 +8181,7 @@
         <v>1070</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="J80" t="s">
         <v>529</v>
@@ -8155,7 +8207,7 @@
         <v>1071</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="J81" t="s">
         <v>529</v>
@@ -8181,7 +8233,7 @@
         <v>1072</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="J82" t="s">
         <v>529</v>
@@ -8207,7 +8259,7 @@
         <v>1073</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="J83" t="s">
         <v>529</v>
@@ -8233,7 +8285,7 @@
         <v>1074</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="J84" t="s">
         <v>529</v>
@@ -8259,7 +8311,7 @@
         <v>1075</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J85" t="s">
         <v>529</v>
@@ -8285,7 +8337,7 @@
         <v>1076</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="J86" t="s">
         <v>529</v>
@@ -8311,7 +8363,7 @@
         <v>1077</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="J87" t="s">
         <v>529</v>
@@ -8337,7 +8389,7 @@
         <v>1078</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="J88" t="s">
         <v>529</v>
@@ -8363,7 +8415,7 @@
         <v>1079</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J89" t="s">
         <v>529</v>
@@ -8389,7 +8441,7 @@
         <v>1080</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="J90" t="s">
         <v>529</v>
@@ -8415,7 +8467,7 @@
         <v>1081</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="J91" t="s">
         <v>529</v>
@@ -8441,7 +8493,7 @@
         <v>1082</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="J92" t="s">
         <v>529</v>
@@ -8467,7 +8519,7 @@
         <v>1083</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="J93" t="s">
         <v>529</v>
@@ -8493,7 +8545,7 @@
         <v>1084</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="J94" t="s">
         <v>529</v>
@@ -8519,7 +8571,7 @@
         <v>1085</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="J95" t="s">
         <v>529</v>
@@ -8545,7 +8597,7 @@
         <v>1086</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -8571,7 +8623,7 @@
         <v>1087</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J97" t="s">
         <v>529</v>
@@ -8597,7 +8649,7 @@
         <v>1088</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="J98" t="s">
         <v>529</v>
@@ -8623,7 +8675,7 @@
         <v>1089</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="J99" t="s">
         <v>529</v>
@@ -8649,7 +8701,7 @@
         <v>1090</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J100" t="s">
         <v>529</v>
@@ -8701,7 +8753,7 @@
         <v>1092</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J102" t="s">
         <v>529</v>
@@ -8727,7 +8779,7 @@
         <v>1093</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="J103" t="s">
         <v>529</v>
@@ -8753,7 +8805,7 @@
         <v>1094</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="J104" t="s">
         <v>529</v>
@@ -8779,7 +8831,7 @@
         <v>1042</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="J105" t="s">
         <v>529</v>
@@ -8805,7 +8857,7 @@
         <v>1095</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J106" t="s">
         <v>529</v>
@@ -8831,7 +8883,7 @@
         <v>1096</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J107" t="s">
         <v>529</v>
@@ -8857,7 +8909,7 @@
         <v>1097</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="J108" t="s">
         <v>529</v>
@@ -8909,7 +8961,7 @@
         <v>1099</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="J110" t="s">
         <v>529</v>
@@ -8935,7 +8987,7 @@
         <v>1100</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="J111" t="s">
         <v>529</v>
@@ -8961,7 +9013,7 @@
         <v>1101</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="J112" t="s">
         <v>529</v>
@@ -8987,7 +9039,7 @@
         <v>1102</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="J113" t="s">
         <v>529</v>
@@ -9013,7 +9065,7 @@
         <v>1054</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="J114" t="s">
         <v>529</v>
@@ -9039,7 +9091,7 @@
         <v>1103</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="J115" t="s">
         <v>529</v>
@@ -9065,7 +9117,7 @@
         <v>1104</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="J116" t="s">
         <v>529</v>
@@ -9091,7 +9143,7 @@
         <v>1105</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="J117" t="s">
         <v>529</v>
@@ -9169,7 +9221,7 @@
         <v>1108</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="J120" t="s">
         <v>529</v>
@@ -9195,7 +9247,7 @@
         <v>1109</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="J121" t="s">
         <v>529</v>
@@ -9221,7 +9273,7 @@
         <v>1110</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J122" t="s">
         <v>529</v>
@@ -9247,7 +9299,7 @@
         <v>1111</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="J123" t="s">
         <v>529</v>
@@ -9273,7 +9325,7 @@
         <v>1112</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J124" t="s">
         <v>529</v>
@@ -9299,7 +9351,7 @@
         <v>1113</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J125" t="s">
         <v>529</v>
@@ -9325,7 +9377,7 @@
         <v>1114</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="J126" t="s">
         <v>529</v>
@@ -9351,7 +9403,7 @@
         <v>1115</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J127" t="s">
         <v>529</v>
@@ -9377,7 +9429,7 @@
         <v>1116</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="J128" t="s">
         <v>529</v>
@@ -9403,7 +9455,7 @@
         <v>1117</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="J129" t="s">
         <v>529</v>
@@ -9429,7 +9481,7 @@
         <v>1118</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="J130" t="s">
         <v>529</v>
@@ -9455,7 +9507,7 @@
         <v>1119</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="J131" t="s">
         <v>529</v>
@@ -9481,7 +9533,7 @@
         <v>1120</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="J132" t="s">
         <v>529</v>
@@ -9507,7 +9559,7 @@
         <v>1121</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="J133" t="s">
         <v>529</v>
@@ -9533,7 +9585,7 @@
         <v>1122</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J134" t="s">
         <v>529</v>
@@ -9559,7 +9611,7 @@
         <v>1123</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="J135" t="s">
         <v>529</v>
@@ -9611,7 +9663,7 @@
         <v>1125</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J137" t="s">
         <v>529</v>
@@ -9637,7 +9689,7 @@
         <v>1126</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="J138" t="s">
         <v>529</v>
@@ -9663,7 +9715,7 @@
         <v>1127</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="J139" t="s">
         <v>529</v>
@@ -9689,7 +9741,7 @@
         <v>1128</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J140" t="s">
         <v>529</v>
@@ -9715,7 +9767,7 @@
         <v>1129</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="J141" t="s">
         <v>529</v>
@@ -9741,7 +9793,7 @@
         <v>1130</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J142" t="s">
         <v>529</v>
@@ -9767,7 +9819,7 @@
         <v>1131</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="J143" t="s">
         <v>529</v>
@@ -9793,7 +9845,7 @@
         <v>1132</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="J144" t="s">
         <v>529</v>
@@ -9819,7 +9871,7 @@
         <v>1133</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J145" t="s">
         <v>529</v>
@@ -9871,7 +9923,7 @@
         <v>1135</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J147" t="s">
         <v>529</v>
@@ -9923,7 +9975,7 @@
         <v>1137</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="J149" t="s">
         <v>529</v>
@@ -9949,7 +10001,7 @@
         <v>1138</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="J150" t="s">
         <v>529</v>
@@ -9975,7 +10027,7 @@
         <v>1139</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="J151" t="s">
         <v>529</v>
@@ -10001,7 +10053,7 @@
         <v>1140</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J152" t="s">
         <v>529</v>
@@ -10027,7 +10079,7 @@
         <v>1141</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="J153" t="s">
         <v>529</v>
@@ -10053,7 +10105,7 @@
         <v>1142</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="J154" t="s">
         <v>529</v>
@@ -10079,7 +10131,7 @@
         <v>1143</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J155" t="s">
         <v>529</v>
@@ -10105,7 +10157,7 @@
         <v>1144</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J156" t="s">
         <v>529</v>
@@ -10131,7 +10183,7 @@
         <v>1145</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J157" t="s">
         <v>529</v>
@@ -10157,7 +10209,7 @@
         <v>1146</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J158" t="s">
         <v>529</v>
@@ -10183,7 +10235,7 @@
         <v>1147</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J159" t="s">
         <v>529</v>
@@ -10209,7 +10261,7 @@
         <v>1148</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J160" t="s">
         <v>529</v>
@@ -10235,7 +10287,7 @@
         <v>1149</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J161" t="s">
         <v>529</v>
@@ -10261,7 +10313,7 @@
         <v>1150</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J162" t="s">
         <v>529</v>
@@ -10313,7 +10365,7 @@
         <v>1152</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J164" t="s">
         <v>529</v>
@@ -10339,7 +10391,7 @@
         <v>1153</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="J165" t="s">
         <v>529</v>
@@ -10365,7 +10417,7 @@
         <v>1154</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="J166" t="s">
         <v>529</v>
@@ -10391,7 +10443,7 @@
         <v>1155</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J167" t="s">
         <v>529</v>
@@ -10417,7 +10469,7 @@
         <v>1156</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="J168" t="s">
         <v>529</v>
@@ -10443,7 +10495,7 @@
         <v>1157</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J169" t="s">
         <v>529</v>
@@ -10469,7 +10521,7 @@
         <v>1158</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="J170" t="s">
         <v>529</v>
@@ -10495,7 +10547,7 @@
         <v>1159</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J171" t="s">
         <v>529</v>
@@ -10573,7 +10625,7 @@
         <v>1162</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J174" t="s">
         <v>529</v>
@@ -10599,7 +10651,7 @@
         <v>1163</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J175" t="s">
         <v>529</v>
@@ -10625,7 +10677,7 @@
         <v>1164</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="J176" t="s">
         <v>529</v>
@@ -10651,7 +10703,7 @@
         <v>1165</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J177" t="s">
         <v>529</v>
@@ -10677,7 +10729,7 @@
         <v>1166</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J178" t="s">
         <v>529</v>
@@ -10703,7 +10755,7 @@
         <v>1167</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J179" t="s">
         <v>529</v>
@@ -10729,7 +10781,7 @@
         <v>1168</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="J180" t="s">
         <v>529</v>
@@ -10755,7 +10807,7 @@
         <v>1169</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J181" t="s">
         <v>529</v>
@@ -10781,7 +10833,7 @@
         <v>1170</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J182" t="s">
         <v>529</v>
@@ -10807,7 +10859,7 @@
         <v>1171</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="J183" t="s">
         <v>529</v>
@@ -10833,7 +10885,7 @@
         <v>1172</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="J184" t="s">
         <v>529</v>
@@ -10859,7 +10911,7 @@
         <v>1173</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J185" t="s">
         <v>529</v>
@@ -10885,7 +10937,7 @@
         <v>1174</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J186" t="s">
         <v>529</v>
@@ -10911,7 +10963,7 @@
         <v>1175</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="J187" t="s">
         <v>529</v>
@@ -10937,7 +10989,7 @@
         <v>1176</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="J188" t="s">
         <v>529</v>
@@ -10989,7 +11041,7 @@
         <v>1178</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J190" t="s">
         <v>529</v>
@@ -11015,7 +11067,7 @@
         <v>1179</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J191" t="s">
         <v>529</v>
@@ -11041,7 +11093,7 @@
         <v>1180</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="J192" t="s">
         <v>529</v>
@@ -11067,7 +11119,7 @@
         <v>1181</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="J193" t="s">
         <v>529</v>
@@ -11093,7 +11145,7 @@
         <v>1182</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="J194" t="s">
         <v>529</v>
@@ -11119,7 +11171,7 @@
         <v>1183</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J195" t="s">
         <v>529</v>
@@ -11145,7 +11197,7 @@
         <v>1184</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="J196" t="s">
         <v>529</v>
@@ -11171,7 +11223,7 @@
         <v>1185</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="J197" t="s">
         <v>529</v>
@@ -11197,7 +11249,7 @@
         <v>1186</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="J198" t="s">
         <v>529</v>
@@ -11223,7 +11275,7 @@
         <v>1187</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J199" t="s">
         <v>529</v>
@@ -11249,7 +11301,7 @@
         <v>1188</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J200" t="s">
         <v>529</v>
@@ -11275,7 +11327,7 @@
         <v>1189</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J201" t="s">
         <v>529</v>
@@ -11301,7 +11353,7 @@
         <v>1190</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J202" t="s">
         <v>529</v>
@@ -11327,7 +11379,7 @@
         <v>1191</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J203" t="s">
         <v>529</v>
@@ -11353,7 +11405,7 @@
         <v>1192</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J204" t="s">
         <v>529</v>
@@ -11379,7 +11431,7 @@
         <v>1193</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J205" t="s">
         <v>529</v>
@@ -11405,7 +11457,7 @@
         <v>1194</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J206" t="s">
         <v>529</v>
@@ -11431,7 +11483,7 @@
         <v>1195</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J207" t="s">
         <v>529</v>
@@ -11457,7 +11509,7 @@
         <v>1196</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J208" t="s">
         <v>529</v>
@@ -11483,7 +11535,7 @@
         <v>1197</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="J209" t="s">
         <v>529</v>
@@ -11509,7 +11561,7 @@
         <v>1198</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="J210" t="s">
         <v>529</v>
@@ -11535,7 +11587,7 @@
         <v>1199</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="J211" t="s">
         <v>529</v>
@@ -11561,7 +11613,7 @@
         <v>1200</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J212" t="s">
         <v>529</v>
@@ -11587,7 +11639,7 @@
         <v>1201</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J213" t="s">
         <v>529</v>
@@ -11613,7 +11665,7 @@
         <v>1202</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J214" t="s">
         <v>529</v>
@@ -11665,7 +11717,7 @@
         <v>1204</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J216" t="s">
         <v>529</v>
@@ -11691,7 +11743,7 @@
         <v>1205</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J217" t="s">
         <v>529</v>
@@ -11717,7 +11769,7 @@
         <v>1206</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J218" t="s">
         <v>529</v>
@@ -11743,7 +11795,7 @@
         <v>1207</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J219" t="s">
         <v>529</v>
@@ -11769,7 +11821,7 @@
         <v>1208</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J220" t="s">
         <v>529</v>
@@ -11795,7 +11847,7 @@
         <v>1209</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J221" t="s">
         <v>529</v>
@@ -11821,7 +11873,7 @@
         <v>1210</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J222" t="s">
         <v>529</v>
@@ -11847,7 +11899,7 @@
         <v>1211</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J223" t="s">
         <v>529</v>
@@ -11873,7 +11925,7 @@
         <v>1212</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J224" t="s">
         <v>529</v>
@@ -11899,7 +11951,7 @@
         <v>1213</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J225" t="s">
         <v>529</v>
@@ -11925,7 +11977,7 @@
         <v>1214</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J226" t="s">
         <v>529</v>
@@ -11951,7 +12003,7 @@
         <v>1215</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="J227" t="s">
         <v>529</v>
@@ -11977,7 +12029,7 @@
         <v>1216</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J228" t="s">
         <v>529</v>
@@ -12003,7 +12055,7 @@
         <v>1217</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="J229" t="s">
         <v>529</v>
@@ -12029,7 +12081,7 @@
         <v>1218</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="J230" t="s">
         <v>529</v>
@@ -12055,7 +12107,7 @@
         <v>1219</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J231" t="s">
         <v>529</v>
@@ -12081,7 +12133,7 @@
         <v>1220</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J232" t="s">
         <v>529</v>
@@ -12107,7 +12159,7 @@
         <v>1221</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J233" t="s">
         <v>529</v>
@@ -12133,7 +12185,7 @@
         <v>1222</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="J234" t="s">
         <v>529</v>
@@ -12159,7 +12211,7 @@
         <v>1223</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J235" t="s">
         <v>529</v>
@@ -12185,7 +12237,7 @@
         <v>1112</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J236" t="s">
         <v>529</v>
@@ -12211,7 +12263,7 @@
         <v>1224</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J237" t="s">
         <v>528</v>
@@ -12237,7 +12289,7 @@
         <v>1225</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J238" t="s">
         <v>528</v>
@@ -12289,7 +12341,7 @@
         <v>1227</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="J240" t="s">
         <v>528</v>
@@ -12315,7 +12367,7 @@
         <v>1228</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="J241" t="s">
         <v>528</v>
@@ -12341,7 +12393,7 @@
         <v>1229</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J242" t="s">
         <v>528</v>
@@ -12367,7 +12419,7 @@
         <v>1230</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J243" t="s">
         <v>528</v>
@@ -12393,7 +12445,7 @@
         <v>1231</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J244" t="s">
         <v>528</v>
@@ -12445,7 +12497,7 @@
         <v>1233</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J246" t="s">
         <v>528</v>
@@ -12471,7 +12523,7 @@
         <v>1234</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J247" t="s">
         <v>528</v>
@@ -12549,7 +12601,7 @@
         <v>1237</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J250" t="s">
         <v>528</v>
@@ -12575,7 +12627,7 @@
         <v>1238</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J251" t="s">
         <v>528</v>
@@ -12601,7 +12653,7 @@
         <v>1239</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J252" t="s">
         <v>528</v>
@@ -12627,7 +12679,7 @@
         <v>1240</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J253" t="s">
         <v>528</v>
@@ -12653,7 +12705,7 @@
         <v>1241</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J254" t="s">
         <v>528</v>
@@ -12679,7 +12731,7 @@
         <v>1242</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J255" t="s">
         <v>528</v>
@@ -12705,7 +12757,7 @@
         <v>1243</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J256" t="s">
         <v>528</v>
@@ -12731,7 +12783,7 @@
         <v>1244</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="J257" t="s">
         <v>528</v>
@@ -12757,7 +12809,7 @@
         <v>1245</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="J258" t="s">
         <v>528</v>
@@ -12783,7 +12835,7 @@
         <v>1246</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J259" t="s">
         <v>528</v>
@@ -12809,7 +12861,7 @@
         <v>1247</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J260" t="s">
         <v>528</v>
@@ -12835,7 +12887,7 @@
         <v>1248</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J261" t="s">
         <v>528</v>
@@ -12861,7 +12913,7 @@
         <v>1249</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J262" t="s">
         <v>528</v>
@@ -12887,7 +12939,7 @@
         <v>1250</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="J263" t="s">
         <v>528</v>
@@ -12913,7 +12965,7 @@
         <v>1251</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="J264" t="s">
         <v>528</v>
@@ -12939,7 +12991,7 @@
         <v>1252</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J265" t="s">
         <v>528</v>
@@ -12965,7 +13017,7 @@
         <v>1253</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J266" t="s">
         <v>528</v>
@@ -12991,7 +13043,7 @@
         <v>1254</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="J267" t="s">
         <v>528</v>
@@ -13017,7 +13069,7 @@
         <v>1255</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J268" t="s">
         <v>528</v>
@@ -13043,7 +13095,7 @@
         <v>1256</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J269" t="s">
         <v>528</v>
@@ -13069,7 +13121,7 @@
         <v>1257</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="J270" t="s">
         <v>528</v>
@@ -13095,7 +13147,7 @@
         <v>1258</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="J271" t="s">
         <v>528</v>
@@ -13121,7 +13173,7 @@
         <v>1259</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J272" t="s">
         <v>528</v>
@@ -13147,7 +13199,7 @@
         <v>1260</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J273" t="s">
         <v>528</v>
@@ -13173,7 +13225,7 @@
         <v>1261</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="J274" t="s">
         <v>528</v>
@@ -13199,7 +13251,7 @@
         <v>1262</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>1747</v>
+        <v>1884</v>
       </c>
       <c r="J275" t="s">
         <v>528</v>
@@ -13225,7 +13277,7 @@
         <v>1263</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="J276" t="s">
         <v>528</v>
@@ -13251,7 +13303,7 @@
         <v>1264</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="J277" t="s">
         <v>528</v>
@@ -13277,7 +13329,7 @@
         <v>1265</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="J278" t="s">
         <v>528</v>
@@ -13303,7 +13355,7 @@
         <v>1266</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J279" t="s">
         <v>528</v>
@@ -13329,7 +13381,7 @@
         <v>1267</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="J280" t="s">
         <v>528</v>
@@ -13355,7 +13407,7 @@
         <v>1268</v>
       </c>
       <c r="I281" s="11" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="J281" t="s">
         <v>528</v>
@@ -13381,7 +13433,7 @@
         <v>1269</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="J282" t="s">
         <v>528</v>
@@ -13407,7 +13459,7 @@
         <v>1270</v>
       </c>
       <c r="I283" s="11" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J283" t="s">
         <v>528</v>
@@ -13433,7 +13485,7 @@
         <v>1271</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J284" t="s">
         <v>528</v>
@@ -13459,7 +13511,7 @@
         <v>1272</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J285" t="s">
         <v>528</v>
@@ -13485,7 +13537,7 @@
         <v>1273</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="J286" t="s">
         <v>528</v>
@@ -13511,7 +13563,7 @@
         <v>1274</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="J287" t="s">
         <v>528</v>
@@ -13537,7 +13589,7 @@
         <v>1275</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J288" t="s">
         <v>528</v>
@@ -13589,7 +13641,7 @@
         <v>1277</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="J290" t="s">
         <v>530</v>
@@ -13615,7 +13667,7 @@
         <v>1278</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J291" t="s">
         <v>530</v>
@@ -13641,7 +13693,7 @@
         <v>1279</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="J292" t="s">
         <v>530</v>
@@ -13667,7 +13719,7 @@
         <v>1092</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="J293" t="s">
         <v>530</v>
@@ -13693,7 +13745,7 @@
         <v>1280</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="J294" t="s">
         <v>530</v>
@@ -13719,7 +13771,7 @@
         <v>1281</v>
       </c>
       <c r="I295" s="11" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J295" t="s">
         <v>530</v>
@@ -13745,7 +13797,7 @@
         <v>1282</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J296" t="s">
         <v>530</v>
@@ -13771,7 +13823,7 @@
         <v>1283</v>
       </c>
       <c r="I297" s="11" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="J297" t="s">
         <v>530</v>
@@ -13797,7 +13849,7 @@
         <v>1284</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="J298" t="s">
         <v>530</v>
@@ -13823,7 +13875,7 @@
         <v>1285</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="J299" t="s">
         <v>530</v>
@@ -13849,7 +13901,7 @@
         <v>1286</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J300" t="s">
         <v>530</v>
@@ -13875,7 +13927,7 @@
         <v>1287</v>
       </c>
       <c r="I301" s="11" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J301" t="s">
         <v>530</v>
@@ -13901,7 +13953,7 @@
         <v>1288</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="J302" t="s">
         <v>530</v>
@@ -13927,7 +13979,7 @@
         <v>1289</v>
       </c>
       <c r="I303" s="11" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J303" t="s">
         <v>530</v>
@@ -13953,7 +14005,7 @@
         <v>1290</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="J304" t="s">
         <v>530</v>
@@ -13979,7 +14031,7 @@
         <v>1291</v>
       </c>
       <c r="I305" s="11" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J305" t="s">
         <v>530</v>
@@ -14005,7 +14057,7 @@
         <v>1292</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J306" t="s">
         <v>530</v>
@@ -14031,7 +14083,7 @@
         <v>1213</v>
       </c>
       <c r="I307" s="11" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J307" t="s">
         <v>530</v>
@@ -14057,7 +14109,7 @@
         <v>1293</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="J308" t="s">
         <v>530</v>
@@ -14083,7 +14135,7 @@
         <v>1294</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J309" t="s">
         <v>530</v>
@@ -14109,7 +14161,7 @@
         <v>1295</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="J310" t="s">
         <v>530</v>
@@ -14135,7 +14187,7 @@
         <v>1296</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="J311" t="s">
         <v>530</v>
@@ -14161,7 +14213,7 @@
         <v>1297</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="J312" t="s">
         <v>530</v>
@@ -14187,7 +14239,7 @@
         <v>1298</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="J313" t="s">
         <v>530</v>
@@ -14213,7 +14265,7 @@
         <v>1084</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="J314" t="s">
         <v>530</v>
@@ -14239,7 +14291,7 @@
         <v>1299</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="J315" t="s">
         <v>530</v>
@@ -14265,7 +14317,7 @@
         <v>1300</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="J316" t="s">
         <v>530</v>
@@ -14291,7 +14343,7 @@
         <v>1301</v>
       </c>
       <c r="I317" s="11" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J317" t="s">
         <v>530</v>
@@ -14317,7 +14369,7 @@
         <v>1302</v>
       </c>
       <c r="I318" s="11" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="J318" t="s">
         <v>530</v>
@@ -14343,7 +14395,7 @@
         <v>1303</v>
       </c>
       <c r="I319" s="11" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="J319" t="s">
         <v>530</v>
@@ -14369,7 +14421,7 @@
         <v>1304</v>
       </c>
       <c r="I320" s="11" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="J320" t="s">
         <v>530</v>
@@ -14421,7 +14473,7 @@
         <v>1306</v>
       </c>
       <c r="I322" s="11" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="J322" t="s">
         <v>530</v>
@@ -14447,7 +14499,7 @@
         <v>1307</v>
       </c>
       <c r="I323" s="11" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J323" t="s">
         <v>530</v>
@@ -14473,7 +14525,7 @@
         <v>1308</v>
       </c>
       <c r="I324" s="11" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="J324" t="s">
         <v>530</v>
@@ -14499,7 +14551,7 @@
         <v>1309</v>
       </c>
       <c r="I325" s="11" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="J325" t="s">
         <v>530</v>
@@ -14525,7 +14577,7 @@
         <v>1310</v>
       </c>
       <c r="I326" s="11" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J326" t="s">
         <v>530</v>
@@ -14551,7 +14603,7 @@
         <v>1311</v>
       </c>
       <c r="I327" s="11" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="J327" t="s">
         <v>530</v>
@@ -14603,7 +14655,7 @@
         <v>1313</v>
       </c>
       <c r="I329" s="11" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="J329" t="s">
         <v>530</v>
@@ -14629,7 +14681,7 @@
         <v>1314</v>
       </c>
       <c r="I330" s="11" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J330" t="s">
         <v>530</v>
@@ -14655,7 +14707,7 @@
         <v>1315</v>
       </c>
       <c r="I331" s="11" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="J331" t="s">
         <v>530</v>
@@ -14681,7 +14733,7 @@
         <v>1316</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J332" t="s">
         <v>530</v>
@@ -14707,7 +14759,7 @@
         <v>1317</v>
       </c>
       <c r="I333" s="11" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="J333" t="s">
         <v>530</v>
@@ -14733,7 +14785,7 @@
         <v>1318</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="J334" t="s">
         <v>530</v>
@@ -14759,7 +14811,7 @@
         <v>1319</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="J335" t="s">
         <v>530</v>
@@ -14785,7 +14837,7 @@
         <v>1320</v>
       </c>
       <c r="I336" s="11" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="J336" t="s">
         <v>530</v>
@@ -14811,7 +14863,7 @@
         <v>1321</v>
       </c>
       <c r="I337" s="11" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="J337" t="s">
         <v>530</v>
@@ -14837,7 +14889,7 @@
         <v>1322</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="J338" t="s">
         <v>530</v>
@@ -14863,7 +14915,7 @@
         <v>1323</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J339" t="s">
         <v>530</v>
@@ -14889,7 +14941,7 @@
         <v>1324</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="J340" t="s">
         <v>530</v>
@@ -14915,7 +14967,7 @@
         <v>1325</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="J341" t="s">
         <v>530</v>
@@ -14941,7 +14993,7 @@
         <v>1326</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="J342" t="s">
         <v>530</v>
@@ -14967,7 +15019,7 @@
         <v>1327</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="J343" t="s">
         <v>530</v>
@@ -14993,7 +15045,7 @@
         <v>1328</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="J344" t="s">
         <v>530</v>
@@ -15019,7 +15071,7 @@
         <v>1329</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="J345" t="s">
         <v>530</v>
@@ -15045,7 +15097,7 @@
         <v>1330</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="J346" t="s">
         <v>530</v>
@@ -15071,7 +15123,7 @@
         <v>1331</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="J347" t="s">
         <v>530</v>
@@ -15097,7 +15149,7 @@
         <v>1332</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="J348" t="s">
         <v>530</v>
@@ -15123,7 +15175,7 @@
         <v>1333</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="J349" t="s">
         <v>530</v>
@@ -15149,7 +15201,7 @@
         <v>1334</v>
       </c>
       <c r="I350" s="11" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="J350" t="s">
         <v>530</v>
@@ -15175,7 +15227,7 @@
         <v>1335</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="J351" t="s">
         <v>530</v>
@@ -15201,7 +15253,7 @@
         <v>1336</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="J352" t="s">
         <v>530</v>
@@ -15253,7 +15305,7 @@
         <v>1338</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="J354" t="s">
         <v>530</v>
@@ -15279,7 +15331,7 @@
         <v>1339</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="J355" t="s">
         <v>530</v>
@@ -15305,7 +15357,7 @@
         <v>1340</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="J356" t="s">
         <v>530</v>
@@ -15331,7 +15383,7 @@
         <v>1341</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="J357" t="s">
         <v>530</v>
@@ -15357,7 +15409,7 @@
         <v>1342</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="J358" t="s">
         <v>530</v>
@@ -15383,7 +15435,7 @@
         <v>1343</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="J359" t="s">
         <v>530</v>
@@ -15409,7 +15461,7 @@
         <v>1344</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="J360" t="s">
         <v>530</v>
@@ -15435,7 +15487,7 @@
         <v>1345</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="J361" t="s">
         <v>530</v>
@@ -15461,7 +15513,7 @@
         <v>1346</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="J362" t="s">
         <v>530</v>
@@ -15487,7 +15539,7 @@
         <v>1347</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="J363" t="s">
         <v>530</v>
@@ -15513,7 +15565,7 @@
         <v>1348</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="J364" t="s">
         <v>530</v>
@@ -15539,7 +15591,7 @@
         <v>1349</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="J365" t="s">
         <v>530</v>
@@ -15565,7 +15617,7 @@
         <v>1350</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="J366" t="s">
         <v>530</v>
@@ -15591,7 +15643,7 @@
         <v>1351</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="J367" t="s">
         <v>530</v>
@@ -15617,7 +15669,7 @@
         <v>1352</v>
       </c>
       <c r="I368" s="11" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="J368" t="s">
         <v>530</v>
@@ -15643,7 +15695,7 @@
         <v>1353</v>
       </c>
       <c r="I369" s="11" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="J369" t="s">
         <v>530</v>
@@ -15669,7 +15721,7 @@
         <v>1354</v>
       </c>
       <c r="I370" s="11" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="J370" t="s">
         <v>530</v>
@@ -15695,7 +15747,7 @@
         <v>1355</v>
       </c>
       <c r="I371" s="11" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="J371" t="s">
         <v>530</v>
@@ -15721,7 +15773,7 @@
         <v>1356</v>
       </c>
       <c r="I372" s="11" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="J372" t="s">
         <v>530</v>
@@ -15747,7 +15799,7 @@
         <v>1357</v>
       </c>
       <c r="I373" s="11" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="J373" t="s">
         <v>530</v>
@@ -15773,7 +15825,7 @@
         <v>1358</v>
       </c>
       <c r="I374" s="11" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="J374" t="s">
         <v>530</v>
@@ -15799,7 +15851,7 @@
         <v>1359</v>
       </c>
       <c r="I375" s="11" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="J375" t="s">
         <v>530</v>
@@ -15825,7 +15877,7 @@
         <v>1360</v>
       </c>
       <c r="I376" s="11" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="J376" t="s">
         <v>530</v>
@@ -15851,7 +15903,7 @@
         <v>1361</v>
       </c>
       <c r="I377" s="11" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="J377" t="s">
         <v>530</v>
@@ -15877,7 +15929,7 @@
         <v>1362</v>
       </c>
       <c r="I378" s="11" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="J378" t="s">
         <v>528</v>
@@ -15903,7 +15955,7 @@
         <v>1363</v>
       </c>
       <c r="I379" s="11" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="J379" t="s">
         <v>528</v>
@@ -15929,7 +15981,7 @@
         <v>1364</v>
       </c>
       <c r="I380" s="11" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="J380" t="s">
         <v>528</v>
@@ -15955,7 +16007,7 @@
         <v>1365</v>
       </c>
       <c r="I381" s="11" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="J381" t="s">
         <v>528</v>
@@ -15981,7 +16033,7 @@
         <v>1366</v>
       </c>
       <c r="I382" s="11" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="J382" t="s">
         <v>528</v>
@@ -16007,7 +16059,7 @@
         <v>1367</v>
       </c>
       <c r="I383" s="11" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="J383" t="s">
         <v>528</v>
@@ -16033,7 +16085,7 @@
         <v>1368</v>
       </c>
       <c r="I384" s="11" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="J384" t="s">
         <v>528</v>
@@ -16059,7 +16111,7 @@
         <v>1369</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="J385" t="s">
         <v>528</v>
@@ -16085,7 +16137,7 @@
         <v>1370</v>
       </c>
       <c r="I386" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="J386" t="s">
         <v>531</v>
@@ -16111,7 +16163,7 @@
         <v>1371</v>
       </c>
       <c r="I387" s="11" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="J387" t="s">
         <v>531</v>
@@ -16137,7 +16189,7 @@
         <v>1372</v>
       </c>
       <c r="I388" s="11" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="J388" t="s">
         <v>531</v>
@@ -16163,7 +16215,7 @@
         <v>1373</v>
       </c>
       <c r="I389" s="11" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="J389" t="s">
         <v>531</v>
@@ -16189,7 +16241,7 @@
         <v>1374</v>
       </c>
       <c r="I390" s="11" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="J390" t="s">
         <v>531</v>
@@ -16215,7 +16267,7 @@
         <v>1375</v>
       </c>
       <c r="I391" s="11" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="J391" t="s">
         <v>531</v>
@@ -16241,7 +16293,7 @@
         <v>1376</v>
       </c>
       <c r="I392" s="11" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="J392" t="s">
         <v>531</v>
@@ -16267,7 +16319,7 @@
         <v>1377</v>
       </c>
       <c r="I393" s="11" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="J393" t="s">
         <v>531</v>
@@ -16293,7 +16345,7 @@
         <v>1378</v>
       </c>
       <c r="I394" s="11" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="J394" t="s">
         <v>531</v>
@@ -16319,7 +16371,7 @@
         <v>1379</v>
       </c>
       <c r="I395" s="11" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="J395" t="s">
         <v>531</v>
@@ -16345,7 +16397,7 @@
         <v>1380</v>
       </c>
       <c r="I396" s="11" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="J396" t="s">
         <v>531</v>
@@ -16371,7 +16423,7 @@
         <v>1381</v>
       </c>
       <c r="I397" s="11" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="J397" t="s">
         <v>531</v>
@@ -16397,7 +16449,7 @@
         <v>1382</v>
       </c>
       <c r="I398" s="11" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="J398" t="s">
         <v>531</v>
@@ -16423,7 +16475,7 @@
         <v>1383</v>
       </c>
       <c r="I399" s="11" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="J399" t="s">
         <v>531</v>
@@ -16449,7 +16501,7 @@
         <v>1384</v>
       </c>
       <c r="I400" s="11" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="J400" t="s">
         <v>531</v>
@@ -16475,7 +16527,7 @@
         <v>1385</v>
       </c>
       <c r="I401" s="11" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="J401" t="s">
         <v>531</v>
@@ -16501,7 +16553,7 @@
         <v>1386</v>
       </c>
       <c r="I402" s="11" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="J402" t="s">
         <v>531</v>
@@ -16527,7 +16579,7 @@
         <v>1387</v>
       </c>
       <c r="I403" s="11" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="J403" t="s">
         <v>531</v>
@@ -16553,7 +16605,7 @@
         <v>1388</v>
       </c>
       <c r="I404" s="11" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="J404" t="s">
         <v>531</v>
@@ -16579,7 +16631,7 @@
         <v>1389</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="J405" t="s">
         <v>531</v>
@@ -16605,7 +16657,7 @@
         <v>1390</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="J406" t="s">
         <v>531</v>
@@ -16631,7 +16683,7 @@
         <v>1391</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J407" t="s">
         <v>531</v>
@@ -16657,7 +16709,7 @@
         <v>1392</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J408" t="s">
         <v>531</v>
@@ -16683,7 +16735,7 @@
         <v>1393</v>
       </c>
       <c r="I409" s="11" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="J409" t="s">
         <v>531</v>
@@ -16709,7 +16761,7 @@
         <v>1394</v>
       </c>
       <c r="I410" s="11" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="J410" t="s">
         <v>531</v>
@@ -16735,7 +16787,7 @@
         <v>1395</v>
       </c>
       <c r="I411" s="11" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="J411" t="s">
         <v>531</v>
@@ -16761,7 +16813,7 @@
         <v>1396</v>
       </c>
       <c r="I412" s="11" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="J412" t="s">
         <v>531</v>
@@ -16787,7 +16839,7 @@
         <v>1397</v>
       </c>
       <c r="I413" s="11" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="J413" t="s">
         <v>531</v>
@@ -16813,7 +16865,7 @@
         <v>1398</v>
       </c>
       <c r="I414" s="11" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="J414" t="s">
         <v>531</v>
@@ -16839,7 +16891,7 @@
         <v>1399</v>
       </c>
       <c r="I415" s="11" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="J415" t="s">
         <v>531</v>
@@ -16891,7 +16943,7 @@
         <v>1401</v>
       </c>
       <c r="I417" s="11" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J417" t="s">
         <v>531</v>
@@ -16917,7 +16969,7 @@
         <v>1223</v>
       </c>
       <c r="I418" s="11" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="J418" t="s">
         <v>531</v>
@@ -16943,7 +16995,7 @@
         <v>1402</v>
       </c>
       <c r="I419" s="11" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="J419" t="s">
         <v>531</v>
@@ -16969,7 +17021,7 @@
         <v>1403</v>
       </c>
       <c r="I420" s="11" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="J420" t="s">
         <v>531</v>
@@ -16995,7 +17047,7 @@
         <v>1264</v>
       </c>
       <c r="I421" s="11" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="J421" t="s">
         <v>531</v>
@@ -17021,7 +17073,7 @@
         <v>1404</v>
       </c>
       <c r="I422" s="11" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="J422" t="s">
         <v>531</v>
@@ -17047,7 +17099,7 @@
         <v>1405</v>
       </c>
       <c r="I423" s="11" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="J423" t="s">
         <v>531</v>
@@ -17073,7 +17125,7 @@
         <v>1406</v>
       </c>
       <c r="I424" s="11" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="J424" t="s">
         <v>531</v>
@@ -17099,7 +17151,7 @@
         <v>1407</v>
       </c>
       <c r="I425" s="11" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="J425" t="s">
         <v>531</v>
@@ -17125,7 +17177,7 @@
         <v>1408</v>
       </c>
       <c r="I426" s="11" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="J426" t="s">
         <v>531</v>
@@ -17151,7 +17203,7 @@
         <v>1409</v>
       </c>
       <c r="I427" s="11" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="J427" t="s">
         <v>531</v>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1888">
   <si>
     <t>item</t>
   </si>
@@ -4638,12 +4638,6 @@
     <t>meow</t>
   </si>
   <si>
-    <t>Need we say</t>
-  </si>
-  <si>
-    <t>tough-tough</t>
-  </si>
-  <si>
     <t>duck</t>
   </si>
   <si>
@@ -5289,9 +5283,6 @@
     <t>thank you</t>
   </si>
   <si>
-    <t>por favor</t>
-  </si>
-  <si>
     <t>hold it</t>
   </si>
   <si>
@@ -5310,9 +5301,6 @@
     <t>shove</t>
   </si>
   <si>
-    <t>making love</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -5677,6 +5665,24 @@
   </si>
   <si>
     <t>baa baa</t>
+  </si>
+  <si>
+    <t>moo</t>
+  </si>
+  <si>
+    <t>cockadoodledoo</t>
+  </si>
+  <si>
+    <t>ouch</t>
+  </si>
+  <si>
+    <t>choo choo</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
 </sst>
 </file>
@@ -5749,8 +5755,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5818,7 +5828,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5840,6 +5850,8 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5861,6 +5873,8 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6192,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="I296" sqref="I296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6959,7 +6973,7 @@
         <v>1023</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>1536</v>
+        <v>1884</v>
       </c>
       <c r="J33" t="s">
         <v>528</v>
@@ -6985,7 +6999,7 @@
         <v>1024</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="J34" t="s">
         <v>528</v>
@@ -7011,7 +7025,7 @@
         <v>1025</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="J35" t="s">
         <v>528</v>
@@ -7037,7 +7051,7 @@
         <v>1026</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="J36" t="s">
         <v>528</v>
@@ -7089,7 +7103,7 @@
         <v>1028</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>1028</v>
+        <v>1883</v>
       </c>
       <c r="J38" t="s">
         <v>528</v>
@@ -7141,7 +7155,7 @@
         <v>1030</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>1539</v>
+        <v>1882</v>
       </c>
       <c r="J40" t="s">
         <v>528</v>
@@ -7167,7 +7181,7 @@
         <v>1031</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="J41" t="s">
         <v>528</v>
@@ -7193,7 +7207,7 @@
         <v>1032</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>1540</v>
+        <v>1885</v>
       </c>
       <c r="J42" t="s">
         <v>528</v>
@@ -7219,7 +7233,7 @@
         <v>1033</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="J43" t="s">
         <v>528</v>
@@ -7245,7 +7259,7 @@
         <v>1034</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="J44" t="s">
         <v>529</v>
@@ -7271,7 +7285,7 @@
         <v>1035</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="J45" t="s">
         <v>529</v>
@@ -7297,7 +7311,7 @@
         <v>1036</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="J46" t="s">
         <v>529</v>
@@ -7323,7 +7337,7 @@
         <v>1037</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="J47" t="s">
         <v>529</v>
@@ -7375,7 +7389,7 @@
         <v>1039</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="J49" t="s">
         <v>529</v>
@@ -7401,7 +7415,7 @@
         <v>1040</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="J50" t="s">
         <v>529</v>
@@ -7427,7 +7441,7 @@
         <v>1041</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="J51" t="s">
         <v>529</v>
@@ -7453,7 +7467,7 @@
         <v>1042</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="J52" t="s">
         <v>529</v>
@@ -7505,7 +7519,7 @@
         <v>1044</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="J54" t="s">
         <v>529</v>
@@ -7531,7 +7545,7 @@
         <v>1045</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="J55" t="s">
         <v>529</v>
@@ -7557,7 +7571,7 @@
         <v>1046</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="J56" t="s">
         <v>529</v>
@@ -7583,7 +7597,7 @@
         <v>1047</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="J57" t="s">
         <v>529</v>
@@ -7609,7 +7623,7 @@
         <v>1048</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="J58" t="s">
         <v>529</v>
@@ -7635,7 +7649,7 @@
         <v>1049</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="J59" t="s">
         <v>529</v>
@@ -7661,7 +7675,7 @@
         <v>1050</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="J60" t="s">
         <v>529</v>
@@ -7687,7 +7701,7 @@
         <v>1051</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="J61" t="s">
         <v>529</v>
@@ -7713,7 +7727,7 @@
         <v>1052</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="J62" t="s">
         <v>529</v>
@@ -7739,7 +7753,7 @@
         <v>1053</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="J63" t="s">
         <v>529</v>
@@ -7765,7 +7779,7 @@
         <v>1054</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="J64" t="s">
         <v>529</v>
@@ -7791,7 +7805,7 @@
         <v>1055</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="J65" t="s">
         <v>529</v>
@@ -7817,7 +7831,7 @@
         <v>1056</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="J66" t="s">
         <v>529</v>
@@ -7843,7 +7857,7 @@
         <v>1057</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="J67" t="s">
         <v>529</v>
@@ -7869,7 +7883,7 @@
         <v>1058</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="J68" t="s">
         <v>529</v>
@@ -7895,7 +7909,7 @@
         <v>1059</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="J69" t="s">
         <v>529</v>
@@ -7921,7 +7935,7 @@
         <v>1060</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="J70" t="s">
         <v>529</v>
@@ -7947,7 +7961,7 @@
         <v>1061</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="J71" t="s">
         <v>529</v>
@@ -7999,7 +8013,7 @@
         <v>1063</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="J73" t="s">
         <v>529</v>
@@ -8025,7 +8039,7 @@
         <v>1064</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="J74" t="s">
         <v>529</v>
@@ -8051,7 +8065,7 @@
         <v>1065</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="J75" t="s">
         <v>529</v>
@@ -8103,7 +8117,7 @@
         <v>1067</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="J77" t="s">
         <v>529</v>
@@ -8129,7 +8143,7 @@
         <v>1068</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="J78" t="s">
         <v>529</v>
@@ -8155,7 +8169,7 @@
         <v>1069</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="J79" t="s">
         <v>529</v>
@@ -8181,7 +8195,7 @@
         <v>1070</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="J80" t="s">
         <v>529</v>
@@ -8207,7 +8221,7 @@
         <v>1071</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="J81" t="s">
         <v>529</v>
@@ -8233,7 +8247,7 @@
         <v>1072</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="J82" t="s">
         <v>529</v>
@@ -8259,7 +8273,7 @@
         <v>1073</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="J83" t="s">
         <v>529</v>
@@ -8285,7 +8299,7 @@
         <v>1074</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="J84" t="s">
         <v>529</v>
@@ -8311,7 +8325,7 @@
         <v>1075</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="J85" t="s">
         <v>529</v>
@@ -8337,7 +8351,7 @@
         <v>1076</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="J86" t="s">
         <v>529</v>
@@ -8363,7 +8377,7 @@
         <v>1077</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="J87" t="s">
         <v>529</v>
@@ -8389,7 +8403,7 @@
         <v>1078</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="J88" t="s">
         <v>529</v>
@@ -8415,7 +8429,7 @@
         <v>1079</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="J89" t="s">
         <v>529</v>
@@ -8441,7 +8455,7 @@
         <v>1080</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="J90" t="s">
         <v>529</v>
@@ -8467,7 +8481,7 @@
         <v>1081</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="J91" t="s">
         <v>529</v>
@@ -8493,7 +8507,7 @@
         <v>1082</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="J92" t="s">
         <v>529</v>
@@ -8519,7 +8533,7 @@
         <v>1083</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="J93" t="s">
         <v>529</v>
@@ -8545,7 +8559,7 @@
         <v>1084</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J94" t="s">
         <v>529</v>
@@ -8571,7 +8585,7 @@
         <v>1085</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="J95" t="s">
         <v>529</v>
@@ -8597,7 +8611,7 @@
         <v>1086</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -8623,7 +8637,7 @@
         <v>1087</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J97" t="s">
         <v>529</v>
@@ -8649,7 +8663,7 @@
         <v>1088</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="J98" t="s">
         <v>529</v>
@@ -8675,7 +8689,7 @@
         <v>1089</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="J99" t="s">
         <v>529</v>
@@ -8701,7 +8715,7 @@
         <v>1090</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="J100" t="s">
         <v>529</v>
@@ -8753,7 +8767,7 @@
         <v>1092</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="J102" t="s">
         <v>529</v>
@@ -8779,7 +8793,7 @@
         <v>1093</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="J103" t="s">
         <v>529</v>
@@ -8805,7 +8819,7 @@
         <v>1094</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="J104" t="s">
         <v>529</v>
@@ -8831,7 +8845,7 @@
         <v>1042</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="J105" t="s">
         <v>529</v>
@@ -8857,7 +8871,7 @@
         <v>1095</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="J106" t="s">
         <v>529</v>
@@ -8883,7 +8897,7 @@
         <v>1096</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="J107" t="s">
         <v>529</v>
@@ -8909,7 +8923,7 @@
         <v>1097</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="J108" t="s">
         <v>529</v>
@@ -8961,7 +8975,7 @@
         <v>1099</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="J110" t="s">
         <v>529</v>
@@ -8987,7 +9001,7 @@
         <v>1100</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="J111" t="s">
         <v>529</v>
@@ -9013,7 +9027,7 @@
         <v>1101</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="J112" t="s">
         <v>529</v>
@@ -9039,7 +9053,7 @@
         <v>1102</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="J113" t="s">
         <v>529</v>
@@ -9065,7 +9079,7 @@
         <v>1054</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="J114" t="s">
         <v>529</v>
@@ -9091,7 +9105,7 @@
         <v>1103</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="J115" t="s">
         <v>529</v>
@@ -9117,7 +9131,7 @@
         <v>1104</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="J116" t="s">
         <v>529</v>
@@ -9143,7 +9157,7 @@
         <v>1105</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="J117" t="s">
         <v>529</v>
@@ -9221,7 +9235,7 @@
         <v>1108</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="J120" t="s">
         <v>529</v>
@@ -9247,7 +9261,7 @@
         <v>1109</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="J121" t="s">
         <v>529</v>
@@ -9273,7 +9287,7 @@
         <v>1110</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="J122" t="s">
         <v>529</v>
@@ -9299,7 +9313,7 @@
         <v>1111</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="J123" t="s">
         <v>529</v>
@@ -9325,7 +9339,7 @@
         <v>1112</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J124" t="s">
         <v>529</v>
@@ -9351,7 +9365,7 @@
         <v>1113</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="J125" t="s">
         <v>529</v>
@@ -9377,7 +9391,7 @@
         <v>1114</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="J126" t="s">
         <v>529</v>
@@ -9403,7 +9417,7 @@
         <v>1115</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="J127" t="s">
         <v>529</v>
@@ -9429,7 +9443,7 @@
         <v>1116</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="J128" t="s">
         <v>529</v>
@@ -9455,7 +9469,7 @@
         <v>1117</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="J129" t="s">
         <v>529</v>
@@ -9481,7 +9495,7 @@
         <v>1118</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="J130" t="s">
         <v>529</v>
@@ -9507,7 +9521,7 @@
         <v>1119</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="J131" t="s">
         <v>529</v>
@@ -9533,7 +9547,7 @@
         <v>1120</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="J132" t="s">
         <v>529</v>
@@ -9559,7 +9573,7 @@
         <v>1121</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="J133" t="s">
         <v>529</v>
@@ -9585,7 +9599,7 @@
         <v>1122</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="J134" t="s">
         <v>529</v>
@@ -9611,7 +9625,7 @@
         <v>1123</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="J135" t="s">
         <v>529</v>
@@ -9663,7 +9677,7 @@
         <v>1125</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="J137" t="s">
         <v>529</v>
@@ -9689,7 +9703,7 @@
         <v>1126</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="J138" t="s">
         <v>529</v>
@@ -9715,7 +9729,7 @@
         <v>1127</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="J139" t="s">
         <v>529</v>
@@ -9741,7 +9755,7 @@
         <v>1128</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="J140" t="s">
         <v>529</v>
@@ -9767,7 +9781,7 @@
         <v>1129</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="J141" t="s">
         <v>529</v>
@@ -9793,7 +9807,7 @@
         <v>1130</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="J142" t="s">
         <v>529</v>
@@ -9819,7 +9833,7 @@
         <v>1131</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="J143" t="s">
         <v>529</v>
@@ -9845,7 +9859,7 @@
         <v>1132</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="J144" t="s">
         <v>529</v>
@@ -9871,7 +9885,7 @@
         <v>1133</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="J145" t="s">
         <v>529</v>
@@ -9923,7 +9937,7 @@
         <v>1135</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="J147" t="s">
         <v>529</v>
@@ -9975,7 +9989,7 @@
         <v>1137</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="J149" t="s">
         <v>529</v>
@@ -10001,7 +10015,7 @@
         <v>1138</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="J150" t="s">
         <v>529</v>
@@ -10027,7 +10041,7 @@
         <v>1139</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="J151" t="s">
         <v>529</v>
@@ -10053,7 +10067,7 @@
         <v>1140</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="J152" t="s">
         <v>529</v>
@@ -10079,7 +10093,7 @@
         <v>1141</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="J153" t="s">
         <v>529</v>
@@ -10105,7 +10119,7 @@
         <v>1142</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="J154" t="s">
         <v>529</v>
@@ -10131,7 +10145,7 @@
         <v>1143</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="J155" t="s">
         <v>529</v>
@@ -10157,7 +10171,7 @@
         <v>1144</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="J156" t="s">
         <v>529</v>
@@ -10183,7 +10197,7 @@
         <v>1145</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="J157" t="s">
         <v>529</v>
@@ -10209,7 +10223,7 @@
         <v>1146</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="J158" t="s">
         <v>529</v>
@@ -10235,7 +10249,7 @@
         <v>1147</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="J159" t="s">
         <v>529</v>
@@ -10261,7 +10275,7 @@
         <v>1148</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="J160" t="s">
         <v>529</v>
@@ -10287,7 +10301,7 @@
         <v>1149</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="J161" t="s">
         <v>529</v>
@@ -10313,7 +10327,7 @@
         <v>1150</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="J162" t="s">
         <v>529</v>
@@ -10365,7 +10379,7 @@
         <v>1152</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="J164" t="s">
         <v>529</v>
@@ -10391,7 +10405,7 @@
         <v>1153</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="J165" t="s">
         <v>529</v>
@@ -10417,7 +10431,7 @@
         <v>1154</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="J166" t="s">
         <v>529</v>
@@ -10443,7 +10457,7 @@
         <v>1155</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="J167" t="s">
         <v>529</v>
@@ -10469,7 +10483,7 @@
         <v>1156</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="J168" t="s">
         <v>529</v>
@@ -10495,7 +10509,7 @@
         <v>1157</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="J169" t="s">
         <v>529</v>
@@ -10521,7 +10535,7 @@
         <v>1158</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="J170" t="s">
         <v>529</v>
@@ -10547,7 +10561,7 @@
         <v>1159</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="J171" t="s">
         <v>529</v>
@@ -10625,7 +10639,7 @@
         <v>1162</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="J174" t="s">
         <v>529</v>
@@ -10651,7 +10665,7 @@
         <v>1163</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="J175" t="s">
         <v>529</v>
@@ -10677,7 +10691,7 @@
         <v>1164</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="J176" t="s">
         <v>529</v>
@@ -10703,7 +10717,7 @@
         <v>1165</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="J177" t="s">
         <v>529</v>
@@ -10729,7 +10743,7 @@
         <v>1166</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="J178" t="s">
         <v>529</v>
@@ -10755,7 +10769,7 @@
         <v>1167</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="J179" t="s">
         <v>529</v>
@@ -10781,7 +10795,7 @@
         <v>1168</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="J180" t="s">
         <v>529</v>
@@ -10807,7 +10821,7 @@
         <v>1169</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="J181" t="s">
         <v>529</v>
@@ -10833,7 +10847,7 @@
         <v>1170</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="J182" t="s">
         <v>529</v>
@@ -10859,7 +10873,7 @@
         <v>1171</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="J183" t="s">
         <v>529</v>
@@ -10885,7 +10899,7 @@
         <v>1172</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="J184" t="s">
         <v>529</v>
@@ -10911,7 +10925,7 @@
         <v>1173</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="J185" t="s">
         <v>529</v>
@@ -10937,7 +10951,7 @@
         <v>1174</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="J186" t="s">
         <v>529</v>
@@ -10963,7 +10977,7 @@
         <v>1175</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="J187" t="s">
         <v>529</v>
@@ -10989,7 +11003,7 @@
         <v>1176</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="J188" t="s">
         <v>529</v>
@@ -11041,7 +11055,7 @@
         <v>1178</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="J190" t="s">
         <v>529</v>
@@ -11067,7 +11081,7 @@
         <v>1179</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="J191" t="s">
         <v>529</v>
@@ -11093,7 +11107,7 @@
         <v>1180</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="J192" t="s">
         <v>529</v>
@@ -11119,7 +11133,7 @@
         <v>1181</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="J193" t="s">
         <v>529</v>
@@ -11145,7 +11159,7 @@
         <v>1182</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="J194" t="s">
         <v>529</v>
@@ -11171,7 +11185,7 @@
         <v>1183</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="J195" t="s">
         <v>529</v>
@@ -11197,7 +11211,7 @@
         <v>1184</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="J196" t="s">
         <v>529</v>
@@ -11223,7 +11237,7 @@
         <v>1185</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="J197" t="s">
         <v>529</v>
@@ -11249,7 +11263,7 @@
         <v>1186</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="J198" t="s">
         <v>529</v>
@@ -11275,7 +11289,7 @@
         <v>1187</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="J199" t="s">
         <v>529</v>
@@ -11301,7 +11315,7 @@
         <v>1188</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="J200" t="s">
         <v>529</v>
@@ -11327,7 +11341,7 @@
         <v>1189</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="J201" t="s">
         <v>529</v>
@@ -11353,7 +11367,7 @@
         <v>1190</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="J202" t="s">
         <v>529</v>
@@ -11379,7 +11393,7 @@
         <v>1191</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="J203" t="s">
         <v>529</v>
@@ -11405,7 +11419,7 @@
         <v>1192</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="J204" t="s">
         <v>529</v>
@@ -11431,7 +11445,7 @@
         <v>1193</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="J205" t="s">
         <v>529</v>
@@ -11457,7 +11471,7 @@
         <v>1194</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="J206" t="s">
         <v>529</v>
@@ -11483,7 +11497,7 @@
         <v>1195</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="J207" t="s">
         <v>529</v>
@@ -11509,7 +11523,7 @@
         <v>1196</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="J208" t="s">
         <v>529</v>
@@ -11535,7 +11549,7 @@
         <v>1197</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="J209" t="s">
         <v>529</v>
@@ -11561,7 +11575,7 @@
         <v>1198</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="J210" t="s">
         <v>529</v>
@@ -11587,7 +11601,7 @@
         <v>1199</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="J211" t="s">
         <v>529</v>
@@ -11613,7 +11627,7 @@
         <v>1200</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="J212" t="s">
         <v>529</v>
@@ -11639,7 +11653,7 @@
         <v>1201</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="J213" t="s">
         <v>529</v>
@@ -11665,7 +11679,7 @@
         <v>1202</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="J214" t="s">
         <v>529</v>
@@ -11717,7 +11731,7 @@
         <v>1204</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="J216" t="s">
         <v>529</v>
@@ -11743,7 +11757,7 @@
         <v>1205</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="J217" t="s">
         <v>529</v>
@@ -11769,7 +11783,7 @@
         <v>1206</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="J218" t="s">
         <v>529</v>
@@ -11795,7 +11809,7 @@
         <v>1207</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="J219" t="s">
         <v>529</v>
@@ -11821,7 +11835,7 @@
         <v>1208</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="J220" t="s">
         <v>529</v>
@@ -11847,7 +11861,7 @@
         <v>1209</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="J221" t="s">
         <v>529</v>
@@ -11873,7 +11887,7 @@
         <v>1210</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="J222" t="s">
         <v>529</v>
@@ -11899,7 +11913,7 @@
         <v>1211</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="J223" t="s">
         <v>529</v>
@@ -11925,7 +11939,7 @@
         <v>1212</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="J224" t="s">
         <v>529</v>
@@ -11951,7 +11965,7 @@
         <v>1213</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="J225" t="s">
         <v>529</v>
@@ -11977,7 +11991,7 @@
         <v>1214</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="J226" t="s">
         <v>529</v>
@@ -12003,7 +12017,7 @@
         <v>1215</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="J227" t="s">
         <v>529</v>
@@ -12029,7 +12043,7 @@
         <v>1216</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="J228" t="s">
         <v>529</v>
@@ -12055,7 +12069,7 @@
         <v>1217</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="J229" t="s">
         <v>529</v>
@@ -12081,7 +12095,7 @@
         <v>1218</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="J230" t="s">
         <v>529</v>
@@ -12107,7 +12121,7 @@
         <v>1219</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="J231" t="s">
         <v>529</v>
@@ -12133,7 +12147,7 @@
         <v>1220</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="J232" t="s">
         <v>529</v>
@@ -12159,7 +12173,7 @@
         <v>1221</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="J233" t="s">
         <v>529</v>
@@ -12185,7 +12199,7 @@
         <v>1222</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="J234" t="s">
         <v>529</v>
@@ -12211,7 +12225,7 @@
         <v>1223</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J235" t="s">
         <v>529</v>
@@ -12237,7 +12251,7 @@
         <v>1112</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="J236" t="s">
         <v>529</v>
@@ -12263,7 +12277,7 @@
         <v>1224</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="J237" t="s">
         <v>528</v>
@@ -12289,7 +12303,7 @@
         <v>1225</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="J238" t="s">
         <v>528</v>
@@ -12341,7 +12355,7 @@
         <v>1227</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="J240" t="s">
         <v>528</v>
@@ -12367,7 +12381,7 @@
         <v>1228</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="J241" t="s">
         <v>528</v>
@@ -12393,7 +12407,7 @@
         <v>1229</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="J242" t="s">
         <v>528</v>
@@ -12419,7 +12433,7 @@
         <v>1230</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="J243" t="s">
         <v>528</v>
@@ -12445,7 +12459,7 @@
         <v>1231</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="J244" t="s">
         <v>528</v>
@@ -12497,7 +12511,7 @@
         <v>1233</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="J246" t="s">
         <v>528</v>
@@ -12523,7 +12537,7 @@
         <v>1234</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="J247" t="s">
         <v>528</v>
@@ -12601,7 +12615,7 @@
         <v>1237</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="J250" t="s">
         <v>528</v>
@@ -12627,7 +12641,7 @@
         <v>1238</v>
       </c>
       <c r="I251" s="11" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="J251" t="s">
         <v>528</v>
@@ -12653,7 +12667,7 @@
         <v>1239</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J252" t="s">
         <v>528</v>
@@ -12679,7 +12693,7 @@
         <v>1240</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="J253" t="s">
         <v>528</v>
@@ -12705,7 +12719,7 @@
         <v>1241</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="J254" t="s">
         <v>528</v>
@@ -12731,7 +12745,7 @@
         <v>1242</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="J255" t="s">
         <v>528</v>
@@ -12757,7 +12771,7 @@
         <v>1243</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J256" t="s">
         <v>528</v>
@@ -12783,7 +12797,7 @@
         <v>1244</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="J257" t="s">
         <v>528</v>
@@ -12809,7 +12823,7 @@
         <v>1245</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="J258" t="s">
         <v>528</v>
@@ -12835,7 +12849,7 @@
         <v>1246</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="J259" t="s">
         <v>528</v>
@@ -12861,7 +12875,7 @@
         <v>1247</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="J260" t="s">
         <v>528</v>
@@ -12887,7 +12901,7 @@
         <v>1248</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="J261" t="s">
         <v>528</v>
@@ -12913,7 +12927,7 @@
         <v>1249</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="J262" t="s">
         <v>528</v>
@@ -12939,7 +12953,7 @@
         <v>1250</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="J263" t="s">
         <v>528</v>
@@ -12965,7 +12979,7 @@
         <v>1251</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="J264" t="s">
         <v>528</v>
@@ -12991,7 +13005,7 @@
         <v>1252</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="J265" t="s">
         <v>528</v>
@@ -13017,7 +13031,7 @@
         <v>1253</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="J266" t="s">
         <v>528</v>
@@ -13043,7 +13057,7 @@
         <v>1254</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="J267" t="s">
         <v>528</v>
@@ -13069,7 +13083,7 @@
         <v>1255</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="J268" t="s">
         <v>528</v>
@@ -13095,7 +13109,7 @@
         <v>1256</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="J269" t="s">
         <v>528</v>
@@ -13121,7 +13135,7 @@
         <v>1257</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="J270" t="s">
         <v>528</v>
@@ -13147,7 +13161,7 @@
         <v>1258</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="J271" t="s">
         <v>528</v>
@@ -13173,7 +13187,7 @@
         <v>1259</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="J272" t="s">
         <v>528</v>
@@ -13199,7 +13213,7 @@
         <v>1260</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="J273" t="s">
         <v>528</v>
@@ -13225,7 +13239,7 @@
         <v>1261</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="J274" t="s">
         <v>528</v>
@@ -13251,7 +13265,7 @@
         <v>1262</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="J275" t="s">
         <v>528</v>
@@ -13277,7 +13291,7 @@
         <v>1263</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="J276" t="s">
         <v>528</v>
@@ -13303,7 +13317,7 @@
         <v>1264</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J277" t="s">
         <v>528</v>
@@ -13329,7 +13343,7 @@
         <v>1265</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="J278" t="s">
         <v>528</v>
@@ -13355,7 +13369,7 @@
         <v>1266</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="J279" t="s">
         <v>528</v>
@@ -13381,7 +13395,7 @@
         <v>1267</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="J280" t="s">
         <v>528</v>
@@ -13407,7 +13421,7 @@
         <v>1268</v>
       </c>
       <c r="I281" s="11" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J281" t="s">
         <v>528</v>
@@ -13433,7 +13447,7 @@
         <v>1269</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="J282" t="s">
         <v>528</v>
@@ -13459,7 +13473,7 @@
         <v>1270</v>
       </c>
       <c r="I283" s="11" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="J283" t="s">
         <v>528</v>
@@ -13485,7 +13499,7 @@
         <v>1271</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="J284" t="s">
         <v>528</v>
@@ -13511,7 +13525,7 @@
         <v>1272</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J285" t="s">
         <v>528</v>
@@ -13537,7 +13551,7 @@
         <v>1273</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>1756</v>
+        <v>1886</v>
       </c>
       <c r="J286" t="s">
         <v>528</v>
@@ -13563,7 +13577,7 @@
         <v>1274</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="J287" t="s">
         <v>528</v>
@@ -13589,7 +13603,7 @@
         <v>1275</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="J288" t="s">
         <v>528</v>
@@ -13641,7 +13655,7 @@
         <v>1277</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="J290" t="s">
         <v>530</v>
@@ -13667,7 +13681,7 @@
         <v>1278</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="J291" t="s">
         <v>530</v>
@@ -13693,7 +13707,7 @@
         <v>1279</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="J292" t="s">
         <v>530</v>
@@ -13719,7 +13733,7 @@
         <v>1092</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="J293" t="s">
         <v>530</v>
@@ -13745,7 +13759,7 @@
         <v>1280</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="J294" t="s">
         <v>530</v>
@@ -13771,7 +13785,7 @@
         <v>1281</v>
       </c>
       <c r="I295" s="11" t="s">
-        <v>1763</v>
+        <v>1887</v>
       </c>
       <c r="J295" t="s">
         <v>530</v>
@@ -13797,7 +13811,7 @@
         <v>1282</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="J296" t="s">
         <v>530</v>
@@ -13823,7 +13837,7 @@
         <v>1283</v>
       </c>
       <c r="I297" s="11" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="J297" t="s">
         <v>530</v>
@@ -13849,7 +13863,7 @@
         <v>1284</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="J298" t="s">
         <v>530</v>
@@ -13875,7 +13889,7 @@
         <v>1285</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="J299" t="s">
         <v>530</v>
@@ -13901,7 +13915,7 @@
         <v>1286</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="J300" t="s">
         <v>530</v>
@@ -13927,7 +13941,7 @@
         <v>1287</v>
       </c>
       <c r="I301" s="11" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="J301" t="s">
         <v>530</v>
@@ -13953,7 +13967,7 @@
         <v>1288</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="J302" t="s">
         <v>530</v>
@@ -13979,7 +13993,7 @@
         <v>1289</v>
       </c>
       <c r="I303" s="11" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="J303" t="s">
         <v>530</v>
@@ -14005,7 +14019,7 @@
         <v>1290</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="J304" t="s">
         <v>530</v>
@@ -14031,7 +14045,7 @@
         <v>1291</v>
       </c>
       <c r="I305" s="11" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="J305" t="s">
         <v>530</v>
@@ -14057,7 +14071,7 @@
         <v>1292</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="J306" t="s">
         <v>530</v>
@@ -14083,7 +14097,7 @@
         <v>1213</v>
       </c>
       <c r="I307" s="11" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="J307" t="s">
         <v>530</v>
@@ -14109,7 +14123,7 @@
         <v>1293</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="J308" t="s">
         <v>530</v>
@@ -14135,7 +14149,7 @@
         <v>1294</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="J309" t="s">
         <v>530</v>
@@ -14161,7 +14175,7 @@
         <v>1295</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="J310" t="s">
         <v>530</v>
@@ -14187,7 +14201,7 @@
         <v>1296</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="J311" t="s">
         <v>530</v>
@@ -14213,7 +14227,7 @@
         <v>1297</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="J312" t="s">
         <v>530</v>
@@ -14239,7 +14253,7 @@
         <v>1298</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="J313" t="s">
         <v>530</v>
@@ -14265,7 +14279,7 @@
         <v>1084</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="J314" t="s">
         <v>530</v>
@@ -14291,7 +14305,7 @@
         <v>1299</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="J315" t="s">
         <v>530</v>
@@ -14317,7 +14331,7 @@
         <v>1300</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="J316" t="s">
         <v>530</v>
@@ -14343,7 +14357,7 @@
         <v>1301</v>
       </c>
       <c r="I317" s="11" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="J317" t="s">
         <v>530</v>
@@ -14369,7 +14383,7 @@
         <v>1302</v>
       </c>
       <c r="I318" s="11" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="J318" t="s">
         <v>530</v>
@@ -14395,7 +14409,7 @@
         <v>1303</v>
       </c>
       <c r="I319" s="11" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="J319" t="s">
         <v>530</v>
@@ -14421,7 +14435,7 @@
         <v>1304</v>
       </c>
       <c r="I320" s="11" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="J320" t="s">
         <v>530</v>
@@ -14473,7 +14487,7 @@
         <v>1306</v>
       </c>
       <c r="I322" s="11" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="J322" t="s">
         <v>530</v>
@@ -14499,7 +14513,7 @@
         <v>1307</v>
       </c>
       <c r="I323" s="11" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="J323" t="s">
         <v>530</v>
@@ -14525,7 +14539,7 @@
         <v>1308</v>
       </c>
       <c r="I324" s="11" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="J324" t="s">
         <v>530</v>
@@ -14551,7 +14565,7 @@
         <v>1309</v>
       </c>
       <c r="I325" s="11" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="J325" t="s">
         <v>530</v>
@@ -14577,7 +14591,7 @@
         <v>1310</v>
       </c>
       <c r="I326" s="11" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="J326" t="s">
         <v>530</v>
@@ -14603,7 +14617,7 @@
         <v>1311</v>
       </c>
       <c r="I327" s="11" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="J327" t="s">
         <v>530</v>
@@ -14655,7 +14669,7 @@
         <v>1313</v>
       </c>
       <c r="I329" s="11" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="J329" t="s">
         <v>530</v>
@@ -14681,7 +14695,7 @@
         <v>1314</v>
       </c>
       <c r="I330" s="11" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="J330" t="s">
         <v>530</v>
@@ -14707,7 +14721,7 @@
         <v>1315</v>
       </c>
       <c r="I331" s="11" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="J331" t="s">
         <v>530</v>
@@ -14733,7 +14747,7 @@
         <v>1316</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="J332" t="s">
         <v>530</v>
@@ -14759,7 +14773,7 @@
         <v>1317</v>
       </c>
       <c r="I333" s="11" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="J333" t="s">
         <v>530</v>
@@ -14785,7 +14799,7 @@
         <v>1318</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="J334" t="s">
         <v>530</v>
@@ -14811,7 +14825,7 @@
         <v>1319</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="J335" t="s">
         <v>530</v>
@@ -14837,7 +14851,7 @@
         <v>1320</v>
       </c>
       <c r="I336" s="11" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="J336" t="s">
         <v>530</v>
@@ -14863,7 +14877,7 @@
         <v>1321</v>
       </c>
       <c r="I337" s="11" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="J337" t="s">
         <v>530</v>
@@ -14889,7 +14903,7 @@
         <v>1322</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="J338" t="s">
         <v>530</v>
@@ -14915,7 +14929,7 @@
         <v>1323</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="J339" t="s">
         <v>530</v>
@@ -14941,7 +14955,7 @@
         <v>1324</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="J340" t="s">
         <v>530</v>
@@ -14967,7 +14981,7 @@
         <v>1325</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="J341" t="s">
         <v>530</v>
@@ -14993,7 +15007,7 @@
         <v>1326</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="J342" t="s">
         <v>530</v>
@@ -15019,7 +15033,7 @@
         <v>1327</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="J343" t="s">
         <v>530</v>
@@ -15045,7 +15059,7 @@
         <v>1328</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="J344" t="s">
         <v>530</v>
@@ -15071,7 +15085,7 @@
         <v>1329</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="J345" t="s">
         <v>530</v>
@@ -15097,7 +15111,7 @@
         <v>1330</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="J346" t="s">
         <v>530</v>
@@ -15123,7 +15137,7 @@
         <v>1331</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="J347" t="s">
         <v>530</v>
@@ -15149,7 +15163,7 @@
         <v>1332</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="J348" t="s">
         <v>530</v>
@@ -15175,7 +15189,7 @@
         <v>1333</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="J349" t="s">
         <v>530</v>
@@ -15201,7 +15215,7 @@
         <v>1334</v>
       </c>
       <c r="I350" s="11" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="J350" t="s">
         <v>530</v>
@@ -15227,7 +15241,7 @@
         <v>1335</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="J351" t="s">
         <v>530</v>
@@ -15253,7 +15267,7 @@
         <v>1336</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="J352" t="s">
         <v>530</v>
@@ -15305,7 +15319,7 @@
         <v>1338</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="J354" t="s">
         <v>530</v>
@@ -15331,7 +15345,7 @@
         <v>1339</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="J355" t="s">
         <v>530</v>
@@ -15357,7 +15371,7 @@
         <v>1340</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="J356" t="s">
         <v>530</v>
@@ -15383,7 +15397,7 @@
         <v>1341</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="J357" t="s">
         <v>530</v>
@@ -15409,7 +15423,7 @@
         <v>1342</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="J358" t="s">
         <v>530</v>
@@ -15435,7 +15449,7 @@
         <v>1343</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="J359" t="s">
         <v>530</v>
@@ -15461,7 +15475,7 @@
         <v>1344</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="J360" t="s">
         <v>530</v>
@@ -15487,7 +15501,7 @@
         <v>1345</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="J361" t="s">
         <v>530</v>
@@ -15513,7 +15527,7 @@
         <v>1346</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="J362" t="s">
         <v>530</v>
@@ -15539,7 +15553,7 @@
         <v>1347</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="J363" t="s">
         <v>530</v>
@@ -15565,7 +15579,7 @@
         <v>1348</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="J364" t="s">
         <v>530</v>
@@ -15591,7 +15605,7 @@
         <v>1349</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="J365" t="s">
         <v>530</v>
@@ -15617,7 +15631,7 @@
         <v>1350</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="J366" t="s">
         <v>530</v>
@@ -15643,7 +15657,7 @@
         <v>1351</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="J367" t="s">
         <v>530</v>
@@ -15669,7 +15683,7 @@
         <v>1352</v>
       </c>
       <c r="I368" s="11" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="J368" t="s">
         <v>530</v>
@@ -15695,7 +15709,7 @@
         <v>1353</v>
       </c>
       <c r="I369" s="11" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="J369" t="s">
         <v>530</v>
@@ -15721,7 +15735,7 @@
         <v>1354</v>
       </c>
       <c r="I370" s="11" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="J370" t="s">
         <v>530</v>
@@ -15747,7 +15761,7 @@
         <v>1355</v>
       </c>
       <c r="I371" s="11" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="J371" t="s">
         <v>530</v>
@@ -15773,7 +15787,7 @@
         <v>1356</v>
       </c>
       <c r="I372" s="11" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="J372" t="s">
         <v>530</v>
@@ -15799,7 +15813,7 @@
         <v>1357</v>
       </c>
       <c r="I373" s="11" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="J373" t="s">
         <v>530</v>
@@ -15825,7 +15839,7 @@
         <v>1358</v>
       </c>
       <c r="I374" s="11" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="J374" t="s">
         <v>530</v>
@@ -15851,7 +15865,7 @@
         <v>1359</v>
       </c>
       <c r="I375" s="11" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="J375" t="s">
         <v>530</v>
@@ -15877,7 +15891,7 @@
         <v>1360</v>
       </c>
       <c r="I376" s="11" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="J376" t="s">
         <v>530</v>
@@ -15903,7 +15917,7 @@
         <v>1361</v>
       </c>
       <c r="I377" s="11" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="J377" t="s">
         <v>530</v>
@@ -15929,7 +15943,7 @@
         <v>1362</v>
       </c>
       <c r="I378" s="11" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="J378" t="s">
         <v>528</v>
@@ -15955,7 +15969,7 @@
         <v>1363</v>
       </c>
       <c r="I379" s="11" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="J379" t="s">
         <v>528</v>
@@ -15981,7 +15995,7 @@
         <v>1364</v>
       </c>
       <c r="I380" s="11" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="J380" t="s">
         <v>528</v>
@@ -16007,7 +16021,7 @@
         <v>1365</v>
       </c>
       <c r="I381" s="11" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="J381" t="s">
         <v>528</v>
@@ -16033,7 +16047,7 @@
         <v>1366</v>
       </c>
       <c r="I382" s="11" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="J382" t="s">
         <v>528</v>
@@ -16059,7 +16073,7 @@
         <v>1367</v>
       </c>
       <c r="I383" s="11" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="J383" t="s">
         <v>528</v>
@@ -16085,7 +16099,7 @@
         <v>1368</v>
       </c>
       <c r="I384" s="11" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="J384" t="s">
         <v>528</v>
@@ -16111,7 +16125,7 @@
         <v>1369</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="J385" t="s">
         <v>528</v>
@@ -16137,7 +16151,7 @@
         <v>1370</v>
       </c>
       <c r="I386" s="11" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="J386" t="s">
         <v>531</v>
@@ -16163,7 +16177,7 @@
         <v>1371</v>
       </c>
       <c r="I387" s="11" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="J387" t="s">
         <v>531</v>
@@ -16189,7 +16203,7 @@
         <v>1372</v>
       </c>
       <c r="I388" s="11" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="J388" t="s">
         <v>531</v>
@@ -16215,7 +16229,7 @@
         <v>1373</v>
       </c>
       <c r="I389" s="11" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="J389" t="s">
         <v>531</v>
@@ -16241,7 +16255,7 @@
         <v>1374</v>
       </c>
       <c r="I390" s="11" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="J390" t="s">
         <v>531</v>
@@ -16267,7 +16281,7 @@
         <v>1375</v>
       </c>
       <c r="I391" s="11" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="J391" t="s">
         <v>531</v>
@@ -16293,7 +16307,7 @@
         <v>1376</v>
       </c>
       <c r="I392" s="11" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="J392" t="s">
         <v>531</v>
@@ -16319,7 +16333,7 @@
         <v>1377</v>
       </c>
       <c r="I393" s="11" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="J393" t="s">
         <v>531</v>
@@ -16345,7 +16359,7 @@
         <v>1378</v>
       </c>
       <c r="I394" s="11" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="J394" t="s">
         <v>531</v>
@@ -16371,7 +16385,7 @@
         <v>1379</v>
       </c>
       <c r="I395" s="11" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="J395" t="s">
         <v>531</v>
@@ -16397,7 +16411,7 @@
         <v>1380</v>
       </c>
       <c r="I396" s="11" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="J396" t="s">
         <v>531</v>
@@ -16423,7 +16437,7 @@
         <v>1381</v>
       </c>
       <c r="I397" s="11" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="J397" t="s">
         <v>531</v>
@@ -16449,7 +16463,7 @@
         <v>1382</v>
       </c>
       <c r="I398" s="11" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="J398" t="s">
         <v>531</v>
@@ -16475,7 +16489,7 @@
         <v>1383</v>
       </c>
       <c r="I399" s="11" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="J399" t="s">
         <v>531</v>
@@ -16501,7 +16515,7 @@
         <v>1384</v>
       </c>
       <c r="I400" s="11" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="J400" t="s">
         <v>531</v>
@@ -16527,7 +16541,7 @@
         <v>1385</v>
       </c>
       <c r="I401" s="11" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="J401" t="s">
         <v>531</v>
@@ -16553,7 +16567,7 @@
         <v>1386</v>
       </c>
       <c r="I402" s="11" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="J402" t="s">
         <v>531</v>
@@ -16579,7 +16593,7 @@
         <v>1387</v>
       </c>
       <c r="I403" s="11" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="J403" t="s">
         <v>531</v>
@@ -16605,7 +16619,7 @@
         <v>1388</v>
       </c>
       <c r="I404" s="11" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="J404" t="s">
         <v>531</v>
@@ -16631,7 +16645,7 @@
         <v>1389</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="J405" t="s">
         <v>531</v>
@@ -16657,7 +16671,7 @@
         <v>1390</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="J406" t="s">
         <v>531</v>
@@ -16683,7 +16697,7 @@
         <v>1391</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="J407" t="s">
         <v>531</v>
@@ -16709,7 +16723,7 @@
         <v>1392</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="J408" t="s">
         <v>531</v>
@@ -16735,7 +16749,7 @@
         <v>1393</v>
       </c>
       <c r="I409" s="11" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="J409" t="s">
         <v>531</v>
@@ -16761,7 +16775,7 @@
         <v>1394</v>
       </c>
       <c r="I410" s="11" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="J410" t="s">
         <v>531</v>
@@ -16787,7 +16801,7 @@
         <v>1395</v>
       </c>
       <c r="I411" s="11" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="J411" t="s">
         <v>531</v>
@@ -16813,7 +16827,7 @@
         <v>1396</v>
       </c>
       <c r="I412" s="11" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="J412" t="s">
         <v>531</v>
@@ -16839,7 +16853,7 @@
         <v>1397</v>
       </c>
       <c r="I413" s="11" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="J413" t="s">
         <v>531</v>
@@ -16865,7 +16879,7 @@
         <v>1398</v>
       </c>
       <c r="I414" s="11" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="J414" t="s">
         <v>531</v>
@@ -16891,7 +16905,7 @@
         <v>1399</v>
       </c>
       <c r="I415" s="11" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="J415" t="s">
         <v>531</v>
@@ -16943,7 +16957,7 @@
         <v>1401</v>
       </c>
       <c r="I417" s="11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J417" t="s">
         <v>531</v>
@@ -16969,7 +16983,7 @@
         <v>1223</v>
       </c>
       <c r="I418" s="11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="J418" t="s">
         <v>531</v>
@@ -16995,7 +17009,7 @@
         <v>1402</v>
       </c>
       <c r="I419" s="11" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="J419" t="s">
         <v>531</v>
@@ -17021,7 +17035,7 @@
         <v>1403</v>
       </c>
       <c r="I420" s="11" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="J420" t="s">
         <v>531</v>
@@ -17047,7 +17061,7 @@
         <v>1264</v>
       </c>
       <c r="I421" s="11" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J421" t="s">
         <v>531</v>
@@ -17073,7 +17087,7 @@
         <v>1404</v>
       </c>
       <c r="I422" s="11" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="J422" t="s">
         <v>531</v>
@@ -17099,7 +17113,7 @@
         <v>1405</v>
       </c>
       <c r="I423" s="11" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="J423" t="s">
         <v>531</v>
@@ -17125,7 +17139,7 @@
         <v>1406</v>
       </c>
       <c r="I424" s="11" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="J424" t="s">
         <v>531</v>
@@ -17151,7 +17165,7 @@
         <v>1407</v>
       </c>
       <c r="I425" s="11" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="J425" t="s">
         <v>531</v>
@@ -17177,7 +17191,7 @@
         <v>1408</v>
       </c>
       <c r="I426" s="11" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="J426" t="s">
         <v>531</v>
@@ -17203,7 +17217,7 @@
         <v>1409</v>
       </c>
       <c r="I427" s="11" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="J427" t="s">
         <v>531</v>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4156" uniqueCount="1960">
   <si>
     <t>item</t>
   </si>
@@ -4641,24 +4641,9 @@
     <t>duck</t>
   </si>
   <si>
-    <t>(Earthworms) mark</t>
-  </si>
-  <si>
-    <t>monkey (cat)</t>
-  </si>
-  <si>
-    <t>Bears</t>
-  </si>
-  <si>
-    <t>Squirrel</t>
-  </si>
-  <si>
     <t>elephant</t>
   </si>
   <si>
-    <t>moose</t>
-  </si>
-  <si>
     <t>fish</t>
   </si>
   <si>
@@ -4686,9 +4671,6 @@
     <t>cat</t>
   </si>
   <si>
-    <t>kitten</t>
-  </si>
-  <si>
     <t>cow</t>
   </si>
   <si>
@@ -4698,9 +4680,6 @@
     <t>lamb</t>
   </si>
   <si>
-    <t>(Play) teddy bear</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -4713,9 +4692,6 @@
     <t>reindeer</t>
   </si>
   <si>
-    <t>reef</t>
-  </si>
-  <si>
     <t>giraffe</t>
   </si>
   <si>
@@ -4761,18 +4737,12 @@
     <t>train</t>
   </si>
   <si>
-    <t>prom</t>
-  </si>
-  <si>
     <t>balloon</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>bricks</t>
-  </si>
-  <si>
     <t>baby doll</t>
   </si>
   <si>
@@ -4812,18 +4782,12 @@
     <t>carrot</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cookies</t>
-  </si>
-  <si>
     <t>meat</t>
   </si>
   <si>
@@ -4836,24 +4800,15 @@
     <t>cheese</t>
   </si>
   <si>
-    <t>raisins</t>
-  </si>
-  <si>
     <t>butter</t>
   </si>
   <si>
     <t>spaghetti</t>
   </si>
   <si>
-    <t>Confectionery</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>Diaper</t>
-  </si>
-  <si>
     <t>pants</t>
   </si>
   <si>
@@ -4995,9 +4950,6 @@
     <t>cup</t>
   </si>
   <si>
-    <t>costly</t>
-  </si>
-  <si>
     <t>lamp</t>
   </si>
   <si>
@@ -5031,9 +4983,6 @@
     <t>soap</t>
   </si>
   <si>
-    <t>Cheers</t>
-  </si>
-  <si>
     <t>spoon</t>
   </si>
   <si>
@@ -5049,9 +4998,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>blanket</t>
   </si>
   <si>
@@ -5067,9 +5013,6 @@
     <t>table</t>
   </si>
   <si>
-    <t>dies</t>
-  </si>
-  <si>
     <t>garage</t>
   </si>
   <si>
@@ -5085,21 +5028,12 @@
     <t>stove</t>
   </si>
   <si>
-    <t>playpen</t>
-  </si>
-  <si>
     <t>oven</t>
   </si>
   <si>
-    <t>Potty</t>
-  </si>
-  <si>
     <t>bed</t>
   </si>
   <si>
-    <t>Tray</t>
-  </si>
-  <si>
     <t>bedroom</t>
   </si>
   <si>
@@ -5109,12 +5043,6 @@
     <t>living room</t>
   </si>
   <si>
-    <t>staircase</t>
-  </si>
-  <si>
-    <t>Television</t>
-  </si>
-  <si>
     <t>wash</t>
   </si>
   <si>
@@ -5124,12 +5052,6 @@
     <t>flower</t>
   </si>
   <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
     <t>moon</t>
   </si>
   <si>
@@ -5151,12 +5073,6 @@
     <t>stone</t>
   </si>
   <si>
-    <t>stars</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
@@ -5187,12 +5103,6 @@
     <t>beach</t>
   </si>
   <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>child's name</t>
-  </si>
-  <si>
     <t>grandfather</t>
   </si>
   <si>
@@ -5211,39 +5121,12 @@
     <t>girl</t>
   </si>
   <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>human being</t>
-  </si>
-  <si>
-    <t>Granny</t>
-  </si>
-  <si>
-    <t>great grandfather</t>
-  </si>
-  <si>
-    <t>great grandmother</t>
-  </si>
-  <si>
-    <t>Uncle</t>
-  </si>
-  <si>
-    <t>Dad</t>
-  </si>
-  <si>
     <t>sister</t>
   </si>
   <si>
     <t>Aunt</t>
   </si>
   <si>
-    <t>bathing</t>
-  </si>
-  <si>
     <t>breakfast</t>
   </si>
   <si>
@@ -5256,15 +5139,9 @@
     <t>hush</t>
   </si>
   <si>
-    <t>do not</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>pat cake</t>
-  </si>
-  <si>
     <t>Gone! (Play where face hidden and suddenly appears)</t>
   </si>
   <si>
@@ -5283,9 +5160,6 @@
     <t>thank you</t>
   </si>
   <si>
-    <t>hold it</t>
-  </si>
-  <si>
     <t>want to</t>
   </si>
   <si>
@@ -5295,12 +5169,6 @@
     <t>dance</t>
   </si>
   <si>
-    <t>drag</t>
-  </si>
-  <si>
-    <t>shove</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -5316,15 +5184,9 @@
     <t>give</t>
   </si>
   <si>
-    <t>should finish</t>
-  </si>
-  <si>
     <t>cry</t>
   </si>
   <si>
-    <t>fetch</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -5337,15 +5199,6 @@
     <t>throw</t>
   </si>
   <si>
-    <t>wedge</t>
-  </si>
-  <si>
-    <t>driving</t>
-  </si>
-  <si>
-    <t>clamp</t>
-  </si>
-  <si>
     <t>kiss</t>
   </si>
   <si>
@@ -5364,15 +5217,9 @@
     <t>feed</t>
   </si>
   <si>
-    <t>tear up</t>
-  </si>
-  <si>
     <t>splash</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>see</t>
   </si>
   <si>
@@ -5385,15 +5232,9 @@
     <t>write</t>
   </si>
   <si>
-    <t>switch</t>
-  </si>
-  <si>
     <t>sleep</t>
   </si>
   <si>
-    <t>Kick</t>
-  </si>
-  <si>
     <t>eat</t>
   </si>
   <si>
@@ -5409,21 +5250,12 @@
     <t>take</t>
   </si>
   <si>
-    <t>put on</t>
-  </si>
-  <si>
     <t>draw</t>
   </si>
   <si>
-    <t>drought</t>
-  </si>
-  <si>
     <t>view</t>
   </si>
   <si>
-    <t>open up</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
@@ -5433,12 +5265,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>careful</t>
   </si>
   <si>
@@ -5454,54 +5280,30 @@
     <t>happy</t>
   </si>
   <si>
-    <t>straightforward</t>
-  </si>
-  <si>
     <t>cold</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
     <t>soft</t>
   </si>
   <si>
-    <t>destroyed</t>
-  </si>
-  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>afraid</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
     <t>red</t>
   </si>
   <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>discretion</t>
-  </si>
-  <si>
     <t>naughty</t>
   </si>
   <si>
     <t>tired</t>
   </si>
   <si>
-    <t>soot</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>hungry</t>
   </si>
   <si>
@@ -5526,15 +5328,9 @@
     <t>wet</t>
   </si>
   <si>
-    <t>ache</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
     <t>tonight</t>
   </si>
   <si>
@@ -5544,15 +5340,9 @@
     <t>morning</t>
   </si>
   <si>
-    <t>by now</t>
-  </si>
-  <si>
     <t>night</t>
   </si>
   <si>
-    <t>later on</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -5592,48 +5382,21 @@
     <t>where</t>
   </si>
   <si>
-    <t>how to</t>
-  </si>
-  <si>
     <t>how come</t>
   </si>
   <si>
-    <t>what time</t>
-  </si>
-  <si>
-    <t>of the</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>there</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>Occasionally</t>
-  </si>
-  <si>
     <t>down</t>
   </si>
   <si>
     <t>up</t>
   </si>
   <si>
-    <t>on the</t>
-  </si>
-  <si>
-    <t>all of them</t>
-  </si>
-  <si>
-    <t>another one</t>
-  </si>
-  <si>
-    <t>no one</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
@@ -5643,9 +5406,6 @@
     <t>something</t>
   </si>
   <si>
-    <t>a few</t>
-  </si>
-  <si>
     <t>same</t>
   </si>
   <si>
@@ -5683,6 +5443,462 @@
   </si>
   <si>
     <t>love</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>fish (animal)</t>
+  </si>
+  <si>
+    <t>chicken (animal)</t>
+  </si>
+  <si>
+    <t>teddybear</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>puppy</t>
+  </si>
+  <si>
+    <t>firetruck</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bubbles</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>orange (food)</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cheerios</t>
+  </si>
+  <si>
+    <t>drink (beverage)</t>
+  </si>
+  <si>
+    <t>fish (food)</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>cracker</t>
+  </si>
+  <si>
+    <t>chicken (food)</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>water (beverage)</t>
+  </si>
+  <si>
+    <t>diaper</t>
+  </si>
+  <si>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>tummy</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>penis</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>vacuum</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>high chair</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>play pen</t>
+  </si>
+  <si>
+    <t>potty</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>swing</t>
+  </si>
+  <si>
+    <t>swing (object)</t>
+  </si>
+  <si>
+    <t>slide (object)</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>water (not beverage)</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>work (place)</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>child's own name</t>
+  </si>
+  <si>
+    <t>grandpa</t>
+  </si>
+  <si>
+    <t>grandma</t>
+  </si>
+  <si>
+    <t>grandpa (paternal)</t>
+  </si>
+  <si>
+    <t>grandma (paternal)</t>
+  </si>
+  <si>
+    <t>mommy</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>granndpa (maternal)</t>
+  </si>
+  <si>
+    <t>grandma (maternal)</t>
+  </si>
+  <si>
+    <t>great grandpa</t>
+  </si>
+  <si>
+    <t>great grandma</t>
+  </si>
+  <si>
+    <t>uncle</t>
+  </si>
+  <si>
+    <t>daddy</t>
+  </si>
+  <si>
+    <t>aunt</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>night night</t>
+  </si>
+  <si>
+    <t>shh</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>pattycake</t>
+  </si>
+  <si>
+    <t>peekaboo</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>watch (action)</t>
+  </si>
+  <si>
+    <t>tickle</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>clean (action)</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>kick</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>all gone</t>
+  </si>
+  <si>
+    <t>yucky</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>dry (description)</t>
+  </si>
+  <si>
+    <t>clean (description)</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>down (stairs)</t>
+  </si>
+  <si>
+    <t>up (stairs)</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>drink (action)</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>dry (action)</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>kitty</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>swing (action)</t>
+  </si>
+  <si>
+    <t>cookie</t>
   </si>
 </sst>
 </file>
@@ -5755,7 +5971,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5803,8 +6019,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5827,8 +6155,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5852,6 +6183,62 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5875,6 +6262,62 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6206,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="I296" sqref="I296"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6216,6 +6659,7 @@
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="9" width="21.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6969,11 +7413,14 @@
       <c r="E33" t="s">
         <v>1506</v>
       </c>
+      <c r="G33" s="11" t="s">
+        <v>1804</v>
+      </c>
       <c r="H33" s="11" t="s">
         <v>1023</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>1884</v>
+        <v>1804</v>
       </c>
       <c r="J33" t="s">
         <v>528</v>
@@ -6995,11 +7442,14 @@
       <c r="E34" t="s">
         <v>1506</v>
       </c>
+      <c r="G34" s="11" t="s">
+        <v>1801</v>
+      </c>
       <c r="H34" s="11" t="s">
         <v>1024</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>1881</v>
+        <v>1801</v>
       </c>
       <c r="J34" t="s">
         <v>528</v>
@@ -7021,11 +7471,14 @@
       <c r="E35" t="s">
         <v>1506</v>
       </c>
+      <c r="G35" s="11" t="s">
+        <v>1797</v>
+      </c>
       <c r="H35" s="11" t="s">
         <v>1025</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>1877</v>
+        <v>1797</v>
       </c>
       <c r="J35" t="s">
         <v>528</v>
@@ -7047,11 +7500,14 @@
       <c r="E36" t="s">
         <v>1506</v>
       </c>
+      <c r="G36" s="11" t="s">
+        <v>1796</v>
+      </c>
       <c r="H36" s="11" t="s">
         <v>1026</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>1876</v>
+        <v>1796</v>
       </c>
       <c r="J36" t="s">
         <v>528</v>
@@ -7073,6 +7529,9 @@
       <c r="E37" t="s">
         <v>1506</v>
       </c>
+      <c r="G37" s="11" t="s">
+        <v>1537</v>
+      </c>
       <c r="H37" s="11" t="s">
         <v>1027</v>
       </c>
@@ -7099,11 +7558,14 @@
       <c r="E38" t="s">
         <v>1506</v>
       </c>
+      <c r="G38" s="11" t="s">
+        <v>1803</v>
+      </c>
       <c r="H38" s="11" t="s">
         <v>1028</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>1883</v>
+        <v>1803</v>
       </c>
       <c r="J38" t="s">
         <v>528</v>
@@ -7125,6 +7587,9 @@
       <c r="E39" t="s">
         <v>1506</v>
       </c>
+      <c r="G39" s="11" t="s">
+        <v>1538</v>
+      </c>
       <c r="H39" s="11" t="s">
         <v>1029</v>
       </c>
@@ -7151,11 +7616,14 @@
       <c r="E40" t="s">
         <v>1506</v>
       </c>
+      <c r="G40" s="11" t="s">
+        <v>1802</v>
+      </c>
       <c r="H40" s="11" t="s">
         <v>1030</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>1882</v>
+        <v>1802</v>
       </c>
       <c r="J40" t="s">
         <v>528</v>
@@ -7177,11 +7645,14 @@
       <c r="E41" t="s">
         <v>1506</v>
       </c>
+      <c r="G41" s="11" t="s">
+        <v>1799</v>
+      </c>
       <c r="H41" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>1879</v>
+        <v>1799</v>
       </c>
       <c r="J41" t="s">
         <v>528</v>
@@ -7203,11 +7674,14 @@
       <c r="E42" t="s">
         <v>1506</v>
       </c>
+      <c r="G42" s="11" t="s">
+        <v>1805</v>
+      </c>
       <c r="H42" s="11" t="s">
         <v>1032</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>1885</v>
+        <v>1805</v>
       </c>
       <c r="J42" t="s">
         <v>528</v>
@@ -7229,11 +7703,14 @@
       <c r="E43" t="s">
         <v>1506</v>
       </c>
+      <c r="G43" s="11" t="s">
+        <v>1798</v>
+      </c>
       <c r="H43" s="11" t="s">
         <v>1033</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>1878</v>
+        <v>1798</v>
       </c>
       <c r="J43" t="s">
         <v>528</v>
@@ -7255,6 +7732,9 @@
       <c r="E44" t="s">
         <v>1506</v>
       </c>
+      <c r="G44" s="11" t="s">
+        <v>1539</v>
+      </c>
       <c r="H44" s="11" t="s">
         <v>1034</v>
       </c>
@@ -7281,11 +7761,14 @@
       <c r="E45" t="s">
         <v>1506</v>
       </c>
+      <c r="G45" s="11" t="s">
+        <v>1808</v>
+      </c>
       <c r="H45" s="11" t="s">
         <v>1035</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>1540</v>
+        <v>1808</v>
       </c>
       <c r="J45" t="s">
         <v>529</v>
@@ -7307,11 +7790,14 @@
       <c r="E46" t="s">
         <v>1506</v>
       </c>
+      <c r="G46" s="11" t="s">
+        <v>1809</v>
+      </c>
       <c r="H46" s="11" t="s">
         <v>1036</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>1541</v>
+        <v>1809</v>
       </c>
       <c r="J46" t="s">
         <v>529</v>
@@ -7333,11 +7819,14 @@
       <c r="E47" t="s">
         <v>1506</v>
       </c>
+      <c r="G47" s="11" t="s">
+        <v>1810</v>
+      </c>
       <c r="H47" s="11" t="s">
         <v>1037</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>1542</v>
+        <v>1810</v>
       </c>
       <c r="J47" t="s">
         <v>529</v>
@@ -7359,11 +7848,14 @@
       <c r="E48" t="s">
         <v>1506</v>
       </c>
+      <c r="G48" s="11" t="s">
+        <v>1811</v>
+      </c>
       <c r="H48" s="11" t="s">
         <v>1038</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>509</v>
+        <v>1811</v>
       </c>
       <c r="J48" t="s">
         <v>529</v>
@@ -7385,11 +7877,14 @@
       <c r="E49" t="s">
         <v>1506</v>
       </c>
+      <c r="G49" s="11" t="s">
+        <v>1812</v>
+      </c>
       <c r="H49" s="11" t="s">
         <v>1039</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>1543</v>
+        <v>1812</v>
       </c>
       <c r="J49" t="s">
         <v>529</v>
@@ -7411,11 +7906,14 @@
       <c r="E50" t="s">
         <v>1506</v>
       </c>
+      <c r="G50" s="11" t="s">
+        <v>1540</v>
+      </c>
       <c r="H50" s="11" t="s">
         <v>1040</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="J50" t="s">
         <v>529</v>
@@ -7437,11 +7935,14 @@
       <c r="E51" t="s">
         <v>1506</v>
       </c>
+      <c r="G51" s="11" t="s">
+        <v>1955</v>
+      </c>
       <c r="H51" s="11" t="s">
         <v>1041</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>1545</v>
+        <v>1955</v>
       </c>
       <c r="J51" t="s">
         <v>529</v>
@@ -7463,11 +7964,14 @@
       <c r="E52" t="s">
         <v>1506</v>
       </c>
+      <c r="G52" s="11" t="s">
+        <v>1813</v>
+      </c>
       <c r="H52" s="11" t="s">
         <v>1042</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="J52" t="s">
         <v>529</v>
@@ -7489,6 +7993,9 @@
       <c r="E53" t="s">
         <v>1506</v>
       </c>
+      <c r="G53" s="11" t="s">
+        <v>1074</v>
+      </c>
       <c r="H53" s="11" t="s">
         <v>1043</v>
       </c>
@@ -7515,11 +8022,14 @@
       <c r="E54" t="s">
         <v>1506</v>
       </c>
+      <c r="G54" s="11" t="s">
+        <v>1542</v>
+      </c>
       <c r="H54" s="11" t="s">
         <v>1044</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="J54" t="s">
         <v>529</v>
@@ -7541,11 +8051,14 @@
       <c r="E55" t="s">
         <v>1506</v>
       </c>
+      <c r="G55" s="11" t="s">
+        <v>1543</v>
+      </c>
       <c r="H55" s="11" t="s">
         <v>1045</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="J55" t="s">
         <v>529</v>
@@ -7567,11 +8080,14 @@
       <c r="E56" t="s">
         <v>1506</v>
       </c>
+      <c r="G56" s="11" t="s">
+        <v>1544</v>
+      </c>
       <c r="H56" s="11" t="s">
         <v>1046</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="J56" t="s">
         <v>529</v>
@@ -7593,11 +8109,14 @@
       <c r="E57" t="s">
         <v>1506</v>
       </c>
+      <c r="G57" s="11" t="s">
+        <v>1545</v>
+      </c>
       <c r="H57" s="11" t="s">
         <v>1047</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="J57" t="s">
         <v>529</v>
@@ -7619,11 +8138,14 @@
       <c r="E58" t="s">
         <v>1506</v>
       </c>
+      <c r="G58" s="11" t="s">
+        <v>1546</v>
+      </c>
       <c r="H58" s="11" t="s">
         <v>1048</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="J58" t="s">
         <v>529</v>
@@ -7645,11 +8167,14 @@
       <c r="E59" t="s">
         <v>1506</v>
       </c>
+      <c r="G59" s="11" t="s">
+        <v>1547</v>
+      </c>
       <c r="H59" s="11" t="s">
         <v>1049</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="J59" t="s">
         <v>529</v>
@@ -7671,11 +8196,14 @@
       <c r="E60" t="s">
         <v>1506</v>
       </c>
+      <c r="G60" s="11" t="s">
+        <v>1946</v>
+      </c>
       <c r="H60" s="11" t="s">
         <v>1050</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="J60" t="s">
         <v>529</v>
@@ -7697,11 +8225,14 @@
       <c r="E61" t="s">
         <v>1506</v>
       </c>
+      <c r="G61" s="11" t="s">
+        <v>1549</v>
+      </c>
       <c r="H61" s="11" t="s">
         <v>1051</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="J61" t="s">
         <v>529</v>
@@ -7723,11 +8254,14 @@
       <c r="E62" t="s">
         <v>1506</v>
       </c>
+      <c r="G62" s="11" t="s">
+        <v>1952</v>
+      </c>
       <c r="H62" s="11" t="s">
         <v>1052</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>1555</v>
+        <v>1952</v>
       </c>
       <c r="J62" t="s">
         <v>529</v>
@@ -7749,11 +8283,14 @@
       <c r="E63" t="s">
         <v>1506</v>
       </c>
+      <c r="G63" s="11" t="s">
+        <v>1550</v>
+      </c>
       <c r="H63" s="11" t="s">
         <v>1053</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="J63" t="s">
         <v>529</v>
@@ -7775,11 +8312,14 @@
       <c r="E64" t="s">
         <v>1506</v>
       </c>
+      <c r="G64" s="11" t="s">
+        <v>1814</v>
+      </c>
       <c r="H64" s="11" t="s">
         <v>1054</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="J64" t="s">
         <v>529</v>
@@ -7801,11 +8341,14 @@
       <c r="E65" t="s">
         <v>1506</v>
       </c>
+      <c r="G65" s="11" t="s">
+        <v>1552</v>
+      </c>
       <c r="H65" s="11" t="s">
         <v>1055</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="J65" t="s">
         <v>529</v>
@@ -7827,11 +8370,14 @@
       <c r="E66" t="s">
         <v>1506</v>
       </c>
+      <c r="G66" s="11" t="s">
+        <v>1815</v>
+      </c>
       <c r="H66" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>1559</v>
+        <v>1815</v>
       </c>
       <c r="J66" t="s">
         <v>529</v>
@@ -7853,11 +8399,14 @@
       <c r="E67" t="s">
         <v>1506</v>
       </c>
+      <c r="G67" s="11" t="s">
+        <v>1553</v>
+      </c>
       <c r="H67" s="11" t="s">
         <v>1057</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="J67" t="s">
         <v>529</v>
@@ -7879,11 +8428,14 @@
       <c r="E68" t="s">
         <v>1506</v>
       </c>
+      <c r="G68" s="11" t="s">
+        <v>1554</v>
+      </c>
       <c r="H68" s="11" t="s">
         <v>1058</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="J68" t="s">
         <v>529</v>
@@ -7905,11 +8457,14 @@
       <c r="E69" t="s">
         <v>1506</v>
       </c>
+      <c r="G69" s="11" t="s">
+        <v>1816</v>
+      </c>
       <c r="H69" s="11" t="s">
         <v>1059</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="J69" t="s">
         <v>529</v>
@@ -7931,11 +8486,14 @@
       <c r="E70" t="s">
         <v>1506</v>
       </c>
+      <c r="G70" s="11" t="s">
+        <v>1949</v>
+      </c>
       <c r="H70" s="11" t="s">
         <v>1060</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="J70" t="s">
         <v>529</v>
@@ -7957,11 +8515,14 @@
       <c r="E71" t="s">
         <v>1506</v>
       </c>
+      <c r="G71" s="11" t="s">
+        <v>1817</v>
+      </c>
       <c r="H71" s="11" t="s">
         <v>1061</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>1564</v>
+        <v>1817</v>
       </c>
       <c r="J71" t="s">
         <v>529</v>
@@ -7983,6 +8544,9 @@
       <c r="E72" t="s">
         <v>1506</v>
       </c>
+      <c r="G72" s="11" t="s">
+        <v>1536</v>
+      </c>
       <c r="H72" s="11" t="s">
         <v>1062</v>
       </c>
@@ -8009,11 +8573,14 @@
       <c r="E73" t="s">
         <v>1506</v>
       </c>
+      <c r="G73" s="11" t="s">
+        <v>1557</v>
+      </c>
       <c r="H73" s="11" t="s">
         <v>1063</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="J73" t="s">
         <v>529</v>
@@ -8035,11 +8602,14 @@
       <c r="E74" t="s">
         <v>1506</v>
       </c>
+      <c r="G74" s="11" t="s">
+        <v>1818</v>
+      </c>
       <c r="H74" s="11" t="s">
         <v>1064</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
       <c r="J74" t="s">
         <v>529</v>
@@ -8061,11 +8631,14 @@
       <c r="E75" t="s">
         <v>1506</v>
       </c>
+      <c r="G75" s="11" t="s">
+        <v>1559</v>
+      </c>
       <c r="H75" s="11" t="s">
         <v>1065</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="J75" t="s">
         <v>529</v>
@@ -8087,6 +8660,9 @@
       <c r="E76" t="s">
         <v>1506</v>
       </c>
+      <c r="G76" s="11" t="s">
+        <v>1066</v>
+      </c>
       <c r="H76" s="11" t="s">
         <v>1066</v>
       </c>
@@ -8113,11 +8689,14 @@
       <c r="E77" t="s">
         <v>1506</v>
       </c>
+      <c r="G77" s="11" t="s">
+        <v>1560</v>
+      </c>
       <c r="H77" s="11" t="s">
         <v>1067</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="J77" t="s">
         <v>529</v>
@@ -8139,11 +8718,14 @@
       <c r="E78" t="s">
         <v>1506</v>
       </c>
+      <c r="G78" s="11" t="s">
+        <v>1819</v>
+      </c>
       <c r="H78" s="11" t="s">
         <v>1068</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="J78" t="s">
         <v>529</v>
@@ -8165,11 +8747,14 @@
       <c r="E79" t="s">
         <v>1506</v>
       </c>
+      <c r="G79" s="11" t="s">
+        <v>1944</v>
+      </c>
       <c r="H79" s="11" t="s">
         <v>1069</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="J79" t="s">
         <v>529</v>
@@ -8191,11 +8776,14 @@
       <c r="E80" t="s">
         <v>1506</v>
       </c>
+      <c r="G80" s="11" t="s">
+        <v>1563</v>
+      </c>
       <c r="H80" s="11" t="s">
         <v>1070</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="J80" t="s">
         <v>529</v>
@@ -8217,11 +8805,14 @@
       <c r="E81" t="s">
         <v>1506</v>
       </c>
+      <c r="G81" s="11" t="s">
+        <v>1564</v>
+      </c>
       <c r="H81" s="11" t="s">
         <v>1071</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="J81" t="s">
         <v>529</v>
@@ -8243,11 +8834,14 @@
       <c r="E82" t="s">
         <v>1506</v>
       </c>
+      <c r="G82" s="11" t="s">
+        <v>1820</v>
+      </c>
       <c r="H82" s="11" t="s">
         <v>1072</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="J82" t="s">
         <v>529</v>
@@ -8269,11 +8863,14 @@
       <c r="E83" t="s">
         <v>1506</v>
       </c>
+      <c r="G83" s="11" t="s">
+        <v>1821</v>
+      </c>
       <c r="H83" s="11" t="s">
         <v>1073</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="J83" t="s">
         <v>529</v>
@@ -8295,11 +8892,14 @@
       <c r="E84" t="s">
         <v>1506</v>
       </c>
+      <c r="G84" s="11" t="s">
+        <v>1822</v>
+      </c>
       <c r="H84" s="11" t="s">
         <v>1074</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="J84" t="s">
         <v>529</v>
@@ -8321,11 +8921,14 @@
       <c r="E85" t="s">
         <v>1506</v>
       </c>
+      <c r="G85" s="11" t="s">
+        <v>1568</v>
+      </c>
       <c r="H85" s="11" t="s">
         <v>1075</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="J85" t="s">
         <v>529</v>
@@ -8347,11 +8950,14 @@
       <c r="E86" t="s">
         <v>1506</v>
       </c>
+      <c r="G86" s="11" t="s">
+        <v>1569</v>
+      </c>
       <c r="H86" s="11" t="s">
         <v>1076</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="J86" t="s">
         <v>529</v>
@@ -8373,11 +8979,14 @@
       <c r="E87" t="s">
         <v>1506</v>
       </c>
+      <c r="G87" s="11" t="s">
+        <v>1570</v>
+      </c>
       <c r="H87" s="11" t="s">
         <v>1077</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="J87" t="s">
         <v>529</v>
@@ -8399,11 +9008,14 @@
       <c r="E88" t="s">
         <v>1506</v>
       </c>
+      <c r="G88" s="11" t="s">
+        <v>1571</v>
+      </c>
       <c r="H88" s="11" t="s">
         <v>1078</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="J88" t="s">
         <v>529</v>
@@ -8425,11 +9037,14 @@
       <c r="E89" t="s">
         <v>1506</v>
       </c>
+      <c r="G89" s="11" t="s">
+        <v>1079</v>
+      </c>
       <c r="H89" s="11" t="s">
         <v>1079</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>1580</v>
+        <v>1079</v>
       </c>
       <c r="J89" t="s">
         <v>529</v>
@@ -8451,11 +9066,14 @@
       <c r="E90" t="s">
         <v>1506</v>
       </c>
+      <c r="G90" s="11" t="s">
+        <v>1572</v>
+      </c>
       <c r="H90" s="11" t="s">
         <v>1080</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="J90" t="s">
         <v>529</v>
@@ -8477,11 +9095,14 @@
       <c r="E91" t="s">
         <v>1506</v>
       </c>
+      <c r="G91" s="11" t="s">
+        <v>1573</v>
+      </c>
       <c r="H91" s="11" t="s">
         <v>1081</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="J91" t="s">
         <v>529</v>
@@ -8503,11 +9124,14 @@
       <c r="E92" t="s">
         <v>1506</v>
       </c>
+      <c r="G92" s="11" t="s">
+        <v>1826</v>
+      </c>
       <c r="H92" s="11" t="s">
         <v>1082</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>1583</v>
+        <v>1826</v>
       </c>
       <c r="J92" t="s">
         <v>529</v>
@@ -8529,11 +9153,14 @@
       <c r="E93" t="s">
         <v>1506</v>
       </c>
+      <c r="G93" s="11" t="s">
+        <v>1823</v>
+      </c>
       <c r="H93" s="11" t="s">
         <v>1083</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="J93" t="s">
         <v>529</v>
@@ -8555,11 +9182,14 @@
       <c r="E94" t="s">
         <v>1506</v>
       </c>
+      <c r="G94" s="11" t="s">
+        <v>1824</v>
+      </c>
       <c r="H94" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>1585</v>
+        <v>1824</v>
       </c>
       <c r="J94" t="s">
         <v>529</v>
@@ -8581,11 +9211,14 @@
       <c r="E95" t="s">
         <v>1506</v>
       </c>
+      <c r="G95" s="11" t="s">
+        <v>1343</v>
+      </c>
       <c r="H95" s="11" t="s">
         <v>1085</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="J95" t="s">
         <v>529</v>
@@ -8607,11 +9240,14 @@
       <c r="E96" t="s">
         <v>1506</v>
       </c>
+      <c r="G96" t="s">
+        <v>1825</v>
+      </c>
       <c r="H96" s="11" t="s">
         <v>1086</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -8633,11 +9269,14 @@
       <c r="E97" t="s">
         <v>1506</v>
       </c>
+      <c r="G97" t="s">
+        <v>1827</v>
+      </c>
       <c r="H97" s="11" t="s">
         <v>1087</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="J97" t="s">
         <v>529</v>
@@ -8659,11 +9298,14 @@
       <c r="E98" t="s">
         <v>1506</v>
       </c>
+      <c r="G98" t="s">
+        <v>1579</v>
+      </c>
       <c r="H98" s="11" t="s">
         <v>1088</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="J98" t="s">
         <v>529</v>
@@ -8685,11 +9327,14 @@
       <c r="E99" t="s">
         <v>1506</v>
       </c>
+      <c r="G99" t="s">
+        <v>1959</v>
+      </c>
       <c r="H99" s="11" t="s">
         <v>1089</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="J99" t="s">
         <v>529</v>
@@ -8711,11 +9356,14 @@
       <c r="E100" t="s">
         <v>1506</v>
       </c>
+      <c r="G100" t="s">
+        <v>1828</v>
+      </c>
       <c r="H100" s="11" t="s">
         <v>1090</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="J100" t="s">
         <v>529</v>
@@ -8737,6 +9385,9 @@
       <c r="E101" t="s">
         <v>1506</v>
       </c>
+      <c r="G101" t="s">
+        <v>1829</v>
+      </c>
       <c r="H101" s="11" t="s">
         <v>1091</v>
       </c>
@@ -8763,11 +9414,14 @@
       <c r="E102" t="s">
         <v>1506</v>
       </c>
+      <c r="G102" t="s">
+        <v>1830</v>
+      </c>
       <c r="H102" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="J102" t="s">
         <v>529</v>
@@ -8789,11 +9443,14 @@
       <c r="E103" t="s">
         <v>1506</v>
       </c>
+      <c r="G103" t="s">
+        <v>1093</v>
+      </c>
       <c r="H103" s="11" t="s">
         <v>1093</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="J103" t="s">
         <v>529</v>
@@ -8815,11 +9472,14 @@
       <c r="E104" t="s">
         <v>1506</v>
       </c>
+      <c r="G104" t="s">
+        <v>1584</v>
+      </c>
       <c r="H104" s="11" t="s">
         <v>1094</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="J104" t="s">
         <v>529</v>
@@ -8841,11 +9501,14 @@
       <c r="E105" t="s">
         <v>1506</v>
       </c>
+      <c r="G105" t="s">
+        <v>1831</v>
+      </c>
       <c r="H105" s="11" t="s">
         <v>1042</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="J105" t="s">
         <v>529</v>
@@ -8867,11 +9530,14 @@
       <c r="E106" t="s">
         <v>1506</v>
       </c>
+      <c r="G106" t="s">
+        <v>1585</v>
+      </c>
       <c r="H106" s="11" t="s">
         <v>1095</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="J106" t="s">
         <v>529</v>
@@ -8893,11 +9559,14 @@
       <c r="E107" t="s">
         <v>1506</v>
       </c>
+      <c r="G107" t="s">
+        <v>1947</v>
+      </c>
       <c r="H107" s="11" t="s">
         <v>1096</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="J107" t="s">
         <v>529</v>
@@ -8919,11 +9588,14 @@
       <c r="E108" t="s">
         <v>1506</v>
       </c>
+      <c r="G108" t="s">
+        <v>1832</v>
+      </c>
       <c r="H108" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="I108" s="11" t="s">
-        <v>1597</v>
+      <c r="I108" t="s">
+        <v>1832</v>
       </c>
       <c r="J108" t="s">
         <v>529</v>
@@ -8945,6 +9617,9 @@
       <c r="E109" t="s">
         <v>1506</v>
       </c>
+      <c r="G109" t="s">
+        <v>1098</v>
+      </c>
       <c r="H109" s="11" t="s">
         <v>1098</v>
       </c>
@@ -8971,11 +9646,14 @@
       <c r="E110" t="s">
         <v>1506</v>
       </c>
+      <c r="G110" t="s">
+        <v>1587</v>
+      </c>
       <c r="H110" s="11" t="s">
         <v>1099</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="J110" t="s">
         <v>529</v>
@@ -8997,11 +9675,14 @@
       <c r="E111" t="s">
         <v>1506</v>
       </c>
+      <c r="G111" t="s">
+        <v>1588</v>
+      </c>
       <c r="H111" s="11" t="s">
         <v>1100</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="J111" t="s">
         <v>529</v>
@@ -9023,11 +9704,14 @@
       <c r="E112" t="s">
         <v>1506</v>
       </c>
+      <c r="G112" t="s">
+        <v>1833</v>
+      </c>
       <c r="H112" s="11" t="s">
         <v>1101</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>1600</v>
+        <v>1833</v>
       </c>
       <c r="J112" t="s">
         <v>529</v>
@@ -9049,11 +9733,14 @@
       <c r="E113" t="s">
         <v>1506</v>
       </c>
+      <c r="G113" t="s">
+        <v>1589</v>
+      </c>
       <c r="H113" s="11" t="s">
         <v>1102</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="J113" t="s">
         <v>529</v>
@@ -9075,11 +9762,14 @@
       <c r="E114" t="s">
         <v>1506</v>
       </c>
+      <c r="G114" t="s">
+        <v>1834</v>
+      </c>
       <c r="H114" s="11" t="s">
         <v>1054</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="J114" t="s">
         <v>529</v>
@@ -9101,11 +9791,14 @@
       <c r="E115" t="s">
         <v>1506</v>
       </c>
+      <c r="G115" t="s">
+        <v>1590</v>
+      </c>
       <c r="H115" s="11" t="s">
         <v>1103</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="J115" t="s">
         <v>529</v>
@@ -9127,11 +9820,14 @@
       <c r="E116" t="s">
         <v>1506</v>
       </c>
+      <c r="G116" t="s">
+        <v>1591</v>
+      </c>
       <c r="H116" s="11" t="s">
         <v>1104</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="J116" t="s">
         <v>529</v>
@@ -9153,11 +9849,14 @@
       <c r="E117" t="s">
         <v>1506</v>
       </c>
+      <c r="G117" t="s">
+        <v>1592</v>
+      </c>
       <c r="H117" s="11" t="s">
         <v>1105</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="J117" t="s">
         <v>529</v>
@@ -9179,6 +9878,9 @@
       <c r="E118" t="s">
         <v>1506</v>
       </c>
+      <c r="G118" s="12" t="s">
+        <v>1956</v>
+      </c>
       <c r="H118" s="11" t="s">
         <v>1106</v>
       </c>
@@ -9205,6 +9907,9 @@
       <c r="E119" t="s">
         <v>1506</v>
       </c>
+      <c r="G119" t="s">
+        <v>1107</v>
+      </c>
       <c r="H119" s="11" t="s">
         <v>1107</v>
       </c>
@@ -9231,11 +9936,14 @@
       <c r="E120" t="s">
         <v>1506</v>
       </c>
+      <c r="G120" t="s">
+        <v>1835</v>
+      </c>
       <c r="H120" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="I120" s="11" t="s">
-        <v>1605</v>
+      <c r="I120" t="s">
+        <v>1835</v>
       </c>
       <c r="J120" t="s">
         <v>529</v>
@@ -9257,11 +9965,14 @@
       <c r="E121" t="s">
         <v>1506</v>
       </c>
+      <c r="G121" t="s">
+        <v>1593</v>
+      </c>
       <c r="H121" s="11" t="s">
         <v>1109</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="J121" t="s">
         <v>529</v>
@@ -9283,11 +9994,14 @@
       <c r="E122" t="s">
         <v>1506</v>
       </c>
+      <c r="G122" s="12" t="s">
+        <v>1594</v>
+      </c>
       <c r="H122" s="11" t="s">
         <v>1110</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="J122" t="s">
         <v>529</v>
@@ -9309,11 +10023,14 @@
       <c r="E123" t="s">
         <v>1506</v>
       </c>
+      <c r="G123" t="s">
+        <v>1836</v>
+      </c>
       <c r="H123" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="I123" s="11" t="s">
-        <v>1608</v>
+      <c r="I123" t="s">
+        <v>1836</v>
       </c>
       <c r="J123" t="s">
         <v>529</v>
@@ -9335,11 +10052,14 @@
       <c r="E124" t="s">
         <v>1506</v>
       </c>
+      <c r="G124" t="s">
+        <v>1837</v>
+      </c>
       <c r="H124" s="11" t="s">
         <v>1112</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>1609</v>
+        <v>1595</v>
       </c>
       <c r="J124" t="s">
         <v>529</v>
@@ -9361,11 +10081,14 @@
       <c r="E125" t="s">
         <v>1506</v>
       </c>
+      <c r="G125" t="s">
+        <v>1838</v>
+      </c>
       <c r="H125" s="11" t="s">
         <v>1113</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>1610</v>
+        <v>1838</v>
       </c>
       <c r="J125" t="s">
         <v>529</v>
@@ -9387,11 +10110,14 @@
       <c r="E126" t="s">
         <v>1506</v>
       </c>
+      <c r="G126" s="11" t="s">
+        <v>1596</v>
+      </c>
       <c r="H126" s="11" t="s">
         <v>1114</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="J126" t="s">
         <v>529</v>
@@ -9413,11 +10139,14 @@
       <c r="E127" t="s">
         <v>1506</v>
       </c>
+      <c r="G127" s="11" t="s">
+        <v>1597</v>
+      </c>
       <c r="H127" s="11" t="s">
         <v>1115</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="J127" t="s">
         <v>529</v>
@@ -9439,11 +10168,14 @@
       <c r="E128" t="s">
         <v>1506</v>
       </c>
+      <c r="G128" s="11" t="s">
+        <v>1598</v>
+      </c>
       <c r="H128" s="11" t="s">
         <v>1116</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="J128" t="s">
         <v>529</v>
@@ -9465,11 +10197,14 @@
       <c r="E129" t="s">
         <v>1506</v>
       </c>
+      <c r="G129" s="11" t="s">
+        <v>1839</v>
+      </c>
       <c r="H129" s="11" t="s">
         <v>1117</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="J129" t="s">
         <v>529</v>
@@ -9491,11 +10226,14 @@
       <c r="E130" t="s">
         <v>1506</v>
       </c>
+      <c r="G130" s="11" t="s">
+        <v>1600</v>
+      </c>
       <c r="H130" s="11" t="s">
         <v>1118</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="J130" t="s">
         <v>529</v>
@@ -9517,11 +10255,14 @@
       <c r="E131" t="s">
         <v>1506</v>
       </c>
+      <c r="G131" s="11" t="s">
+        <v>1601</v>
+      </c>
       <c r="H131" s="11" t="s">
         <v>1119</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="J131" t="s">
         <v>529</v>
@@ -9543,11 +10284,14 @@
       <c r="E132" t="s">
         <v>1506</v>
       </c>
+      <c r="G132" s="11" t="s">
+        <v>1602</v>
+      </c>
       <c r="H132" s="11" t="s">
         <v>1120</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="J132" t="s">
         <v>529</v>
@@ -9569,11 +10313,14 @@
       <c r="E133" t="s">
         <v>1506</v>
       </c>
+      <c r="G133" s="11" t="s">
+        <v>1840</v>
+      </c>
       <c r="H133" s="11" t="s">
         <v>1121</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="J133" t="s">
         <v>529</v>
@@ -9595,11 +10342,14 @@
       <c r="E134" t="s">
         <v>1506</v>
       </c>
+      <c r="G134" s="11" t="s">
+        <v>1604</v>
+      </c>
       <c r="H134" s="11" t="s">
         <v>1122</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="J134" t="s">
         <v>529</v>
@@ -9621,11 +10371,14 @@
       <c r="E135" t="s">
         <v>1506</v>
       </c>
+      <c r="G135" s="11" t="s">
+        <v>1957</v>
+      </c>
       <c r="H135" s="11" t="s">
         <v>1123</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="J135" t="s">
         <v>529</v>
@@ -9647,6 +10400,9 @@
       <c r="E136" t="s">
         <v>1506</v>
       </c>
+      <c r="G136" s="11" t="s">
+        <v>1124</v>
+      </c>
       <c r="H136" s="11" t="s">
         <v>1124</v>
       </c>
@@ -9673,11 +10429,14 @@
       <c r="E137" t="s">
         <v>1506</v>
       </c>
+      <c r="G137" s="11" t="s">
+        <v>1606</v>
+      </c>
       <c r="H137" s="11" t="s">
         <v>1125</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="J137" t="s">
         <v>529</v>
@@ -9699,11 +10458,14 @@
       <c r="E138" t="s">
         <v>1506</v>
       </c>
+      <c r="G138" s="11" t="s">
+        <v>1607</v>
+      </c>
       <c r="H138" s="11" t="s">
         <v>1126</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="J138" t="s">
         <v>529</v>
@@ -9725,11 +10487,14 @@
       <c r="E139" t="s">
         <v>1506</v>
       </c>
+      <c r="G139" s="11" t="s">
+        <v>1608</v>
+      </c>
       <c r="H139" s="11" t="s">
         <v>1127</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="J139" t="s">
         <v>529</v>
@@ -9751,11 +10516,14 @@
       <c r="E140" t="s">
         <v>1506</v>
       </c>
+      <c r="G140" s="11" t="s">
+        <v>1841</v>
+      </c>
       <c r="H140" s="11" t="s">
         <v>1128</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="J140" t="s">
         <v>529</v>
@@ -9777,11 +10545,14 @@
       <c r="E141" t="s">
         <v>1506</v>
       </c>
+      <c r="G141" s="11" t="s">
+        <v>1610</v>
+      </c>
       <c r="H141" s="11" t="s">
         <v>1129</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="J141" t="s">
         <v>529</v>
@@ -9803,11 +10574,14 @@
       <c r="E142" t="s">
         <v>1506</v>
       </c>
+      <c r="G142" s="11" t="s">
+        <v>1611</v>
+      </c>
       <c r="H142" s="11" t="s">
         <v>1130</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="J142" t="s">
         <v>529</v>
@@ -9829,11 +10603,14 @@
       <c r="E143" t="s">
         <v>1506</v>
       </c>
+      <c r="G143" s="11" t="s">
+        <v>1842</v>
+      </c>
       <c r="H143" s="11" t="s">
         <v>1131</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="J143" t="s">
         <v>529</v>
@@ -9855,11 +10632,14 @@
       <c r="E144" t="s">
         <v>1506</v>
       </c>
+      <c r="G144" s="11" t="s">
+        <v>1613</v>
+      </c>
       <c r="H144" s="11" t="s">
         <v>1132</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="J144" t="s">
         <v>529</v>
@@ -9881,11 +10661,14 @@
       <c r="E145" t="s">
         <v>1506</v>
       </c>
+      <c r="G145" s="11" t="s">
+        <v>1614</v>
+      </c>
       <c r="H145" s="11" t="s">
         <v>1133</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="J145" t="s">
         <v>529</v>
@@ -9907,6 +10690,9 @@
       <c r="E146" t="s">
         <v>1506</v>
       </c>
+      <c r="G146" s="11" t="s">
+        <v>1134</v>
+      </c>
       <c r="H146" s="11" t="s">
         <v>1134</v>
       </c>
@@ -9933,11 +10719,14 @@
       <c r="E147" t="s">
         <v>1506</v>
       </c>
+      <c r="G147" s="11" t="s">
+        <v>1843</v>
+      </c>
       <c r="H147" s="11" t="s">
         <v>1135</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="J147" t="s">
         <v>529</v>
@@ -9959,6 +10748,9 @@
       <c r="E148" t="s">
         <v>1506</v>
       </c>
+      <c r="G148" s="11" t="s">
+        <v>1136</v>
+      </c>
       <c r="H148" s="11" t="s">
         <v>1136</v>
       </c>
@@ -9985,11 +10777,14 @@
       <c r="E149" t="s">
         <v>1506</v>
       </c>
+      <c r="G149" s="11" t="s">
+        <v>1616</v>
+      </c>
       <c r="H149" s="11" t="s">
         <v>1137</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="J149" t="s">
         <v>529</v>
@@ -10011,11 +10806,14 @@
       <c r="E150" t="s">
         <v>1506</v>
       </c>
+      <c r="G150" s="11" t="s">
+        <v>1617</v>
+      </c>
       <c r="H150" s="11" t="s">
         <v>1138</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="J150" t="s">
         <v>529</v>
@@ -10037,11 +10835,14 @@
       <c r="E151" t="s">
         <v>1506</v>
       </c>
+      <c r="G151" s="11" t="s">
+        <v>1618</v>
+      </c>
       <c r="H151" s="11" t="s">
         <v>1139</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="J151" t="s">
         <v>529</v>
@@ -10063,11 +10864,14 @@
       <c r="E152" t="s">
         <v>1506</v>
       </c>
+      <c r="G152" s="11" t="s">
+        <v>1619</v>
+      </c>
       <c r="H152" s="11" t="s">
         <v>1140</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="J152" t="s">
         <v>529</v>
@@ -10089,11 +10893,14 @@
       <c r="E153" t="s">
         <v>1506</v>
       </c>
+      <c r="G153" s="11" t="s">
+        <v>1620</v>
+      </c>
       <c r="H153" s="11" t="s">
         <v>1141</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="J153" t="s">
         <v>529</v>
@@ -10115,11 +10922,14 @@
       <c r="E154" t="s">
         <v>1506</v>
       </c>
+      <c r="G154" s="11" t="s">
+        <v>1621</v>
+      </c>
       <c r="H154" s="11" t="s">
         <v>1142</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="J154" t="s">
         <v>529</v>
@@ -10141,11 +10951,14 @@
       <c r="E155" t="s">
         <v>1506</v>
       </c>
+      <c r="G155" s="11" t="s">
+        <v>1844</v>
+      </c>
       <c r="H155" s="11" t="s">
         <v>1143</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="J155" t="s">
         <v>529</v>
@@ -10167,11 +10980,14 @@
       <c r="E156" t="s">
         <v>1506</v>
       </c>
+      <c r="G156" s="11" t="s">
+        <v>1623</v>
+      </c>
       <c r="H156" s="11" t="s">
         <v>1144</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="J156" t="s">
         <v>529</v>
@@ -10193,11 +11009,14 @@
       <c r="E157" t="s">
         <v>1506</v>
       </c>
+      <c r="G157" s="11" t="s">
+        <v>1624</v>
+      </c>
       <c r="H157" s="11" t="s">
         <v>1145</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="J157" t="s">
         <v>529</v>
@@ -10219,11 +11038,14 @@
       <c r="E158" t="s">
         <v>1506</v>
       </c>
+      <c r="G158" s="11" t="s">
+        <v>1625</v>
+      </c>
       <c r="H158" s="11" t="s">
         <v>1146</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="J158" t="s">
         <v>529</v>
@@ -10245,11 +11067,14 @@
       <c r="E159" t="s">
         <v>1506</v>
       </c>
+      <c r="G159" s="11" t="s">
+        <v>1626</v>
+      </c>
       <c r="H159" s="11" t="s">
         <v>1147</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="J159" t="s">
         <v>529</v>
@@ -10271,11 +11096,14 @@
       <c r="E160" t="s">
         <v>1506</v>
       </c>
+      <c r="G160" s="11" t="s">
+        <v>1627</v>
+      </c>
       <c r="H160" s="11" t="s">
         <v>1148</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="J160" t="s">
         <v>529</v>
@@ -10297,11 +11125,14 @@
       <c r="E161" t="s">
         <v>1506</v>
       </c>
+      <c r="G161" s="11" t="s">
+        <v>1628</v>
+      </c>
       <c r="H161" s="11" t="s">
         <v>1149</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="J161" t="s">
         <v>529</v>
@@ -10323,11 +11154,14 @@
       <c r="E162" t="s">
         <v>1506</v>
       </c>
+      <c r="G162" s="11" t="s">
+        <v>1845</v>
+      </c>
       <c r="H162" s="11" t="s">
         <v>1150</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="J162" t="s">
         <v>529</v>
@@ -10349,6 +11183,9 @@
       <c r="E163" t="s">
         <v>1506</v>
       </c>
+      <c r="G163" s="11" t="s">
+        <v>1846</v>
+      </c>
       <c r="H163" s="11" t="s">
         <v>1151</v>
       </c>
@@ -10375,11 +11212,14 @@
       <c r="E164" t="s">
         <v>1506</v>
       </c>
+      <c r="G164" s="11" t="s">
+        <v>1630</v>
+      </c>
       <c r="H164" s="11" t="s">
         <v>1152</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="J164" t="s">
         <v>529</v>
@@ -10401,11 +11241,14 @@
       <c r="E165" t="s">
         <v>1506</v>
       </c>
+      <c r="G165" s="11" t="s">
+        <v>1631</v>
+      </c>
       <c r="H165" s="11" t="s">
         <v>1153</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="J165" t="s">
         <v>529</v>
@@ -10427,11 +11270,14 @@
       <c r="E166" t="s">
         <v>1506</v>
       </c>
+      <c r="G166" s="11" t="s">
+        <v>1632</v>
+      </c>
       <c r="H166" s="11" t="s">
         <v>1154</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="J166" t="s">
         <v>529</v>
@@ -10453,11 +11299,14 @@
       <c r="E167" t="s">
         <v>1506</v>
       </c>
+      <c r="G167" s="11" t="s">
+        <v>1633</v>
+      </c>
       <c r="H167" s="11" t="s">
         <v>1155</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="J167" t="s">
         <v>529</v>
@@ -10479,11 +11328,14 @@
       <c r="E168" t="s">
         <v>1506</v>
       </c>
+      <c r="G168" s="11" t="s">
+        <v>1659</v>
+      </c>
       <c r="H168" s="11" t="s">
         <v>1156</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="J168" t="s">
         <v>529</v>
@@ -10505,11 +11357,14 @@
       <c r="E169" t="s">
         <v>1506</v>
       </c>
+      <c r="G169" s="11" t="s">
+        <v>1635</v>
+      </c>
       <c r="H169" s="11" t="s">
         <v>1157</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="J169" t="s">
         <v>529</v>
@@ -10531,11 +11386,14 @@
       <c r="E170" t="s">
         <v>1506</v>
       </c>
+      <c r="G170" s="11" t="s">
+        <v>1636</v>
+      </c>
       <c r="H170" s="11" t="s">
         <v>1158</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="J170" t="s">
         <v>529</v>
@@ -10557,11 +11415,14 @@
       <c r="E171" t="s">
         <v>1506</v>
       </c>
+      <c r="G171" s="11" t="s">
+        <v>1637</v>
+      </c>
       <c r="H171" s="11" t="s">
         <v>1159</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="J171" t="s">
         <v>529</v>
@@ -10583,6 +11444,9 @@
       <c r="E172" t="s">
         <v>1506</v>
       </c>
+      <c r="G172" s="11" t="s">
+        <v>1160</v>
+      </c>
       <c r="H172" s="11" t="s">
         <v>1160</v>
       </c>
@@ -10609,6 +11473,9 @@
       <c r="E173" t="s">
         <v>1506</v>
       </c>
+      <c r="G173" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="H173" s="11" t="s">
         <v>1161</v>
       </c>
@@ -10635,11 +11502,14 @@
       <c r="E174" t="s">
         <v>1506</v>
       </c>
+      <c r="G174" s="11" t="s">
+        <v>1638</v>
+      </c>
       <c r="H174" s="11" t="s">
         <v>1162</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="J174" t="s">
         <v>529</v>
@@ -10661,11 +11531,14 @@
       <c r="E175" t="s">
         <v>1506</v>
       </c>
+      <c r="G175" s="11" t="s">
+        <v>1639</v>
+      </c>
       <c r="H175" s="11" t="s">
         <v>1163</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="J175" t="s">
         <v>529</v>
@@ -10687,11 +11560,14 @@
       <c r="E176" t="s">
         <v>1506</v>
       </c>
+      <c r="G176" s="11" t="s">
+        <v>1640</v>
+      </c>
       <c r="H176" s="11" t="s">
         <v>1164</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="J176" t="s">
         <v>529</v>
@@ -10713,11 +11589,14 @@
       <c r="E177" t="s">
         <v>1506</v>
       </c>
+      <c r="G177" s="11" t="s">
+        <v>1641</v>
+      </c>
       <c r="H177" s="11" t="s">
         <v>1165</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="J177" t="s">
         <v>529</v>
@@ -10739,11 +11618,14 @@
       <c r="E178" t="s">
         <v>1506</v>
       </c>
+      <c r="G178" s="11" t="s">
+        <v>1642</v>
+      </c>
       <c r="H178" s="11" t="s">
         <v>1166</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="J178" t="s">
         <v>529</v>
@@ -10765,11 +11647,14 @@
       <c r="E179" t="s">
         <v>1506</v>
       </c>
+      <c r="G179" s="11" t="s">
+        <v>1847</v>
+      </c>
       <c r="H179" s="11" t="s">
         <v>1167</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>1658</v>
+        <v>1847</v>
       </c>
       <c r="J179" t="s">
         <v>529</v>
@@ -10791,11 +11676,14 @@
       <c r="E180" t="s">
         <v>1506</v>
       </c>
+      <c r="G180" s="11" t="s">
+        <v>1643</v>
+      </c>
       <c r="H180" s="11" t="s">
         <v>1168</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="J180" t="s">
         <v>529</v>
@@ -10817,11 +11705,14 @@
       <c r="E181" t="s">
         <v>1506</v>
       </c>
+      <c r="G181" s="11" t="s">
+        <v>1644</v>
+      </c>
       <c r="H181" s="11" t="s">
         <v>1169</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="J181" t="s">
         <v>529</v>
@@ -10843,11 +11734,14 @@
       <c r="E182" t="s">
         <v>1506</v>
       </c>
+      <c r="G182" s="11" t="s">
+        <v>1645</v>
+      </c>
       <c r="H182" s="11" t="s">
         <v>1170</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="J182" t="s">
         <v>529</v>
@@ -10869,11 +11763,14 @@
       <c r="E183" t="s">
         <v>1506</v>
       </c>
+      <c r="G183" s="11" t="s">
+        <v>1646</v>
+      </c>
       <c r="H183" s="11" t="s">
         <v>1171</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="J183" t="s">
         <v>529</v>
@@ -10895,11 +11792,14 @@
       <c r="E184" t="s">
         <v>1506</v>
       </c>
+      <c r="G184" s="11" t="s">
+        <v>1848</v>
+      </c>
       <c r="H184" s="11" t="s">
         <v>1172</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="J184" t="s">
         <v>529</v>
@@ -10921,11 +11821,14 @@
       <c r="E185" t="s">
         <v>1506</v>
       </c>
+      <c r="G185" s="11" t="s">
+        <v>1648</v>
+      </c>
       <c r="H185" s="11" t="s">
         <v>1173</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="J185" t="s">
         <v>529</v>
@@ -10947,11 +11850,14 @@
       <c r="E186" t="s">
         <v>1506</v>
       </c>
+      <c r="G186" s="11" t="s">
+        <v>1649</v>
+      </c>
       <c r="H186" s="11" t="s">
         <v>1174</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="J186" t="s">
         <v>529</v>
@@ -10973,11 +11879,14 @@
       <c r="E187" t="s">
         <v>1506</v>
       </c>
+      <c r="G187" s="11" t="s">
+        <v>1650</v>
+      </c>
       <c r="H187" s="11" t="s">
         <v>1175</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="J187" t="s">
         <v>529</v>
@@ -10999,11 +11908,14 @@
       <c r="E188" t="s">
         <v>1506</v>
       </c>
+      <c r="G188" s="11" t="s">
+        <v>1651</v>
+      </c>
       <c r="H188" s="11" t="s">
         <v>1176</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="J188" t="s">
         <v>529</v>
@@ -11025,6 +11937,9 @@
       <c r="E189" t="s">
         <v>1506</v>
       </c>
+      <c r="G189" s="11" t="s">
+        <v>1177</v>
+      </c>
       <c r="H189" s="11" t="s">
         <v>1177</v>
       </c>
@@ -11051,11 +11966,14 @@
       <c r="E190" t="s">
         <v>1506</v>
       </c>
+      <c r="G190" s="11" t="s">
+        <v>1652</v>
+      </c>
       <c r="H190" s="11" t="s">
         <v>1178</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="J190" t="s">
         <v>529</v>
@@ -11077,11 +11995,14 @@
       <c r="E191" t="s">
         <v>1506</v>
       </c>
+      <c r="G191" s="11" t="s">
+        <v>1653</v>
+      </c>
       <c r="H191" s="11" t="s">
         <v>1179</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="J191" t="s">
         <v>529</v>
@@ -11103,11 +12024,14 @@
       <c r="E192" t="s">
         <v>1506</v>
       </c>
+      <c r="G192" s="11" t="s">
+        <v>1850</v>
+      </c>
       <c r="H192" s="11" t="s">
         <v>1180</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>1670</v>
+        <v>1850</v>
       </c>
       <c r="J192" t="s">
         <v>529</v>
@@ -11129,11 +12053,14 @@
       <c r="E193" t="s">
         <v>1506</v>
       </c>
+      <c r="G193" t="s">
+        <v>1654</v>
+      </c>
       <c r="H193" s="11" t="s">
         <v>1181</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>1671</v>
+        <v>1654</v>
       </c>
       <c r="J193" t="s">
         <v>529</v>
@@ -11155,11 +12082,14 @@
       <c r="E194" t="s">
         <v>1506</v>
       </c>
+      <c r="G194" t="s">
+        <v>1655</v>
+      </c>
       <c r="H194" s="11" t="s">
         <v>1182</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>1672</v>
+        <v>1655</v>
       </c>
       <c r="J194" t="s">
         <v>529</v>
@@ -11181,11 +12111,14 @@
       <c r="E195" t="s">
         <v>1506</v>
       </c>
+      <c r="G195" t="s">
+        <v>1849</v>
+      </c>
       <c r="H195" s="11" t="s">
         <v>1183</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>1673</v>
+        <v>1656</v>
       </c>
       <c r="J195" t="s">
         <v>529</v>
@@ -11207,11 +12140,14 @@
       <c r="E196" t="s">
         <v>1506</v>
       </c>
+      <c r="G196" t="s">
+        <v>1657</v>
+      </c>
       <c r="H196" s="11" t="s">
         <v>1184</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>1674</v>
+        <v>1657</v>
       </c>
       <c r="J196" t="s">
         <v>529</v>
@@ -11233,11 +12169,14 @@
       <c r="E197" t="s">
         <v>1506</v>
       </c>
+      <c r="G197" t="s">
+        <v>1658</v>
+      </c>
       <c r="H197" s="11" t="s">
         <v>1185</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>1675</v>
+        <v>1658</v>
       </c>
       <c r="J197" t="s">
         <v>529</v>
@@ -11259,11 +12198,14 @@
       <c r="E198" t="s">
         <v>1506</v>
       </c>
+      <c r="G198" t="s">
+        <v>1851</v>
+      </c>
       <c r="H198" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="I198" s="11" t="s">
-        <v>1676</v>
+      <c r="I198" t="s">
+        <v>1851</v>
       </c>
       <c r="J198" t="s">
         <v>529</v>
@@ -11285,11 +12227,14 @@
       <c r="E199" t="s">
         <v>1506</v>
       </c>
+      <c r="G199" t="s">
+        <v>1659</v>
+      </c>
       <c r="H199" s="11" t="s">
         <v>1187</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>1677</v>
+        <v>1659</v>
       </c>
       <c r="J199" t="s">
         <v>529</v>
@@ -11311,11 +12256,14 @@
       <c r="E200" t="s">
         <v>1506</v>
       </c>
+      <c r="G200" s="11" t="s">
+        <v>1660</v>
+      </c>
       <c r="H200" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>1678</v>
+        <v>1660</v>
       </c>
       <c r="J200" t="s">
         <v>529</v>
@@ -11337,11 +12285,14 @@
       <c r="E201" t="s">
         <v>1506</v>
       </c>
+      <c r="G201" s="11" t="s">
+        <v>1661</v>
+      </c>
       <c r="H201" s="11" t="s">
         <v>1189</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>1679</v>
+        <v>1661</v>
       </c>
       <c r="J201" t="s">
         <v>529</v>
@@ -11363,11 +12314,14 @@
       <c r="E202" t="s">
         <v>1506</v>
       </c>
+      <c r="G202" s="11" t="s">
+        <v>1852</v>
+      </c>
       <c r="H202" s="11" t="s">
         <v>1190</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>1680</v>
+        <v>1662</v>
       </c>
       <c r="J202" t="s">
         <v>529</v>
@@ -11389,11 +12343,14 @@
       <c r="E203" t="s">
         <v>1506</v>
       </c>
+      <c r="G203" s="11" t="s">
+        <v>1663</v>
+      </c>
       <c r="H203" s="11" t="s">
         <v>1191</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="J203" t="s">
         <v>529</v>
@@ -11415,11 +12372,14 @@
       <c r="E204" t="s">
         <v>1506</v>
       </c>
+      <c r="G204" s="11" t="s">
+        <v>1853</v>
+      </c>
       <c r="H204" s="11" t="s">
         <v>1192</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>1682</v>
+        <v>1853</v>
       </c>
       <c r="J204" t="s">
         <v>529</v>
@@ -11441,11 +12401,14 @@
       <c r="E205" t="s">
         <v>1506</v>
       </c>
+      <c r="G205" s="11" t="s">
+        <v>1664</v>
+      </c>
       <c r="H205" s="11" t="s">
         <v>1193</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>1683</v>
+        <v>1664</v>
       </c>
       <c r="J205" t="s">
         <v>529</v>
@@ -11467,11 +12430,14 @@
       <c r="E206" t="s">
         <v>1506</v>
       </c>
+      <c r="G206" s="11" t="s">
+        <v>1665</v>
+      </c>
       <c r="H206" s="11" t="s">
         <v>1194</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>1684</v>
+        <v>1665</v>
       </c>
       <c r="J206" t="s">
         <v>529</v>
@@ -11493,11 +12459,14 @@
       <c r="E207" t="s">
         <v>1506</v>
       </c>
+      <c r="G207" s="11" t="s">
+        <v>1666</v>
+      </c>
       <c r="H207" s="11" t="s">
         <v>1195</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="J207" t="s">
         <v>529</v>
@@ -11519,11 +12488,14 @@
       <c r="E208" t="s">
         <v>1506</v>
       </c>
+      <c r="G208" s="11" t="s">
+        <v>1667</v>
+      </c>
       <c r="H208" s="11" t="s">
         <v>1196</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="J208" t="s">
         <v>529</v>
@@ -11545,11 +12517,14 @@
       <c r="E209" t="s">
         <v>1506</v>
       </c>
+      <c r="G209" s="11" t="s">
+        <v>1668</v>
+      </c>
       <c r="H209" s="11" t="s">
         <v>1197</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>1687</v>
+        <v>1668</v>
       </c>
       <c r="J209" t="s">
         <v>529</v>
@@ -11571,11 +12546,14 @@
       <c r="E210" t="s">
         <v>1506</v>
       </c>
+      <c r="G210" s="11" t="s">
+        <v>1854</v>
+      </c>
       <c r="H210" s="11" t="s">
         <v>1198</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>1688</v>
+        <v>1854</v>
       </c>
       <c r="J210" t="s">
         <v>529</v>
@@ -11597,11 +12575,14 @@
       <c r="E211" t="s">
         <v>1506</v>
       </c>
+      <c r="G211" s="11" t="s">
+        <v>1669</v>
+      </c>
       <c r="H211" s="11" t="s">
         <v>1199</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>1689</v>
+        <v>1669</v>
       </c>
       <c r="J211" t="s">
         <v>529</v>
@@ -11623,11 +12604,14 @@
       <c r="E212" t="s">
         <v>1506</v>
       </c>
+      <c r="G212" s="11" t="s">
+        <v>1855</v>
+      </c>
       <c r="H212" s="11" t="s">
         <v>1200</v>
       </c>
       <c r="I212" s="11" t="s">
-        <v>1690</v>
+        <v>1855</v>
       </c>
       <c r="J212" t="s">
         <v>529</v>
@@ -11649,11 +12633,14 @@
       <c r="E213" t="s">
         <v>1506</v>
       </c>
+      <c r="G213" s="11" t="s">
+        <v>1670</v>
+      </c>
       <c r="H213" s="11" t="s">
         <v>1201</v>
       </c>
       <c r="I213" s="11" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="J213" t="s">
         <v>529</v>
@@ -11675,11 +12662,14 @@
       <c r="E214" t="s">
         <v>1506</v>
       </c>
+      <c r="G214" s="11" t="s">
+        <v>1856</v>
+      </c>
       <c r="H214" s="11" t="s">
         <v>1202</v>
       </c>
       <c r="I214" s="11" t="s">
-        <v>1692</v>
+        <v>1856</v>
       </c>
       <c r="J214" t="s">
         <v>529</v>
@@ -11701,6 +12691,9 @@
       <c r="E215" t="s">
         <v>1506</v>
       </c>
+      <c r="G215" s="11" t="s">
+        <v>1857</v>
+      </c>
       <c r="H215" s="11" t="s">
         <v>1203</v>
       </c>
@@ -11727,11 +12720,14 @@
       <c r="E216" t="s">
         <v>1506</v>
       </c>
+      <c r="G216" s="11" t="s">
+        <v>1671</v>
+      </c>
       <c r="H216" s="11" t="s">
         <v>1204</v>
       </c>
       <c r="I216" s="11" t="s">
-        <v>1693</v>
+        <v>1671</v>
       </c>
       <c r="J216" t="s">
         <v>529</v>
@@ -11753,11 +12749,14 @@
       <c r="E217" t="s">
         <v>1506</v>
       </c>
+      <c r="G217" s="11" t="s">
+        <v>1672</v>
+      </c>
       <c r="H217" s="11" t="s">
         <v>1205</v>
       </c>
       <c r="I217" s="11" t="s">
-        <v>1694</v>
+        <v>1672</v>
       </c>
       <c r="J217" t="s">
         <v>529</v>
@@ -11779,11 +12778,14 @@
       <c r="E218" t="s">
         <v>1506</v>
       </c>
+      <c r="G218" s="11" t="s">
+        <v>1673</v>
+      </c>
       <c r="H218" s="11" t="s">
         <v>1206</v>
       </c>
       <c r="I218" s="11" t="s">
-        <v>1695</v>
+        <v>1673</v>
       </c>
       <c r="J218" t="s">
         <v>529</v>
@@ -11805,11 +12807,14 @@
       <c r="E219" t="s">
         <v>1506</v>
       </c>
+      <c r="G219" s="11" t="s">
+        <v>1858</v>
+      </c>
       <c r="H219" s="11" t="s">
         <v>1207</v>
       </c>
       <c r="I219" s="11" t="s">
-        <v>1696</v>
+        <v>1858</v>
       </c>
       <c r="J219" t="s">
         <v>529</v>
@@ -11831,11 +12836,14 @@
       <c r="E220" t="s">
         <v>1506</v>
       </c>
+      <c r="G220" s="11" t="s">
+        <v>1859</v>
+      </c>
       <c r="H220" s="11" t="s">
         <v>1208</v>
       </c>
       <c r="I220" s="11" t="s">
-        <v>1697</v>
+        <v>1859</v>
       </c>
       <c r="J220" t="s">
         <v>529</v>
@@ -11857,11 +12865,14 @@
       <c r="E221" t="s">
         <v>1506</v>
       </c>
+      <c r="G221" s="11" t="s">
+        <v>1860</v>
+      </c>
       <c r="H221" s="11" t="s">
         <v>1209</v>
       </c>
       <c r="I221" s="11" t="s">
-        <v>1698</v>
+        <v>1860</v>
       </c>
       <c r="J221" t="s">
         <v>529</v>
@@ -11883,11 +12894,14 @@
       <c r="E222" t="s">
         <v>1506</v>
       </c>
+      <c r="G222" s="11" t="s">
+        <v>1675</v>
+      </c>
       <c r="H222" s="11" t="s">
         <v>1210</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>1699</v>
+        <v>1675</v>
       </c>
       <c r="J222" t="s">
         <v>529</v>
@@ -11909,11 +12923,14 @@
       <c r="E223" t="s">
         <v>1506</v>
       </c>
+      <c r="G223" s="11" t="s">
+        <v>1676</v>
+      </c>
       <c r="H223" s="11" t="s">
         <v>1211</v>
       </c>
       <c r="I223" s="11" t="s">
-        <v>1700</v>
+        <v>1676</v>
       </c>
       <c r="J223" t="s">
         <v>529</v>
@@ -11935,11 +12952,14 @@
       <c r="E224" t="s">
         <v>1506</v>
       </c>
+      <c r="G224" s="11" t="s">
+        <v>1861</v>
+      </c>
       <c r="H224" s="11" t="s">
         <v>1212</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>1701</v>
+        <v>1861</v>
       </c>
       <c r="J224" t="s">
         <v>529</v>
@@ -11961,11 +12981,14 @@
       <c r="E225" t="s">
         <v>1506</v>
       </c>
+      <c r="G225" s="11" t="s">
+        <v>1863</v>
+      </c>
       <c r="H225" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="I225" s="11" t="s">
-        <v>1702</v>
+        <v>1862</v>
       </c>
       <c r="J225" t="s">
         <v>529</v>
@@ -11987,11 +13010,14 @@
       <c r="E226" t="s">
         <v>1506</v>
       </c>
+      <c r="G226" s="11" t="s">
+        <v>1677</v>
+      </c>
       <c r="H226" s="11" t="s">
         <v>1214</v>
       </c>
       <c r="I226" s="11" t="s">
-        <v>1703</v>
+        <v>1677</v>
       </c>
       <c r="J226" t="s">
         <v>529</v>
@@ -12013,11 +13039,14 @@
       <c r="E227" t="s">
         <v>1506</v>
       </c>
+      <c r="G227" s="11" t="s">
+        <v>1678</v>
+      </c>
       <c r="H227" s="11" t="s">
         <v>1215</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>1704</v>
+        <v>1678</v>
       </c>
       <c r="J227" t="s">
         <v>529</v>
@@ -12039,11 +13068,14 @@
       <c r="E228" t="s">
         <v>1506</v>
       </c>
+      <c r="G228" s="11" t="s">
+        <v>1864</v>
+      </c>
       <c r="H228" s="11" t="s">
         <v>1216</v>
       </c>
       <c r="I228" s="11" t="s">
-        <v>1705</v>
+        <v>1679</v>
       </c>
       <c r="J228" t="s">
         <v>529</v>
@@ -12065,11 +13097,14 @@
       <c r="E229" t="s">
         <v>1506</v>
       </c>
+      <c r="G229" s="11" t="s">
+        <v>1680</v>
+      </c>
       <c r="H229" s="11" t="s">
         <v>1217</v>
       </c>
       <c r="I229" s="11" t="s">
-        <v>1706</v>
+        <v>1680</v>
       </c>
       <c r="J229" t="s">
         <v>529</v>
@@ -12091,11 +13126,14 @@
       <c r="E230" t="s">
         <v>1506</v>
       </c>
+      <c r="G230" s="11" t="s">
+        <v>1681</v>
+      </c>
       <c r="H230" s="11" t="s">
         <v>1218</v>
       </c>
       <c r="I230" s="11" t="s">
-        <v>1707</v>
+        <v>1681</v>
       </c>
       <c r="J230" t="s">
         <v>529</v>
@@ -12117,11 +13155,14 @@
       <c r="E231" t="s">
         <v>1506</v>
       </c>
+      <c r="G231" s="11" t="s">
+        <v>1682</v>
+      </c>
       <c r="H231" s="11" t="s">
         <v>1219</v>
       </c>
       <c r="I231" s="11" t="s">
-        <v>1708</v>
+        <v>1682</v>
       </c>
       <c r="J231" t="s">
         <v>529</v>
@@ -12143,11 +13184,14 @@
       <c r="E232" t="s">
         <v>1506</v>
       </c>
+      <c r="G232" s="11" t="s">
+        <v>1865</v>
+      </c>
       <c r="H232" s="11" t="s">
         <v>1220</v>
       </c>
       <c r="I232" s="11" t="s">
-        <v>1709</v>
+        <v>1683</v>
       </c>
       <c r="J232" t="s">
         <v>529</v>
@@ -12169,11 +13213,14 @@
       <c r="E233" t="s">
         <v>1506</v>
       </c>
+      <c r="G233" s="11" t="s">
+        <v>1866</v>
+      </c>
       <c r="H233" s="11" t="s">
         <v>1221</v>
       </c>
       <c r="I233" s="11" t="s">
-        <v>1710</v>
+        <v>1866</v>
       </c>
       <c r="J233" t="s">
         <v>529</v>
@@ -12195,11 +13242,14 @@
       <c r="E234" t="s">
         <v>1506</v>
       </c>
+      <c r="G234" s="11" t="s">
+        <v>1867</v>
+      </c>
       <c r="H234" s="11" t="s">
         <v>1222</v>
       </c>
       <c r="I234" s="11" t="s">
-        <v>1711</v>
+        <v>1867</v>
       </c>
       <c r="J234" t="s">
         <v>529</v>
@@ -12221,11 +13271,14 @@
       <c r="E235" t="s">
         <v>1506</v>
       </c>
+      <c r="G235" s="11" t="s">
+        <v>517</v>
+      </c>
       <c r="H235" s="11" t="s">
         <v>1223</v>
       </c>
       <c r="I235" s="11" t="s">
-        <v>1712</v>
+        <v>1684</v>
       </c>
       <c r="J235" t="s">
         <v>529</v>
@@ -12247,11 +13300,14 @@
       <c r="E236" t="s">
         <v>1506</v>
       </c>
+      <c r="G236" s="12" t="s">
+        <v>1868</v>
+      </c>
       <c r="H236" s="11" t="s">
         <v>1112</v>
       </c>
       <c r="I236" s="11" t="s">
-        <v>1609</v>
+        <v>1595</v>
       </c>
       <c r="J236" t="s">
         <v>529</v>
@@ -12273,11 +13329,14 @@
       <c r="E237" t="s">
         <v>1506</v>
       </c>
+      <c r="G237" s="11" t="s">
+        <v>1869</v>
+      </c>
       <c r="H237" s="11" t="s">
         <v>1224</v>
       </c>
       <c r="I237" s="11" t="s">
-        <v>1713</v>
+        <v>1685</v>
       </c>
       <c r="J237" t="s">
         <v>528</v>
@@ -12299,11 +13358,14 @@
       <c r="E238" t="s">
         <v>1506</v>
       </c>
+      <c r="G238" s="11" t="s">
+        <v>1686</v>
+      </c>
       <c r="H238" s="11" t="s">
         <v>1225</v>
       </c>
       <c r="I238" s="11" t="s">
-        <v>1714</v>
+        <v>1686</v>
       </c>
       <c r="J238" t="s">
         <v>528</v>
@@ -12325,11 +13387,14 @@
       <c r="E239" t="s">
         <v>1506</v>
       </c>
+      <c r="G239" s="11" t="s">
+        <v>1951</v>
+      </c>
       <c r="H239" s="11" t="s">
         <v>1226</v>
       </c>
       <c r="I239" s="11" t="s">
-        <v>1226</v>
+        <v>1951</v>
       </c>
       <c r="J239" t="s">
         <v>528</v>
@@ -12351,11 +13416,14 @@
       <c r="E240" t="s">
         <v>1506</v>
       </c>
+      <c r="G240" s="11" t="s">
+        <v>1687</v>
+      </c>
       <c r="H240" s="11" t="s">
         <v>1227</v>
       </c>
       <c r="I240" s="11" t="s">
-        <v>1715</v>
+        <v>1687</v>
       </c>
       <c r="J240" t="s">
         <v>528</v>
@@ -12377,11 +13445,14 @@
       <c r="E241" t="s">
         <v>1506</v>
       </c>
+      <c r="G241" s="11" t="s">
+        <v>1688</v>
+      </c>
       <c r="H241" s="11" t="s">
         <v>1228</v>
       </c>
       <c r="I241" s="11" t="s">
-        <v>1716</v>
+        <v>1688</v>
       </c>
       <c r="J241" t="s">
         <v>528</v>
@@ -12403,11 +13474,14 @@
       <c r="E242" t="s">
         <v>1506</v>
       </c>
+      <c r="G242" s="11" t="s">
+        <v>1689</v>
+      </c>
       <c r="H242" s="11" t="s">
         <v>1229</v>
       </c>
       <c r="I242" s="11" t="s">
-        <v>1717</v>
+        <v>1689</v>
       </c>
       <c r="J242" t="s">
         <v>528</v>
@@ -12429,11 +13503,14 @@
       <c r="E243" t="s">
         <v>1506</v>
       </c>
+      <c r="G243" s="12" t="s">
+        <v>1870</v>
+      </c>
       <c r="H243" s="11" t="s">
         <v>1230</v>
       </c>
       <c r="I243" s="11" t="s">
-        <v>1718</v>
+        <v>1690</v>
       </c>
       <c r="J243" t="s">
         <v>528</v>
@@ -12455,11 +13532,14 @@
       <c r="E244" t="s">
         <v>1506</v>
       </c>
+      <c r="G244" s="11" t="s">
+        <v>1691</v>
+      </c>
       <c r="H244" s="11" t="s">
         <v>1231</v>
       </c>
       <c r="I244" s="11" t="s">
-        <v>1719</v>
+        <v>1691</v>
       </c>
       <c r="J244" t="s">
         <v>528</v>
@@ -12481,6 +13561,9 @@
       <c r="E245" t="s">
         <v>1506</v>
       </c>
+      <c r="G245" s="11" t="s">
+        <v>1232</v>
+      </c>
       <c r="H245" s="11" t="s">
         <v>1232</v>
       </c>
@@ -12507,11 +13590,14 @@
       <c r="E246" t="s">
         <v>1506</v>
       </c>
+      <c r="G246" s="11" t="s">
+        <v>1692</v>
+      </c>
       <c r="H246" s="11" t="s">
         <v>1233</v>
       </c>
       <c r="I246" s="11" t="s">
-        <v>1720</v>
+        <v>1692</v>
       </c>
       <c r="J246" t="s">
         <v>528</v>
@@ -12533,11 +13619,14 @@
       <c r="E247" t="s">
         <v>1506</v>
       </c>
+      <c r="G247" s="11" t="s">
+        <v>1693</v>
+      </c>
       <c r="H247" s="11" t="s">
         <v>1234</v>
       </c>
       <c r="I247" s="11" t="s">
-        <v>1721</v>
+        <v>1693</v>
       </c>
       <c r="J247" t="s">
         <v>528</v>
@@ -12559,11 +13648,14 @@
       <c r="E248" t="s">
         <v>1506</v>
       </c>
+      <c r="G248" s="11" t="s">
+        <v>1871</v>
+      </c>
       <c r="H248" s="11" t="s">
         <v>1235</v>
       </c>
       <c r="I248" s="11" t="s">
-        <v>1235</v>
+        <v>1871</v>
       </c>
       <c r="J248" t="s">
         <v>528</v>
@@ -12585,6 +13677,9 @@
       <c r="E249" t="s">
         <v>1506</v>
       </c>
+      <c r="G249" s="11" t="s">
+        <v>1236</v>
+      </c>
       <c r="H249" s="11" t="s">
         <v>1236</v>
       </c>
@@ -12611,11 +13706,14 @@
       <c r="E250" t="s">
         <v>1506</v>
       </c>
+      <c r="G250" s="11" t="s">
+        <v>1872</v>
+      </c>
       <c r="H250" s="11" t="s">
         <v>1237</v>
       </c>
       <c r="I250" s="11" t="s">
-        <v>1722</v>
+        <v>1872</v>
       </c>
       <c r="J250" t="s">
         <v>528</v>
@@ -12637,11 +13735,14 @@
       <c r="E251" t="s">
         <v>1506</v>
       </c>
+      <c r="G251" s="12" t="s">
+        <v>1873</v>
+      </c>
       <c r="H251" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="I251" s="11" t="s">
-        <v>1723</v>
+      <c r="I251" s="12" t="s">
+        <v>1873</v>
       </c>
       <c r="J251" t="s">
         <v>528</v>
@@ -12663,11 +13764,14 @@
       <c r="E252" t="s">
         <v>1506</v>
       </c>
+      <c r="G252" s="11" t="s">
+        <v>1874</v>
+      </c>
       <c r="H252" s="11" t="s">
         <v>1239</v>
       </c>
       <c r="I252" s="11" t="s">
-        <v>1724</v>
+        <v>1694</v>
       </c>
       <c r="J252" t="s">
         <v>528</v>
@@ -12689,11 +13793,14 @@
       <c r="E253" t="s">
         <v>1506</v>
       </c>
+      <c r="G253" s="11" t="s">
+        <v>1875</v>
+      </c>
       <c r="H253" s="11" t="s">
         <v>1240</v>
       </c>
       <c r="I253" s="11" t="s">
-        <v>1725</v>
+        <v>1695</v>
       </c>
       <c r="J253" t="s">
         <v>528</v>
@@ -12715,11 +13822,14 @@
       <c r="E254" t="s">
         <v>1506</v>
       </c>
+      <c r="G254" s="11" t="s">
+        <v>1696</v>
+      </c>
       <c r="H254" s="11" t="s">
         <v>1241</v>
       </c>
       <c r="I254" s="11" t="s">
-        <v>1726</v>
+        <v>1696</v>
       </c>
       <c r="J254" t="s">
         <v>528</v>
@@ -12741,11 +13851,14 @@
       <c r="E255" t="s">
         <v>1506</v>
       </c>
+      <c r="G255" s="11" t="s">
+        <v>1697</v>
+      </c>
       <c r="H255" s="11" t="s">
         <v>1242</v>
       </c>
       <c r="I255" s="11" t="s">
-        <v>1727</v>
+        <v>1697</v>
       </c>
       <c r="J255" t="s">
         <v>528</v>
@@ -12767,11 +13880,14 @@
       <c r="E256" t="s">
         <v>1506</v>
       </c>
+      <c r="G256" s="11" t="s">
+        <v>1876</v>
+      </c>
       <c r="H256" s="11" t="s">
         <v>1243</v>
       </c>
       <c r="I256" s="11" t="s">
-        <v>1724</v>
+        <v>1876</v>
       </c>
       <c r="J256" t="s">
         <v>528</v>
@@ -12793,11 +13909,14 @@
       <c r="E257" t="s">
         <v>1506</v>
       </c>
+      <c r="G257" s="11" t="s">
+        <v>1877</v>
+      </c>
       <c r="H257" s="11" t="s">
         <v>1244</v>
       </c>
       <c r="I257" s="11" t="s">
-        <v>1725</v>
+        <v>1877</v>
       </c>
       <c r="J257" t="s">
         <v>528</v>
@@ -12819,11 +13938,14 @@
       <c r="E258" t="s">
         <v>1506</v>
       </c>
+      <c r="G258" s="11" t="s">
+        <v>1698</v>
+      </c>
       <c r="H258" s="11" t="s">
         <v>1245</v>
       </c>
       <c r="I258" s="11" t="s">
-        <v>1728</v>
+        <v>1698</v>
       </c>
       <c r="J258" t="s">
         <v>528</v>
@@ -12845,11 +13967,14 @@
       <c r="E259" t="s">
         <v>1506</v>
       </c>
+      <c r="G259" s="11" t="s">
+        <v>1699</v>
+      </c>
       <c r="H259" s="11" t="s">
         <v>1246</v>
       </c>
       <c r="I259" s="11" t="s">
-        <v>1729</v>
+        <v>1699</v>
       </c>
       <c r="J259" t="s">
         <v>528</v>
@@ -12871,11 +13996,14 @@
       <c r="E260" t="s">
         <v>1506</v>
       </c>
+      <c r="G260" s="11" t="s">
+        <v>1878</v>
+      </c>
       <c r="H260" s="11" t="s">
         <v>1247</v>
       </c>
       <c r="I260" s="11" t="s">
-        <v>1730</v>
+        <v>1878</v>
       </c>
       <c r="J260" t="s">
         <v>528</v>
@@ -12897,11 +14025,14 @@
       <c r="E261" t="s">
         <v>1506</v>
       </c>
+      <c r="G261" s="11" t="s">
+        <v>1879</v>
+      </c>
       <c r="H261" s="11" t="s">
         <v>1248</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>1731</v>
+        <v>1879</v>
       </c>
       <c r="J261" t="s">
         <v>528</v>
@@ -12923,11 +14054,14 @@
       <c r="E262" t="s">
         <v>1506</v>
       </c>
+      <c r="G262" s="11" t="s">
+        <v>1880</v>
+      </c>
       <c r="H262" s="11" t="s">
         <v>1249</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>1732</v>
+        <v>1880</v>
       </c>
       <c r="J262" t="s">
         <v>528</v>
@@ -12949,11 +14083,14 @@
       <c r="E263" t="s">
         <v>1506</v>
       </c>
+      <c r="G263" s="11" t="s">
+        <v>1881</v>
+      </c>
       <c r="H263" s="11" t="s">
         <v>1250</v>
       </c>
       <c r="I263" s="11" t="s">
-        <v>1724</v>
+        <v>1881</v>
       </c>
       <c r="J263" t="s">
         <v>528</v>
@@ -12975,11 +14112,14 @@
       <c r="E264" t="s">
         <v>1506</v>
       </c>
+      <c r="G264" s="11" t="s">
+        <v>1882</v>
+      </c>
       <c r="H264" s="11" t="s">
         <v>1251</v>
       </c>
       <c r="I264" s="11" t="s">
-        <v>1733</v>
+        <v>1882</v>
       </c>
       <c r="J264" t="s">
         <v>528</v>
@@ -13001,11 +14141,14 @@
       <c r="E265" t="s">
         <v>1506</v>
       </c>
+      <c r="G265" s="11" t="s">
+        <v>1883</v>
+      </c>
       <c r="H265" s="11" t="s">
         <v>1252</v>
       </c>
       <c r="I265" s="11" t="s">
-        <v>1734</v>
+        <v>1883</v>
       </c>
       <c r="J265" t="s">
         <v>528</v>
@@ -13027,11 +14170,14 @@
       <c r="E266" t="s">
         <v>1506</v>
       </c>
+      <c r="G266" s="11" t="s">
+        <v>1884</v>
+      </c>
       <c r="H266" s="11" t="s">
         <v>1253</v>
       </c>
       <c r="I266" s="11" t="s">
-        <v>1735</v>
+        <v>1884</v>
       </c>
       <c r="J266" t="s">
         <v>528</v>
@@ -13053,11 +14199,14 @@
       <c r="E267" t="s">
         <v>1506</v>
       </c>
+      <c r="G267" s="11" t="s">
+        <v>1885</v>
+      </c>
       <c r="H267" s="11" t="s">
         <v>1254</v>
       </c>
       <c r="I267" s="11" t="s">
-        <v>1736</v>
+        <v>1885</v>
       </c>
       <c r="J267" t="s">
         <v>528</v>
@@ -13079,11 +14228,14 @@
       <c r="E268" t="s">
         <v>1506</v>
       </c>
+      <c r="G268" s="11" t="s">
+        <v>1886</v>
+      </c>
       <c r="H268" s="11" t="s">
         <v>1255</v>
       </c>
       <c r="I268" s="11" t="s">
-        <v>1737</v>
+        <v>1886</v>
       </c>
       <c r="J268" t="s">
         <v>528</v>
@@ -13105,11 +14257,14 @@
       <c r="E269" t="s">
         <v>1506</v>
       </c>
+      <c r="G269" s="11" t="s">
+        <v>1700</v>
+      </c>
       <c r="H269" s="11" t="s">
         <v>1256</v>
       </c>
       <c r="I269" s="11" t="s">
-        <v>1738</v>
+        <v>1700</v>
       </c>
       <c r="J269" t="s">
         <v>528</v>
@@ -13131,11 +14286,14 @@
       <c r="E270" t="s">
         <v>1506</v>
       </c>
+      <c r="G270" s="11" t="s">
+        <v>1887</v>
+      </c>
       <c r="H270" s="11" t="s">
         <v>1257</v>
       </c>
       <c r="I270" s="11" t="s">
-        <v>1739</v>
+        <v>1701</v>
       </c>
       <c r="J270" t="s">
         <v>528</v>
@@ -13157,11 +14315,14 @@
       <c r="E271" t="s">
         <v>1506</v>
       </c>
+      <c r="G271" s="11" t="s">
+        <v>1888</v>
+      </c>
       <c r="H271" s="11" t="s">
         <v>1258</v>
       </c>
       <c r="I271" s="11" t="s">
-        <v>1740</v>
+        <v>1888</v>
       </c>
       <c r="J271" t="s">
         <v>528</v>
@@ -13183,11 +14344,14 @@
       <c r="E272" t="s">
         <v>1506</v>
       </c>
+      <c r="G272" s="11" t="s">
+        <v>1702</v>
+      </c>
       <c r="H272" s="11" t="s">
         <v>1259</v>
       </c>
       <c r="I272" s="11" t="s">
-        <v>1741</v>
+        <v>1702</v>
       </c>
       <c r="J272" t="s">
         <v>528</v>
@@ -13209,11 +14373,14 @@
       <c r="E273" t="s">
         <v>1506</v>
       </c>
+      <c r="G273" s="11" t="s">
+        <v>1889</v>
+      </c>
       <c r="H273" s="11" t="s">
         <v>1260</v>
       </c>
       <c r="I273" s="11" t="s">
-        <v>1742</v>
+        <v>1703</v>
       </c>
       <c r="J273" t="s">
         <v>528</v>
@@ -13235,11 +14402,14 @@
       <c r="E274" t="s">
         <v>1506</v>
       </c>
+      <c r="G274" s="11" t="s">
+        <v>1891</v>
+      </c>
       <c r="H274" s="11" t="s">
         <v>1261</v>
       </c>
       <c r="I274" s="11" t="s">
-        <v>1743</v>
+        <v>1704</v>
       </c>
       <c r="J274" t="s">
         <v>528</v>
@@ -13261,11 +14431,14 @@
       <c r="E275" t="s">
         <v>1506</v>
       </c>
+      <c r="G275" s="11" t="s">
+        <v>1800</v>
+      </c>
       <c r="H275" s="11" t="s">
         <v>1262</v>
       </c>
       <c r="I275" s="11" t="s">
-        <v>1880</v>
+        <v>1800</v>
       </c>
       <c r="J275" t="s">
         <v>528</v>
@@ -13287,11 +14460,14 @@
       <c r="E276" t="s">
         <v>1506</v>
       </c>
+      <c r="G276" s="11" t="s">
+        <v>1890</v>
+      </c>
       <c r="H276" s="11" t="s">
         <v>1263</v>
       </c>
       <c r="I276" s="11" t="s">
-        <v>1744</v>
+        <v>1705</v>
       </c>
       <c r="J276" t="s">
         <v>528</v>
@@ -13313,11 +14489,14 @@
       <c r="E277" t="s">
         <v>1506</v>
       </c>
+      <c r="G277" s="11" t="s">
+        <v>1892</v>
+      </c>
       <c r="H277" s="11" t="s">
         <v>1264</v>
       </c>
       <c r="I277" s="11" t="s">
-        <v>1745</v>
+        <v>1892</v>
       </c>
       <c r="J277" t="s">
         <v>528</v>
@@ -13339,11 +14518,14 @@
       <c r="E278" t="s">
         <v>1506</v>
       </c>
+      <c r="G278" s="11" t="s">
+        <v>1706</v>
+      </c>
       <c r="H278" s="11" t="s">
         <v>1265</v>
       </c>
       <c r="I278" s="11" t="s">
-        <v>1746</v>
+        <v>1706</v>
       </c>
       <c r="J278" t="s">
         <v>528</v>
@@ -13365,11 +14547,14 @@
       <c r="E279" t="s">
         <v>1506</v>
       </c>
+      <c r="G279" s="11" t="s">
+        <v>1893</v>
+      </c>
       <c r="H279" s="11" t="s">
         <v>1266</v>
       </c>
       <c r="I279" s="11" t="s">
-        <v>1747</v>
+        <v>1893</v>
       </c>
       <c r="J279" t="s">
         <v>528</v>
@@ -13391,11 +14576,14 @@
       <c r="E280" t="s">
         <v>1506</v>
       </c>
+      <c r="G280" s="11" t="s">
+        <v>1894</v>
+      </c>
       <c r="H280" s="11" t="s">
         <v>1267</v>
       </c>
       <c r="I280" s="11" t="s">
-        <v>1748</v>
+        <v>1707</v>
       </c>
       <c r="J280" t="s">
         <v>528</v>
@@ -13417,11 +14605,14 @@
       <c r="E281" t="s">
         <v>1506</v>
       </c>
+      <c r="G281" s="11" t="s">
+        <v>1708</v>
+      </c>
       <c r="H281" s="11" t="s">
         <v>1268</v>
       </c>
       <c r="I281" s="11" t="s">
-        <v>1749</v>
+        <v>1708</v>
       </c>
       <c r="J281" t="s">
         <v>528</v>
@@ -13443,11 +14634,14 @@
       <c r="E282" t="s">
         <v>1506</v>
       </c>
+      <c r="G282" s="11" t="s">
+        <v>1709</v>
+      </c>
       <c r="H282" s="11" t="s">
         <v>1269</v>
       </c>
       <c r="I282" s="11" t="s">
-        <v>1750</v>
+        <v>1709</v>
       </c>
       <c r="J282" t="s">
         <v>528</v>
@@ -13469,11 +14663,14 @@
       <c r="E283" t="s">
         <v>1506</v>
       </c>
+      <c r="G283" s="11" t="s">
+        <v>1710</v>
+      </c>
       <c r="H283" s="11" t="s">
         <v>1270</v>
       </c>
       <c r="I283" s="11" t="s">
-        <v>1751</v>
+        <v>1710</v>
       </c>
       <c r="J283" t="s">
         <v>528</v>
@@ -13495,11 +14692,14 @@
       <c r="E284" t="s">
         <v>1506</v>
       </c>
+      <c r="G284" s="11" t="s">
+        <v>1895</v>
+      </c>
       <c r="H284" s="11" t="s">
         <v>1271</v>
       </c>
       <c r="I284" s="11" t="s">
-        <v>1752</v>
+        <v>1711</v>
       </c>
       <c r="J284" t="s">
         <v>528</v>
@@ -13521,11 +14721,14 @@
       <c r="E285" t="s">
         <v>1506</v>
       </c>
+      <c r="G285" s="11" t="s">
+        <v>1712</v>
+      </c>
       <c r="H285" s="11" t="s">
         <v>1272</v>
       </c>
       <c r="I285" s="11" t="s">
-        <v>1753</v>
+        <v>1712</v>
       </c>
       <c r="J285" t="s">
         <v>528</v>
@@ -13547,11 +14750,14 @@
       <c r="E286" t="s">
         <v>1506</v>
       </c>
+      <c r="G286" s="11" t="s">
+        <v>1806</v>
+      </c>
       <c r="H286" s="11" t="s">
         <v>1273</v>
       </c>
       <c r="I286" s="11" t="s">
-        <v>1886</v>
+        <v>1806</v>
       </c>
       <c r="J286" t="s">
         <v>528</v>
@@ -13573,11 +14779,14 @@
       <c r="E287" t="s">
         <v>1506</v>
       </c>
+      <c r="G287" s="11" t="s">
+        <v>1896</v>
+      </c>
       <c r="H287" s="11" t="s">
         <v>1274</v>
       </c>
       <c r="I287" s="11" t="s">
-        <v>1754</v>
+        <v>1896</v>
       </c>
       <c r="J287" t="s">
         <v>528</v>
@@ -13599,11 +14808,14 @@
       <c r="E288" t="s">
         <v>1506</v>
       </c>
+      <c r="G288" s="11" t="s">
+        <v>1897</v>
+      </c>
       <c r="H288" s="11" t="s">
         <v>1275</v>
       </c>
       <c r="I288" s="11" t="s">
-        <v>1755</v>
+        <v>1713</v>
       </c>
       <c r="J288" t="s">
         <v>528</v>
@@ -13625,6 +14837,9 @@
       <c r="E289" t="s">
         <v>1506</v>
       </c>
+      <c r="G289" s="11" t="s">
+        <v>1276</v>
+      </c>
       <c r="H289" s="11" t="s">
         <v>1276</v>
       </c>
@@ -13651,11 +14866,14 @@
       <c r="E290" t="s">
         <v>1506</v>
       </c>
+      <c r="G290" s="11" t="s">
+        <v>1714</v>
+      </c>
       <c r="H290" s="11" t="s">
         <v>1277</v>
       </c>
       <c r="I290" s="11" t="s">
-        <v>1756</v>
+        <v>1714</v>
       </c>
       <c r="J290" t="s">
         <v>530</v>
@@ -13677,11 +14895,14 @@
       <c r="E291" t="s">
         <v>1506</v>
       </c>
+      <c r="G291" s="11" t="s">
+        <v>1715</v>
+      </c>
       <c r="H291" s="11" t="s">
         <v>1278</v>
       </c>
       <c r="I291" s="11" t="s">
-        <v>1757</v>
+        <v>1715</v>
       </c>
       <c r="J291" t="s">
         <v>530</v>
@@ -13703,11 +14924,14 @@
       <c r="E292" t="s">
         <v>1506</v>
       </c>
+      <c r="G292" s="11" t="s">
+        <v>1719</v>
+      </c>
       <c r="H292" s="11" t="s">
         <v>1279</v>
       </c>
       <c r="I292" s="11" t="s">
-        <v>1758</v>
+        <v>1719</v>
       </c>
       <c r="J292" t="s">
         <v>530</v>
@@ -13729,11 +14953,14 @@
       <c r="E293" t="s">
         <v>1506</v>
       </c>
+      <c r="G293" s="11" t="s">
+        <v>1948</v>
+      </c>
       <c r="H293" s="11" t="s">
         <v>1092</v>
       </c>
       <c r="I293" s="11" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="J293" t="s">
         <v>530</v>
@@ -13755,11 +14982,14 @@
       <c r="E294" t="s">
         <v>1506</v>
       </c>
+      <c r="G294" s="11" t="s">
+        <v>1898</v>
+      </c>
       <c r="H294" s="11" t="s">
         <v>1280</v>
       </c>
       <c r="I294" s="11" t="s">
-        <v>1759</v>
+        <v>1898</v>
       </c>
       <c r="J294" t="s">
         <v>530</v>
@@ -13781,11 +15011,14 @@
       <c r="E295" t="s">
         <v>1506</v>
       </c>
+      <c r="G295" s="11" t="s">
+        <v>1807</v>
+      </c>
       <c r="H295" s="11" t="s">
         <v>1281</v>
       </c>
       <c r="I295" s="11" t="s">
-        <v>1887</v>
+        <v>1807</v>
       </c>
       <c r="J295" t="s">
         <v>530</v>
@@ -13807,11 +15040,14 @@
       <c r="E296" t="s">
         <v>1506</v>
       </c>
+      <c r="G296" s="11" t="s">
+        <v>1716</v>
+      </c>
       <c r="H296" s="11" t="s">
         <v>1282</v>
       </c>
       <c r="I296" s="11" t="s">
-        <v>1760</v>
+        <v>1716</v>
       </c>
       <c r="J296" t="s">
         <v>530</v>
@@ -13833,11 +15069,14 @@
       <c r="E297" t="s">
         <v>1506</v>
       </c>
+      <c r="G297" s="11" t="s">
+        <v>1717</v>
+      </c>
       <c r="H297" s="11" t="s">
         <v>1283</v>
       </c>
       <c r="I297" s="11" t="s">
-        <v>1761</v>
+        <v>1717</v>
       </c>
       <c r="J297" t="s">
         <v>530</v>
@@ -13859,11 +15098,14 @@
       <c r="E298" t="s">
         <v>1506</v>
       </c>
+      <c r="G298" s="11" t="s">
+        <v>1718</v>
+      </c>
       <c r="H298" s="11" t="s">
         <v>1284</v>
       </c>
       <c r="I298" s="11" t="s">
-        <v>1762</v>
+        <v>1718</v>
       </c>
       <c r="J298" t="s">
         <v>530</v>
@@ -13885,11 +15127,14 @@
       <c r="E299" t="s">
         <v>1506</v>
       </c>
+      <c r="G299" s="11" t="s">
+        <v>1899</v>
+      </c>
       <c r="H299" s="11" t="s">
         <v>1285</v>
       </c>
       <c r="I299" s="11" t="s">
-        <v>1763</v>
+        <v>1899</v>
       </c>
       <c r="J299" t="s">
         <v>530</v>
@@ -13911,11 +15156,14 @@
       <c r="E300" t="s">
         <v>1506</v>
       </c>
+      <c r="G300" s="11" t="s">
+        <v>1720</v>
+      </c>
       <c r="H300" s="11" t="s">
         <v>1286</v>
       </c>
       <c r="I300" s="11" t="s">
-        <v>1764</v>
+        <v>1720</v>
       </c>
       <c r="J300" t="s">
         <v>530</v>
@@ -13937,11 +15185,14 @@
       <c r="E301" t="s">
         <v>1506</v>
       </c>
+      <c r="G301" s="11" t="s">
+        <v>1900</v>
+      </c>
       <c r="H301" s="11" t="s">
         <v>1287</v>
       </c>
       <c r="I301" s="11" t="s">
-        <v>1765</v>
+        <v>1900</v>
       </c>
       <c r="J301" t="s">
         <v>530</v>
@@ -13963,11 +15214,14 @@
       <c r="E302" t="s">
         <v>1506</v>
       </c>
+      <c r="G302" s="11" t="s">
+        <v>1721</v>
+      </c>
       <c r="H302" s="11" t="s">
         <v>1288</v>
       </c>
       <c r="I302" s="11" t="s">
-        <v>1766</v>
+        <v>1721</v>
       </c>
       <c r="J302" t="s">
         <v>530</v>
@@ -13989,11 +15243,14 @@
       <c r="E303" t="s">
         <v>1506</v>
       </c>
+      <c r="G303" s="11" t="s">
+        <v>1716</v>
+      </c>
       <c r="H303" s="11" t="s">
         <v>1289</v>
       </c>
       <c r="I303" s="11" t="s">
-        <v>1767</v>
+        <v>1716</v>
       </c>
       <c r="J303" t="s">
         <v>530</v>
@@ -14015,11 +15272,14 @@
       <c r="E304" t="s">
         <v>1506</v>
       </c>
+      <c r="G304" s="11" t="s">
+        <v>1722</v>
+      </c>
       <c r="H304" s="11" t="s">
         <v>1290</v>
       </c>
       <c r="I304" s="11" t="s">
-        <v>1768</v>
+        <v>1722</v>
       </c>
       <c r="J304" t="s">
         <v>530</v>
@@ -14041,11 +15301,14 @@
       <c r="E305" t="s">
         <v>1506</v>
       </c>
+      <c r="G305" s="11" t="s">
+        <v>1901</v>
+      </c>
       <c r="H305" s="11" t="s">
         <v>1291</v>
       </c>
       <c r="I305" s="11" t="s">
-        <v>1769</v>
+        <v>1723</v>
       </c>
       <c r="J305" t="s">
         <v>530</v>
@@ -14067,11 +15330,14 @@
       <c r="E306" t="s">
         <v>1506</v>
       </c>
+      <c r="G306" s="11" t="s">
+        <v>1724</v>
+      </c>
       <c r="H306" s="11" t="s">
         <v>1292</v>
       </c>
       <c r="I306" s="11" t="s">
-        <v>1770</v>
+        <v>1724</v>
       </c>
       <c r="J306" t="s">
         <v>530</v>
@@ -14093,11 +15359,14 @@
       <c r="E307" t="s">
         <v>1506</v>
       </c>
+      <c r="G307" s="11" t="s">
+        <v>1958</v>
+      </c>
       <c r="H307" s="11" t="s">
         <v>1213</v>
       </c>
       <c r="I307" s="11" t="s">
-        <v>1702</v>
+        <v>1958</v>
       </c>
       <c r="J307" t="s">
         <v>530</v>
@@ -14119,11 +15388,14 @@
       <c r="E308" t="s">
         <v>1506</v>
       </c>
+      <c r="G308" s="11" t="s">
+        <v>1725</v>
+      </c>
       <c r="H308" s="11" t="s">
         <v>1293</v>
       </c>
       <c r="I308" s="11" t="s">
-        <v>1771</v>
+        <v>1725</v>
       </c>
       <c r="J308" t="s">
         <v>530</v>
@@ -14145,11 +15417,14 @@
       <c r="E309" t="s">
         <v>1506</v>
       </c>
+      <c r="G309" s="11" t="s">
+        <v>1902</v>
+      </c>
       <c r="H309" s="11" t="s">
         <v>1294</v>
       </c>
       <c r="I309" s="11" t="s">
-        <v>1772</v>
+        <v>1902</v>
       </c>
       <c r="J309" t="s">
         <v>530</v>
@@ -14171,11 +15446,14 @@
       <c r="E310" t="s">
         <v>1506</v>
       </c>
+      <c r="G310" s="11" t="s">
+        <v>1903</v>
+      </c>
       <c r="H310" s="11" t="s">
         <v>1295</v>
       </c>
       <c r="I310" s="11" t="s">
-        <v>1773</v>
+        <v>1903</v>
       </c>
       <c r="J310" t="s">
         <v>530</v>
@@ -14197,11 +15475,14 @@
       <c r="E311" t="s">
         <v>1506</v>
       </c>
+      <c r="G311" s="11" t="s">
+        <v>1904</v>
+      </c>
       <c r="H311" s="11" t="s">
         <v>1296</v>
       </c>
       <c r="I311" s="11" t="s">
-        <v>1774</v>
+        <v>1904</v>
       </c>
       <c r="J311" t="s">
         <v>530</v>
@@ -14223,11 +15504,14 @@
       <c r="E312" t="s">
         <v>1506</v>
       </c>
+      <c r="G312" s="11" t="s">
+        <v>1726</v>
+      </c>
       <c r="H312" s="11" t="s">
         <v>1297</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>1775</v>
+        <v>1726</v>
       </c>
       <c r="J312" t="s">
         <v>530</v>
@@ -14249,11 +15533,14 @@
       <c r="E313" t="s">
         <v>1506</v>
       </c>
+      <c r="G313" s="11" t="s">
+        <v>1727</v>
+      </c>
       <c r="H313" s="11" t="s">
         <v>1298</v>
       </c>
       <c r="I313" s="11" t="s">
-        <v>1776</v>
+        <v>1727</v>
       </c>
       <c r="J313" t="s">
         <v>530</v>
@@ -14275,11 +15562,14 @@
       <c r="E314" t="s">
         <v>1506</v>
       </c>
+      <c r="G314" s="11" t="s">
+        <v>1575</v>
+      </c>
       <c r="H314" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="I314" s="11" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="J314" t="s">
         <v>530</v>
@@ -14301,11 +15591,14 @@
       <c r="E315" t="s">
         <v>1506</v>
       </c>
+      <c r="G315" s="11" t="s">
+        <v>1728</v>
+      </c>
       <c r="H315" s="11" t="s">
         <v>1299</v>
       </c>
       <c r="I315" s="11" t="s">
-        <v>1777</v>
+        <v>1728</v>
       </c>
       <c r="J315" t="s">
         <v>530</v>
@@ -14327,11 +15620,14 @@
       <c r="E316" t="s">
         <v>1506</v>
       </c>
+      <c r="G316" s="11" t="s">
+        <v>1729</v>
+      </c>
       <c r="H316" s="11" t="s">
         <v>1300</v>
       </c>
       <c r="I316" s="11" t="s">
-        <v>1778</v>
+        <v>1729</v>
       </c>
       <c r="J316" t="s">
         <v>530</v>
@@ -14353,11 +15649,14 @@
       <c r="E317" t="s">
         <v>1506</v>
       </c>
+      <c r="G317" s="11" t="s">
+        <v>1730</v>
+      </c>
       <c r="H317" s="11" t="s">
         <v>1301</v>
       </c>
       <c r="I317" s="11" t="s">
-        <v>1779</v>
+        <v>1730</v>
       </c>
       <c r="J317" t="s">
         <v>530</v>
@@ -14379,11 +15678,14 @@
       <c r="E318" t="s">
         <v>1506</v>
       </c>
+      <c r="G318" s="11" t="s">
+        <v>1731</v>
+      </c>
       <c r="H318" s="11" t="s">
         <v>1302</v>
       </c>
       <c r="I318" s="11" t="s">
-        <v>1780</v>
+        <v>1731</v>
       </c>
       <c r="J318" t="s">
         <v>530</v>
@@ -14405,11 +15707,14 @@
       <c r="E319" t="s">
         <v>1506</v>
       </c>
+      <c r="G319" s="11" t="s">
+        <v>1905</v>
+      </c>
       <c r="H319" s="11" t="s">
         <v>1303</v>
       </c>
       <c r="I319" s="11" t="s">
-        <v>1781</v>
+        <v>1905</v>
       </c>
       <c r="J319" t="s">
         <v>530</v>
@@ -14431,11 +15736,14 @@
       <c r="E320" t="s">
         <v>1506</v>
       </c>
+      <c r="G320" s="11" t="s">
+        <v>1732</v>
+      </c>
       <c r="H320" s="11" t="s">
         <v>1304</v>
       </c>
       <c r="I320" s="11" t="s">
-        <v>1782</v>
+        <v>1732</v>
       </c>
       <c r="J320" t="s">
         <v>530</v>
@@ -14457,11 +15765,14 @@
       <c r="E321" t="s">
         <v>1506</v>
       </c>
+      <c r="G321" s="11" t="s">
+        <v>1906</v>
+      </c>
       <c r="H321" s="11" t="s">
         <v>1305</v>
       </c>
       <c r="I321" s="11" t="s">
-        <v>1305</v>
+        <v>1906</v>
       </c>
       <c r="J321" t="s">
         <v>530</v>
@@ -14483,11 +15794,14 @@
       <c r="E322" t="s">
         <v>1506</v>
       </c>
+      <c r="G322" s="11" t="s">
+        <v>1907</v>
+      </c>
       <c r="H322" s="11" t="s">
         <v>1306</v>
       </c>
       <c r="I322" s="11" t="s">
-        <v>1783</v>
+        <v>1757</v>
       </c>
       <c r="J322" t="s">
         <v>530</v>
@@ -14509,11 +15823,14 @@
       <c r="E323" t="s">
         <v>1506</v>
       </c>
+      <c r="G323" s="11" t="s">
+        <v>1733</v>
+      </c>
       <c r="H323" s="11" t="s">
         <v>1307</v>
       </c>
       <c r="I323" s="11" t="s">
-        <v>1784</v>
+        <v>1733</v>
       </c>
       <c r="J323" t="s">
         <v>530</v>
@@ -14535,11 +15852,14 @@
       <c r="E324" t="s">
         <v>1506</v>
       </c>
+      <c r="G324" s="11" t="s">
+        <v>1954</v>
+      </c>
       <c r="H324" s="11" t="s">
         <v>1308</v>
       </c>
       <c r="I324" s="11" t="s">
-        <v>1785</v>
+        <v>1734</v>
       </c>
       <c r="J324" t="s">
         <v>530</v>
@@ -14561,11 +15881,14 @@
       <c r="E325" t="s">
         <v>1506</v>
       </c>
+      <c r="G325" s="11" t="s">
+        <v>1735</v>
+      </c>
       <c r="H325" s="11" t="s">
         <v>1309</v>
       </c>
       <c r="I325" s="11" t="s">
-        <v>1786</v>
+        <v>1735</v>
       </c>
       <c r="J325" t="s">
         <v>530</v>
@@ -14587,11 +15910,14 @@
       <c r="E326" t="s">
         <v>1506</v>
       </c>
+      <c r="G326" s="11" t="s">
+        <v>1736</v>
+      </c>
       <c r="H326" s="11" t="s">
         <v>1310</v>
       </c>
       <c r="I326" s="11" t="s">
-        <v>1787</v>
+        <v>1736</v>
       </c>
       <c r="J326" t="s">
         <v>530</v>
@@ -14613,11 +15939,14 @@
       <c r="E327" t="s">
         <v>1506</v>
       </c>
+      <c r="G327" s="11" t="s">
+        <v>1908</v>
+      </c>
       <c r="H327" s="11" t="s">
         <v>1311</v>
       </c>
       <c r="I327" s="11" t="s">
-        <v>1788</v>
+        <v>1908</v>
       </c>
       <c r="J327" t="s">
         <v>530</v>
@@ -14639,6 +15968,9 @@
       <c r="E328" t="s">
         <v>1506</v>
       </c>
+      <c r="G328" s="11" t="s">
+        <v>1312</v>
+      </c>
       <c r="H328" s="11" t="s">
         <v>1312</v>
       </c>
@@ -14665,11 +15997,14 @@
       <c r="E329" t="s">
         <v>1506</v>
       </c>
+      <c r="G329" s="11" t="s">
+        <v>1737</v>
+      </c>
       <c r="H329" s="11" t="s">
         <v>1313</v>
       </c>
       <c r="I329" s="11" t="s">
-        <v>1789</v>
+        <v>1737</v>
       </c>
       <c r="J329" t="s">
         <v>530</v>
@@ -14691,11 +16026,14 @@
       <c r="E330" t="s">
         <v>1506</v>
       </c>
+      <c r="G330" s="11" t="s">
+        <v>1909</v>
+      </c>
       <c r="H330" s="11" t="s">
         <v>1314</v>
       </c>
       <c r="I330" s="11" t="s">
-        <v>1790</v>
+        <v>1909</v>
       </c>
       <c r="J330" t="s">
         <v>530</v>
@@ -14717,11 +16055,14 @@
       <c r="E331" t="s">
         <v>1506</v>
       </c>
+      <c r="G331" s="11" t="s">
+        <v>1738</v>
+      </c>
       <c r="H331" s="11" t="s">
         <v>1315</v>
       </c>
       <c r="I331" s="11" t="s">
-        <v>1791</v>
+        <v>1738</v>
       </c>
       <c r="J331" t="s">
         <v>530</v>
@@ -14743,11 +16084,14 @@
       <c r="E332" t="s">
         <v>1506</v>
       </c>
+      <c r="G332" s="11" t="s">
+        <v>1739</v>
+      </c>
       <c r="H332" s="11" t="s">
         <v>1316</v>
       </c>
       <c r="I332" s="11" t="s">
-        <v>1792</v>
+        <v>1739</v>
       </c>
       <c r="J332" t="s">
         <v>530</v>
@@ -14769,11 +16113,14 @@
       <c r="E333" t="s">
         <v>1506</v>
       </c>
+      <c r="G333" s="11" t="s">
+        <v>1740</v>
+      </c>
       <c r="H333" s="11" t="s">
         <v>1317</v>
       </c>
       <c r="I333" s="11" t="s">
-        <v>1793</v>
+        <v>1740</v>
       </c>
       <c r="J333" t="s">
         <v>530</v>
@@ -14795,11 +16142,14 @@
       <c r="E334" t="s">
         <v>1506</v>
       </c>
+      <c r="G334" s="11" t="s">
+        <v>1741</v>
+      </c>
       <c r="H334" s="11" t="s">
         <v>1318</v>
       </c>
       <c r="I334" s="11" t="s">
-        <v>1794</v>
+        <v>1741</v>
       </c>
       <c r="J334" t="s">
         <v>530</v>
@@ -14821,11 +16171,14 @@
       <c r="E335" t="s">
         <v>1506</v>
       </c>
+      <c r="G335" s="11" t="s">
+        <v>1742</v>
+      </c>
       <c r="H335" s="11" t="s">
         <v>1319</v>
       </c>
       <c r="I335" s="11" t="s">
-        <v>1795</v>
+        <v>1742</v>
       </c>
       <c r="J335" t="s">
         <v>530</v>
@@ -14847,11 +16200,14 @@
       <c r="E336" t="s">
         <v>1506</v>
       </c>
+      <c r="G336" s="11" t="s">
+        <v>1910</v>
+      </c>
       <c r="H336" s="11" t="s">
         <v>1320</v>
       </c>
       <c r="I336" s="11" t="s">
-        <v>1796</v>
+        <v>1910</v>
       </c>
       <c r="J336" t="s">
         <v>530</v>
@@ -14873,11 +16229,14 @@
       <c r="E337" t="s">
         <v>1506</v>
       </c>
+      <c r="G337" s="11" t="s">
+        <v>1743</v>
+      </c>
       <c r="H337" s="11" t="s">
         <v>1321</v>
       </c>
       <c r="I337" s="11" t="s">
-        <v>1797</v>
+        <v>1743</v>
       </c>
       <c r="J337" t="s">
         <v>530</v>
@@ -14899,11 +16258,14 @@
       <c r="E338" t="s">
         <v>1506</v>
       </c>
+      <c r="G338" s="11" t="s">
+        <v>1950</v>
+      </c>
       <c r="H338" s="11" t="s">
         <v>1322</v>
       </c>
       <c r="I338" s="11" t="s">
-        <v>1798</v>
+        <v>1764</v>
       </c>
       <c r="J338" t="s">
         <v>530</v>
@@ -14925,11 +16287,14 @@
       <c r="E339" t="s">
         <v>1506</v>
       </c>
+      <c r="G339" s="11" t="s">
+        <v>1674</v>
+      </c>
       <c r="H339" s="11" t="s">
         <v>1323</v>
       </c>
       <c r="I339" s="11" t="s">
-        <v>1698</v>
+        <v>1674</v>
       </c>
       <c r="J339" t="s">
         <v>530</v>
@@ -14951,11 +16316,14 @@
       <c r="E340" t="s">
         <v>1506</v>
       </c>
+      <c r="G340" s="11" t="s">
+        <v>1911</v>
+      </c>
       <c r="H340" s="11" t="s">
         <v>1324</v>
       </c>
       <c r="I340" s="11" t="s">
-        <v>1799</v>
+        <v>1744</v>
       </c>
       <c r="J340" t="s">
         <v>530</v>
@@ -14977,11 +16345,14 @@
       <c r="E341" t="s">
         <v>1506</v>
       </c>
+      <c r="G341" s="11" t="s">
+        <v>1945</v>
+      </c>
       <c r="H341" s="11" t="s">
         <v>1325</v>
       </c>
       <c r="I341" s="11" t="s">
-        <v>1800</v>
+        <v>1945</v>
       </c>
       <c r="J341" t="s">
         <v>530</v>
@@ -15003,11 +16374,14 @@
       <c r="E342" t="s">
         <v>1506</v>
       </c>
+      <c r="G342" t="s">
+        <v>1745</v>
+      </c>
       <c r="H342" s="11" t="s">
         <v>1326</v>
       </c>
       <c r="I342" s="11" t="s">
-        <v>1801</v>
+        <v>1745</v>
       </c>
       <c r="J342" t="s">
         <v>530</v>
@@ -15029,11 +16403,14 @@
       <c r="E343" t="s">
         <v>1506</v>
       </c>
+      <c r="G343" t="s">
+        <v>1912</v>
+      </c>
       <c r="H343" s="11" t="s">
         <v>1327</v>
       </c>
       <c r="I343" s="11" t="s">
-        <v>1802</v>
+        <v>1746</v>
       </c>
       <c r="J343" t="s">
         <v>530</v>
@@ -15055,11 +16432,14 @@
       <c r="E344" t="s">
         <v>1506</v>
       </c>
+      <c r="G344" t="s">
+        <v>1747</v>
+      </c>
       <c r="H344" s="11" t="s">
         <v>1328</v>
       </c>
       <c r="I344" s="11" t="s">
-        <v>1803</v>
+        <v>1747</v>
       </c>
       <c r="J344" t="s">
         <v>530</v>
@@ -15081,11 +16461,14 @@
       <c r="E345" t="s">
         <v>1506</v>
       </c>
+      <c r="G345" t="s">
+        <v>1913</v>
+      </c>
       <c r="H345" s="11" t="s">
         <v>1329</v>
       </c>
       <c r="I345" s="11" t="s">
-        <v>1804</v>
+        <v>1913</v>
       </c>
       <c r="J345" t="s">
         <v>530</v>
@@ -15107,11 +16490,14 @@
       <c r="E346" t="s">
         <v>1506</v>
       </c>
+      <c r="G346" t="s">
+        <v>1914</v>
+      </c>
       <c r="H346" s="11" t="s">
         <v>1330</v>
       </c>
       <c r="I346" s="11" t="s">
-        <v>1805</v>
+        <v>1914</v>
       </c>
       <c r="J346" t="s">
         <v>530</v>
@@ -15133,11 +16519,14 @@
       <c r="E347" t="s">
         <v>1506</v>
       </c>
+      <c r="G347" t="s">
+        <v>1748</v>
+      </c>
       <c r="H347" s="11" t="s">
         <v>1331</v>
       </c>
       <c r="I347" s="11" t="s">
-        <v>1806</v>
+        <v>1748</v>
       </c>
       <c r="J347" t="s">
         <v>530</v>
@@ -15159,11 +16548,14 @@
       <c r="E348" t="s">
         <v>1506</v>
       </c>
+      <c r="G348" t="s">
+        <v>1749</v>
+      </c>
       <c r="H348" s="11" t="s">
         <v>1332</v>
       </c>
       <c r="I348" s="11" t="s">
-        <v>1807</v>
+        <v>1749</v>
       </c>
       <c r="J348" t="s">
         <v>530</v>
@@ -15185,11 +16577,14 @@
       <c r="E349" t="s">
         <v>1506</v>
       </c>
+      <c r="G349" t="s">
+        <v>1188</v>
+      </c>
       <c r="H349" s="11" t="s">
         <v>1333</v>
       </c>
       <c r="I349" s="11" t="s">
-        <v>1808</v>
+        <v>1750</v>
       </c>
       <c r="J349" t="s">
         <v>530</v>
@@ -15211,11 +16606,14 @@
       <c r="E350" t="s">
         <v>1506</v>
       </c>
+      <c r="G350" t="s">
+        <v>1751</v>
+      </c>
       <c r="H350" s="11" t="s">
         <v>1334</v>
       </c>
       <c r="I350" s="11" t="s">
-        <v>1809</v>
+        <v>1751</v>
       </c>
       <c r="J350" t="s">
         <v>530</v>
@@ -15237,11 +16635,14 @@
       <c r="E351" t="s">
         <v>1506</v>
       </c>
+      <c r="G351" t="s">
+        <v>1752</v>
+      </c>
       <c r="H351" s="11" t="s">
         <v>1335</v>
       </c>
       <c r="I351" s="11" t="s">
-        <v>1810</v>
+        <v>1752</v>
       </c>
       <c r="J351" t="s">
         <v>530</v>
@@ -15263,11 +16664,14 @@
       <c r="E352" t="s">
         <v>1506</v>
       </c>
+      <c r="G352" t="s">
+        <v>1915</v>
+      </c>
       <c r="H352" s="11" t="s">
         <v>1336</v>
       </c>
       <c r="I352" s="11" t="s">
-        <v>1811</v>
+        <v>1915</v>
       </c>
       <c r="J352" t="s">
         <v>530</v>
@@ -15289,6 +16693,9 @@
       <c r="E353" t="s">
         <v>1506</v>
       </c>
+      <c r="G353" t="s">
+        <v>1337</v>
+      </c>
       <c r="H353" s="11" t="s">
         <v>1337</v>
       </c>
@@ -15315,11 +16722,14 @@
       <c r="E354" t="s">
         <v>1506</v>
       </c>
+      <c r="G354" t="s">
+        <v>1753</v>
+      </c>
       <c r="H354" s="11" t="s">
         <v>1338</v>
       </c>
       <c r="I354" s="11" t="s">
-        <v>1812</v>
+        <v>1753</v>
       </c>
       <c r="J354" t="s">
         <v>530</v>
@@ -15341,11 +16751,14 @@
       <c r="E355" t="s">
         <v>1506</v>
       </c>
+      <c r="G355" t="s">
+        <v>1953</v>
+      </c>
       <c r="H355" s="11" t="s">
         <v>1339</v>
       </c>
       <c r="I355" s="11" t="s">
-        <v>1813</v>
+        <v>1953</v>
       </c>
       <c r="J355" t="s">
         <v>530</v>
@@ -15367,11 +16780,14 @@
       <c r="E356" t="s">
         <v>1506</v>
       </c>
+      <c r="G356" t="s">
+        <v>1754</v>
+      </c>
       <c r="H356" s="11" t="s">
         <v>1340</v>
       </c>
       <c r="I356" s="11" t="s">
-        <v>1814</v>
+        <v>1754</v>
       </c>
       <c r="J356" t="s">
         <v>530</v>
@@ -15393,11 +16809,14 @@
       <c r="E357" t="s">
         <v>1506</v>
       </c>
+      <c r="G357" t="s">
+        <v>1755</v>
+      </c>
       <c r="H357" s="11" t="s">
         <v>1341</v>
       </c>
       <c r="I357" s="11" t="s">
-        <v>1815</v>
+        <v>1755</v>
       </c>
       <c r="J357" t="s">
         <v>530</v>
@@ -15419,11 +16838,14 @@
       <c r="E358" t="s">
         <v>1506</v>
       </c>
+      <c r="G358" t="s">
+        <v>1916</v>
+      </c>
       <c r="H358" s="11" t="s">
         <v>1342</v>
       </c>
       <c r="I358" s="11" t="s">
-        <v>1816</v>
+        <v>1916</v>
       </c>
       <c r="J358" t="s">
         <v>530</v>
@@ -15445,11 +16867,14 @@
       <c r="E359" t="s">
         <v>1506</v>
       </c>
+      <c r="G359" t="s">
+        <v>1756</v>
+      </c>
       <c r="H359" s="11" t="s">
         <v>1343</v>
       </c>
       <c r="I359" s="11" t="s">
-        <v>1817</v>
+        <v>1756</v>
       </c>
       <c r="J359" t="s">
         <v>530</v>
@@ -15471,11 +16896,14 @@
       <c r="E360" t="s">
         <v>1506</v>
       </c>
+      <c r="G360" t="s">
+        <v>1917</v>
+      </c>
       <c r="H360" s="11" t="s">
         <v>1344</v>
       </c>
       <c r="I360" s="11" t="s">
-        <v>1818</v>
+        <v>1917</v>
       </c>
       <c r="J360" t="s">
         <v>530</v>
@@ -15497,11 +16925,14 @@
       <c r="E361" t="s">
         <v>1506</v>
       </c>
+      <c r="G361" t="s">
+        <v>1923</v>
+      </c>
       <c r="H361" s="11" t="s">
         <v>1345</v>
       </c>
       <c r="I361" s="11" t="s">
-        <v>1819</v>
+        <v>1757</v>
       </c>
       <c r="J361" t="s">
         <v>530</v>
@@ -15523,11 +16954,14 @@
       <c r="E362" t="s">
         <v>1506</v>
       </c>
+      <c r="G362" t="s">
+        <v>1758</v>
+      </c>
       <c r="H362" s="11" t="s">
         <v>1346</v>
       </c>
       <c r="I362" s="11" t="s">
-        <v>1820</v>
+        <v>1758</v>
       </c>
       <c r="J362" t="s">
         <v>530</v>
@@ -15549,11 +16983,14 @@
       <c r="E363" t="s">
         <v>1506</v>
       </c>
+      <c r="G363" t="s">
+        <v>1918</v>
+      </c>
       <c r="H363" s="11" t="s">
         <v>1347</v>
       </c>
       <c r="I363" s="11" t="s">
-        <v>1821</v>
+        <v>1918</v>
       </c>
       <c r="J363" t="s">
         <v>530</v>
@@ -15575,11 +17012,14 @@
       <c r="E364" t="s">
         <v>1506</v>
       </c>
+      <c r="G364" t="s">
+        <v>1919</v>
+      </c>
       <c r="H364" s="11" t="s">
         <v>1348</v>
       </c>
       <c r="I364" s="11" t="s">
-        <v>1822</v>
+        <v>1919</v>
       </c>
       <c r="J364" t="s">
         <v>530</v>
@@ -15601,11 +17041,14 @@
       <c r="E365" t="s">
         <v>1506</v>
       </c>
+      <c r="G365" t="s">
+        <v>1759</v>
+      </c>
       <c r="H365" s="11" t="s">
         <v>1349</v>
       </c>
       <c r="I365" s="11" t="s">
-        <v>1823</v>
+        <v>1759</v>
       </c>
       <c r="J365" t="s">
         <v>530</v>
@@ -15627,11 +17070,14 @@
       <c r="E366" t="s">
         <v>1506</v>
       </c>
+      <c r="G366" t="s">
+        <v>1766</v>
+      </c>
       <c r="H366" s="11" t="s">
         <v>1350</v>
       </c>
       <c r="I366" s="11" t="s">
-        <v>1824</v>
+        <v>1766</v>
       </c>
       <c r="J366" t="s">
         <v>530</v>
@@ -15653,11 +17099,14 @@
       <c r="E367" t="s">
         <v>1506</v>
       </c>
+      <c r="G367" t="s">
+        <v>1920</v>
+      </c>
       <c r="H367" s="11" t="s">
         <v>1351</v>
       </c>
       <c r="I367" s="11" t="s">
-        <v>1825</v>
+        <v>1920</v>
       </c>
       <c r="J367" t="s">
         <v>530</v>
@@ -15679,11 +17128,14 @@
       <c r="E368" t="s">
         <v>1506</v>
       </c>
+      <c r="G368" t="s">
+        <v>1921</v>
+      </c>
       <c r="H368" s="11" t="s">
         <v>1352</v>
       </c>
       <c r="I368" s="11" t="s">
-        <v>1826</v>
+        <v>1921</v>
       </c>
       <c r="J368" t="s">
         <v>530</v>
@@ -15705,11 +17157,14 @@
       <c r="E369" t="s">
         <v>1506</v>
       </c>
+      <c r="G369" t="s">
+        <v>1761</v>
+      </c>
       <c r="H369" s="11" t="s">
         <v>1353</v>
       </c>
       <c r="I369" s="11" t="s">
-        <v>1827</v>
+        <v>1761</v>
       </c>
       <c r="J369" t="s">
         <v>530</v>
@@ -15731,11 +17186,14 @@
       <c r="E370" t="s">
         <v>1506</v>
       </c>
+      <c r="G370" t="s">
+        <v>1762</v>
+      </c>
       <c r="H370" s="11" t="s">
         <v>1354</v>
       </c>
       <c r="I370" s="11" t="s">
-        <v>1828</v>
+        <v>1762</v>
       </c>
       <c r="J370" t="s">
         <v>530</v>
@@ -15757,11 +17215,14 @@
       <c r="E371" t="s">
         <v>1506</v>
       </c>
+      <c r="G371" t="s">
+        <v>1763</v>
+      </c>
       <c r="H371" s="11" t="s">
         <v>1355</v>
       </c>
       <c r="I371" s="11" t="s">
-        <v>1829</v>
+        <v>1763</v>
       </c>
       <c r="J371" t="s">
         <v>530</v>
@@ -15783,11 +17244,14 @@
       <c r="E372" t="s">
         <v>1506</v>
       </c>
+      <c r="G372" t="s">
+        <v>1922</v>
+      </c>
       <c r="H372" s="11" t="s">
         <v>1356</v>
       </c>
       <c r="I372" s="11" t="s">
-        <v>1830</v>
+        <v>1764</v>
       </c>
       <c r="J372" t="s">
         <v>530</v>
@@ -15809,11 +17273,14 @@
       <c r="E373" t="s">
         <v>1506</v>
       </c>
+      <c r="G373" t="s">
+        <v>1924</v>
+      </c>
       <c r="H373" s="11" t="s">
         <v>1357</v>
       </c>
       <c r="I373" s="11" t="s">
-        <v>1831</v>
+        <v>1765</v>
       </c>
       <c r="J373" t="s">
         <v>530</v>
@@ -15835,11 +17302,14 @@
       <c r="E374" t="s">
         <v>1506</v>
       </c>
+      <c r="G374" t="s">
+        <v>1760</v>
+      </c>
       <c r="H374" s="11" t="s">
         <v>1358</v>
       </c>
       <c r="I374" s="11" t="s">
-        <v>1832</v>
+        <v>1760</v>
       </c>
       <c r="J374" t="s">
         <v>530</v>
@@ -15861,11 +17331,14 @@
       <c r="E375" t="s">
         <v>1506</v>
       </c>
+      <c r="G375" t="s">
+        <v>1767</v>
+      </c>
       <c r="H375" s="11" t="s">
         <v>1359</v>
       </c>
       <c r="I375" s="11" t="s">
-        <v>1833</v>
+        <v>1767</v>
       </c>
       <c r="J375" t="s">
         <v>530</v>
@@ -15887,11 +17360,14 @@
       <c r="E376" t="s">
         <v>1506</v>
       </c>
+      <c r="G376" t="s">
+        <v>1768</v>
+      </c>
       <c r="H376" s="11" t="s">
         <v>1360</v>
       </c>
       <c r="I376" s="11" t="s">
-        <v>1834</v>
+        <v>1768</v>
       </c>
       <c r="J376" t="s">
         <v>530</v>
@@ -15913,11 +17389,14 @@
       <c r="E377" t="s">
         <v>1506</v>
       </c>
+      <c r="G377" t="s">
+        <v>1925</v>
+      </c>
       <c r="H377" s="11" t="s">
         <v>1361</v>
       </c>
       <c r="I377" s="11" t="s">
-        <v>1835</v>
+        <v>1925</v>
       </c>
       <c r="J377" t="s">
         <v>530</v>
@@ -15939,11 +17418,14 @@
       <c r="E378" t="s">
         <v>1506</v>
       </c>
+      <c r="G378" t="s">
+        <v>1769</v>
+      </c>
       <c r="H378" s="11" t="s">
         <v>1362</v>
       </c>
       <c r="I378" s="11" t="s">
-        <v>1836</v>
+        <v>1769</v>
       </c>
       <c r="J378" t="s">
         <v>528</v>
@@ -15965,11 +17447,14 @@
       <c r="E379" t="s">
         <v>1506</v>
       </c>
+      <c r="G379" t="s">
+        <v>1926</v>
+      </c>
       <c r="H379" s="11" t="s">
         <v>1363</v>
       </c>
       <c r="I379" s="11" t="s">
-        <v>1837</v>
+        <v>1926</v>
       </c>
       <c r="J379" t="s">
         <v>528</v>
@@ -15991,11 +17476,14 @@
       <c r="E380" t="s">
         <v>1506</v>
       </c>
+      <c r="G380" t="s">
+        <v>1770</v>
+      </c>
       <c r="H380" s="11" t="s">
         <v>1364</v>
       </c>
       <c r="I380" s="11" t="s">
-        <v>1838</v>
+        <v>1770</v>
       </c>
       <c r="J380" t="s">
         <v>528</v>
@@ -16017,11 +17505,14 @@
       <c r="E381" t="s">
         <v>1506</v>
       </c>
+      <c r="G381" t="s">
+        <v>1771</v>
+      </c>
       <c r="H381" s="11" t="s">
         <v>1365</v>
       </c>
       <c r="I381" s="11" t="s">
-        <v>1839</v>
+        <v>1771</v>
       </c>
       <c r="J381" t="s">
         <v>528</v>
@@ -16043,11 +17534,14 @@
       <c r="E382" t="s">
         <v>1506</v>
       </c>
+      <c r="G382" t="s">
+        <v>1772</v>
+      </c>
       <c r="H382" s="11" t="s">
         <v>1366</v>
       </c>
       <c r="I382" s="11" t="s">
-        <v>1840</v>
+        <v>1772</v>
       </c>
       <c r="J382" t="s">
         <v>528</v>
@@ -16069,11 +17563,14 @@
       <c r="E383" t="s">
         <v>1506</v>
       </c>
+      <c r="G383" t="s">
+        <v>1927</v>
+      </c>
       <c r="H383" s="11" t="s">
         <v>1367</v>
       </c>
       <c r="I383" s="11" t="s">
-        <v>1841</v>
+        <v>1927</v>
       </c>
       <c r="J383" t="s">
         <v>528</v>
@@ -16095,11 +17592,14 @@
       <c r="E384" t="s">
         <v>1506</v>
       </c>
+      <c r="G384" t="s">
+        <v>1773</v>
+      </c>
       <c r="H384" s="11" t="s">
         <v>1368</v>
       </c>
       <c r="I384" s="11" t="s">
-        <v>1842</v>
+        <v>1773</v>
       </c>
       <c r="J384" t="s">
         <v>528</v>
@@ -16121,11 +17621,14 @@
       <c r="E385" t="s">
         <v>1506</v>
       </c>
+      <c r="G385" t="s">
+        <v>1928</v>
+      </c>
       <c r="H385" s="11" t="s">
         <v>1369</v>
       </c>
       <c r="I385" s="11" t="s">
-        <v>1843</v>
+        <v>1928</v>
       </c>
       <c r="J385" t="s">
         <v>528</v>
@@ -16147,11 +17650,14 @@
       <c r="E386" t="s">
         <v>1506</v>
       </c>
+      <c r="G386" s="11" t="s">
+        <v>1774</v>
+      </c>
       <c r="H386" s="11" t="s">
         <v>1370</v>
       </c>
       <c r="I386" s="11" t="s">
-        <v>1844</v>
+        <v>1774</v>
       </c>
       <c r="J386" t="s">
         <v>531</v>
@@ -16173,11 +17679,14 @@
       <c r="E387" t="s">
         <v>1506</v>
       </c>
+      <c r="G387" s="11" t="s">
+        <v>1775</v>
+      </c>
       <c r="H387" s="11" t="s">
         <v>1371</v>
       </c>
       <c r="I387" s="11" t="s">
-        <v>1845</v>
+        <v>1775</v>
       </c>
       <c r="J387" t="s">
         <v>531</v>
@@ -16199,11 +17708,14 @@
       <c r="E388" t="s">
         <v>1506</v>
       </c>
+      <c r="G388" s="11" t="s">
+        <v>1776</v>
+      </c>
       <c r="H388" s="11" t="s">
         <v>1372</v>
       </c>
       <c r="I388" s="11" t="s">
-        <v>1846</v>
+        <v>1776</v>
       </c>
       <c r="J388" t="s">
         <v>531</v>
@@ -16225,11 +17737,14 @@
       <c r="E389" t="s">
         <v>1506</v>
       </c>
+      <c r="G389" s="11" t="s">
+        <v>1775</v>
+      </c>
       <c r="H389" s="11" t="s">
         <v>1373</v>
       </c>
       <c r="I389" s="11" t="s">
-        <v>1845</v>
+        <v>1775</v>
       </c>
       <c r="J389" t="s">
         <v>531</v>
@@ -16251,11 +17766,14 @@
       <c r="E390" t="s">
         <v>1506</v>
       </c>
+      <c r="G390" s="11" t="s">
+        <v>1777</v>
+      </c>
       <c r="H390" s="11" t="s">
         <v>1374</v>
       </c>
       <c r="I390" s="11" t="s">
-        <v>1847</v>
+        <v>1777</v>
       </c>
       <c r="J390" t="s">
         <v>531</v>
@@ -16277,11 +17795,14 @@
       <c r="E391" t="s">
         <v>1506</v>
       </c>
+      <c r="G391" s="11" t="s">
+        <v>1778</v>
+      </c>
       <c r="H391" s="11" t="s">
         <v>1375</v>
       </c>
       <c r="I391" s="11" t="s">
-        <v>1848</v>
+        <v>1778</v>
       </c>
       <c r="J391" t="s">
         <v>531</v>
@@ -16303,11 +17824,14 @@
       <c r="E392" t="s">
         <v>1506</v>
       </c>
+      <c r="G392" s="11" t="s">
+        <v>1779</v>
+      </c>
       <c r="H392" s="11" t="s">
         <v>1376</v>
       </c>
       <c r="I392" s="11" t="s">
-        <v>1849</v>
+        <v>1779</v>
       </c>
       <c r="J392" t="s">
         <v>531</v>
@@ -16329,11 +17853,14 @@
       <c r="E393" t="s">
         <v>1506</v>
       </c>
+      <c r="G393" s="11" t="s">
+        <v>1780</v>
+      </c>
       <c r="H393" s="11" t="s">
         <v>1377</v>
       </c>
       <c r="I393" s="11" t="s">
-        <v>1850</v>
+        <v>1780</v>
       </c>
       <c r="J393" t="s">
         <v>531</v>
@@ -16355,11 +17882,14 @@
       <c r="E394" t="s">
         <v>1506</v>
       </c>
+      <c r="G394" s="11" t="s">
+        <v>1391</v>
+      </c>
       <c r="H394" s="11" t="s">
         <v>1378</v>
       </c>
       <c r="I394" s="11" t="s">
-        <v>1851</v>
+        <v>1781</v>
       </c>
       <c r="J394" t="s">
         <v>531</v>
@@ -16381,11 +17911,14 @@
       <c r="E395" t="s">
         <v>1506</v>
       </c>
+      <c r="G395" s="11" t="s">
+        <v>1782</v>
+      </c>
       <c r="H395" s="11" t="s">
         <v>1379</v>
       </c>
       <c r="I395" s="11" t="s">
-        <v>1852</v>
+        <v>1782</v>
       </c>
       <c r="J395" t="s">
         <v>531</v>
@@ -16407,11 +17940,14 @@
       <c r="E396" t="s">
         <v>1506</v>
       </c>
+      <c r="G396" s="11" t="s">
+        <v>1783</v>
+      </c>
       <c r="H396" s="11" t="s">
         <v>1380</v>
       </c>
       <c r="I396" s="11" t="s">
-        <v>1853</v>
+        <v>1783</v>
       </c>
       <c r="J396" t="s">
         <v>531</v>
@@ -16433,11 +17969,14 @@
       <c r="E397" t="s">
         <v>1506</v>
       </c>
+      <c r="G397" s="11" t="s">
+        <v>1784</v>
+      </c>
       <c r="H397" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="I397" s="11" t="s">
-        <v>1854</v>
+        <v>1784</v>
       </c>
       <c r="J397" t="s">
         <v>531</v>
@@ -16459,11 +17998,14 @@
       <c r="E398" t="s">
         <v>1506</v>
       </c>
+      <c r="G398" s="11" t="s">
+        <v>1785</v>
+      </c>
       <c r="H398" s="11" t="s">
         <v>1382</v>
       </c>
       <c r="I398" s="11" t="s">
-        <v>1855</v>
+        <v>1785</v>
       </c>
       <c r="J398" t="s">
         <v>531</v>
@@ -16485,11 +18027,14 @@
       <c r="E399" t="s">
         <v>1506</v>
       </c>
+      <c r="G399" s="11" t="s">
+        <v>1786</v>
+      </c>
       <c r="H399" s="11" t="s">
         <v>1383</v>
       </c>
       <c r="I399" s="11" t="s">
-        <v>1856</v>
+        <v>1786</v>
       </c>
       <c r="J399" t="s">
         <v>531</v>
@@ -16511,11 +18056,14 @@
       <c r="E400" t="s">
         <v>1506</v>
       </c>
+      <c r="G400" s="11" t="s">
+        <v>1929</v>
+      </c>
       <c r="H400" s="11" t="s">
         <v>1384</v>
       </c>
       <c r="I400" s="11" t="s">
-        <v>1857</v>
+        <v>1929</v>
       </c>
       <c r="J400" t="s">
         <v>531</v>
@@ -16537,11 +18085,14 @@
       <c r="E401" t="s">
         <v>1506</v>
       </c>
+      <c r="G401" s="11" t="s">
+        <v>1930</v>
+      </c>
       <c r="H401" s="11" t="s">
         <v>1385</v>
       </c>
       <c r="I401" s="11" t="s">
-        <v>1858</v>
+        <v>1787</v>
       </c>
       <c r="J401" t="s">
         <v>531</v>
@@ -16563,11 +18114,14 @@
       <c r="E402" t="s">
         <v>1506</v>
       </c>
+      <c r="G402" s="11" t="s">
+        <v>1931</v>
+      </c>
       <c r="H402" s="11" t="s">
         <v>1386</v>
       </c>
       <c r="I402" s="11" t="s">
-        <v>1859</v>
+        <v>1931</v>
       </c>
       <c r="J402" t="s">
         <v>531</v>
@@ -16589,11 +18143,14 @@
       <c r="E403" t="s">
         <v>1506</v>
       </c>
+      <c r="G403" s="11" t="s">
+        <v>1932</v>
+      </c>
       <c r="H403" s="11" t="s">
         <v>1387</v>
       </c>
       <c r="I403" s="11" t="s">
-        <v>1860</v>
+        <v>1932</v>
       </c>
       <c r="J403" t="s">
         <v>531</v>
@@ -16615,11 +18172,14 @@
       <c r="E404" t="s">
         <v>1506</v>
       </c>
+      <c r="G404" s="11" t="s">
+        <v>1943</v>
+      </c>
       <c r="H404" s="11" t="s">
         <v>1388</v>
       </c>
       <c r="I404" s="11" t="s">
-        <v>1861</v>
+        <v>1943</v>
       </c>
       <c r="J404" t="s">
         <v>531</v>
@@ -16641,11 +18201,14 @@
       <c r="E405" t="s">
         <v>1506</v>
       </c>
+      <c r="G405" s="11" t="s">
+        <v>1746</v>
+      </c>
       <c r="H405" s="11" t="s">
         <v>1389</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>1802</v>
+        <v>1746</v>
       </c>
       <c r="J405" t="s">
         <v>531</v>
@@ -16667,11 +18230,14 @@
       <c r="E406" t="s">
         <v>1506</v>
       </c>
+      <c r="G406" s="11" t="s">
+        <v>1788</v>
+      </c>
       <c r="H406" s="11" t="s">
         <v>1390</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>1862</v>
+        <v>1788</v>
       </c>
       <c r="J406" t="s">
         <v>531</v>
@@ -16693,11 +18259,14 @@
       <c r="E407" t="s">
         <v>1506</v>
       </c>
+      <c r="G407" s="11" t="s">
+        <v>1789</v>
+      </c>
       <c r="H407" s="11" t="s">
         <v>1391</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>1863</v>
+        <v>1789</v>
       </c>
       <c r="J407" t="s">
         <v>531</v>
@@ -16719,11 +18288,14 @@
       <c r="E408" t="s">
         <v>1506</v>
       </c>
+      <c r="G408" s="11" t="s">
+        <v>1933</v>
+      </c>
       <c r="H408" s="11" t="s">
         <v>1392</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>1863</v>
+        <v>1933</v>
       </c>
       <c r="J408" t="s">
         <v>531</v>
@@ -16745,11 +18317,14 @@
       <c r="E409" t="s">
         <v>1506</v>
       </c>
+      <c r="G409" s="11" t="s">
+        <v>1933</v>
+      </c>
       <c r="H409" s="11" t="s">
         <v>1393</v>
       </c>
       <c r="I409" s="11" t="s">
-        <v>1863</v>
+        <v>1933</v>
       </c>
       <c r="J409" t="s">
         <v>531</v>
@@ -16771,11 +18346,14 @@
       <c r="E410" t="s">
         <v>1506</v>
       </c>
+      <c r="G410" s="11" t="s">
+        <v>1933</v>
+      </c>
       <c r="H410" s="11" t="s">
         <v>1394</v>
       </c>
       <c r="I410" s="11" t="s">
-        <v>1864</v>
+        <v>1933</v>
       </c>
       <c r="J410" t="s">
         <v>531</v>
@@ -16797,11 +18375,14 @@
       <c r="E411" t="s">
         <v>1506</v>
       </c>
+      <c r="G411" s="11" t="s">
+        <v>1790</v>
+      </c>
       <c r="H411" s="11" t="s">
         <v>1395</v>
       </c>
       <c r="I411" s="11" t="s">
-        <v>1865</v>
+        <v>1790</v>
       </c>
       <c r="J411" t="s">
         <v>531</v>
@@ -16823,11 +18404,14 @@
       <c r="E412" t="s">
         <v>1506</v>
       </c>
+      <c r="G412" s="11" t="s">
+        <v>1934</v>
+      </c>
       <c r="H412" s="11" t="s">
         <v>1396</v>
       </c>
       <c r="I412" s="11" t="s">
-        <v>1865</v>
+        <v>1790</v>
       </c>
       <c r="J412" t="s">
         <v>531</v>
@@ -16849,11 +18433,14 @@
       <c r="E413" t="s">
         <v>1506</v>
       </c>
+      <c r="G413" s="11" t="s">
+        <v>1791</v>
+      </c>
       <c r="H413" s="11" t="s">
         <v>1397</v>
       </c>
       <c r="I413" s="11" t="s">
-        <v>1866</v>
+        <v>1791</v>
       </c>
       <c r="J413" t="s">
         <v>531</v>
@@ -16875,11 +18462,14 @@
       <c r="E414" t="s">
         <v>1506</v>
       </c>
+      <c r="G414" s="11" t="s">
+        <v>1935</v>
+      </c>
       <c r="H414" s="11" t="s">
         <v>1398</v>
       </c>
       <c r="I414" s="11" t="s">
-        <v>1866</v>
+        <v>1791</v>
       </c>
       <c r="J414" t="s">
         <v>531</v>
@@ -16901,11 +18491,14 @@
       <c r="E415" t="s">
         <v>1506</v>
       </c>
+      <c r="G415" s="11" t="s">
+        <v>1936</v>
+      </c>
       <c r="H415" s="11" t="s">
         <v>1399</v>
       </c>
       <c r="I415" s="11" t="s">
-        <v>1867</v>
+        <v>1936</v>
       </c>
       <c r="J415" t="s">
         <v>531</v>
@@ -16927,6 +18520,9 @@
       <c r="E416" t="s">
         <v>1506</v>
       </c>
+      <c r="G416" s="11" t="s">
+        <v>1400</v>
+      </c>
       <c r="H416" s="11" t="s">
         <v>1400</v>
       </c>
@@ -16953,11 +18549,14 @@
       <c r="E417" t="s">
         <v>1506</v>
       </c>
+      <c r="G417" s="11" t="s">
+        <v>1684</v>
+      </c>
       <c r="H417" s="11" t="s">
         <v>1401</v>
       </c>
       <c r="I417" s="11" t="s">
-        <v>1712</v>
+        <v>1684</v>
       </c>
       <c r="J417" t="s">
         <v>531</v>
@@ -16979,11 +18578,14 @@
       <c r="E418" t="s">
         <v>1506</v>
       </c>
+      <c r="G418" s="11" t="s">
+        <v>517</v>
+      </c>
       <c r="H418" s="11" t="s">
         <v>1223</v>
       </c>
       <c r="I418" s="11" t="s">
-        <v>1712</v>
+        <v>517</v>
       </c>
       <c r="J418" t="s">
         <v>531</v>
@@ -17005,11 +18607,14 @@
       <c r="E419" t="s">
         <v>1506</v>
       </c>
+      <c r="G419" s="11" t="s">
+        <v>1937</v>
+      </c>
       <c r="H419" s="11" t="s">
         <v>1402</v>
       </c>
       <c r="I419" s="11" t="s">
-        <v>1868</v>
+        <v>1937</v>
       </c>
       <c r="J419" t="s">
         <v>531</v>
@@ -17031,11 +18636,14 @@
       <c r="E420" t="s">
         <v>1506</v>
       </c>
+      <c r="G420" s="11" t="s">
+        <v>1938</v>
+      </c>
       <c r="H420" s="11" t="s">
         <v>1403</v>
       </c>
       <c r="I420" s="11" t="s">
-        <v>1869</v>
+        <v>1938</v>
       </c>
       <c r="J420" t="s">
         <v>531</v>
@@ -17057,11 +18665,14 @@
       <c r="E421" t="s">
         <v>1506</v>
       </c>
+      <c r="G421" s="11" t="s">
+        <v>1939</v>
+      </c>
       <c r="H421" s="11" t="s">
         <v>1264</v>
       </c>
       <c r="I421" s="11" t="s">
-        <v>1745</v>
+        <v>1939</v>
       </c>
       <c r="J421" t="s">
         <v>531</v>
@@ -17083,11 +18694,14 @@
       <c r="E422" t="s">
         <v>1506</v>
       </c>
+      <c r="G422" s="11" t="s">
+        <v>1940</v>
+      </c>
       <c r="H422" s="11" t="s">
         <v>1404</v>
       </c>
       <c r="I422" s="11" t="s">
-        <v>1870</v>
+        <v>1940</v>
       </c>
       <c r="J422" t="s">
         <v>531</v>
@@ -17109,11 +18723,14 @@
       <c r="E423" t="s">
         <v>1506</v>
       </c>
+      <c r="G423" s="11" t="s">
+        <v>1792</v>
+      </c>
       <c r="H423" s="11" t="s">
         <v>1405</v>
       </c>
       <c r="I423" s="11" t="s">
-        <v>1871</v>
+        <v>1792</v>
       </c>
       <c r="J423" t="s">
         <v>531</v>
@@ -17135,11 +18752,14 @@
       <c r="E424" t="s">
         <v>1506</v>
       </c>
+      <c r="G424" s="11" t="s">
+        <v>1793</v>
+      </c>
       <c r="H424" s="11" t="s">
         <v>1406</v>
       </c>
       <c r="I424" s="11" t="s">
-        <v>1872</v>
+        <v>1793</v>
       </c>
       <c r="J424" t="s">
         <v>531</v>
@@ -17161,11 +18781,14 @@
       <c r="E425" t="s">
         <v>1506</v>
       </c>
+      <c r="G425" s="11" t="s">
+        <v>1942</v>
+      </c>
       <c r="H425" s="11" t="s">
         <v>1407</v>
       </c>
       <c r="I425" s="11" t="s">
-        <v>1873</v>
+        <v>1794</v>
       </c>
       <c r="J425" t="s">
         <v>531</v>
@@ -17187,11 +18810,14 @@
       <c r="E426" t="s">
         <v>1506</v>
       </c>
+      <c r="G426" s="11" t="s">
+        <v>1941</v>
+      </c>
       <c r="H426" s="11" t="s">
         <v>1408</v>
       </c>
       <c r="I426" s="11" t="s">
-        <v>1874</v>
+        <v>1941</v>
       </c>
       <c r="J426" t="s">
         <v>531</v>
@@ -17213,11 +18839,14 @@
       <c r="E427" t="s">
         <v>1506</v>
       </c>
+      <c r="G427" s="11" t="s">
+        <v>1795</v>
+      </c>
       <c r="H427" s="11" t="s">
         <v>1409</v>
       </c>
       <c r="I427" s="11" t="s">
-        <v>1875</v>
+        <v>1795</v>
       </c>
       <c r="J427" t="s">
         <v>531</v>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -5947,8 +5947,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6132,7 +6152,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="179">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6212,6 +6232,16 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6291,6 +6321,16 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6622,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="F419" sqref="F419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -17390,7 +17430,7 @@
         <v>1500</v>
       </c>
       <c r="F418" s="10" t="s">
-        <v>515</v>
+        <v>1678</v>
       </c>
       <c r="G418" s="10" t="s">
         <v>1217</v>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1955">
   <si>
     <t>item</t>
   </si>
@@ -5881,6 +5881,9 @@
   </si>
   <si>
     <t>cookie</t>
+  </si>
+  <si>
+    <t>comb (object)</t>
   </si>
 </sst>
 </file>
@@ -5947,8 +5950,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6152,7 +6157,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6242,6 +6247,7 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6331,6 +6337,7 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6662,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="F419" sqref="F419"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -11112,7 +11119,7 @@
         <v>1500</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>1633</v>
+        <v>1954</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>1157</v>

--- a/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
+++ b/raw_data/Norwegian_WG/[Norwegian_WG].xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="1956">
   <si>
     <t>item</t>
   </si>
@@ -5884,6 +5884,9 @@
   </si>
   <si>
     <t>comb (object)</t>
+  </si>
+  <si>
+    <t>little (description)</t>
   </si>
 </sst>
 </file>
@@ -6669,8 +6672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="F355" sqref="F355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15799,7 +15802,7 @@
         <v>1500</v>
       </c>
       <c r="F355" t="s">
-        <v>1947</v>
+        <v>1955</v>
       </c>
       <c r="G355" s="10" t="s">
         <v>1333</v>
